--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j1013472\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EC061-F599-405C-A5D7-8F504E28F3F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FB03A-ED3F-44BE-B938-D2E05757C47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="493">
   <si>
     <t>S.No.</t>
   </si>
@@ -1492,13 +1492,55 @@
   <si>
     <t>change in week3, results better
 projavail slightly higher</t>
+  </si>
+  <si>
+    <t>VOL-50510</t>
+  </si>
+  <si>
+    <t>VOL-50511</t>
+  </si>
+  <si>
+    <t>VOL-50512</t>
+  </si>
+  <si>
+    <t>VOL-50513</t>
+  </si>
+  <si>
+    <t>VOL-50514</t>
+  </si>
+  <si>
+    <t>VOL-50515</t>
+  </si>
+  <si>
+    <t>VOL-50516</t>
+  </si>
+  <si>
+    <t>VOL-50517</t>
+  </si>
+  <si>
+    <t>VOL-50518</t>
+  </si>
+  <si>
+    <t>New Case for UPTO constraint</t>
+  </si>
+  <si>
+    <t>New Case for UPTO constraint;  https://jira.jda.com/browse/LRR-3305</t>
+  </si>
+  <si>
+    <t>New Case for UPTO constraint;  https://jira.jda.com/browse/LRR-3298</t>
+  </si>
+  <si>
+    <t>New Case for UPTO constraint   https://jira.jda.com/browse/LRR-3299</t>
+  </si>
+  <si>
+    <t>New Case for UPTO constraint   https://jira.jda.com/browse/LRR-3300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1512,8 +1554,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,7 +1728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1692,20 +1746,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1738,6 +1780,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2052,14 +2109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B6F5-D95C-4060-89B9-FDDC3DEF8E41}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U567"/>
+  <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C551" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F440" sqref="F440"/>
+      <selection pane="bottomRight" activeCell="D576" sqref="D576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,64 +2123,66 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9.140625" style="26"/>
+    <col min="4" max="4" width="22.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="21" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17">
         <v>44426</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="E1" s="17">
+        <v>44440</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2150,8 +2208,8 @@
       <c r="T3" s="3"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2177,8 +2235,8 @@
       <c r="T4" s="3"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2204,8 +2262,8 @@
       <c r="T5" s="3"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2231,8 +2289,8 @@
       <c r="T6" s="3"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2258,8 +2316,8 @@
       <c r="T7" s="3"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2285,8 +2343,8 @@
       <c r="T8" s="3"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2312,8 +2370,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2339,8 +2397,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2366,8 +2424,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2393,8 +2451,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2420,8 +2478,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2447,8 +2505,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2474,8 +2532,8 @@
       <c r="T15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2501,8 +2559,8 @@
       <c r="T16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2528,8 +2586,8 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2555,8 +2613,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2582,8 +2640,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2609,8 +2667,8 @@
       <c r="T20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2636,8 +2694,8 @@
       <c r="T21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2663,8 +2721,8 @@
       <c r="T22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2690,8 +2748,8 @@
       <c r="T23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2717,8 +2775,8 @@
       <c r="T24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2744,8 +2802,8 @@
       <c r="T25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2771,8 +2829,8 @@
       <c r="T26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2798,8 +2856,8 @@
       <c r="T27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2825,8 +2883,8 @@
       <c r="T28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2852,8 +2910,8 @@
       <c r="T29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2879,8 +2937,8 @@
       <c r="T30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2906,8 +2964,8 @@
       <c r="T31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2933,8 +2991,8 @@
       <c r="T32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2960,8 +3018,8 @@
       <c r="T33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2987,8 +3045,8 @@
       <c r="T34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3014,8 +3072,8 @@
       <c r="T35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3041,8 +3099,8 @@
       <c r="T36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3068,8 +3126,8 @@
       <c r="T37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3095,8 +3153,8 @@
       <c r="T38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3122,8 +3180,8 @@
       <c r="T39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3149,8 +3207,8 @@
       <c r="T40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3176,8 +3234,8 @@
       <c r="T41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3203,8 +3261,8 @@
       <c r="T42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3230,8 +3288,8 @@
       <c r="T43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3257,8 +3315,8 @@
       <c r="T44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -3284,8 +3342,8 @@
       <c r="T45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3311,8 +3369,8 @@
       <c r="T46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -3338,8 +3396,8 @@
       <c r="T47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3365,8 +3423,8 @@
       <c r="T48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -3392,8 +3450,8 @@
       <c r="T49" s="3"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3419,8 +3477,8 @@
       <c r="T50" s="3"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -3446,8 +3504,8 @@
       <c r="T51" s="3"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3473,8 +3531,8 @@
       <c r="T52" s="3"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -3500,8 +3558,8 @@
       <c r="T53" s="3"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -3527,8 +3585,8 @@
       <c r="T54" s="3"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -3554,8 +3612,8 @@
       <c r="T55" s="3"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -3581,8 +3639,8 @@
       <c r="T56" s="3"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3608,8 +3666,8 @@
       <c r="T57" s="3"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -3635,8 +3693,8 @@
       <c r="T58" s="3"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -3662,8 +3720,8 @@
       <c r="T59" s="3"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -3689,8 +3747,8 @@
       <c r="T60" s="3"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -3716,8 +3774,8 @@
       <c r="T61" s="3"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3743,8 +3801,8 @@
       <c r="T62" s="3"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="16">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -3770,8 +3828,8 @@
       <c r="T63" s="3"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3797,8 +3855,8 @@
       <c r="T64" s="3"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3824,8 +3882,8 @@
       <c r="T65" s="3"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -3851,8 +3909,8 @@
       <c r="T66" s="3"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3878,8 +3936,8 @@
       <c r="T67" s="3"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3905,8 +3963,8 @@
       <c r="T68" s="3"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="16">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3932,8 +3990,8 @@
       <c r="T69" s="3"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -3959,8 +4017,8 @@
       <c r="T70" s="3"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -3986,8 +4044,8 @@
       <c r="T71" s="3"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4013,8 +4071,8 @@
       <c r="T72" s="3"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -4040,8 +4098,8 @@
       <c r="T73" s="3"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -4067,8 +4125,8 @@
       <c r="T74" s="3"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -4094,8 +4152,8 @@
       <c r="T75" s="3"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -4121,8 +4179,8 @@
       <c r="T76" s="3"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -4148,8 +4206,8 @@
       <c r="T77" s="3"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -4175,8 +4233,8 @@
       <c r="T78" s="3"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -4202,8 +4260,8 @@
       <c r="T79" s="3"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -4229,8 +4287,8 @@
       <c r="T80" s="3"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="16">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4256,8 +4314,8 @@
       <c r="T81" s="3"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -4283,8 +4341,8 @@
       <c r="T82" s="3"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -4310,8 +4368,8 @@
       <c r="T83" s="3"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -4337,8 +4395,8 @@
       <c r="T84" s="3"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="16">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -4364,8 +4422,8 @@
       <c r="T85" s="3"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -4391,8 +4449,8 @@
       <c r="T86" s="3"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="16">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -4418,8 +4476,8 @@
       <c r="T87" s="3"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -4445,8 +4503,8 @@
       <c r="T88" s="3"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="16">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -4472,8 +4530,8 @@
       <c r="T89" s="3"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -4499,8 +4557,8 @@
       <c r="T90" s="3"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="16">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -4526,8 +4584,8 @@
       <c r="T91" s="3"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -4553,8 +4611,8 @@
       <c r="T92" s="3"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="16">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -4580,8 +4638,8 @@
       <c r="T93" s="3"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="16">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -4607,8 +4665,8 @@
       <c r="T94" s="3"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -4634,8 +4692,8 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="16">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -4661,8 +4719,8 @@
       <c r="T96" s="3"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="16">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -4688,8 +4746,8 @@
       <c r="T97" s="3"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -4715,8 +4773,8 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -4742,8 +4800,8 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="16">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -4769,8 +4827,8 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="16">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -4796,8 +4854,8 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="16">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -4823,8 +4881,8 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="16">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -4850,8 +4908,8 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="16">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -4877,8 +4935,8 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="16">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -4904,8 +4962,8 @@
       <c r="T105" s="3"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="16">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -4931,8 +4989,8 @@
       <c r="T106" s="3"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" s="12">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -4958,8 +5016,8 @@
       <c r="T107" s="3"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -4985,8 +5043,8 @@
       <c r="T108" s="3"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" s="12">
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -5012,8 +5070,8 @@
       <c r="T109" s="3"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="16">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -5039,8 +5097,8 @@
       <c r="T110" s="3"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="16">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -5066,8 +5124,8 @@
       <c r="T111" s="3"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="12">
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -5093,8 +5151,8 @@
       <c r="T112" s="3"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -5120,8 +5178,8 @@
       <c r="T113" s="3"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="16">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -5147,8 +5205,8 @@
       <c r="T114" s="3"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="16">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -5174,8 +5232,8 @@
       <c r="T115" s="3"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" s="12">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -5201,8 +5259,8 @@
       <c r="T116" s="3"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" s="12">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -5228,8 +5286,8 @@
       <c r="T117" s="3"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="12">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -5255,8 +5313,8 @@
       <c r="T118" s="3"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="12">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -5282,8 +5340,8 @@
       <c r="T119" s="3"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="16">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -5309,8 +5367,8 @@
       <c r="T120" s="3"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="16">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -5336,8 +5394,8 @@
       <c r="T121" s="3"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="16">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="12">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -5363,8 +5421,8 @@
       <c r="T122" s="3"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="12">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -5390,8 +5448,8 @@
       <c r="T123" s="3"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="16">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="12">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -5417,8 +5475,8 @@
       <c r="T124" s="3"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" s="12">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -5444,8 +5502,8 @@
       <c r="T125" s="3"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="16">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -5471,8 +5529,8 @@
       <c r="T126" s="3"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="16">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" s="12">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -5498,8 +5556,8 @@
       <c r="T127" s="3"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" s="12">
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -5525,8 +5583,8 @@
       <c r="T128" s="3"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" s="12">
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -5552,8 +5610,8 @@
       <c r="T129" s="3"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" s="12">
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -5579,8 +5637,8 @@
       <c r="T130" s="3"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="16">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" s="12">
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -5606,8 +5664,8 @@
       <c r="T131" s="3"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="16">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" s="12">
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -5633,8 +5691,8 @@
       <c r="T132" s="3"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="16">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" s="12">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -5660,8 +5718,8 @@
       <c r="T133" s="3"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="16">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" s="12">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -5687,8 +5745,8 @@
       <c r="T134" s="3"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="16">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="12">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -5714,8 +5772,8 @@
       <c r="T135" s="3"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="16">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="12">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -5741,8 +5799,8 @@
       <c r="T136" s="3"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="16">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" s="12">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -5768,8 +5826,8 @@
       <c r="T137" s="3"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="16">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" s="12">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -5795,8 +5853,8 @@
       <c r="T138" s="3"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="16">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" s="12">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -5822,8 +5880,8 @@
       <c r="T139" s="3"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="16">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" s="12">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -5849,8 +5907,8 @@
       <c r="T140" s="3"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="16">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" s="12">
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -5876,8 +5934,8 @@
       <c r="T141" s="3"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="16">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" s="12">
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -5903,8 +5961,8 @@
       <c r="T142" s="3"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="16">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" s="12">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -5930,8 +5988,8 @@
       <c r="T143" s="3"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="16">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" s="12">
         <v>142</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -5957,8 +6015,8 @@
       <c r="T144" s="3"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="16">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A145" s="12">
         <v>143</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -5984,8 +6042,8 @@
       <c r="T145" s="3"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="16">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A146" s="12">
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -6011,8 +6069,8 @@
       <c r="T146" s="3"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="16">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A147" s="12">
         <v>145</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -6038,8 +6096,8 @@
       <c r="T147" s="3"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="16">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="12">
         <v>146</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -6065,8 +6123,8 @@
       <c r="T148" s="3"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="16">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="12">
         <v>147</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -6092,8 +6150,8 @@
       <c r="T149" s="3"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="16">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="12">
         <v>148</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -6119,8 +6177,8 @@
       <c r="T150" s="3"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="16">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="12">
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -6146,8 +6204,8 @@
       <c r="T151" s="3"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="16">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="12">
         <v>150</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -6173,8 +6231,8 @@
       <c r="T152" s="3"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="16">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="12">
         <v>151</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -6200,8 +6258,8 @@
       <c r="T153" s="3"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="16">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="12">
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -6227,8 +6285,8 @@
       <c r="T154" s="3"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="16">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="12">
         <v>153</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -6254,8 +6312,8 @@
       <c r="T155" s="3"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="16">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A156" s="12">
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -6281,8 +6339,8 @@
       <c r="T156" s="3"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="16">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A157" s="12">
         <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -6308,8 +6366,8 @@
       <c r="T157" s="3"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="16">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A158" s="12">
         <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -6335,8 +6393,8 @@
       <c r="T158" s="3"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="16">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A159" s="12">
         <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
@@ -6362,8 +6420,8 @@
       <c r="T159" s="3"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="16">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A160" s="12">
         <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -6389,8 +6447,8 @@
       <c r="T160" s="3"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="16">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="12">
         <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -6416,8 +6474,8 @@
       <c r="T161" s="3"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="16">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="12">
         <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -6443,8 +6501,8 @@
       <c r="T162" s="3"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="16">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="12">
         <v>161</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -6470,8 +6528,8 @@
       <c r="T163" s="3"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="16">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="12">
         <v>162</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -6497,8 +6555,8 @@
       <c r="T164" s="3"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="16">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A165" s="12">
         <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -6524,8 +6582,8 @@
       <c r="T165" s="3"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="16">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
         <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -6551,8 +6609,8 @@
       <c r="T166" s="3"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="16">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
         <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -6578,8 +6636,8 @@
       <c r="T167" s="3"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="16">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
         <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -6605,8 +6663,8 @@
       <c r="T168" s="3"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="16">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
         <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -6632,8 +6690,8 @@
       <c r="T169" s="3"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="16">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
         <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -6659,8 +6717,8 @@
       <c r="T170" s="3"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="16">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
         <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -6686,8 +6744,8 @@
       <c r="T171" s="3"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="16">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
         <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -6713,8 +6771,8 @@
       <c r="T172" s="3"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="16">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
         <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -6740,8 +6798,8 @@
       <c r="T173" s="3"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="16">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
         <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -6767,8 +6825,8 @@
       <c r="T174" s="3"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
         <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -6794,8 +6852,8 @@
       <c r="T175" s="3"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="16">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
         <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -6821,8 +6879,8 @@
       <c r="T176" s="3"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="16">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A177" s="12">
         <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -6848,8 +6906,8 @@
       <c r="T177" s="3"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="16">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A178" s="12">
         <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -6875,8 +6933,8 @@
       <c r="T178" s="3"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="16">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A179" s="12">
         <v>177</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -6902,8 +6960,8 @@
       <c r="T179" s="3"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="16">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A180" s="12">
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -6929,8 +6987,8 @@
       <c r="T180" s="3"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="16">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A181" s="12">
         <v>179</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -6956,8 +7014,8 @@
       <c r="T181" s="3"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="16">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A182" s="12">
         <v>180</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -6983,8 +7041,8 @@
       <c r="T182" s="3"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="16">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A183" s="12">
         <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -7010,8 +7068,8 @@
       <c r="T183" s="3"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="16">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A184" s="12">
         <v>182</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -7037,8 +7095,8 @@
       <c r="T184" s="3"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="16">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A185" s="12">
         <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -7064,8 +7122,8 @@
       <c r="T185" s="3"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="16">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A186" s="12">
         <v>184</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -7091,8 +7149,8 @@
       <c r="T186" s="3"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="16">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A187" s="12">
         <v>185</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -7118,8 +7176,8 @@
       <c r="T187" s="3"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="16">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A188" s="12">
         <v>186</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -7145,8 +7203,8 @@
       <c r="T188" s="3"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="16">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A189" s="12">
         <v>187</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -7172,8 +7230,8 @@
       <c r="T189" s="3"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="16">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A190" s="12">
         <v>188</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -7199,8 +7257,8 @@
       <c r="T190" s="3"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="16">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
         <v>189</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -7226,8 +7284,8 @@
       <c r="T191" s="3"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="16">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
         <v>190</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -7253,8 +7311,8 @@
       <c r="T192" s="3"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="16">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
         <v>191</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -7280,8 +7338,8 @@
       <c r="T193" s="3"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="16">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
         <v>192</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -7307,8 +7365,8 @@
       <c r="T194" s="3"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="16">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -7334,8 +7392,8 @@
       <c r="T195" s="3"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="16">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -7361,8 +7419,8 @@
       <c r="T196" s="3"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="16">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -7388,8 +7446,8 @@
       <c r="T197" s="3"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="16">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -7415,8 +7473,8 @@
       <c r="T198" s="3"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="16">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -7442,8 +7500,8 @@
       <c r="T199" s="3"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="16">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -7469,8 +7527,8 @@
       <c r="T200" s="3"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="16">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7496,8 +7554,8 @@
       <c r="T201" s="3"/>
       <c r="U201" s="5"/>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="16">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A202" s="12">
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -7523,8 +7581,8 @@
       <c r="T202" s="3"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="16">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A203" s="12">
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -7550,8 +7608,8 @@
       <c r="T203" s="3"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="16">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A204" s="12">
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -7577,8 +7635,8 @@
       <c r="T204" s="3"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="16">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A205" s="12">
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -7604,8 +7662,8 @@
       <c r="T205" s="3"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="16">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A206" s="12">
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -7631,8 +7689,8 @@
       <c r="T206" s="3"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="16">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A207" s="12">
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -7658,8 +7716,8 @@
       <c r="T207" s="3"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="16">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A208" s="12">
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -7685,8 +7743,8 @@
       <c r="T208" s="3"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="16">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A209" s="12">
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -7712,8 +7770,8 @@
       <c r="T209" s="3"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="16">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A210" s="12">
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -7739,8 +7797,8 @@
       <c r="T210" s="3"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="16">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A211" s="12">
         <v>209</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -7766,8 +7824,8 @@
       <c r="T211" s="3"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="16">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A212" s="12">
         <v>210</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -7793,8 +7851,8 @@
       <c r="T212" s="3"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="16">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A213" s="12">
         <v>211</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -7820,8 +7878,8 @@
       <c r="T213" s="3"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="16">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A214" s="12">
         <v>212</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -7847,8 +7905,8 @@
       <c r="T214" s="3"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="16">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A215" s="12">
         <v>213</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -7874,8 +7932,8 @@
       <c r="T215" s="3"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="16">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A216" s="12">
         <v>214</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -7901,8 +7959,8 @@
       <c r="T216" s="3"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="16">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A217" s="12">
         <v>215</v>
       </c>
       <c r="B217" s="4" t="s">
@@ -7928,8 +7986,8 @@
       <c r="T217" s="3"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="16">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A218" s="12">
         <v>216</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -7955,8 +8013,8 @@
       <c r="T218" s="3"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="16">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A219" s="12">
         <v>217</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -7982,8 +8040,8 @@
       <c r="T219" s="3"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="16">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A220" s="12">
         <v>218</v>
       </c>
       <c r="B220" s="4" t="s">
@@ -8009,8 +8067,8 @@
       <c r="T220" s="3"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="16">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A221" s="12">
         <v>219</v>
       </c>
       <c r="B221" s="4" t="s">
@@ -8036,8 +8094,8 @@
       <c r="T221" s="3"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="16">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A222" s="12">
         <v>220</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -8063,8 +8121,8 @@
       <c r="T222" s="3"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="16">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A223" s="12">
         <v>221</v>
       </c>
       <c r="B223" s="4" t="s">
@@ -8090,8 +8148,8 @@
       <c r="T223" s="3"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="16">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A224" s="12">
         <v>222</v>
       </c>
       <c r="B224" s="4" t="s">
@@ -8117,8 +8175,8 @@
       <c r="T224" s="3"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="16">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A225" s="12">
         <v>223</v>
       </c>
       <c r="B225" s="4" t="s">
@@ -8144,8 +8202,8 @@
       <c r="T225" s="3"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="16">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A226" s="12">
         <v>224</v>
       </c>
       <c r="B226" s="4" t="s">
@@ -8171,8 +8229,8 @@
       <c r="T226" s="3"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="16">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A227" s="12">
         <v>225</v>
       </c>
       <c r="B227" s="4" t="s">
@@ -8198,8 +8256,8 @@
       <c r="T227" s="3"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="16">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A228" s="12">
         <v>226</v>
       </c>
       <c r="B228" s="4" t="s">
@@ -8225,8 +8283,8 @@
       <c r="T228" s="3"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="16">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A229" s="12">
         <v>227</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -8252,8 +8310,8 @@
       <c r="T229" s="3"/>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="16">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A230" s="12">
         <v>228</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -8279,8 +8337,8 @@
       <c r="T230" s="3"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="16">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A231" s="12">
         <v>229</v>
       </c>
       <c r="B231" s="4" t="s">
@@ -8306,8 +8364,8 @@
       <c r="T231" s="3"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="16">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A232" s="12">
         <v>230</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -8333,8 +8391,8 @@
       <c r="T232" s="3"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="16">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A233" s="12">
         <v>231</v>
       </c>
       <c r="B233" s="4" t="s">
@@ -8360,8 +8418,8 @@
       <c r="T233" s="3"/>
       <c r="U233" s="5"/>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="16">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A234" s="12">
         <v>232</v>
       </c>
       <c r="B234" s="4" t="s">
@@ -8387,8 +8445,8 @@
       <c r="T234" s="3"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="16">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A235" s="12">
         <v>233</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -8414,8 +8472,8 @@
       <c r="T235" s="3"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="16">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A236" s="12">
         <v>234</v>
       </c>
       <c r="B236" s="4" t="s">
@@ -8441,8 +8499,8 @@
       <c r="T236" s="3"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="16">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A237" s="12">
         <v>235</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -8468,8 +8526,8 @@
       <c r="T237" s="3"/>
       <c r="U237" s="5"/>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="16">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A238" s="12">
         <v>236</v>
       </c>
       <c r="B238" s="4" t="s">
@@ -8495,8 +8553,8 @@
       <c r="T238" s="3"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="16">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A239" s="12">
         <v>237</v>
       </c>
       <c r="B239" s="4" t="s">
@@ -8522,8 +8580,8 @@
       <c r="T239" s="3"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="16">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A240" s="12">
         <v>238</v>
       </c>
       <c r="B240" s="4" t="s">
@@ -8549,8 +8607,8 @@
       <c r="T240" s="3"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="16">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A241" s="12">
         <v>239</v>
       </c>
       <c r="B241" s="4" t="s">
@@ -8576,8 +8634,8 @@
       <c r="T241" s="3"/>
       <c r="U241" s="5"/>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="16">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A242" s="12">
         <v>240</v>
       </c>
       <c r="B242" s="4" t="s">
@@ -8603,8 +8661,8 @@
       <c r="T242" s="3"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="16">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A243" s="12">
         <v>241</v>
       </c>
       <c r="B243" s="4" t="s">
@@ -8630,8 +8688,8 @@
       <c r="T243" s="3"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="16">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A244" s="12">
         <v>242</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -8657,8 +8715,8 @@
       <c r="T244" s="3"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="16">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A245" s="12">
         <v>243</v>
       </c>
       <c r="B245" s="4" t="s">
@@ -8684,8 +8742,8 @@
       <c r="T245" s="3"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="16">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A246" s="12">
         <v>244</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -8711,8 +8769,8 @@
       <c r="T246" s="3"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="16">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A247" s="12">
         <v>245</v>
       </c>
       <c r="B247" s="4" t="s">
@@ -8738,8 +8796,8 @@
       <c r="T247" s="3"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="16">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A248" s="12">
         <v>246</v>
       </c>
       <c r="B248" s="4" t="s">
@@ -8765,8 +8823,8 @@
       <c r="T248" s="3"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="16">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A249" s="12">
         <v>247</v>
       </c>
       <c r="B249" s="4" t="s">
@@ -8792,8 +8850,8 @@
       <c r="T249" s="3"/>
       <c r="U249" s="5"/>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="16">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A250" s="12">
         <v>248</v>
       </c>
       <c r="B250" s="4" t="s">
@@ -8819,8 +8877,8 @@
       <c r="T250" s="3"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="16">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A251" s="12">
         <v>249</v>
       </c>
       <c r="B251" s="4" t="s">
@@ -8846,8 +8904,8 @@
       <c r="T251" s="3"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="16">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A252" s="12">
         <v>250</v>
       </c>
       <c r="B252" s="4" t="s">
@@ -8873,8 +8931,8 @@
       <c r="T252" s="3"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="16">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A253" s="12">
         <v>251</v>
       </c>
       <c r="B253" s="4" t="s">
@@ -8900,8 +8958,8 @@
       <c r="T253" s="3"/>
       <c r="U253" s="5"/>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="16">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A254" s="12">
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
@@ -8927,8 +8985,8 @@
       <c r="T254" s="3"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="16">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A255" s="12">
         <v>253</v>
       </c>
       <c r="B255" s="4" t="s">
@@ -8954,8 +9012,8 @@
       <c r="T255" s="3"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="16">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A256" s="12">
         <v>254</v>
       </c>
       <c r="B256" s="4" t="s">
@@ -8981,8 +9039,8 @@
       <c r="T256" s="3"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="16">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A257" s="12">
         <v>255</v>
       </c>
       <c r="B257" s="4" t="s">
@@ -9008,8 +9066,8 @@
       <c r="T257" s="3"/>
       <c r="U257" s="5"/>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="16">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A258" s="12">
         <v>256</v>
       </c>
       <c r="B258" s="4" t="s">
@@ -9035,8 +9093,8 @@
       <c r="T258" s="3"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="16">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A259" s="12">
         <v>257</v>
       </c>
       <c r="B259" s="4" t="s">
@@ -9062,8 +9120,8 @@
       <c r="T259" s="3"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="16">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A260" s="12">
         <v>258</v>
       </c>
       <c r="B260" s="4" t="s">
@@ -9089,8 +9147,8 @@
       <c r="T260" s="3"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="16">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A261" s="12">
         <v>259</v>
       </c>
       <c r="B261" s="4" t="s">
@@ -9116,8 +9174,8 @@
       <c r="T261" s="3"/>
       <c r="U261" s="5"/>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="16">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A262" s="12">
         <v>260</v>
       </c>
       <c r="B262" s="4" t="s">
@@ -9143,8 +9201,8 @@
       <c r="T262" s="3"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="16">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A263" s="12">
         <v>261</v>
       </c>
       <c r="B263" s="4" t="s">
@@ -9170,8 +9228,8 @@
       <c r="T263" s="3"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="16">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A264" s="12">
         <v>262</v>
       </c>
       <c r="B264" s="4" t="s">
@@ -9197,8 +9255,8 @@
       <c r="T264" s="3"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="16">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A265" s="12">
         <v>263</v>
       </c>
       <c r="B265" s="4" t="s">
@@ -9224,8 +9282,8 @@
       <c r="T265" s="3"/>
       <c r="U265" s="5"/>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="16">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A266" s="12">
         <v>264</v>
       </c>
       <c r="B266" s="4" t="s">
@@ -9251,8 +9309,8 @@
       <c r="T266" s="3"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="16">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A267" s="12">
         <v>265</v>
       </c>
       <c r="B267" s="4" t="s">
@@ -9278,8 +9336,8 @@
       <c r="T267" s="3"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="16">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A268" s="12">
         <v>266</v>
       </c>
       <c r="B268" s="4" t="s">
@@ -9305,8 +9363,8 @@
       <c r="T268" s="3"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="16">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A269" s="12">
         <v>267</v>
       </c>
       <c r="B269" s="4" t="s">
@@ -9332,8 +9390,8 @@
       <c r="T269" s="3"/>
       <c r="U269" s="5"/>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="16">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A270" s="12">
         <v>268</v>
       </c>
       <c r="B270" s="4" t="s">
@@ -9359,8 +9417,8 @@
       <c r="T270" s="3"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="16">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A271" s="12">
         <v>269</v>
       </c>
       <c r="B271" s="4" t="s">
@@ -9386,8 +9444,8 @@
       <c r="T271" s="3"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="16">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A272" s="12">
         <v>270</v>
       </c>
       <c r="B272" s="4" t="s">
@@ -9413,8 +9471,8 @@
       <c r="T272" s="3"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="16">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A273" s="12">
         <v>271</v>
       </c>
       <c r="B273" s="4" t="s">
@@ -9440,8 +9498,8 @@
       <c r="T273" s="3"/>
       <c r="U273" s="5"/>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="16">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A274" s="12">
         <v>272</v>
       </c>
       <c r="B274" s="4" t="s">
@@ -9467,8 +9525,8 @@
       <c r="T274" s="3"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="16">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A275" s="12">
         <v>273</v>
       </c>
       <c r="B275" s="4" t="s">
@@ -9494,8 +9552,8 @@
       <c r="T275" s="3"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="16">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A276" s="12">
         <v>274</v>
       </c>
       <c r="B276" s="4" t="s">
@@ -9521,8 +9579,8 @@
       <c r="T276" s="3"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="16">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A277" s="12">
         <v>275</v>
       </c>
       <c r="B277" s="4" t="s">
@@ -9548,8 +9606,8 @@
       <c r="T277" s="3"/>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="16">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A278" s="12">
         <v>276</v>
       </c>
       <c r="B278" s="4" t="s">
@@ -9575,8 +9633,8 @@
       <c r="T278" s="3"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="16">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A279" s="12">
         <v>277</v>
       </c>
       <c r="B279" s="4" t="s">
@@ -9602,8 +9660,8 @@
       <c r="T279" s="3"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="16">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A280" s="12">
         <v>278</v>
       </c>
       <c r="B280" s="4" t="s">
@@ -9629,8 +9687,8 @@
       <c r="T280" s="3"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="16">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A281" s="12">
         <v>279</v>
       </c>
       <c r="B281" s="4" t="s">
@@ -9656,8 +9714,8 @@
       <c r="T281" s="3"/>
       <c r="U281" s="5"/>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="16">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A282" s="12">
         <v>280</v>
       </c>
       <c r="B282" s="4" t="s">
@@ -9683,8 +9741,8 @@
       <c r="T282" s="3"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="16">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A283" s="12">
         <v>281</v>
       </c>
       <c r="B283" s="4" t="s">
@@ -9710,8 +9768,8 @@
       <c r="T283" s="3"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="16">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A284" s="12">
         <v>282</v>
       </c>
       <c r="B284" s="4" t="s">
@@ -9737,8 +9795,8 @@
       <c r="T284" s="3"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="16">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A285" s="12">
         <v>283</v>
       </c>
       <c r="B285" s="4" t="s">
@@ -9764,8 +9822,8 @@
       <c r="T285" s="3"/>
       <c r="U285" s="5"/>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="16">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A286" s="12">
         <v>284</v>
       </c>
       <c r="B286" s="4" t="s">
@@ -9791,8 +9849,8 @@
       <c r="T286" s="3"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="16">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A287" s="12">
         <v>285</v>
       </c>
       <c r="B287" s="4" t="s">
@@ -9818,8 +9876,8 @@
       <c r="T287" s="3"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="16">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A288" s="12">
         <v>286</v>
       </c>
       <c r="B288" s="4" t="s">
@@ -9845,8 +9903,8 @@
       <c r="T288" s="3"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="16">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A289" s="12">
         <v>287</v>
       </c>
       <c r="B289" s="4" t="s">
@@ -9872,8 +9930,8 @@
       <c r="T289" s="3"/>
       <c r="U289" s="5"/>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="16">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A290" s="12">
         <v>288</v>
       </c>
       <c r="B290" s="4" t="s">
@@ -9899,8 +9957,8 @@
       <c r="T290" s="3"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="16">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A291" s="12">
         <v>289</v>
       </c>
       <c r="B291" s="4" t="s">
@@ -9926,8 +9984,8 @@
       <c r="T291" s="3"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="16">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A292" s="12">
         <v>290</v>
       </c>
       <c r="B292" s="4" t="s">
@@ -9953,8 +10011,8 @@
       <c r="T292" s="3"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="16">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A293" s="12">
         <v>291</v>
       </c>
       <c r="B293" s="4" t="s">
@@ -9980,8 +10038,8 @@
       <c r="T293" s="3"/>
       <c r="U293" s="5"/>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="16">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A294" s="12">
         <v>292</v>
       </c>
       <c r="B294" s="4" t="s">
@@ -10007,8 +10065,8 @@
       <c r="T294" s="3"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="16">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A295" s="12">
         <v>293</v>
       </c>
       <c r="B295" s="4" t="s">
@@ -10034,8 +10092,8 @@
       <c r="T295" s="3"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="16">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A296" s="12">
         <v>294</v>
       </c>
       <c r="B296" s="4" t="s">
@@ -10061,8 +10119,8 @@
       <c r="T296" s="3"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="16">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A297" s="12">
         <v>295</v>
       </c>
       <c r="B297" s="4" t="s">
@@ -10088,8 +10146,8 @@
       <c r="T297" s="3"/>
       <c r="U297" s="5"/>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="16">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A298" s="12">
         <v>296</v>
       </c>
       <c r="B298" s="4" t="s">
@@ -10115,8 +10173,8 @@
       <c r="T298" s="3"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="16">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A299" s="12">
         <v>297</v>
       </c>
       <c r="B299" s="4" t="s">
@@ -10142,8 +10200,8 @@
       <c r="T299" s="3"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="16">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A300" s="12">
         <v>298</v>
       </c>
       <c r="B300" s="4" t="s">
@@ -10169,8 +10227,8 @@
       <c r="T300" s="3"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="16">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A301" s="12">
         <v>299</v>
       </c>
       <c r="B301" s="4" t="s">
@@ -10196,8 +10254,8 @@
       <c r="T301" s="3"/>
       <c r="U301" s="5"/>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="16">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A302" s="12">
         <v>300</v>
       </c>
       <c r="B302" s="4" t="s">
@@ -10223,8 +10281,8 @@
       <c r="T302" s="3"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="16">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A303" s="12">
         <v>301</v>
       </c>
       <c r="B303" s="4" t="s">
@@ -10250,8 +10308,8 @@
       <c r="T303" s="3"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="16">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A304" s="12">
         <v>302</v>
       </c>
       <c r="B304" s="4" t="s">
@@ -10277,8 +10335,8 @@
       <c r="T304" s="3"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="16">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A305" s="12">
         <v>303</v>
       </c>
       <c r="B305" s="4" t="s">
@@ -10304,8 +10362,8 @@
       <c r="T305" s="3"/>
       <c r="U305" s="5"/>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="16">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A306" s="12">
         <v>304</v>
       </c>
       <c r="B306" s="4" t="s">
@@ -10331,8 +10389,8 @@
       <c r="T306" s="3"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="16">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A307" s="12">
         <v>305</v>
       </c>
       <c r="B307" s="4" t="s">
@@ -10358,8 +10416,8 @@
       <c r="T307" s="3"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="16">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A308" s="12">
         <v>306</v>
       </c>
       <c r="B308" s="4" t="s">
@@ -10385,8 +10443,8 @@
       <c r="T308" s="3"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="16">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A309" s="12">
         <v>307</v>
       </c>
       <c r="B309" s="4" t="s">
@@ -10412,8 +10470,8 @@
       <c r="T309" s="3"/>
       <c r="U309" s="5"/>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="16">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A310" s="12">
         <v>308</v>
       </c>
       <c r="B310" s="4" t="s">
@@ -10439,8 +10497,8 @@
       <c r="T310" s="3"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="16">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A311" s="12">
         <v>309</v>
       </c>
       <c r="B311" s="4" t="s">
@@ -10466,8 +10524,8 @@
       <c r="T311" s="3"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="16">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A312" s="12">
         <v>310</v>
       </c>
       <c r="B312" s="4" t="s">
@@ -10493,8 +10551,8 @@
       <c r="T312" s="3"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="16">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A313" s="12">
         <v>311</v>
       </c>
       <c r="B313" s="4" t="s">
@@ -10520,8 +10578,8 @@
       <c r="T313" s="3"/>
       <c r="U313" s="5"/>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="16">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A314" s="12">
         <v>312</v>
       </c>
       <c r="B314" s="4" t="s">
@@ -10547,8 +10605,8 @@
       <c r="T314" s="3"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="16">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A315" s="12">
         <v>313</v>
       </c>
       <c r="B315" s="4" t="s">
@@ -10574,8 +10632,8 @@
       <c r="T315" s="3"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="16">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A316" s="12">
         <v>314</v>
       </c>
       <c r="B316" s="4" t="s">
@@ -10601,8 +10659,8 @@
       <c r="T316" s="3"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="16">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A317" s="12">
         <v>315</v>
       </c>
       <c r="B317" s="4" t="s">
@@ -10628,8 +10686,8 @@
       <c r="T317" s="3"/>
       <c r="U317" s="5"/>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="16">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A318" s="12">
         <v>316</v>
       </c>
       <c r="B318" s="4" t="s">
@@ -10655,8 +10713,8 @@
       <c r="T318" s="3"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="16">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A319" s="12">
         <v>317</v>
       </c>
       <c r="B319" s="4" t="s">
@@ -10682,8 +10740,8 @@
       <c r="T319" s="3"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="16">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A320" s="12">
         <v>318</v>
       </c>
       <c r="B320" s="4" t="s">
@@ -10709,8 +10767,8 @@
       <c r="T320" s="3"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="16">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A321" s="12">
         <v>319</v>
       </c>
       <c r="B321" s="4" t="s">
@@ -10736,8 +10794,8 @@
       <c r="T321" s="3"/>
       <c r="U321" s="5"/>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="16">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A322" s="12">
         <v>320</v>
       </c>
       <c r="B322" s="4" t="s">
@@ -10763,8 +10821,8 @@
       <c r="T322" s="3"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="16">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A323" s="12">
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
@@ -10790,8 +10848,8 @@
       <c r="T323" s="3"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="16">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A324" s="12">
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
@@ -10817,8 +10875,8 @@
       <c r="T324" s="3"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="16">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A325" s="12">
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
@@ -10844,8 +10902,8 @@
       <c r="T325" s="3"/>
       <c r="U325" s="5"/>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="16">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A326" s="12">
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
@@ -10871,8 +10929,8 @@
       <c r="T326" s="3"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="16">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A327" s="12">
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
@@ -10898,8 +10956,8 @@
       <c r="T327" s="3"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="16">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A328" s="12">
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
@@ -10925,8 +10983,8 @@
       <c r="T328" s="3"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="16">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A329" s="12">
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
@@ -10952,8 +11010,8 @@
       <c r="T329" s="3"/>
       <c r="U329" s="5"/>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="16">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A330" s="12">
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
@@ -10979,8 +11037,8 @@
       <c r="T330" s="3"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="16">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A331" s="12">
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
@@ -11006,8 +11064,8 @@
       <c r="T331" s="3"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="16">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A332" s="12">
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
@@ -11033,8 +11091,8 @@
       <c r="T332" s="3"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="16">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A333" s="12">
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
@@ -11060,8 +11118,8 @@
       <c r="T333" s="3"/>
       <c r="U333" s="5"/>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="16">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A334" s="12">
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -11087,8 +11145,8 @@
       <c r="T334" s="3"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="16">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A335" s="12">
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
@@ -11114,8 +11172,8 @@
       <c r="T335" s="3"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="16">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A336" s="12">
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
@@ -11141,8 +11199,8 @@
       <c r="T336" s="3"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="16">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A337" s="12">
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
@@ -11168,8 +11226,8 @@
       <c r="T337" s="3"/>
       <c r="U337" s="5"/>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="16">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A338" s="12">
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
@@ -11195,8 +11253,8 @@
       <c r="T338" s="3"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="16">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A339" s="12">
         <v>337</v>
       </c>
       <c r="B339" s="4" t="s">
@@ -11222,8 +11280,8 @@
       <c r="T339" s="3"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="16">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A340" s="12">
         <v>338</v>
       </c>
       <c r="B340" s="4" t="s">
@@ -11249,8 +11307,8 @@
       <c r="T340" s="3"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="16">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A341" s="12">
         <v>339</v>
       </c>
       <c r="B341" s="4" t="s">
@@ -11276,8 +11334,8 @@
       <c r="T341" s="3"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="16">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A342" s="12">
         <v>340</v>
       </c>
       <c r="B342" s="4" t="s">
@@ -11303,8 +11361,8 @@
       <c r="T342" s="3"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="16">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A343" s="12">
         <v>341</v>
       </c>
       <c r="B343" s="4" t="s">
@@ -11330,8 +11388,8 @@
       <c r="T343" s="3"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="16">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A344" s="12">
         <v>342</v>
       </c>
       <c r="B344" s="4" t="s">
@@ -11357,8 +11415,8 @@
       <c r="T344" s="3"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="16">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A345" s="12">
         <v>343</v>
       </c>
       <c r="B345" s="4" t="s">
@@ -11384,8 +11442,8 @@
       <c r="T345" s="3"/>
       <c r="U345" s="5"/>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="16">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A346" s="12">
         <v>344</v>
       </c>
       <c r="B346" s="4" t="s">
@@ -11411,8 +11469,8 @@
       <c r="T346" s="3"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="16">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A347" s="12">
         <v>345</v>
       </c>
       <c r="B347" s="4" t="s">
@@ -11438,8 +11496,8 @@
       <c r="T347" s="3"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="16">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A348" s="12">
         <v>346</v>
       </c>
       <c r="B348" s="4" t="s">
@@ -11465,8 +11523,8 @@
       <c r="T348" s="3"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="16">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A349" s="12">
         <v>347</v>
       </c>
       <c r="B349" s="4" t="s">
@@ -11492,8 +11550,8 @@
       <c r="T349" s="3"/>
       <c r="U349" s="5"/>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="16">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A350" s="12">
         <v>348</v>
       </c>
       <c r="B350" s="4" t="s">
@@ -11519,8 +11577,8 @@
       <c r="T350" s="3"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="16">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A351" s="12">
         <v>349</v>
       </c>
       <c r="B351" s="4" t="s">
@@ -11546,8 +11604,8 @@
       <c r="T351" s="3"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="16">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A352" s="12">
         <v>350</v>
       </c>
       <c r="B352" s="4" t="s">
@@ -11573,8 +11631,8 @@
       <c r="T352" s="3"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="16">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A353" s="12">
         <v>351</v>
       </c>
       <c r="B353" s="4" t="s">
@@ -11600,8 +11658,8 @@
       <c r="T353" s="3"/>
       <c r="U353" s="5"/>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="16">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A354" s="12">
         <v>352</v>
       </c>
       <c r="B354" s="4" t="s">
@@ -11627,8 +11685,8 @@
       <c r="T354" s="3"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="16">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A355" s="12">
         <v>353</v>
       </c>
       <c r="B355" s="4" t="s">
@@ -11654,8 +11712,8 @@
       <c r="T355" s="3"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="16">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A356" s="12">
         <v>354</v>
       </c>
       <c r="B356" s="4" t="s">
@@ -11681,8 +11739,8 @@
       <c r="T356" s="3"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="16">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A357" s="12">
         <v>355</v>
       </c>
       <c r="B357" s="4" t="s">
@@ -11708,8 +11766,8 @@
       <c r="T357" s="3"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="16">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A358" s="12">
         <v>356</v>
       </c>
       <c r="B358" s="4" t="s">
@@ -11735,8 +11793,8 @@
       <c r="T358" s="3"/>
       <c r="U358" s="5"/>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="16">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A359" s="12">
         <v>357</v>
       </c>
       <c r="B359" s="4" t="s">
@@ -11762,8 +11820,8 @@
       <c r="T359" s="3"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="16">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A360" s="12">
         <v>358</v>
       </c>
       <c r="B360" s="4" t="s">
@@ -11789,8 +11847,8 @@
       <c r="T360" s="3"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="16">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A361" s="12">
         <v>359</v>
       </c>
       <c r="B361" s="4" t="s">
@@ -11816,8 +11874,8 @@
       <c r="T361" s="3"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="16">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A362" s="12">
         <v>360</v>
       </c>
       <c r="B362" s="4" t="s">
@@ -11843,8 +11901,8 @@
       <c r="T362" s="3"/>
       <c r="U362" s="5"/>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="16">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A363" s="12">
         <v>361</v>
       </c>
       <c r="B363" s="4" t="s">
@@ -11870,8 +11928,8 @@
       <c r="T363" s="3"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="16">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A364" s="12">
         <v>362</v>
       </c>
       <c r="B364" s="4" t="s">
@@ -11897,8 +11955,8 @@
       <c r="T364" s="3"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="16">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A365" s="12">
         <v>363</v>
       </c>
       <c r="B365" s="4" t="s">
@@ -11924,8 +11982,8 @@
       <c r="T365" s="3"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="16">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A366" s="12">
         <v>364</v>
       </c>
       <c r="B366" s="4" t="s">
@@ -11951,8 +12009,8 @@
       <c r="T366" s="3"/>
       <c r="U366" s="5"/>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="16">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A367" s="12">
         <v>365</v>
       </c>
       <c r="B367" s="4" t="s">
@@ -11978,8 +12036,8 @@
       <c r="T367" s="3"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="16">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A368" s="12">
         <v>366</v>
       </c>
       <c r="B368" s="4" t="s">
@@ -12005,8 +12063,8 @@
       <c r="T368" s="3"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="16">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A369" s="12">
         <v>367</v>
       </c>
       <c r="B369" s="4" t="s">
@@ -12032,8 +12090,8 @@
       <c r="T369" s="3"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="16">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A370" s="12">
         <v>368</v>
       </c>
       <c r="B370" s="4" t="s">
@@ -12059,8 +12117,8 @@
       <c r="T370" s="3"/>
       <c r="U370" s="5"/>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="16">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A371" s="12">
         <v>369</v>
       </c>
       <c r="B371" s="4" t="s">
@@ -12086,8 +12144,8 @@
       <c r="T371" s="3"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="16">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A372" s="12">
         <v>370</v>
       </c>
       <c r="B372" s="4" t="s">
@@ -12113,8 +12171,8 @@
       <c r="T372" s="3"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="16">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A373" s="12">
         <v>371</v>
       </c>
       <c r="B373" s="4" t="s">
@@ -12140,8 +12198,8 @@
       <c r="T373" s="3"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="16">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A374" s="12">
         <v>372</v>
       </c>
       <c r="B374" s="4" t="s">
@@ -12167,8 +12225,8 @@
       <c r="T374" s="3"/>
       <c r="U374" s="5"/>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="16">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A375" s="12">
         <v>373</v>
       </c>
       <c r="B375" s="4" t="s">
@@ -12194,8 +12252,8 @@
       <c r="T375" s="3"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="16">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A376" s="12">
         <v>374</v>
       </c>
       <c r="B376" s="4" t="s">
@@ -12221,8 +12279,8 @@
       <c r="T376" s="3"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="16">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A377" s="12">
         <v>375</v>
       </c>
       <c r="B377" s="4" t="s">
@@ -12248,8 +12306,8 @@
       <c r="T377" s="3"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="16">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A378" s="12">
         <v>376</v>
       </c>
       <c r="B378" s="4" t="s">
@@ -12275,8 +12333,8 @@
       <c r="T378" s="3"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="16">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A379" s="12">
         <v>377</v>
       </c>
       <c r="B379" s="4" t="s">
@@ -12302,8 +12360,8 @@
       <c r="T379" s="3"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="16">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A380" s="12">
         <v>378</v>
       </c>
       <c r="B380" s="4" t="s">
@@ -12329,8 +12387,8 @@
       <c r="T380" s="3"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="16">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A381" s="12">
         <v>379</v>
       </c>
       <c r="B381" s="4" t="s">
@@ -12356,8 +12414,8 @@
       <c r="T381" s="3"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="16">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A382" s="12">
         <v>380</v>
       </c>
       <c r="B382" s="4" t="s">
@@ -12383,8 +12441,8 @@
       <c r="T382" s="3"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="16">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A383" s="12">
         <v>381</v>
       </c>
       <c r="B383" s="4" t="s">
@@ -12410,8 +12468,8 @@
       <c r="T383" s="3"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="16">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A384" s="12">
         <v>382</v>
       </c>
       <c r="B384" s="4" t="s">
@@ -12437,8 +12495,8 @@
       <c r="T384" s="3"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="16">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A385" s="12">
         <v>383</v>
       </c>
       <c r="B385" s="4" t="s">
@@ -12464,8 +12522,8 @@
       <c r="T385" s="3"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="16">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A386" s="12">
         <v>384</v>
       </c>
       <c r="B386" s="4" t="s">
@@ -12491,8 +12549,8 @@
       <c r="T386" s="3"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="16">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A387" s="12">
         <v>385</v>
       </c>
       <c r="B387" s="4" t="s">
@@ -12518,8 +12576,8 @@
       <c r="T387" s="3"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="16">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A388" s="12">
         <v>386</v>
       </c>
       <c r="B388" s="4" t="s">
@@ -12545,8 +12603,8 @@
       <c r="T388" s="3"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="16">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A389" s="12">
         <v>387</v>
       </c>
       <c r="B389" s="4" t="s">
@@ -12572,8 +12630,8 @@
       <c r="T389" s="3"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="16">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A390" s="12">
         <v>388</v>
       </c>
       <c r="B390" s="4" t="s">
@@ -12599,8 +12657,8 @@
       <c r="T390" s="3"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="16">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A391" s="12">
         <v>389</v>
       </c>
       <c r="B391" s="4" t="s">
@@ -12626,8 +12684,8 @@
       <c r="T391" s="3"/>
       <c r="U391" s="5"/>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="16">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A392" s="12">
         <v>390</v>
       </c>
       <c r="B392" s="4" t="s">
@@ -12653,8 +12711,8 @@
       <c r="T392" s="3"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="16">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A393" s="12">
         <v>391</v>
       </c>
       <c r="B393" s="4" t="s">
@@ -12680,8 +12738,8 @@
       <c r="T393" s="3"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="16">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A394" s="12">
         <v>392</v>
       </c>
       <c r="B394" s="4" t="s">
@@ -12707,8 +12765,8 @@
       <c r="T394" s="3"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="16">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A395" s="12">
         <v>393</v>
       </c>
       <c r="B395" s="4" t="s">
@@ -12734,8 +12792,8 @@
       <c r="T395" s="3"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="16">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A396" s="12">
         <v>394</v>
       </c>
       <c r="B396" s="4" t="s">
@@ -12761,8 +12819,8 @@
       <c r="T396" s="3"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="16">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A397" s="12">
         <v>395</v>
       </c>
       <c r="B397" s="4" t="s">
@@ -12788,8 +12846,8 @@
       <c r="T397" s="3"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="16">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A398" s="12">
         <v>396</v>
       </c>
       <c r="B398" s="4" t="s">
@@ -12815,8 +12873,8 @@
       <c r="T398" s="3"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="16">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A399" s="12">
         <v>397</v>
       </c>
       <c r="B399" s="4" t="s">
@@ -12842,8 +12900,8 @@
       <c r="T399" s="3"/>
       <c r="U399" s="5"/>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="16">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A400" s="12">
         <v>398</v>
       </c>
       <c r="B400" s="4" t="s">
@@ -12869,8 +12927,8 @@
       <c r="T400" s="3"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="16">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A401" s="12">
         <v>399</v>
       </c>
       <c r="B401" s="4">
@@ -12896,8 +12954,8 @@
       <c r="T401" s="3"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="16">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A402" s="12">
         <v>400</v>
       </c>
       <c r="B402" s="4">
@@ -12923,8 +12981,8 @@
       <c r="T402" s="3"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="16">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A403" s="12">
         <v>401</v>
       </c>
       <c r="B403" s="4">
@@ -12950,8 +13008,8 @@
       <c r="T403" s="3"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="16">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A404" s="12">
         <v>402</v>
       </c>
       <c r="B404" s="4">
@@ -12977,8 +13035,8 @@
       <c r="T404" s="3"/>
       <c r="U404" s="5"/>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="16">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A405" s="12">
         <v>403</v>
       </c>
       <c r="B405" s="4">
@@ -13004,8 +13062,8 @@
       <c r="T405" s="3"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="16">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A406" s="12">
         <v>404</v>
       </c>
       <c r="B406" s="4">
@@ -13031,8 +13089,8 @@
       <c r="T406" s="3"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="16">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A407" s="12">
         <v>405</v>
       </c>
       <c r="B407" s="4">
@@ -13058,8 +13116,8 @@
       <c r="T407" s="3"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="16">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A408" s="12">
         <v>406</v>
       </c>
       <c r="B408" s="4">
@@ -13085,8 +13143,8 @@
       <c r="T408" s="3"/>
       <c r="U408" s="5"/>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="16">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A409" s="12">
         <v>407</v>
       </c>
       <c r="B409" s="4">
@@ -13112,8 +13170,8 @@
       <c r="T409" s="3"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="16">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A410" s="12">
         <v>408</v>
       </c>
       <c r="B410" s="4">
@@ -13139,8 +13197,8 @@
       <c r="T410" s="3"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="16">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A411" s="12">
         <v>409</v>
       </c>
       <c r="B411" s="4">
@@ -13166,8 +13224,8 @@
       <c r="T411" s="3"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="16">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A412" s="12">
         <v>410</v>
       </c>
       <c r="B412" s="4">
@@ -13193,8 +13251,8 @@
       <c r="T412" s="3"/>
       <c r="U412" s="5"/>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="16">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A413" s="12">
         <v>411</v>
       </c>
       <c r="B413" s="4">
@@ -13220,8 +13278,8 @@
       <c r="T413" s="3"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="16">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A414" s="12">
         <v>412</v>
       </c>
       <c r="B414" s="4">
@@ -13247,8 +13305,8 @@
       <c r="T414" s="3"/>
       <c r="U414" s="5"/>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="16">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A415" s="12">
         <v>413</v>
       </c>
       <c r="B415" s="4">
@@ -13274,8 +13332,8 @@
       <c r="T415" s="3"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="16">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A416" s="12">
         <v>414</v>
       </c>
       <c r="B416" s="4">
@@ -13301,8 +13359,8 @@
       <c r="T416" s="3"/>
       <c r="U416" s="5"/>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="16">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A417" s="12">
         <v>415</v>
       </c>
       <c r="B417" s="4">
@@ -13328,8 +13386,8 @@
       <c r="T417" s="3"/>
       <c r="U417" s="5"/>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="16">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A418" s="12">
         <v>416</v>
       </c>
       <c r="B418" s="4">
@@ -13355,8 +13413,8 @@
       <c r="T418" s="3"/>
       <c r="U418" s="5"/>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="16">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A419" s="12">
         <v>417</v>
       </c>
       <c r="B419" s="4">
@@ -13382,8 +13440,8 @@
       <c r="T419" s="3"/>
       <c r="U419" s="5"/>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="16">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A420" s="12">
         <v>418</v>
       </c>
       <c r="B420" s="4">
@@ -13409,8 +13467,8 @@
       <c r="T420" s="3"/>
       <c r="U420" s="5"/>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="16">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A421" s="12">
         <v>419</v>
       </c>
       <c r="B421" s="4">
@@ -13436,8 +13494,8 @@
       <c r="T421" s="3"/>
       <c r="U421" s="5"/>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="16">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A422" s="12">
         <v>420</v>
       </c>
       <c r="B422" s="4">
@@ -13463,8 +13521,8 @@
       <c r="T422" s="3"/>
       <c r="U422" s="5"/>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="16">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A423" s="12">
         <v>421</v>
       </c>
       <c r="B423" s="4">
@@ -13490,8 +13548,8 @@
       <c r="T423" s="3"/>
       <c r="U423" s="5"/>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="16">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A424" s="12">
         <v>422</v>
       </c>
       <c r="B424" s="4">
@@ -13517,8 +13575,8 @@
       <c r="T424" s="3"/>
       <c r="U424" s="5"/>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="16">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A425" s="12">
         <v>423</v>
       </c>
       <c r="B425" s="4">
@@ -13544,8 +13602,8 @@
       <c r="T425" s="3"/>
       <c r="U425" s="5"/>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="16">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A426" s="12">
         <v>424</v>
       </c>
       <c r="B426" s="4">
@@ -13572,44 +13630,42 @@
       <c r="U426" s="5"/>
     </row>
     <row r="427" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A427" s="16">
+      <c r="A427" s="12">
         <v>425</v>
       </c>
       <c r="B427" s="4">
         <v>50229</v>
       </c>
-      <c r="C427" s="20">
-        <v>50229</v>
-      </c>
-      <c r="D427" s="22" t="s">
+      <c r="C427" s="16"/>
+      <c r="D427" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="E427" s="22"/>
-      <c r="F427" s="22"/>
-      <c r="G427" s="22"/>
-      <c r="H427" s="22"/>
-      <c r="I427" s="22"/>
-      <c r="J427" s="22"/>
-      <c r="K427" s="22"/>
-      <c r="L427" s="22"/>
-      <c r="M427" s="22"/>
-      <c r="N427" s="22"/>
-      <c r="O427" s="22"/>
-      <c r="P427" s="22"/>
-      <c r="Q427" s="22"/>
-      <c r="R427" s="22"/>
-      <c r="S427" s="22"/>
-      <c r="T427" s="22"/>
-      <c r="U427" s="24"/>
-    </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="16">
+      <c r="E427" s="18"/>
+      <c r="F427" s="18"/>
+      <c r="G427" s="18"/>
+      <c r="H427" s="18"/>
+      <c r="I427" s="18"/>
+      <c r="J427" s="18"/>
+      <c r="K427" s="18"/>
+      <c r="L427" s="18"/>
+      <c r="M427" s="18"/>
+      <c r="N427" s="18"/>
+      <c r="O427" s="18"/>
+      <c r="P427" s="18"/>
+      <c r="Q427" s="18"/>
+      <c r="R427" s="18"/>
+      <c r="S427" s="18"/>
+      <c r="T427" s="18"/>
+      <c r="U427" s="20"/>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A428" s="12">
         <v>426</v>
       </c>
       <c r="B428" s="4">
         <v>50230</v>
       </c>
-      <c r="C428" s="20"/>
+      <c r="C428" s="16"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
@@ -13630,75 +13686,71 @@
       <c r="U428" s="5"/>
     </row>
     <row r="429" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A429" s="16">
+      <c r="A429" s="12">
         <v>427</v>
       </c>
       <c r="B429" s="4">
         <v>50231</v>
       </c>
-      <c r="C429" s="20">
-        <v>50231</v>
-      </c>
-      <c r="D429" s="22" t="s">
+      <c r="C429" s="16"/>
+      <c r="D429" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="E429" s="22"/>
-      <c r="F429" s="22"/>
-      <c r="G429" s="22"/>
-      <c r="H429" s="22"/>
-      <c r="I429" s="22"/>
-      <c r="J429" s="22"/>
-      <c r="K429" s="22"/>
-      <c r="L429" s="22"/>
-      <c r="M429" s="22"/>
-      <c r="N429" s="22"/>
-      <c r="O429" s="22"/>
-      <c r="P429" s="22"/>
-      <c r="Q429" s="22"/>
-      <c r="R429" s="22"/>
-      <c r="S429" s="22"/>
-      <c r="T429" s="22"/>
-      <c r="U429" s="24"/>
+      <c r="E429" s="18"/>
+      <c r="F429" s="18"/>
+      <c r="G429" s="18"/>
+      <c r="H429" s="18"/>
+      <c r="I429" s="18"/>
+      <c r="J429" s="18"/>
+      <c r="K429" s="18"/>
+      <c r="L429" s="18"/>
+      <c r="M429" s="18"/>
+      <c r="N429" s="18"/>
+      <c r="O429" s="18"/>
+      <c r="P429" s="18"/>
+      <c r="Q429" s="18"/>
+      <c r="R429" s="18"/>
+      <c r="S429" s="18"/>
+      <c r="T429" s="18"/>
+      <c r="U429" s="20"/>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A430" s="16">
+      <c r="A430" s="12">
         <v>428</v>
       </c>
       <c r="B430" s="4">
         <v>50232</v>
       </c>
-      <c r="C430" s="20">
-        <v>50232</v>
-      </c>
-      <c r="D430" s="22" t="s">
+      <c r="C430" s="16"/>
+      <c r="D430" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="E430" s="22"/>
-      <c r="F430" s="22"/>
-      <c r="G430" s="22"/>
-      <c r="H430" s="22"/>
-      <c r="I430" s="22"/>
-      <c r="J430" s="22"/>
-      <c r="K430" s="22"/>
-      <c r="L430" s="22"/>
-      <c r="M430" s="22"/>
-      <c r="N430" s="22"/>
-      <c r="O430" s="22"/>
-      <c r="P430" s="22"/>
-      <c r="Q430" s="22"/>
-      <c r="R430" s="22"/>
-      <c r="S430" s="22"/>
-      <c r="T430" s="22"/>
-      <c r="U430" s="24"/>
-    </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="16">
+      <c r="E430" s="18"/>
+      <c r="F430" s="18"/>
+      <c r="G430" s="18"/>
+      <c r="H430" s="18"/>
+      <c r="I430" s="18"/>
+      <c r="J430" s="18"/>
+      <c r="K430" s="18"/>
+      <c r="L430" s="18"/>
+      <c r="M430" s="18"/>
+      <c r="N430" s="18"/>
+      <c r="O430" s="18"/>
+      <c r="P430" s="18"/>
+      <c r="Q430" s="18"/>
+      <c r="R430" s="18"/>
+      <c r="S430" s="18"/>
+      <c r="T430" s="18"/>
+      <c r="U430" s="20"/>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A431" s="12">
         <v>429</v>
       </c>
       <c r="B431" s="4">
         <v>50233</v>
       </c>
-      <c r="C431" s="20"/>
+      <c r="C431" s="16"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
@@ -13719,44 +13771,42 @@
       <c r="U431" s="5"/>
     </row>
     <row r="432" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A432" s="16">
+      <c r="A432" s="12">
         <v>430</v>
       </c>
       <c r="B432" s="4">
         <v>50234</v>
       </c>
-      <c r="C432" s="20">
-        <v>50234</v>
-      </c>
-      <c r="D432" s="22" t="s">
+      <c r="C432" s="16"/>
+      <c r="D432" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="E432" s="22"/>
-      <c r="F432" s="22"/>
-      <c r="G432" s="22"/>
-      <c r="H432" s="22"/>
-      <c r="I432" s="22"/>
-      <c r="J432" s="22"/>
-      <c r="K432" s="22"/>
-      <c r="L432" s="22"/>
-      <c r="M432" s="22"/>
-      <c r="N432" s="22"/>
-      <c r="O432" s="22"/>
-      <c r="P432" s="22"/>
-      <c r="Q432" s="22"/>
-      <c r="R432" s="22"/>
-      <c r="S432" s="22"/>
-      <c r="T432" s="22"/>
-      <c r="U432" s="24"/>
-    </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="16">
+      <c r="E432" s="18"/>
+      <c r="F432" s="18"/>
+      <c r="G432" s="18"/>
+      <c r="H432" s="18"/>
+      <c r="I432" s="18"/>
+      <c r="J432" s="18"/>
+      <c r="K432" s="18"/>
+      <c r="L432" s="18"/>
+      <c r="M432" s="18"/>
+      <c r="N432" s="18"/>
+      <c r="O432" s="18"/>
+      <c r="P432" s="18"/>
+      <c r="Q432" s="18"/>
+      <c r="R432" s="18"/>
+      <c r="S432" s="18"/>
+      <c r="T432" s="18"/>
+      <c r="U432" s="20"/>
+    </row>
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A433" s="12">
         <v>431</v>
       </c>
       <c r="B433" s="4">
         <v>50235</v>
       </c>
-      <c r="C433" s="20"/>
+      <c r="C433" s="16"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
@@ -13777,261 +13827,245 @@
       <c r="U433" s="5"/>
     </row>
     <row r="434" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A434" s="16">
+      <c r="A434" s="12">
         <v>432</v>
       </c>
       <c r="B434" s="4">
         <v>50236</v>
       </c>
-      <c r="C434" s="20">
-        <v>50236</v>
-      </c>
-      <c r="D434" s="22" t="s">
+      <c r="C434" s="16"/>
+      <c r="D434" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="E434" s="22"/>
-      <c r="F434" s="22"/>
-      <c r="G434" s="22"/>
-      <c r="H434" s="22"/>
-      <c r="I434" s="22"/>
-      <c r="J434" s="22"/>
-      <c r="K434" s="22"/>
-      <c r="L434" s="22"/>
-      <c r="M434" s="22"/>
-      <c r="N434" s="22"/>
-      <c r="O434" s="22"/>
-      <c r="P434" s="22"/>
-      <c r="Q434" s="22"/>
-      <c r="R434" s="22"/>
-      <c r="S434" s="22"/>
-      <c r="T434" s="22"/>
-      <c r="U434" s="24"/>
+      <c r="E434" s="18"/>
+      <c r="F434" s="18"/>
+      <c r="G434" s="18"/>
+      <c r="H434" s="18"/>
+      <c r="I434" s="18"/>
+      <c r="J434" s="18"/>
+      <c r="K434" s="18"/>
+      <c r="L434" s="18"/>
+      <c r="M434" s="18"/>
+      <c r="N434" s="18"/>
+      <c r="O434" s="18"/>
+      <c r="P434" s="18"/>
+      <c r="Q434" s="18"/>
+      <c r="R434" s="18"/>
+      <c r="S434" s="18"/>
+      <c r="T434" s="18"/>
+      <c r="U434" s="20"/>
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A435" s="16">
+      <c r="A435" s="12">
         <v>433</v>
       </c>
       <c r="B435" s="4">
         <v>50240</v>
       </c>
-      <c r="C435" s="20">
-        <v>50240</v>
-      </c>
-      <c r="D435" s="22" t="s">
+      <c r="C435" s="16"/>
+      <c r="D435" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="E435" s="22"/>
-      <c r="F435" s="22"/>
-      <c r="G435" s="22"/>
-      <c r="H435" s="22"/>
-      <c r="I435" s="22"/>
-      <c r="J435" s="22"/>
-      <c r="K435" s="22"/>
-      <c r="L435" s="22"/>
-      <c r="M435" s="22"/>
-      <c r="N435" s="22"/>
-      <c r="O435" s="22"/>
-      <c r="P435" s="22"/>
-      <c r="Q435" s="22"/>
-      <c r="R435" s="22"/>
-      <c r="S435" s="22"/>
-      <c r="T435" s="22"/>
-      <c r="U435" s="24"/>
+      <c r="E435" s="18"/>
+      <c r="F435" s="18"/>
+      <c r="G435" s="18"/>
+      <c r="H435" s="18"/>
+      <c r="I435" s="18"/>
+      <c r="J435" s="18"/>
+      <c r="K435" s="18"/>
+      <c r="L435" s="18"/>
+      <c r="M435" s="18"/>
+      <c r="N435" s="18"/>
+      <c r="O435" s="18"/>
+      <c r="P435" s="18"/>
+      <c r="Q435" s="18"/>
+      <c r="R435" s="18"/>
+      <c r="S435" s="18"/>
+      <c r="T435" s="18"/>
+      <c r="U435" s="20"/>
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A436" s="16">
+      <c r="A436" s="12">
         <v>434</v>
       </c>
       <c r="B436" s="4">
         <v>50120</v>
       </c>
-      <c r="C436" s="20">
-        <v>50120</v>
-      </c>
-      <c r="D436" s="22" t="s">
+      <c r="C436" s="16"/>
+      <c r="D436" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="E436" s="22"/>
-      <c r="F436" s="22"/>
-      <c r="G436" s="22"/>
-      <c r="H436" s="22"/>
-      <c r="I436" s="22"/>
-      <c r="J436" s="22"/>
-      <c r="K436" s="22"/>
-      <c r="L436" s="22"/>
-      <c r="M436" s="22"/>
-      <c r="N436" s="22"/>
-      <c r="O436" s="22"/>
-      <c r="P436" s="22"/>
-      <c r="Q436" s="22"/>
-      <c r="R436" s="22"/>
-      <c r="S436" s="22"/>
-      <c r="T436" s="22"/>
-      <c r="U436" s="24"/>
+      <c r="E436" s="18"/>
+      <c r="F436" s="18"/>
+      <c r="G436" s="18"/>
+      <c r="H436" s="18"/>
+      <c r="I436" s="18"/>
+      <c r="J436" s="18"/>
+      <c r="K436" s="18"/>
+      <c r="L436" s="18"/>
+      <c r="M436" s="18"/>
+      <c r="N436" s="18"/>
+      <c r="O436" s="18"/>
+      <c r="P436" s="18"/>
+      <c r="Q436" s="18"/>
+      <c r="R436" s="18"/>
+      <c r="S436" s="18"/>
+      <c r="T436" s="18"/>
+      <c r="U436" s="20"/>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A437" s="16">
+      <c r="A437" s="12">
         <v>435</v>
       </c>
       <c r="B437" s="4">
         <v>50121</v>
       </c>
-      <c r="C437" s="20">
-        <v>50121</v>
-      </c>
-      <c r="D437" s="22" t="s">
+      <c r="C437" s="16"/>
+      <c r="D437" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="E437" s="22"/>
-      <c r="F437" s="22"/>
-      <c r="G437" s="22"/>
-      <c r="H437" s="22"/>
-      <c r="I437" s="22"/>
-      <c r="J437" s="22"/>
-      <c r="K437" s="22"/>
-      <c r="L437" s="22"/>
-      <c r="M437" s="22"/>
-      <c r="N437" s="22"/>
-      <c r="O437" s="22"/>
-      <c r="P437" s="22"/>
-      <c r="Q437" s="22"/>
-      <c r="R437" s="22"/>
-      <c r="S437" s="22"/>
-      <c r="T437" s="22"/>
-      <c r="U437" s="24"/>
+      <c r="E437" s="18"/>
+      <c r="F437" s="18"/>
+      <c r="G437" s="18"/>
+      <c r="H437" s="18"/>
+      <c r="I437" s="18"/>
+      <c r="J437" s="18"/>
+      <c r="K437" s="18"/>
+      <c r="L437" s="18"/>
+      <c r="M437" s="18"/>
+      <c r="N437" s="18"/>
+      <c r="O437" s="18"/>
+      <c r="P437" s="18"/>
+      <c r="Q437" s="18"/>
+      <c r="R437" s="18"/>
+      <c r="S437" s="18"/>
+      <c r="T437" s="18"/>
+      <c r="U437" s="20"/>
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A438" s="16">
+      <c r="A438" s="12">
         <v>436</v>
       </c>
       <c r="B438" s="4">
         <v>50122</v>
       </c>
-      <c r="C438" s="20">
-        <v>50122</v>
-      </c>
-      <c r="D438" s="22" t="s">
+      <c r="C438" s="16"/>
+      <c r="D438" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="E438" s="22"/>
-      <c r="F438" s="22"/>
-      <c r="G438" s="22"/>
-      <c r="H438" s="22"/>
-      <c r="I438" s="22"/>
-      <c r="J438" s="22"/>
-      <c r="K438" s="22"/>
-      <c r="L438" s="22"/>
-      <c r="M438" s="22"/>
-      <c r="N438" s="22"/>
-      <c r="O438" s="22"/>
-      <c r="P438" s="22"/>
-      <c r="Q438" s="22"/>
-      <c r="R438" s="22"/>
-      <c r="S438" s="22"/>
-      <c r="T438" s="22"/>
-      <c r="U438" s="24"/>
+      <c r="E438" s="18"/>
+      <c r="F438" s="18"/>
+      <c r="G438" s="18"/>
+      <c r="H438" s="18"/>
+      <c r="I438" s="18"/>
+      <c r="J438" s="18"/>
+      <c r="K438" s="18"/>
+      <c r="L438" s="18"/>
+      <c r="M438" s="18"/>
+      <c r="N438" s="18"/>
+      <c r="O438" s="18"/>
+      <c r="P438" s="18"/>
+      <c r="Q438" s="18"/>
+      <c r="R438" s="18"/>
+      <c r="S438" s="18"/>
+      <c r="T438" s="18"/>
+      <c r="U438" s="20"/>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A439" s="16">
+      <c r="A439" s="12">
         <v>437</v>
       </c>
       <c r="B439" s="4">
         <v>50123</v>
       </c>
-      <c r="C439" s="20">
-        <v>50123</v>
-      </c>
-      <c r="D439" s="22" t="s">
+      <c r="C439" s="16"/>
+      <c r="D439" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="E439" s="22"/>
-      <c r="F439" s="22"/>
-      <c r="G439" s="22"/>
-      <c r="H439" s="22"/>
-      <c r="I439" s="22"/>
-      <c r="J439" s="22"/>
-      <c r="K439" s="22"/>
-      <c r="L439" s="22"/>
-      <c r="M439" s="22"/>
-      <c r="N439" s="22"/>
-      <c r="O439" s="22"/>
-      <c r="P439" s="22"/>
-      <c r="Q439" s="22"/>
-      <c r="R439" s="22"/>
-      <c r="S439" s="22"/>
-      <c r="T439" s="22"/>
-      <c r="U439" s="24"/>
+      <c r="E439" s="18"/>
+      <c r="F439" s="18"/>
+      <c r="G439" s="18"/>
+      <c r="H439" s="18"/>
+      <c r="I439" s="18"/>
+      <c r="J439" s="18"/>
+      <c r="K439" s="18"/>
+      <c r="L439" s="18"/>
+      <c r="M439" s="18"/>
+      <c r="N439" s="18"/>
+      <c r="O439" s="18"/>
+      <c r="P439" s="18"/>
+      <c r="Q439" s="18"/>
+      <c r="R439" s="18"/>
+      <c r="S439" s="18"/>
+      <c r="T439" s="18"/>
+      <c r="U439" s="20"/>
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A440" s="16">
+      <c r="A440" s="12">
         <v>438</v>
       </c>
       <c r="B440" s="4">
         <v>50124</v>
       </c>
-      <c r="C440" s="20">
-        <v>50124</v>
-      </c>
-      <c r="D440" s="22" t="s">
+      <c r="C440" s="16"/>
+      <c r="D440" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="E440" s="22"/>
-      <c r="F440" s="22"/>
-      <c r="G440" s="22"/>
-      <c r="H440" s="22"/>
-      <c r="I440" s="22"/>
-      <c r="J440" s="22"/>
-      <c r="K440" s="22"/>
-      <c r="L440" s="22"/>
-      <c r="M440" s="22"/>
-      <c r="N440" s="22"/>
-      <c r="O440" s="22"/>
-      <c r="P440" s="22"/>
-      <c r="Q440" s="22"/>
-      <c r="R440" s="22"/>
-      <c r="S440" s="22"/>
-      <c r="T440" s="22"/>
-      <c r="U440" s="24"/>
+      <c r="E440" s="18"/>
+      <c r="F440" s="18"/>
+      <c r="G440" s="18"/>
+      <c r="H440" s="18"/>
+      <c r="I440" s="18"/>
+      <c r="J440" s="18"/>
+      <c r="K440" s="18"/>
+      <c r="L440" s="18"/>
+      <c r="M440" s="18"/>
+      <c r="N440" s="18"/>
+      <c r="O440" s="18"/>
+      <c r="P440" s="18"/>
+      <c r="Q440" s="18"/>
+      <c r="R440" s="18"/>
+      <c r="S440" s="18"/>
+      <c r="T440" s="18"/>
+      <c r="U440" s="20"/>
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A441" s="16">
+      <c r="A441" s="12">
         <v>439</v>
       </c>
       <c r="B441" s="4">
         <v>50125</v>
       </c>
-      <c r="C441" s="20">
-        <v>50125</v>
-      </c>
-      <c r="D441" s="22" t="s">
+      <c r="C441" s="16"/>
+      <c r="D441" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="E441" s="22"/>
-      <c r="F441" s="22"/>
-      <c r="G441" s="22"/>
-      <c r="H441" s="22"/>
-      <c r="I441" s="22"/>
-      <c r="J441" s="22"/>
-      <c r="K441" s="22"/>
-      <c r="L441" s="22"/>
-      <c r="M441" s="22"/>
-      <c r="N441" s="22"/>
-      <c r="O441" s="22"/>
-      <c r="P441" s="22"/>
-      <c r="Q441" s="22"/>
-      <c r="R441" s="22"/>
-      <c r="S441" s="22"/>
-      <c r="T441" s="22"/>
-      <c r="U441" s="24"/>
-    </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="16">
+      <c r="E441" s="18"/>
+      <c r="F441" s="18"/>
+      <c r="G441" s="18"/>
+      <c r="H441" s="18"/>
+      <c r="I441" s="18"/>
+      <c r="J441" s="18"/>
+      <c r="K441" s="18"/>
+      <c r="L441" s="18"/>
+      <c r="M441" s="18"/>
+      <c r="N441" s="18"/>
+      <c r="O441" s="18"/>
+      <c r="P441" s="18"/>
+      <c r="Q441" s="18"/>
+      <c r="R441" s="18"/>
+      <c r="S441" s="18"/>
+      <c r="T441" s="18"/>
+      <c r="U441" s="20"/>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A442" s="12">
         <v>440</v>
       </c>
       <c r="B442" s="4">
         <v>50126</v>
       </c>
-      <c r="C442" s="20"/>
+      <c r="C442" s="16"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
@@ -14051,14 +14085,14 @@
       <c r="T442" s="3"/>
       <c r="U442" s="5"/>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="16">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A443" s="12">
         <v>441</v>
       </c>
       <c r="B443" s="4">
         <v>50127</v>
       </c>
-      <c r="C443" s="20"/>
+      <c r="C443" s="16"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
@@ -14079,44 +14113,42 @@
       <c r="U443" s="5"/>
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A444" s="16">
+      <c r="A444" s="12">
         <v>442</v>
       </c>
       <c r="B444" s="4">
         <v>50128</v>
       </c>
-      <c r="C444" s="20">
-        <v>50128</v>
-      </c>
-      <c r="D444" s="23" t="s">
+      <c r="C444" s="16"/>
+      <c r="D444" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="E444" s="22"/>
-      <c r="F444" s="22"/>
-      <c r="G444" s="22"/>
-      <c r="H444" s="22"/>
-      <c r="I444" s="22"/>
-      <c r="J444" s="22"/>
-      <c r="K444" s="22"/>
-      <c r="L444" s="22"/>
-      <c r="M444" s="22"/>
-      <c r="N444" s="22"/>
-      <c r="O444" s="22"/>
-      <c r="P444" s="22"/>
-      <c r="Q444" s="22"/>
-      <c r="R444" s="22"/>
-      <c r="S444" s="22"/>
-      <c r="T444" s="22"/>
-      <c r="U444" s="24"/>
-    </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="16">
+      <c r="E444" s="18"/>
+      <c r="F444" s="18"/>
+      <c r="G444" s="18"/>
+      <c r="H444" s="18"/>
+      <c r="I444" s="18"/>
+      <c r="J444" s="18"/>
+      <c r="K444" s="18"/>
+      <c r="L444" s="18"/>
+      <c r="M444" s="18"/>
+      <c r="N444" s="18"/>
+      <c r="O444" s="18"/>
+      <c r="P444" s="18"/>
+      <c r="Q444" s="18"/>
+      <c r="R444" s="18"/>
+      <c r="S444" s="18"/>
+      <c r="T444" s="18"/>
+      <c r="U444" s="20"/>
+    </row>
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A445" s="12">
         <v>443</v>
       </c>
       <c r="B445" s="4">
         <v>50129</v>
       </c>
-      <c r="C445" s="20"/>
+      <c r="C445" s="16"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
@@ -14137,199 +14169,187 @@
       <c r="U445" s="5"/>
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A446" s="16">
+      <c r="A446" s="12">
         <v>444</v>
       </c>
       <c r="B446" s="4">
         <v>50132</v>
       </c>
-      <c r="C446" s="20">
-        <v>50132</v>
-      </c>
-      <c r="D446" s="22" t="s">
+      <c r="C446" s="16"/>
+      <c r="D446" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="E446" s="22"/>
-      <c r="F446" s="22"/>
-      <c r="G446" s="22"/>
-      <c r="H446" s="22"/>
-      <c r="I446" s="22"/>
-      <c r="J446" s="22"/>
-      <c r="K446" s="22"/>
-      <c r="L446" s="22"/>
-      <c r="M446" s="22"/>
-      <c r="N446" s="22"/>
-      <c r="O446" s="22"/>
-      <c r="P446" s="22"/>
-      <c r="Q446" s="22"/>
-      <c r="R446" s="22"/>
-      <c r="S446" s="22"/>
-      <c r="T446" s="22"/>
-      <c r="U446" s="24"/>
+      <c r="E446" s="18"/>
+      <c r="F446" s="18"/>
+      <c r="G446" s="18"/>
+      <c r="H446" s="18"/>
+      <c r="I446" s="18"/>
+      <c r="J446" s="18"/>
+      <c r="K446" s="18"/>
+      <c r="L446" s="18"/>
+      <c r="M446" s="18"/>
+      <c r="N446" s="18"/>
+      <c r="O446" s="18"/>
+      <c r="P446" s="18"/>
+      <c r="Q446" s="18"/>
+      <c r="R446" s="18"/>
+      <c r="S446" s="18"/>
+      <c r="T446" s="18"/>
+      <c r="U446" s="20"/>
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A447" s="16">
+      <c r="A447" s="12">
         <v>445</v>
       </c>
       <c r="B447" s="4">
         <v>50133</v>
       </c>
-      <c r="C447" s="20">
-        <v>50133</v>
-      </c>
-      <c r="D447" s="22" t="s">
+      <c r="C447" s="16"/>
+      <c r="D447" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="E447" s="22"/>
-      <c r="F447" s="22"/>
-      <c r="G447" s="22"/>
-      <c r="H447" s="22"/>
-      <c r="I447" s="22"/>
-      <c r="J447" s="22"/>
-      <c r="K447" s="22"/>
-      <c r="L447" s="22"/>
-      <c r="M447" s="22"/>
-      <c r="N447" s="22"/>
-      <c r="O447" s="22"/>
-      <c r="P447" s="22"/>
-      <c r="Q447" s="22"/>
-      <c r="R447" s="22"/>
-      <c r="S447" s="22"/>
-      <c r="T447" s="22"/>
-      <c r="U447" s="24"/>
+      <c r="E447" s="18"/>
+      <c r="F447" s="18"/>
+      <c r="G447" s="18"/>
+      <c r="H447" s="18"/>
+      <c r="I447" s="18"/>
+      <c r="J447" s="18"/>
+      <c r="K447" s="18"/>
+      <c r="L447" s="18"/>
+      <c r="M447" s="18"/>
+      <c r="N447" s="18"/>
+      <c r="O447" s="18"/>
+      <c r="P447" s="18"/>
+      <c r="Q447" s="18"/>
+      <c r="R447" s="18"/>
+      <c r="S447" s="18"/>
+      <c r="T447" s="18"/>
+      <c r="U447" s="20"/>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A448" s="16">
+      <c r="A448" s="12">
         <v>446</v>
       </c>
       <c r="B448" s="4">
         <v>50134</v>
       </c>
-      <c r="C448" s="20">
-        <v>50134</v>
-      </c>
-      <c r="D448" s="22" t="s">
+      <c r="C448" s="16"/>
+      <c r="D448" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="E448" s="22"/>
-      <c r="F448" s="22"/>
-      <c r="G448" s="22"/>
-      <c r="H448" s="22"/>
-      <c r="I448" s="22"/>
-      <c r="J448" s="22"/>
-      <c r="K448" s="22"/>
-      <c r="L448" s="22"/>
-      <c r="M448" s="22"/>
-      <c r="N448" s="22"/>
-      <c r="O448" s="22"/>
-      <c r="P448" s="22"/>
-      <c r="Q448" s="22"/>
-      <c r="R448" s="22"/>
-      <c r="S448" s="22"/>
-      <c r="T448" s="22"/>
-      <c r="U448" s="24"/>
+      <c r="E448" s="18"/>
+      <c r="F448" s="18"/>
+      <c r="G448" s="18"/>
+      <c r="H448" s="18"/>
+      <c r="I448" s="18"/>
+      <c r="J448" s="18"/>
+      <c r="K448" s="18"/>
+      <c r="L448" s="18"/>
+      <c r="M448" s="18"/>
+      <c r="N448" s="18"/>
+      <c r="O448" s="18"/>
+      <c r="P448" s="18"/>
+      <c r="Q448" s="18"/>
+      <c r="R448" s="18"/>
+      <c r="S448" s="18"/>
+      <c r="T448" s="18"/>
+      <c r="U448" s="20"/>
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A449" s="16">
+      <c r="A449" s="12">
         <v>447</v>
       </c>
       <c r="B449" s="4">
         <v>50135</v>
       </c>
-      <c r="C449" s="20">
-        <v>50135</v>
-      </c>
-      <c r="D449" s="22" t="s">
+      <c r="C449" s="16"/>
+      <c r="D449" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="E449" s="22"/>
-      <c r="F449" s="22"/>
-      <c r="G449" s="22"/>
-      <c r="H449" s="22"/>
-      <c r="I449" s="22"/>
-      <c r="J449" s="22"/>
-      <c r="K449" s="22"/>
-      <c r="L449" s="22"/>
-      <c r="M449" s="22"/>
-      <c r="N449" s="22"/>
-      <c r="O449" s="22"/>
-      <c r="P449" s="22"/>
-      <c r="Q449" s="22"/>
-      <c r="R449" s="22"/>
-      <c r="S449" s="22"/>
-      <c r="T449" s="22"/>
-      <c r="U449" s="24"/>
+      <c r="E449" s="18"/>
+      <c r="F449" s="18"/>
+      <c r="G449" s="18"/>
+      <c r="H449" s="18"/>
+      <c r="I449" s="18"/>
+      <c r="J449" s="18"/>
+      <c r="K449" s="18"/>
+      <c r="L449" s="18"/>
+      <c r="M449" s="18"/>
+      <c r="N449" s="18"/>
+      <c r="O449" s="18"/>
+      <c r="P449" s="18"/>
+      <c r="Q449" s="18"/>
+      <c r="R449" s="18"/>
+      <c r="S449" s="18"/>
+      <c r="T449" s="18"/>
+      <c r="U449" s="20"/>
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A450" s="16">
+      <c r="A450" s="12">
         <v>448</v>
       </c>
       <c r="B450" s="4">
         <v>50136</v>
       </c>
-      <c r="C450" s="20">
-        <v>50136</v>
-      </c>
-      <c r="D450" s="22" t="s">
+      <c r="C450" s="16"/>
+      <c r="D450" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="E450" s="22"/>
-      <c r="F450" s="22"/>
-      <c r="G450" s="22"/>
-      <c r="H450" s="22"/>
-      <c r="I450" s="22"/>
-      <c r="J450" s="22"/>
-      <c r="K450" s="22"/>
-      <c r="L450" s="22"/>
-      <c r="M450" s="22"/>
-      <c r="N450" s="22"/>
-      <c r="O450" s="22"/>
-      <c r="P450" s="22"/>
-      <c r="Q450" s="22"/>
-      <c r="R450" s="22"/>
-      <c r="S450" s="22"/>
-      <c r="T450" s="22"/>
-      <c r="U450" s="24"/>
+      <c r="E450" s="18"/>
+      <c r="F450" s="18"/>
+      <c r="G450" s="18"/>
+      <c r="H450" s="18"/>
+      <c r="I450" s="18"/>
+      <c r="J450" s="18"/>
+      <c r="K450" s="18"/>
+      <c r="L450" s="18"/>
+      <c r="M450" s="18"/>
+      <c r="N450" s="18"/>
+      <c r="O450" s="18"/>
+      <c r="P450" s="18"/>
+      <c r="Q450" s="18"/>
+      <c r="R450" s="18"/>
+      <c r="S450" s="18"/>
+      <c r="T450" s="18"/>
+      <c r="U450" s="20"/>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A451" s="16">
+      <c r="A451" s="12">
         <v>449</v>
       </c>
       <c r="B451" s="4">
         <v>50137</v>
       </c>
-      <c r="C451" s="20">
-        <v>50137</v>
-      </c>
-      <c r="D451" s="22" t="s">
+      <c r="C451" s="16"/>
+      <c r="D451" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="E451" s="22"/>
-      <c r="F451" s="22"/>
-      <c r="G451" s="22"/>
-      <c r="H451" s="22"/>
-      <c r="I451" s="22"/>
-      <c r="J451" s="22"/>
-      <c r="K451" s="22"/>
-      <c r="L451" s="22"/>
-      <c r="M451" s="22"/>
-      <c r="N451" s="22"/>
-      <c r="O451" s="22"/>
-      <c r="P451" s="22"/>
-      <c r="Q451" s="22"/>
-      <c r="R451" s="22"/>
-      <c r="S451" s="22"/>
-      <c r="T451" s="22"/>
-      <c r="U451" s="24"/>
-    </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="16">
+      <c r="E451" s="18"/>
+      <c r="F451" s="18"/>
+      <c r="G451" s="18"/>
+      <c r="H451" s="18"/>
+      <c r="I451" s="18"/>
+      <c r="J451" s="18"/>
+      <c r="K451" s="18"/>
+      <c r="L451" s="18"/>
+      <c r="M451" s="18"/>
+      <c r="N451" s="18"/>
+      <c r="O451" s="18"/>
+      <c r="P451" s="18"/>
+      <c r="Q451" s="18"/>
+      <c r="R451" s="18"/>
+      <c r="S451" s="18"/>
+      <c r="T451" s="18"/>
+      <c r="U451" s="20"/>
+    </row>
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A452" s="12">
         <v>450</v>
       </c>
       <c r="B452" s="4">
         <v>50138</v>
       </c>
-      <c r="C452" s="20"/>
+      <c r="C452" s="16"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
@@ -14349,14 +14369,14 @@
       <c r="T452" s="3"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="16">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A453" s="12">
         <v>451</v>
       </c>
       <c r="B453" s="4">
         <v>50139</v>
       </c>
-      <c r="C453" s="20"/>
+      <c r="C453" s="16"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
@@ -14377,44 +14397,42 @@
       <c r="U453" s="5"/>
     </row>
     <row r="454" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A454" s="16">
+      <c r="A454" s="12">
         <v>452</v>
       </c>
       <c r="B454" s="4">
         <v>50140</v>
       </c>
-      <c r="C454" s="20">
-        <v>50140</v>
-      </c>
-      <c r="D454" s="22" t="s">
+      <c r="C454" s="16"/>
+      <c r="D454" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="E454" s="22"/>
-      <c r="F454" s="22"/>
-      <c r="G454" s="22"/>
-      <c r="H454" s="22"/>
-      <c r="I454" s="22"/>
-      <c r="J454" s="22"/>
-      <c r="K454" s="22"/>
-      <c r="L454" s="22"/>
-      <c r="M454" s="22"/>
-      <c r="N454" s="22"/>
-      <c r="O454" s="22"/>
-      <c r="P454" s="22"/>
-      <c r="Q454" s="22"/>
-      <c r="R454" s="22"/>
-      <c r="S454" s="22"/>
-      <c r="T454" s="22"/>
-      <c r="U454" s="24"/>
-    </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="16">
+      <c r="E454" s="18"/>
+      <c r="F454" s="18"/>
+      <c r="G454" s="18"/>
+      <c r="H454" s="18"/>
+      <c r="I454" s="18"/>
+      <c r="J454" s="18"/>
+      <c r="K454" s="18"/>
+      <c r="L454" s="18"/>
+      <c r="M454" s="18"/>
+      <c r="N454" s="18"/>
+      <c r="O454" s="18"/>
+      <c r="P454" s="18"/>
+      <c r="Q454" s="18"/>
+      <c r="R454" s="18"/>
+      <c r="S454" s="18"/>
+      <c r="T454" s="18"/>
+      <c r="U454" s="20"/>
+    </row>
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A455" s="12">
         <v>453</v>
       </c>
       <c r="B455" s="4">
         <v>50160</v>
       </c>
-      <c r="C455" s="20"/>
+      <c r="C455" s="16"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
@@ -14434,14 +14452,14 @@
       <c r="T455" s="3"/>
       <c r="U455" s="5"/>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="16">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A456" s="12">
         <v>454</v>
       </c>
       <c r="B456" s="4">
         <v>50241</v>
       </c>
-      <c r="C456" s="20"/>
+      <c r="C456" s="16"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
@@ -14462,100 +14480,94 @@
       <c r="U456" s="5"/>
     </row>
     <row r="457" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A457" s="16">
+      <c r="A457" s="12">
         <v>455</v>
       </c>
       <c r="B457" s="4">
         <v>50242</v>
       </c>
-      <c r="C457" s="20">
-        <v>50242</v>
-      </c>
-      <c r="D457" s="22" t="s">
+      <c r="C457" s="16"/>
+      <c r="D457" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="E457" s="22"/>
-      <c r="F457" s="22"/>
-      <c r="G457" s="22"/>
-      <c r="H457" s="22"/>
-      <c r="I457" s="22"/>
-      <c r="J457" s="22"/>
-      <c r="K457" s="22"/>
-      <c r="L457" s="22"/>
-      <c r="M457" s="22"/>
-      <c r="N457" s="22"/>
-      <c r="O457" s="22"/>
-      <c r="P457" s="22"/>
-      <c r="Q457" s="22"/>
-      <c r="R457" s="22"/>
-      <c r="S457" s="22"/>
-      <c r="T457" s="22"/>
-      <c r="U457" s="24"/>
+      <c r="E457" s="18"/>
+      <c r="F457" s="18"/>
+      <c r="G457" s="18"/>
+      <c r="H457" s="18"/>
+      <c r="I457" s="18"/>
+      <c r="J457" s="18"/>
+      <c r="K457" s="18"/>
+      <c r="L457" s="18"/>
+      <c r="M457" s="18"/>
+      <c r="N457" s="18"/>
+      <c r="O457" s="18"/>
+      <c r="P457" s="18"/>
+      <c r="Q457" s="18"/>
+      <c r="R457" s="18"/>
+      <c r="S457" s="18"/>
+      <c r="T457" s="18"/>
+      <c r="U457" s="20"/>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A458" s="16">
+      <c r="A458" s="12">
         <v>456</v>
       </c>
       <c r="B458" s="4">
         <v>50243</v>
       </c>
-      <c r="C458" s="20">
-        <v>50243</v>
-      </c>
-      <c r="D458" s="22" t="s">
+      <c r="C458" s="16"/>
+      <c r="D458" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="E458" s="22"/>
-      <c r="F458" s="22"/>
-      <c r="G458" s="22"/>
-      <c r="H458" s="22"/>
-      <c r="I458" s="22"/>
-      <c r="J458" s="22"/>
-      <c r="K458" s="22"/>
-      <c r="L458" s="22"/>
-      <c r="M458" s="22"/>
-      <c r="N458" s="22"/>
-      <c r="O458" s="22"/>
-      <c r="P458" s="22"/>
-      <c r="Q458" s="22"/>
-      <c r="R458" s="22"/>
-      <c r="S458" s="22"/>
-      <c r="T458" s="22"/>
-      <c r="U458" s="24"/>
+      <c r="E458" s="18"/>
+      <c r="F458" s="18"/>
+      <c r="G458" s="18"/>
+      <c r="H458" s="18"/>
+      <c r="I458" s="18"/>
+      <c r="J458" s="18"/>
+      <c r="K458" s="18"/>
+      <c r="L458" s="18"/>
+      <c r="M458" s="18"/>
+      <c r="N458" s="18"/>
+      <c r="O458" s="18"/>
+      <c r="P458" s="18"/>
+      <c r="Q458" s="18"/>
+      <c r="R458" s="18"/>
+      <c r="S458" s="18"/>
+      <c r="T458" s="18"/>
+      <c r="U458" s="20"/>
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A459" s="16">
+      <c r="A459" s="12">
         <v>457</v>
       </c>
       <c r="B459" s="4">
         <v>50244</v>
       </c>
-      <c r="C459" s="20">
-        <v>50244</v>
-      </c>
-      <c r="D459" s="22" t="s">
+      <c r="C459" s="16"/>
+      <c r="D459" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="E459" s="22"/>
-      <c r="F459" s="22"/>
-      <c r="G459" s="22"/>
-      <c r="H459" s="22"/>
-      <c r="I459" s="22"/>
-      <c r="J459" s="22"/>
-      <c r="K459" s="22"/>
-      <c r="L459" s="22"/>
-      <c r="M459" s="22"/>
-      <c r="N459" s="22"/>
-      <c r="O459" s="22"/>
-      <c r="P459" s="22"/>
-      <c r="Q459" s="22"/>
-      <c r="R459" s="22"/>
-      <c r="S459" s="22"/>
-      <c r="T459" s="22"/>
-      <c r="U459" s="24"/>
-    </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="16">
+      <c r="E459" s="18"/>
+      <c r="F459" s="18"/>
+      <c r="G459" s="18"/>
+      <c r="H459" s="18"/>
+      <c r="I459" s="18"/>
+      <c r="J459" s="18"/>
+      <c r="K459" s="18"/>
+      <c r="L459" s="18"/>
+      <c r="M459" s="18"/>
+      <c r="N459" s="18"/>
+      <c r="O459" s="18"/>
+      <c r="P459" s="18"/>
+      <c r="Q459" s="18"/>
+      <c r="R459" s="18"/>
+      <c r="S459" s="18"/>
+      <c r="T459" s="18"/>
+      <c r="U459" s="20"/>
+    </row>
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A460" s="12">
         <v>458</v>
       </c>
       <c r="B460" s="4">
@@ -14581,8 +14593,8 @@
       <c r="T460" s="3"/>
       <c r="U460" s="5"/>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="16">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A461" s="12">
         <v>459</v>
       </c>
       <c r="B461" s="4">
@@ -14608,8 +14620,8 @@
       <c r="T461" s="3"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="16">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A462" s="12">
         <v>460</v>
       </c>
       <c r="B462" s="4">
@@ -14635,8 +14647,8 @@
       <c r="T462" s="3"/>
       <c r="U462" s="5"/>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="16">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A463" s="12">
         <v>461</v>
       </c>
       <c r="B463" s="4">
@@ -14662,8 +14674,8 @@
       <c r="T463" s="3"/>
       <c r="U463" s="5"/>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="16">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A464" s="12">
         <v>462</v>
       </c>
       <c r="B464" s="4">
@@ -14689,8 +14701,8 @@
       <c r="T464" s="3"/>
       <c r="U464" s="5"/>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="16">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A465" s="12">
         <v>463</v>
       </c>
       <c r="B465" s="4">
@@ -14716,8 +14728,8 @@
       <c r="T465" s="3"/>
       <c r="U465" s="5"/>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="16">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A466" s="12">
         <v>464</v>
       </c>
       <c r="B466" s="4">
@@ -14743,8 +14755,8 @@
       <c r="T466" s="3"/>
       <c r="U466" s="5"/>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="16">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A467" s="12">
         <v>465</v>
       </c>
       <c r="B467" s="4">
@@ -14770,8 +14782,8 @@
       <c r="T467" s="3"/>
       <c r="U467" s="5"/>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="16">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A468" s="12">
         <v>466</v>
       </c>
       <c r="B468" s="4">
@@ -14797,8 +14809,8 @@
       <c r="T468" s="3"/>
       <c r="U468" s="5"/>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="16">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A469" s="12">
         <v>467</v>
       </c>
       <c r="B469" s="4">
@@ -14824,8 +14836,8 @@
       <c r="T469" s="3"/>
       <c r="U469" s="5"/>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="16">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A470" s="12">
         <v>468</v>
       </c>
       <c r="B470" s="4">
@@ -14851,8 +14863,8 @@
       <c r="T470" s="3"/>
       <c r="U470" s="5"/>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="16">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A471" s="12">
         <v>469</v>
       </c>
       <c r="B471" s="4">
@@ -14878,8 +14890,8 @@
       <c r="T471" s="3"/>
       <c r="U471" s="5"/>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="16">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A472" s="12">
         <v>470</v>
       </c>
       <c r="B472" s="4">
@@ -14905,8 +14917,8 @@
       <c r="T472" s="3"/>
       <c r="U472" s="5"/>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="16">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A473" s="12">
         <v>471</v>
       </c>
       <c r="B473" s="4">
@@ -14932,8 +14944,8 @@
       <c r="T473" s="3"/>
       <c r="U473" s="5"/>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="16">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A474" s="12">
         <v>472</v>
       </c>
       <c r="B474" s="4">
@@ -14959,8 +14971,8 @@
       <c r="T474" s="3"/>
       <c r="U474" s="5"/>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="16">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A475" s="12">
         <v>473</v>
       </c>
       <c r="B475" s="4">
@@ -14986,8 +14998,8 @@
       <c r="T475" s="3"/>
       <c r="U475" s="5"/>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="16">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A476" s="12">
         <v>474</v>
       </c>
       <c r="B476" s="4">
@@ -15013,8 +15025,8 @@
       <c r="T476" s="3"/>
       <c r="U476" s="5"/>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="16">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A477" s="12">
         <v>475</v>
       </c>
       <c r="B477" s="4">
@@ -15040,8 +15052,8 @@
       <c r="T477" s="3"/>
       <c r="U477" s="5"/>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="16">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A478" s="12">
         <v>476</v>
       </c>
       <c r="B478" s="4">
@@ -15067,8 +15079,8 @@
       <c r="T478" s="3"/>
       <c r="U478" s="5"/>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="16">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A479" s="12">
         <v>477</v>
       </c>
       <c r="B479" s="4">
@@ -15094,8 +15106,8 @@
       <c r="T479" s="3"/>
       <c r="U479" s="5"/>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="16">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A480" s="12">
         <v>478</v>
       </c>
       <c r="B480" s="4">
@@ -15121,8 +15133,8 @@
       <c r="T480" s="3"/>
       <c r="U480" s="5"/>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="16">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A481" s="12">
         <v>479</v>
       </c>
       <c r="B481" s="4">
@@ -15148,8 +15160,8 @@
       <c r="T481" s="3"/>
       <c r="U481" s="5"/>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="16">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A482" s="12">
         <v>480</v>
       </c>
       <c r="B482" s="4">
@@ -15175,8 +15187,8 @@
       <c r="T482" s="3"/>
       <c r="U482" s="5"/>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="16">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A483" s="12">
         <v>481</v>
       </c>
       <c r="B483" s="4">
@@ -15202,8 +15214,8 @@
       <c r="T483" s="3"/>
       <c r="U483" s="5"/>
     </row>
-    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="16">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A484" s="12">
         <v>482</v>
       </c>
       <c r="B484" s="4">
@@ -15229,8 +15241,8 @@
       <c r="T484" s="3"/>
       <c r="U484" s="5"/>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="16">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A485" s="12">
         <v>483</v>
       </c>
       <c r="B485" s="4">
@@ -15256,8 +15268,8 @@
       <c r="T485" s="3"/>
       <c r="U485" s="5"/>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="16">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A486" s="12">
         <v>484</v>
       </c>
       <c r="B486" s="4">
@@ -15283,8 +15295,8 @@
       <c r="T486" s="3"/>
       <c r="U486" s="5"/>
     </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="16">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A487" s="12">
         <v>485</v>
       </c>
       <c r="B487" s="4">
@@ -15310,8 +15322,8 @@
       <c r="T487" s="3"/>
       <c r="U487" s="5"/>
     </row>
-    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="16">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A488" s="12">
         <v>486</v>
       </c>
       <c r="B488" s="4">
@@ -15337,8 +15349,8 @@
       <c r="T488" s="3"/>
       <c r="U488" s="5"/>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="16">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A489" s="12">
         <v>487</v>
       </c>
       <c r="B489" s="4">
@@ -15364,8 +15376,8 @@
       <c r="T489" s="3"/>
       <c r="U489" s="5"/>
     </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="16">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A490" s="12">
         <v>488</v>
       </c>
       <c r="B490" s="4">
@@ -15391,8 +15403,8 @@
       <c r="T490" s="3"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="16">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A491" s="12">
         <v>489</v>
       </c>
       <c r="B491" s="4">
@@ -15418,8 +15430,8 @@
       <c r="T491" s="3"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="16">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A492" s="12">
         <v>490</v>
       </c>
       <c r="B492" s="4">
@@ -15445,8 +15457,8 @@
       <c r="T492" s="3"/>
       <c r="U492" s="5"/>
     </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="16">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A493" s="12">
         <v>491</v>
       </c>
       <c r="B493" s="4">
@@ -15472,8 +15484,8 @@
       <c r="T493" s="3"/>
       <c r="U493" s="5"/>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="16">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A494" s="12">
         <v>492</v>
       </c>
       <c r="B494" s="4">
@@ -15499,8 +15511,8 @@
       <c r="T494" s="3"/>
       <c r="U494" s="5"/>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="16">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A495" s="12">
         <v>493</v>
       </c>
       <c r="B495" s="4">
@@ -15526,8 +15538,8 @@
       <c r="T495" s="3"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="16">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A496" s="12">
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
@@ -15553,8 +15565,8 @@
       <c r="T496" s="3"/>
       <c r="U496" s="5"/>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="16">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A497" s="12">
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
@@ -15580,8 +15592,8 @@
       <c r="T497" s="3"/>
       <c r="U497" s="5"/>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="16">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A498" s="12">
         <v>496</v>
       </c>
       <c r="B498" s="4" t="s">
@@ -15607,8 +15619,8 @@
       <c r="T498" s="3"/>
       <c r="U498" s="5"/>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="16">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A499" s="12">
         <v>497</v>
       </c>
       <c r="B499" s="4" t="s">
@@ -15634,8 +15646,8 @@
       <c r="T499" s="3"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="16">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A500" s="12">
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
@@ -15661,8 +15673,8 @@
       <c r="T500" s="3"/>
       <c r="U500" s="5"/>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="16">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A501" s="12">
         <v>499</v>
       </c>
       <c r="B501" s="4" t="s">
@@ -15688,8 +15700,8 @@
       <c r="T501" s="3"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="16">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A502" s="12">
         <v>500</v>
       </c>
       <c r="B502" s="4" t="s">
@@ -15715,8 +15727,8 @@
       <c r="T502" s="3"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="16">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A503" s="12">
         <v>501</v>
       </c>
       <c r="B503" s="4" t="s">
@@ -15742,8 +15754,8 @@
       <c r="T503" s="3"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="16">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A504" s="12">
         <v>502</v>
       </c>
       <c r="B504" s="4" t="s">
@@ -15769,8 +15781,8 @@
       <c r="T504" s="3"/>
       <c r="U504" s="5"/>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="16">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A505" s="12">
         <v>503</v>
       </c>
       <c r="B505" s="4" t="s">
@@ -15796,8 +15808,8 @@
       <c r="T505" s="3"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="16">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A506" s="12">
         <v>504</v>
       </c>
       <c r="B506" s="4" t="s">
@@ -15823,8 +15835,8 @@
       <c r="T506" s="3"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="16">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A507" s="12">
         <v>505</v>
       </c>
       <c r="B507" s="4" t="s">
@@ -15850,8 +15862,8 @@
       <c r="T507" s="3"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="16">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A508" s="12">
         <v>506</v>
       </c>
       <c r="B508" s="4" t="s">
@@ -15877,8 +15889,8 @@
       <c r="T508" s="3"/>
       <c r="U508" s="5"/>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="16">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A509" s="12">
         <v>507</v>
       </c>
       <c r="B509" s="4" t="s">
@@ -15904,8 +15916,8 @@
       <c r="T509" s="3"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="16">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A510" s="12">
         <v>508</v>
       </c>
       <c r="B510" s="4" t="s">
@@ -15931,8 +15943,8 @@
       <c r="T510" s="3"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="16">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A511" s="12">
         <v>509</v>
       </c>
       <c r="B511" s="4" t="s">
@@ -15958,8 +15970,8 @@
       <c r="T511" s="3"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="16">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A512" s="12">
         <v>510</v>
       </c>
       <c r="B512" s="4" t="s">
@@ -15985,8 +15997,8 @@
       <c r="T512" s="3"/>
       <c r="U512" s="5"/>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="16">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A513" s="12">
         <v>511</v>
       </c>
       <c r="B513" s="4" t="s">
@@ -16012,8 +16024,8 @@
       <c r="T513" s="3"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="16">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A514" s="12">
         <v>512</v>
       </c>
       <c r="B514" s="4" t="s">
@@ -16039,8 +16051,8 @@
       <c r="T514" s="3"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="16">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A515" s="12">
         <v>513</v>
       </c>
       <c r="B515" s="4" t="s">
@@ -16066,8 +16078,8 @@
       <c r="T515" s="3"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="16">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A516" s="12">
         <v>514</v>
       </c>
       <c r="B516" s="4" t="s">
@@ -16093,8 +16105,8 @@
       <c r="T516" s="3"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="16">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A517" s="12">
         <v>515</v>
       </c>
       <c r="B517" s="4" t="s">
@@ -16120,8 +16132,8 @@
       <c r="T517" s="3"/>
       <c r="U517" s="5"/>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="16">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A518" s="12">
         <v>516</v>
       </c>
       <c r="B518" s="4" t="s">
@@ -16147,8 +16159,8 @@
       <c r="T518" s="3"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="16">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A519" s="12">
         <v>517</v>
       </c>
       <c r="B519" s="4" t="s">
@@ -16174,8 +16186,8 @@
       <c r="T519" s="3"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="16">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A520" s="12">
         <v>518</v>
       </c>
       <c r="B520" s="4" t="s">
@@ -16201,8 +16213,8 @@
       <c r="T520" s="3"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="16">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A521" s="12">
         <v>519</v>
       </c>
       <c r="B521" s="4" t="s">
@@ -16228,8 +16240,8 @@
       <c r="T521" s="3"/>
       <c r="U521" s="5"/>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="16">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A522" s="12">
         <v>520</v>
       </c>
       <c r="B522" s="4" t="s">
@@ -16255,8 +16267,8 @@
       <c r="T522" s="3"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="16">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A523" s="12">
         <v>521</v>
       </c>
       <c r="B523" s="4" t="s">
@@ -16282,8 +16294,8 @@
       <c r="T523" s="3"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="16">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A524" s="12">
         <v>522</v>
       </c>
       <c r="B524" s="4" t="s">
@@ -16309,8 +16321,8 @@
       <c r="T524" s="3"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="16">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A525" s="12">
         <v>523</v>
       </c>
       <c r="B525" s="4" t="s">
@@ -16336,8 +16348,8 @@
       <c r="T525" s="3"/>
       <c r="U525" s="5"/>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="16">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A526" s="12">
         <v>524</v>
       </c>
       <c r="B526" s="4" t="s">
@@ -16363,8 +16375,8 @@
       <c r="T526" s="3"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="16">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A527" s="12">
         <v>525</v>
       </c>
       <c r="B527" s="4" t="s">
@@ -16390,8 +16402,8 @@
       <c r="T527" s="3"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="16">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A528" s="12">
         <v>526</v>
       </c>
       <c r="B528" s="4" t="s">
@@ -16417,8 +16429,8 @@
       <c r="T528" s="3"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="16">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A529" s="12">
         <v>527</v>
       </c>
       <c r="B529" s="4" t="s">
@@ -16444,8 +16456,8 @@
       <c r="T529" s="3"/>
       <c r="U529" s="5"/>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="16">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A530" s="12">
         <v>528</v>
       </c>
       <c r="B530" s="4" t="s">
@@ -16471,8 +16483,8 @@
       <c r="T530" s="3"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="16">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A531" s="12">
         <v>529</v>
       </c>
       <c r="B531" s="4" t="s">
@@ -16498,8 +16510,8 @@
       <c r="T531" s="3"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="16">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A532" s="12">
         <v>530</v>
       </c>
       <c r="B532" s="4" t="s">
@@ -16525,8 +16537,8 @@
       <c r="T532" s="3"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="16">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A533" s="12">
         <v>531</v>
       </c>
       <c r="B533" s="4" t="s">
@@ -16552,8 +16564,8 @@
       <c r="T533" s="3"/>
       <c r="U533" s="5"/>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="16">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A534" s="12">
         <v>532</v>
       </c>
       <c r="B534" s="4" t="s">
@@ -16579,8 +16591,8 @@
       <c r="T534" s="3"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="16">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A535" s="12">
         <v>533</v>
       </c>
       <c r="B535" s="4" t="s">
@@ -16606,8 +16618,8 @@
       <c r="T535" s="3"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="16">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A536" s="12">
         <v>534</v>
       </c>
       <c r="B536" s="4" t="s">
@@ -16633,8 +16645,8 @@
       <c r="T536" s="3"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="16">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A537" s="12">
         <v>535</v>
       </c>
       <c r="B537" s="4" t="s">
@@ -16660,8 +16672,8 @@
       <c r="T537" s="3"/>
       <c r="U537" s="5"/>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="16">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A538" s="12">
         <v>536</v>
       </c>
       <c r="B538" s="4" t="s">
@@ -16687,8 +16699,8 @@
       <c r="T538" s="3"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="16">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A539" s="12">
         <v>537</v>
       </c>
       <c r="B539" s="4" t="s">
@@ -16714,8 +16726,8 @@
       <c r="T539" s="3"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="16">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A540" s="12">
         <v>538</v>
       </c>
       <c r="B540" s="4" t="s">
@@ -16741,8 +16753,8 @@
       <c r="T540" s="3"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="16">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A541" s="12">
         <v>539</v>
       </c>
       <c r="B541" s="4" t="s">
@@ -16768,8 +16780,8 @@
       <c r="T541" s="3"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="16">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A542" s="12">
         <v>540</v>
       </c>
       <c r="B542" s="4" t="s">
@@ -16795,8 +16807,8 @@
       <c r="T542" s="3"/>
       <c r="U542" s="5"/>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="16">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A543" s="12">
         <v>541</v>
       </c>
       <c r="B543" s="4" t="s">
@@ -16822,8 +16834,8 @@
       <c r="T543" s="3"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="16">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A544" s="12">
         <v>542</v>
       </c>
       <c r="B544" s="4" t="s">
@@ -16849,8 +16861,8 @@
       <c r="T544" s="3"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="16">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A545" s="12">
         <v>543</v>
       </c>
       <c r="B545" s="4" t="s">
@@ -16876,8 +16888,8 @@
       <c r="T545" s="3"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="16">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A546" s="12">
         <v>544</v>
       </c>
       <c r="B546" s="4" t="s">
@@ -16903,8 +16915,8 @@
       <c r="T546" s="3"/>
       <c r="U546" s="5"/>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="16">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A547" s="12">
         <v>545</v>
       </c>
       <c r="B547" s="4" t="s">
@@ -16930,8 +16942,8 @@
       <c r="T547" s="3"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="16">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A548" s="12">
         <v>546</v>
       </c>
       <c r="B548" s="4" t="s">
@@ -16957,8 +16969,8 @@
       <c r="T548" s="3"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="16">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A549" s="12">
         <v>547</v>
       </c>
       <c r="B549" s="4" t="s">
@@ -16984,8 +16996,8 @@
       <c r="T549" s="3"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="16">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A550" s="12">
         <v>548</v>
       </c>
       <c r="B550" s="4" t="s">
@@ -17011,8 +17023,8 @@
       <c r="T550" s="3"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="16">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A551" s="12">
         <v>549</v>
       </c>
       <c r="B551" s="4" t="s">
@@ -17038,8 +17050,8 @@
       <c r="T551" s="3"/>
       <c r="U551" s="5"/>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="16">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A552" s="12">
         <v>550</v>
       </c>
       <c r="B552" s="4" t="s">
@@ -17065,8 +17077,8 @@
       <c r="T552" s="3"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="16">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A553" s="12">
         <v>551</v>
       </c>
       <c r="B553" s="4" t="s">
@@ -17092,8 +17104,8 @@
       <c r="T553" s="3"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="16">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A554" s="12">
         <v>552</v>
       </c>
       <c r="B554" s="4" t="s">
@@ -17119,8 +17131,8 @@
       <c r="T554" s="3"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="16">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A555" s="12">
         <v>553</v>
       </c>
       <c r="B555" s="4">
@@ -17146,8 +17158,8 @@
       <c r="T555" s="3"/>
       <c r="U555" s="5"/>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="16">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A556" s="12">
         <v>554</v>
       </c>
       <c r="B556" s="4">
@@ -17173,8 +17185,8 @@
       <c r="T556" s="3"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="16">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A557" s="12">
         <v>555</v>
       </c>
       <c r="B557" s="4">
@@ -17200,8 +17212,8 @@
       <c r="T557" s="3"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="16">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A558" s="12">
         <v>556</v>
       </c>
       <c r="B558" s="4">
@@ -17227,8 +17239,8 @@
       <c r="T558" s="3"/>
       <c r="U558" s="5"/>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="16">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A559" s="12">
         <v>557</v>
       </c>
       <c r="B559" s="4">
@@ -17254,8 +17266,8 @@
       <c r="T559" s="3"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="16">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A560" s="12">
         <v>558</v>
       </c>
       <c r="B560" s="4">
@@ -17281,8 +17293,8 @@
       <c r="T560" s="3"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="17">
+    <row r="561" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="13">
         <v>559</v>
       </c>
       <c r="B561" s="6">
@@ -17308,33 +17320,146 @@
       <c r="T561" s="7"/>
       <c r="U561" s="8"/>
     </row>
-    <row r="563" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D563" s="25"/>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A562" s="12">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E562" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="13">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D563" s="21"/>
+      <c r="E563" s="22" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="564" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D564" s="25"/>
-    </row>
-    <row r="565" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D565" s="25"/>
+      <c r="A564" s="12">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D564" s="21"/>
+      <c r="E564" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="13">
+        <v>563</v>
+      </c>
+      <c r="B565" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D565" s="21"/>
+      <c r="E565" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="566" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D566" s="25"/>
-    </row>
-    <row r="567" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D567" s="25"/>
+      <c r="A566" s="12">
+        <v>564</v>
+      </c>
+      <c r="B566" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D566" s="21"/>
+      <c r="E566" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="13">
+        <v>565</v>
+      </c>
+      <c r="B567" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D567" s="21"/>
+      <c r="E567" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A568" s="12">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E568" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="13">
+        <v>567</v>
+      </c>
+      <c r="B569" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="E569" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A570" s="12">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E570" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="13">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A572" s="12">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A574" s="12">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="13">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A576" s="12">
+        <v>574</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U561" xr:uid="{ECAF0E7D-B7D2-40E2-B3B9-6E314674AFC3}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FB03A-ED3F-44BE-B938-D2E05757C47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BA846-1DF2-4714-A3FB-972F13D0A362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$576</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="524">
   <si>
     <t>S.No.</t>
   </si>
@@ -1534,6 +1534,101 @@
   </si>
   <si>
     <t>New Case for UPTO constraint   https://jira.jda.com/browse/LRR-3300</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference only of 1 unit; can be ignored; 66.71 to 66.85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference only of 1 unit; can be ignored; </t>
+  </si>
+  <si>
+    <t>Change in SOQ numbers such that now buy guide and answers match perfectly</t>
+  </si>
+  <si>
+    <t>Results degraged-80 and 12 are the roundings. Even after deviation adjustments, we are trying to give some quantity from 6001, and rounding that up is leading to 80 being created.
+		We might end up in situations like this if we have high rounding differences.</t>
+  </si>
+  <si>
+    <t>due to last rounding getting ordered from 6001; results better</t>
+  </si>
+  <si>
+    <t>change in exception date in projections, no change in summary</t>
+  </si>
+  <si>
+    <t>improvement in results; first week only 0.5% improvement but in second week, improvement of 12% and same for third week also.</t>
+  </si>
+  <si>
+    <t>Ignored demand of 50, results degraged; with late supply fix this case should get resolved.:Will get fixed with SR defect fix.</t>
+  </si>
+  <si>
+    <t>change due to round up for week 2 and week3; no major diff.. Earlier was 24.46 now 25.53; same for 5002 item also</t>
+  </si>
+  <si>
+    <t>round up happens for all sources except last. Hence like in this case, we do a round up for 2 sources.. And the impact of it is that last source goes for a deficit of 3%.:: This happens like expected. Last sourcing will always get into a deficit of [N x rounding].</t>
+  </si>
+  <si>
+    <t>CHECK DEFECT---1/2 same calendar; and percentage is 30-30; first day we are giving 30% for 6001 for the first 2 days.. But had we given 50-50% for 6001/2 we might have got a better answer 
+https://jira.jda.com/browse/LRR-3340: Fixed with â€˜Fairshare sourcingsâ€™ fix.</t>
+  </si>
+  <si>
+    <t>results bias towards 6001;same concern as in 50226::Fixed with â€˜Fairshare sourcingsâ€™ fix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results better. Deviation due to transmode min consideration; we can further improve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slight improvement in results, due to round up, but due to transport equipment Min for 4002, we always over order for 6003 </t>
+  </si>
+  <si>
+    <t>results degrading due to transport equip changes where we are ordering from all the three sources, even though the demand for the day is met by any vendor.</t>
+  </si>
+  <si>
+    <t>Results better but for 30:30:40 we are getting 16:16:68 we can still improve the results</t>
+  </si>
+  <si>
+    <t>results similar to earlier, only one rounding change</t>
+  </si>
+  <si>
+    <t>for item 5001, results degraged, and projavail also increased[8]::This happens like expected. Last sourcing will always get into a deficit of [N x rounding].</t>
+  </si>
+  <si>
+    <t>6001/6002 are getting rounded up on each day compared to earlier results, leading to degradation of results. ::This happens like expected. Last sourcing will always get into a deficit of [N x rounding].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only 1 rounding difference and results better by 2%; </t>
+  </si>
+  <si>
+    <t>1 rouding difference, no change in summary sheet</t>
+  </si>
+  <si>
+    <t>1 rouding/unit difference; results almost same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results ok; differnce in ordering quantity for last sourcing; </t>
+  </si>
+  <si>
+    <t>No change in summary sheet, SOQ=50, unrounded was 50.50 now 49.50</t>
+  </si>
+  <si>
+    <t>out of 3 sources, 2 getting rounded up, earlier were round down, and the 3rd source[6003] order qty=145 compared to 155; overall results same as earlier; earlier it was positive deviation[1.33] now negative;projavail better as we didn’t hit the conv ship qty; however  at the transistion point projavail is positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No change in summary sheet, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for the order on 7th, 6001/6002 , need=164; we order and have 11 as projavail. Earlier it was 1. if 6002 is first to order and we order 100 why do I need to order 75 from 6001; if 6001 why 75, need should be 79.5 and round up=80; </t>
+  </si>
+  <si>
+    <t>No change in summary sheet, change in orderpointprojoh</t>
+  </si>
+  <si>
+    <t>Results better, no ignored demand on 3rd buy guide period</t>
+  </si>
+  <si>
+    <t>change in source sequence; percentage reversed;</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1767,19 +1862,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,9 +1883,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2112,10 +2202,10 @@
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C551" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D576" sqref="D576"/>
+      <selection pane="bottomRight" activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,25 +2213,26 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="9.140625" style="22"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16">
         <v>44426</v>
       </c>
-      <c r="E1" s="17">
+      <c r="E1" s="16">
         <v>44440</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="16">
+        <v>44452</v>
+      </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -2159,8 +2250,8 @@
       <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2188,7 +2279,9 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2215,7 +2308,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2242,7 +2337,9 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2269,7 +2366,9 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2296,7 +2395,9 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2323,7 +2424,9 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2350,7 +2453,9 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2377,7 +2482,9 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2404,7 +2511,9 @@
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2431,7 +2540,9 @@
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2458,7 +2569,9 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2485,7 +2598,9 @@
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2512,7 +2627,9 @@
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2539,7 +2656,9 @@
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2566,7 +2685,9 @@
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2593,7 +2714,9 @@
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2620,7 +2743,9 @@
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2647,7 +2772,9 @@
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2674,7 +2801,9 @@
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2701,7 +2830,9 @@
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2728,7 +2859,9 @@
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2755,7 +2888,9 @@
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2782,7 +2917,9 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2809,7 +2946,9 @@
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2836,7 +2975,9 @@
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2863,7 +3004,9 @@
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2890,7 +3033,9 @@
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2917,7 +3062,9 @@
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2944,7 +3091,9 @@
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -2971,7 +3120,9 @@
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2998,7 +3149,9 @@
       <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3025,7 +3178,9 @@
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3052,7 +3207,9 @@
       <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -3079,7 +3236,9 @@
       <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -3106,7 +3265,9 @@
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -3133,7 +3294,9 @@
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -3160,7 +3323,9 @@
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -3187,7 +3352,9 @@
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -3214,7 +3381,9 @@
       <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -3241,7 +3410,9 @@
       <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3268,7 +3439,9 @@
       <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -3295,7 +3468,9 @@
       <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -3322,7 +3497,9 @@
       <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -3349,7 +3526,9 @@
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3376,7 +3555,9 @@
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3403,7 +3584,9 @@
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3430,7 +3613,9 @@
       <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3457,7 +3642,9 @@
       <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3484,7 +3671,9 @@
       <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3511,7 +3700,9 @@
       <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3538,7 +3729,9 @@
       <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -3565,7 +3758,9 @@
       <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -3592,7 +3787,9 @@
       <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3619,7 +3816,9 @@
       <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3646,7 +3845,9 @@
       <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3673,7 +3874,9 @@
       <c r="B58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3700,7 +3903,9 @@
       <c r="B59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3727,7 +3932,9 @@
       <c r="B60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3754,7 +3961,9 @@
       <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3781,7 +3990,9 @@
       <c r="B62" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3808,7 +4019,9 @@
       <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3835,7 +4048,9 @@
       <c r="B64" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3862,7 +4077,9 @@
       <c r="B65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3889,7 +4106,9 @@
       <c r="B66" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3916,7 +4135,9 @@
       <c r="B67" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -3943,7 +4164,9 @@
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -3970,7 +4193,9 @@
       <c r="B69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3997,7 +4222,9 @@
       <c r="B70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4024,7 +4251,9 @@
       <c r="B71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4051,7 +4280,9 @@
       <c r="B72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -4078,7 +4309,9 @@
       <c r="B73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -4105,7 +4338,9 @@
       <c r="B74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -4132,7 +4367,9 @@
       <c r="B75" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -4159,7 +4396,9 @@
       <c r="B76" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4186,7 +4425,9 @@
       <c r="B77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4213,7 +4454,9 @@
       <c r="B78" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4240,7 +4483,9 @@
       <c r="B79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -4267,7 +4512,9 @@
       <c r="B80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4294,7 +4541,9 @@
       <c r="B81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -4321,7 +4570,9 @@
       <c r="B82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4348,7 +4599,9 @@
       <c r="B83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4375,7 +4628,9 @@
       <c r="B84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4402,7 +4657,9 @@
       <c r="B85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4429,7 +4686,9 @@
       <c r="B86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4456,7 +4715,9 @@
       <c r="B87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4483,7 +4744,9 @@
       <c r="B88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4510,7 +4773,9 @@
       <c r="B89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -4537,7 +4802,9 @@
       <c r="B90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4564,7 +4831,9 @@
       <c r="B91" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4591,7 +4860,9 @@
       <c r="B92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4618,7 +4889,9 @@
       <c r="B93" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4645,7 +4918,9 @@
       <c r="B94" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4672,7 +4947,9 @@
       <c r="B95" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -4699,7 +4976,9 @@
       <c r="B96" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -4726,7 +5005,9 @@
       <c r="B97" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -4753,7 +5034,9 @@
       <c r="B98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -4780,7 +5063,9 @@
       <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -4807,7 +5092,9 @@
       <c r="B100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4834,7 +5121,9 @@
       <c r="B101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -4861,7 +5150,9 @@
       <c r="B102" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -4888,7 +5179,9 @@
       <c r="B103" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -4915,7 +5208,9 @@
       <c r="B104" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -4942,7 +5237,9 @@
       <c r="B105" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -4969,7 +5266,9 @@
       <c r="B106" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -4996,7 +5295,9 @@
       <c r="B107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -5023,7 +5324,9 @@
       <c r="B108" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -5050,7 +5353,9 @@
       <c r="B109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -5077,7 +5382,9 @@
       <c r="B110" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -5104,7 +5411,9 @@
       <c r="B111" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -5131,7 +5440,9 @@
       <c r="B112" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -5158,7 +5469,9 @@
       <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -5185,7 +5498,9 @@
       <c r="B114" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -5212,7 +5527,9 @@
       <c r="B115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -5239,7 +5556,9 @@
       <c r="B116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -5266,7 +5585,9 @@
       <c r="B117" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="3"/>
+      <c r="C117" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -5293,7 +5614,9 @@
       <c r="B118" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C118" s="3"/>
+      <c r="C118" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -5320,7 +5643,9 @@
       <c r="B119" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -5347,7 +5672,9 @@
       <c r="B120" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -5374,7 +5701,9 @@
       <c r="B121" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -5401,7 +5730,9 @@
       <c r="B122" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -5428,7 +5759,9 @@
       <c r="B123" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -5455,7 +5788,9 @@
       <c r="B124" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -5482,7 +5817,9 @@
       <c r="B125" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -5509,7 +5846,9 @@
       <c r="B126" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -5536,7 +5875,9 @@
       <c r="B127" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="3"/>
+      <c r="C127" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -5563,7 +5904,9 @@
       <c r="B128" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -5590,7 +5933,9 @@
       <c r="B129" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -5617,7 +5962,9 @@
       <c r="B130" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -5644,7 +5991,9 @@
       <c r="B131" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -5671,7 +6020,9 @@
       <c r="B132" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="3"/>
+      <c r="C132" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -5698,7 +6049,9 @@
       <c r="B133" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="3"/>
+      <c r="C133" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -5725,7 +6078,9 @@
       <c r="B134" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -5752,7 +6107,9 @@
       <c r="B135" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -5779,7 +6136,9 @@
       <c r="B136" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -5806,7 +6165,9 @@
       <c r="B137" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -5833,7 +6194,9 @@
       <c r="B138" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -5860,7 +6223,9 @@
       <c r="B139" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -5887,7 +6252,9 @@
       <c r="B140" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -5914,7 +6281,9 @@
       <c r="B141" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="3"/>
+      <c r="C141" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -5941,7 +6310,9 @@
       <c r="B142" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -5968,7 +6339,9 @@
       <c r="B143" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -5995,7 +6368,9 @@
       <c r="B144" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
@@ -6022,7 +6397,9 @@
       <c r="B145" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
@@ -6049,7 +6426,9 @@
       <c r="B146" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
@@ -6076,7 +6455,9 @@
       <c r="B147" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -6103,7 +6484,9 @@
       <c r="B148" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -6130,7 +6513,9 @@
       <c r="B149" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -6157,7 +6542,9 @@
       <c r="B150" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C150" s="3"/>
+      <c r="C150" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -6184,7 +6571,9 @@
       <c r="B151" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -6211,7 +6600,9 @@
       <c r="B152" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -6238,7 +6629,9 @@
       <c r="B153" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -6265,7 +6658,9 @@
       <c r="B154" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -6292,7 +6687,9 @@
       <c r="B155" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="3"/>
+      <c r="C155" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -6319,7 +6716,9 @@
       <c r="B156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="3"/>
+      <c r="C156" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -6346,7 +6745,9 @@
       <c r="B157" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -6373,7 +6774,9 @@
       <c r="B158" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -6400,7 +6803,9 @@
       <c r="B159" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -6427,7 +6832,9 @@
       <c r="B160" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -6454,7 +6861,9 @@
       <c r="B161" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -6481,7 +6890,9 @@
       <c r="B162" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -6508,7 +6919,9 @@
       <c r="B163" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -6535,7 +6948,9 @@
       <c r="B164" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C164" s="3"/>
+      <c r="C164" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -6562,7 +6977,9 @@
       <c r="B165" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="3"/>
+      <c r="C165" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -6589,7 +7006,9 @@
       <c r="B166" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -6616,7 +7035,9 @@
       <c r="B167" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -6643,7 +7064,9 @@
       <c r="B168" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -6670,7 +7093,9 @@
       <c r="B169" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -6697,7 +7122,9 @@
       <c r="B170" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -6724,7 +7151,9 @@
       <c r="B171" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -6751,7 +7180,9 @@
       <c r="B172" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -6778,7 +7209,9 @@
       <c r="B173" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="3"/>
+      <c r="C173" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -6805,7 +7238,9 @@
       <c r="B174" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -6832,7 +7267,9 @@
       <c r="B175" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -6859,7 +7296,9 @@
       <c r="B176" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C176" s="3"/>
+      <c r="C176" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -6886,7 +7325,9 @@
       <c r="B177" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -6913,7 +7354,9 @@
       <c r="B178" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C178" s="3"/>
+      <c r="C178" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -6940,7 +7383,9 @@
       <c r="B179" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -6967,7 +7412,9 @@
       <c r="B180" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="3"/>
+      <c r="C180" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -6994,7 +7441,9 @@
       <c r="B181" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -7021,7 +7470,9 @@
       <c r="B182" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -7048,7 +7499,9 @@
       <c r="B183" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -7075,7 +7528,9 @@
       <c r="B184" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -7102,7 +7557,9 @@
       <c r="B185" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -7129,7 +7586,9 @@
       <c r="B186" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -7156,7 +7615,9 @@
       <c r="B187" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="3"/>
+      <c r="C187" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -7183,7 +7644,9 @@
       <c r="B188" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -7210,7 +7673,9 @@
       <c r="B189" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -7237,7 +7702,9 @@
       <c r="B190" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -7264,7 +7731,9 @@
       <c r="B191" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -7291,7 +7760,9 @@
       <c r="B192" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -7318,7 +7789,9 @@
       <c r="B193" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -7345,7 +7818,9 @@
       <c r="B194" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -7372,7 +7847,9 @@
       <c r="B195" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -7399,7 +7876,9 @@
       <c r="B196" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -7426,7 +7905,9 @@
       <c r="B197" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -7453,7 +7934,9 @@
       <c r="B198" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="3"/>
+      <c r="C198" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -7480,7 +7963,9 @@
       <c r="B199" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -7507,7 +7992,9 @@
       <c r="B200" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -7534,7 +8021,9 @@
       <c r="B201" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -7561,7 +8050,9 @@
       <c r="B202" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C202" s="3"/>
+      <c r="C202" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -7588,7 +8079,9 @@
       <c r="B203" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -7615,7 +8108,9 @@
       <c r="B204" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -7642,7 +8137,9 @@
       <c r="B205" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -7669,7 +8166,9 @@
       <c r="B206" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -7696,7 +8195,9 @@
       <c r="B207" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -7723,7 +8224,9 @@
       <c r="B208" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -7750,7 +8253,9 @@
       <c r="B209" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C209" s="3"/>
+      <c r="C209" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -7777,7 +8282,9 @@
       <c r="B210" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -7804,7 +8311,9 @@
       <c r="B211" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -7831,7 +8340,9 @@
       <c r="B212" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -7858,7 +8369,9 @@
       <c r="B213" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -7885,7 +8398,9 @@
       <c r="B214" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -7912,7 +8427,9 @@
       <c r="B215" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -7939,7 +8456,9 @@
       <c r="B216" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -7966,7 +8485,9 @@
       <c r="B217" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -7993,7 +8514,9 @@
       <c r="B218" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C218" s="3"/>
+      <c r="C218" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -8020,7 +8543,9 @@
       <c r="B219" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C219" s="3"/>
+      <c r="C219" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -8047,7 +8572,9 @@
       <c r="B220" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -8074,7 +8601,9 @@
       <c r="B221" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -8101,7 +8630,9 @@
       <c r="B222" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -8128,7 +8659,9 @@
       <c r="B223" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -8155,7 +8688,9 @@
       <c r="B224" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
@@ -8182,7 +8717,9 @@
       <c r="B225" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C225" s="3"/>
+      <c r="C225" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
@@ -8209,7 +8746,9 @@
       <c r="B226" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
@@ -8236,7 +8775,9 @@
       <c r="B227" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
@@ -8263,7 +8804,9 @@
       <c r="B228" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C228" s="3"/>
+      <c r="C228" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
@@ -8290,7 +8833,9 @@
       <c r="B229" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
@@ -8317,7 +8862,9 @@
       <c r="B230" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
@@ -8344,7 +8891,9 @@
       <c r="B231" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
@@ -8371,7 +8920,9 @@
       <c r="B232" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
@@ -8398,7 +8949,9 @@
       <c r="B233" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
@@ -8425,7 +8978,9 @@
       <c r="B234" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -8452,7 +9007,9 @@
       <c r="B235" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -8479,7 +9036,9 @@
       <c r="B236" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -8506,7 +9065,9 @@
       <c r="B237" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -8533,7 +9094,9 @@
       <c r="B238" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
@@ -8560,7 +9123,9 @@
       <c r="B239" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C239" s="3"/>
+      <c r="C239" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
@@ -8587,7 +9152,9 @@
       <c r="B240" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
@@ -8614,7 +9181,9 @@
       <c r="B241" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
@@ -8641,7 +9210,9 @@
       <c r="B242" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
@@ -8668,7 +9239,9 @@
       <c r="B243" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
@@ -8695,7 +9268,9 @@
       <c r="B244" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
@@ -8722,7 +9297,9 @@
       <c r="B245" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
@@ -8749,7 +9326,9 @@
       <c r="B246" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
@@ -8776,7 +9355,9 @@
       <c r="B247" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C247" s="3"/>
+      <c r="C247" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
@@ -8803,7 +9384,9 @@
       <c r="B248" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C248" s="3"/>
+      <c r="C248" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
@@ -8830,7 +9413,9 @@
       <c r="B249" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
@@ -8857,7 +9442,9 @@
       <c r="B250" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C250" s="3"/>
+      <c r="C250" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -8884,7 +9471,9 @@
       <c r="B251" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C251" s="3"/>
+      <c r="C251" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -8911,7 +9500,9 @@
       <c r="B252" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="C252" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
@@ -8938,7 +9529,9 @@
       <c r="B253" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C253" s="3"/>
+      <c r="C253" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
@@ -8965,7 +9558,9 @@
       <c r="B254" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C254" s="3"/>
+      <c r="C254" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
@@ -8992,7 +9587,9 @@
       <c r="B255" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="3"/>
+      <c r="C255" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
@@ -9019,7 +9616,9 @@
       <c r="B256" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="3"/>
+      <c r="C256" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
@@ -9046,7 +9645,9 @@
       <c r="B257" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C257" s="3"/>
+      <c r="C257" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
@@ -9073,7 +9674,9 @@
       <c r="B258" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C258" s="3"/>
+      <c r="C258" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
@@ -9100,7 +9703,9 @@
       <c r="B259" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C259" s="3"/>
+      <c r="C259" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
@@ -9127,7 +9732,9 @@
       <c r="B260" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C260" s="3"/>
+      <c r="C260" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
@@ -9154,7 +9761,9 @@
       <c r="B261" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C261" s="3"/>
+      <c r="C261" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
@@ -9181,7 +9790,9 @@
       <c r="B262" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C262" s="3"/>
+      <c r="C262" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
@@ -9208,7 +9819,9 @@
       <c r="B263" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
@@ -9235,7 +9848,9 @@
       <c r="B264" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="C264" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
@@ -9262,7 +9877,9 @@
       <c r="B265" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="C265" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
@@ -9289,7 +9906,9 @@
       <c r="B266" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C266" s="3"/>
+      <c r="C266" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
@@ -9316,7 +9935,9 @@
       <c r="B267" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="C267" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
@@ -9343,7 +9964,9 @@
       <c r="B268" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C268" s="3"/>
+      <c r="C268" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
@@ -9370,7 +9993,9 @@
       <c r="B269" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C269" s="3"/>
+      <c r="C269" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
@@ -9397,7 +10022,9 @@
       <c r="B270" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="C270" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
@@ -9424,7 +10051,9 @@
       <c r="B271" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C271" s="3"/>
+      <c r="C271" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
@@ -9451,7 +10080,9 @@
       <c r="B272" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="C272" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
@@ -9478,7 +10109,9 @@
       <c r="B273" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C273" s="3"/>
+      <c r="C273" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
@@ -9505,7 +10138,9 @@
       <c r="B274" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C274" s="3"/>
+      <c r="C274" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
@@ -9532,7 +10167,9 @@
       <c r="B275" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C275" s="3"/>
+      <c r="C275" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
@@ -9559,7 +10196,9 @@
       <c r="B276" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C276" s="3"/>
+      <c r="C276" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
@@ -9586,7 +10225,9 @@
       <c r="B277" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
@@ -9613,7 +10254,9 @@
       <c r="B278" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C278" s="3"/>
+      <c r="C278" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
@@ -9640,7 +10283,9 @@
       <c r="B279" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
@@ -9667,7 +10312,9 @@
       <c r="B280" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C280" s="3"/>
+      <c r="C280" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
@@ -9694,7 +10341,9 @@
       <c r="B281" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
@@ -9721,7 +10370,9 @@
       <c r="B282" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C282" s="3"/>
+      <c r="C282" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
@@ -9748,7 +10399,9 @@
       <c r="B283" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C283" s="3"/>
+      <c r="C283" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
@@ -9775,7 +10428,9 @@
       <c r="B284" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
@@ -9802,7 +10457,9 @@
       <c r="B285" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C285" s="3"/>
+      <c r="C285" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
@@ -9829,7 +10486,9 @@
       <c r="B286" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C286" s="3"/>
+      <c r="C286" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
@@ -9856,7 +10515,9 @@
       <c r="B287" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
@@ -9883,7 +10544,9 @@
       <c r="B288" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C288" s="3"/>
+      <c r="C288" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
@@ -9910,7 +10573,9 @@
       <c r="B289" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C289" s="3"/>
+      <c r="C289" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
@@ -9937,7 +10602,9 @@
       <c r="B290" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C290" s="3"/>
+      <c r="C290" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
@@ -9964,7 +10631,9 @@
       <c r="B291" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C291" s="3"/>
+      <c r="C291" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
@@ -9991,7 +10660,9 @@
       <c r="B292" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C292" s="3"/>
+      <c r="C292" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
@@ -10018,7 +10689,9 @@
       <c r="B293" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C293" s="3"/>
+      <c r="C293" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
@@ -10045,7 +10718,9 @@
       <c r="B294" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C294" s="3"/>
+      <c r="C294" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
@@ -10072,7 +10747,9 @@
       <c r="B295" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="3"/>
+      <c r="C295" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
@@ -10099,7 +10776,9 @@
       <c r="B296" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C296" s="3"/>
+      <c r="C296" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
@@ -10126,7 +10805,9 @@
       <c r="B297" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C297" s="3"/>
+      <c r="C297" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
@@ -10153,7 +10834,9 @@
       <c r="B298" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C298" s="3"/>
+      <c r="C298" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
@@ -10180,7 +10863,9 @@
       <c r="B299" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C299" s="3"/>
+      <c r="C299" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
@@ -10207,7 +10892,9 @@
       <c r="B300" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
@@ -10234,7 +10921,9 @@
       <c r="B301" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C301" s="3"/>
+      <c r="C301" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
@@ -10261,7 +10950,9 @@
       <c r="B302" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="3"/>
+      <c r="C302" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
@@ -10288,7 +10979,9 @@
       <c r="B303" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C303" s="3"/>
+      <c r="C303" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
@@ -10315,7 +11008,9 @@
       <c r="B304" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C304" s="3"/>
+      <c r="C304" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
@@ -10342,7 +11037,9 @@
       <c r="B305" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C305" s="3"/>
+      <c r="C305" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
@@ -10369,7 +11066,9 @@
       <c r="B306" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C306" s="3"/>
+      <c r="C306" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
@@ -10396,7 +11095,9 @@
       <c r="B307" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C307" s="3"/>
+      <c r="C307" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
@@ -10423,7 +11124,9 @@
       <c r="B308" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C308" s="3"/>
+      <c r="C308" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
@@ -10450,7 +11153,9 @@
       <c r="B309" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C309" s="3"/>
+      <c r="C309" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
@@ -10477,7 +11182,9 @@
       <c r="B310" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C310" s="3"/>
+      <c r="C310" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
@@ -10504,7 +11211,9 @@
       <c r="B311" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C311" s="3"/>
+      <c r="C311" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
@@ -10531,7 +11240,9 @@
       <c r="B312" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C312" s="3"/>
+      <c r="C312" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
@@ -10558,7 +11269,9 @@
       <c r="B313" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C313" s="3"/>
+      <c r="C313" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
@@ -10585,7 +11298,9 @@
       <c r="B314" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C314" s="3"/>
+      <c r="C314" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
@@ -10612,7 +11327,9 @@
       <c r="B315" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C315" s="3"/>
+      <c r="C315" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
@@ -10639,7 +11356,9 @@
       <c r="B316" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C316" s="3"/>
+      <c r="C316" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
@@ -10666,7 +11385,9 @@
       <c r="B317" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C317" s="3"/>
+      <c r="C317" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
@@ -10693,7 +11414,9 @@
       <c r="B318" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C318" s="3"/>
+      <c r="C318" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
@@ -10720,7 +11443,9 @@
       <c r="B319" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C319" s="3"/>
+      <c r="C319" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
@@ -10747,7 +11472,9 @@
       <c r="B320" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C320" s="3"/>
+      <c r="C320" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
@@ -10774,7 +11501,9 @@
       <c r="B321" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C321" s="3"/>
+      <c r="C321" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
@@ -10801,7 +11530,9 @@
       <c r="B322" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C322" s="3"/>
+      <c r="C322" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
@@ -10828,7 +11559,9 @@
       <c r="B323" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C323" s="3"/>
+      <c r="C323" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
@@ -10855,7 +11588,9 @@
       <c r="B324" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C324" s="3"/>
+      <c r="C324" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
@@ -10882,7 +11617,9 @@
       <c r="B325" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C325" s="3"/>
+      <c r="C325" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
@@ -10909,7 +11646,9 @@
       <c r="B326" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C326" s="3"/>
+      <c r="C326" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
@@ -10936,7 +11675,9 @@
       <c r="B327" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C327" s="3"/>
+      <c r="C327" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
@@ -10963,7 +11704,9 @@
       <c r="B328" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C328" s="3"/>
+      <c r="C328" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
@@ -10990,7 +11733,9 @@
       <c r="B329" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C329" s="3"/>
+      <c r="C329" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
@@ -11017,7 +11762,9 @@
       <c r="B330" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C330" s="3"/>
+      <c r="C330" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
@@ -11044,7 +11791,9 @@
       <c r="B331" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C331" s="3"/>
+      <c r="C331" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
@@ -11071,7 +11820,9 @@
       <c r="B332" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C332" s="3"/>
+      <c r="C332" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
@@ -11098,7 +11849,9 @@
       <c r="B333" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C333" s="3"/>
+      <c r="C333" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
@@ -11125,7 +11878,9 @@
       <c r="B334" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C334" s="3"/>
+      <c r="C334" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -11152,7 +11907,9 @@
       <c r="B335" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
@@ -11179,7 +11936,9 @@
       <c r="B336" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C336" s="3"/>
+      <c r="C336" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
@@ -11206,7 +11965,9 @@
       <c r="B337" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C337" s="3"/>
+      <c r="C337" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
@@ -11233,7 +11994,9 @@
       <c r="B338" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C338" s="3"/>
+      <c r="C338" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
@@ -11260,7 +12023,9 @@
       <c r="B339" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C339" s="3"/>
+      <c r="C339" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
@@ -11287,7 +12052,9 @@
       <c r="B340" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C340" s="3"/>
+      <c r="C340" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
@@ -11314,7 +12081,9 @@
       <c r="B341" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C341" s="3"/>
+      <c r="C341" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
@@ -11341,7 +12110,9 @@
       <c r="B342" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C342" s="3"/>
+      <c r="C342" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -11368,7 +12139,9 @@
       <c r="B343" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C343" s="3"/>
+      <c r="C343" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -11395,7 +12168,9 @@
       <c r="B344" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C344" s="3"/>
+      <c r="C344" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
@@ -11422,7 +12197,9 @@
       <c r="B345" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C345" s="3"/>
+      <c r="C345" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
@@ -11449,7 +12226,9 @@
       <c r="B346" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C346" s="3"/>
+      <c r="C346" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
@@ -11476,7 +12255,9 @@
       <c r="B347" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C347" s="3"/>
+      <c r="C347" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
@@ -11503,7 +12284,9 @@
       <c r="B348" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C348" s="3"/>
+      <c r="C348" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
@@ -11530,7 +12313,9 @@
       <c r="B349" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C349" s="3"/>
+      <c r="C349" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
@@ -11557,7 +12342,9 @@
       <c r="B350" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C350" s="3"/>
+      <c r="C350" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
@@ -11584,7 +12371,9 @@
       <c r="B351" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C351" s="3"/>
+      <c r="C351" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
@@ -11611,7 +12400,9 @@
       <c r="B352" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C352" s="3"/>
+      <c r="C352" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
@@ -11638,7 +12429,9 @@
       <c r="B353" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C353" s="3"/>
+      <c r="C353" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
@@ -11665,7 +12458,9 @@
       <c r="B354" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C354" s="3"/>
+      <c r="C354" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
@@ -11692,7 +12487,9 @@
       <c r="B355" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C355" s="3"/>
+      <c r="C355" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
@@ -11719,7 +12516,9 @@
       <c r="B356" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C356" s="3"/>
+      <c r="C356" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
@@ -11746,7 +12545,9 @@
       <c r="B357" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C357" s="3"/>
+      <c r="C357" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
@@ -11773,7 +12574,9 @@
       <c r="B358" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C358" s="3"/>
+      <c r="C358" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
@@ -11800,7 +12603,9 @@
       <c r="B359" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C359" s="3"/>
+      <c r="C359" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
@@ -11827,7 +12632,9 @@
       <c r="B360" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C360" s="3"/>
+      <c r="C360" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
@@ -11854,7 +12661,9 @@
       <c r="B361" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C361" s="3"/>
+      <c r="C361" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
@@ -11881,7 +12690,9 @@
       <c r="B362" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C362" s="3"/>
+      <c r="C362" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
@@ -11908,7 +12719,9 @@
       <c r="B363" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C363" s="3"/>
+      <c r="C363" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
@@ -11935,7 +12748,9 @@
       <c r="B364" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C364" s="3"/>
+      <c r="C364" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
@@ -11962,7 +12777,9 @@
       <c r="B365" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C365" s="3"/>
+      <c r="C365" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
@@ -11989,7 +12806,9 @@
       <c r="B366" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C366" s="3"/>
+      <c r="C366" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
@@ -12016,7 +12835,9 @@
       <c r="B367" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C367" s="3"/>
+      <c r="C367" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
@@ -12043,7 +12864,9 @@
       <c r="B368" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C368" s="3"/>
+      <c r="C368" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
@@ -12070,7 +12893,9 @@
       <c r="B369" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C369" s="3"/>
+      <c r="C369" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
@@ -12097,7 +12922,9 @@
       <c r="B370" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C370" s="3"/>
+      <c r="C370" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
@@ -12124,7 +12951,9 @@
       <c r="B371" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C371" s="3"/>
+      <c r="C371" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
@@ -12151,7 +12980,9 @@
       <c r="B372" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C372" s="3"/>
+      <c r="C372" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
@@ -12178,7 +13009,9 @@
       <c r="B373" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C373" s="3"/>
+      <c r="C373" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
@@ -12205,7 +13038,9 @@
       <c r="B374" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C374" s="3"/>
+      <c r="C374" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
@@ -12232,7 +13067,9 @@
       <c r="B375" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C375" s="3"/>
+      <c r="C375" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
@@ -12259,7 +13096,9 @@
       <c r="B376" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C376" s="3"/>
+      <c r="C376" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
@@ -12286,7 +13125,9 @@
       <c r="B377" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C377" s="3"/>
+      <c r="C377" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
@@ -12313,7 +13154,9 @@
       <c r="B378" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C378" s="3"/>
+      <c r="C378" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
@@ -12340,7 +13183,9 @@
       <c r="B379" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C379" s="3"/>
+      <c r="C379" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -12367,7 +13212,9 @@
       <c r="B380" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C380" s="3"/>
+      <c r="C380" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
@@ -12394,7 +13241,9 @@
       <c r="B381" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="C381" s="3"/>
+      <c r="C381" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
@@ -12421,7 +13270,9 @@
       <c r="B382" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C382" s="3"/>
+      <c r="C382" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
@@ -12448,7 +13299,9 @@
       <c r="B383" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C383" s="3"/>
+      <c r="C383" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
@@ -12475,7 +13328,9 @@
       <c r="B384" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C384" s="3"/>
+      <c r="C384" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
@@ -12502,7 +13357,9 @@
       <c r="B385" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C385" s="3"/>
+      <c r="C385" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
@@ -12529,7 +13386,9 @@
       <c r="B386" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C386" s="3"/>
+      <c r="C386" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
@@ -12556,7 +13415,9 @@
       <c r="B387" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C387" s="3"/>
+      <c r="C387" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
@@ -12583,7 +13444,9 @@
       <c r="B388" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C388" s="3"/>
+      <c r="C388" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
@@ -12610,7 +13473,9 @@
       <c r="B389" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C389" s="3"/>
+      <c r="C389" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
@@ -12637,7 +13502,9 @@
       <c r="B390" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C390" s="3"/>
+      <c r="C390" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
@@ -12664,7 +13531,9 @@
       <c r="B391" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C391" s="3"/>
+      <c r="C391" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
@@ -12691,7 +13560,9 @@
       <c r="B392" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C392" s="3"/>
+      <c r="C392" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
@@ -12718,7 +13589,9 @@
       <c r="B393" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C393" s="3"/>
+      <c r="C393" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
@@ -12745,7 +13618,9 @@
       <c r="B394" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C394" s="3"/>
+      <c r="C394" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
@@ -12772,7 +13647,9 @@
       <c r="B395" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C395" s="3"/>
+      <c r="C395" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
@@ -12799,7 +13676,9 @@
       <c r="B396" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C396" s="3"/>
+      <c r="C396" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
@@ -12826,7 +13705,9 @@
       <c r="B397" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C397" s="3"/>
+      <c r="C397" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
@@ -12853,7 +13734,9 @@
       <c r="B398" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C398" s="3"/>
+      <c r="C398" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
@@ -12880,7 +13763,9 @@
       <c r="B399" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C399" s="3"/>
+      <c r="C399" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
@@ -12907,7 +13792,9 @@
       <c r="B400" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C400" s="3"/>
+      <c r="C400" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
@@ -12937,7 +13824,9 @@
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
+      <c r="F401" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
@@ -12964,7 +13853,9 @@
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
+      <c r="F402" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
@@ -12988,7 +13879,9 @@
       <c r="B403" s="4">
         <v>50103</v>
       </c>
-      <c r="C403" s="3"/>
+      <c r="C403" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
@@ -13018,7 +13911,9 @@
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
+      <c r="F404" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
@@ -13042,7 +13937,9 @@
       <c r="B405" s="4">
         <v>50106</v>
       </c>
-      <c r="C405" s="3"/>
+      <c r="C405" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
@@ -13069,7 +13966,9 @@
       <c r="B406" s="4">
         <v>50107</v>
       </c>
-      <c r="C406" s="3"/>
+      <c r="C406" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
@@ -13096,7 +13995,9 @@
       <c r="B407" s="4">
         <v>50108</v>
       </c>
-      <c r="C407" s="3"/>
+      <c r="C407" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
@@ -13123,7 +14024,9 @@
       <c r="B408" s="4">
         <v>50109</v>
       </c>
-      <c r="C408" s="3"/>
+      <c r="C408" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
@@ -13150,7 +14053,9 @@
       <c r="B409" s="4">
         <v>50110</v>
       </c>
-      <c r="C409" s="3"/>
+      <c r="C409" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
@@ -13180,7 +14085,9 @@
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
+      <c r="F410" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
@@ -13207,7 +14114,9 @@
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
+      <c r="F411" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
@@ -13234,7 +14143,9 @@
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
+      <c r="F412" s="23" t="s">
+        <v>497</v>
+      </c>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
@@ -13261,7 +14172,9 @@
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
+      <c r="F413" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
@@ -13288,7 +14201,9 @@
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
+      <c r="F414" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
@@ -13315,7 +14230,9 @@
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
+      <c r="F415" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
@@ -13339,7 +14256,9 @@
       <c r="B416" s="4">
         <v>50117</v>
       </c>
-      <c r="C416" s="3"/>
+      <c r="C416" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
@@ -13366,7 +14285,9 @@
       <c r="B417" s="4">
         <v>50118</v>
       </c>
-      <c r="C417" s="3"/>
+      <c r="C417" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
@@ -13396,7 +14317,9 @@
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
+      <c r="F418" s="23" t="s">
+        <v>501</v>
+      </c>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
@@ -13423,7 +14346,9 @@
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
+      <c r="F419" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
@@ -13450,7 +14375,9 @@
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
+      <c r="F420" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
@@ -13477,7 +14404,9 @@
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
+      <c r="F421" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
@@ -13504,7 +14433,9 @@
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
+      <c r="F422" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
@@ -13531,7 +14462,9 @@
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
+      <c r="F423" s="23" t="s">
+        <v>503</v>
+      </c>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
@@ -13558,7 +14491,9 @@
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
+      <c r="F424" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
@@ -13585,7 +14520,9 @@
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
+      <c r="F425" s="23" t="s">
+        <v>504</v>
+      </c>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
@@ -13612,7 +14549,9 @@
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
+      <c r="F426" s="23" t="s">
+        <v>505</v>
+      </c>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
@@ -13636,27 +14575,29 @@
       <c r="B427" s="4">
         <v>50229</v>
       </c>
-      <c r="C427" s="16"/>
-      <c r="D427" s="18" t="s">
+      <c r="C427" s="3"/>
+      <c r="D427" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E427" s="18"/>
-      <c r="F427" s="18"/>
-      <c r="G427" s="18"/>
-      <c r="H427" s="18"/>
-      <c r="I427" s="18"/>
-      <c r="J427" s="18"/>
-      <c r="K427" s="18"/>
-      <c r="L427" s="18"/>
-      <c r="M427" s="18"/>
-      <c r="N427" s="18"/>
-      <c r="O427" s="18"/>
-      <c r="P427" s="18"/>
-      <c r="Q427" s="18"/>
-      <c r="R427" s="18"/>
-      <c r="S427" s="18"/>
-      <c r="T427" s="18"/>
-      <c r="U427" s="20"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G427" s="3"/>
+      <c r="H427" s="3"/>
+      <c r="I427" s="3"/>
+      <c r="J427" s="3"/>
+      <c r="K427" s="3"/>
+      <c r="L427" s="3"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+      <c r="P427" s="3"/>
+      <c r="Q427" s="3"/>
+      <c r="R427" s="3"/>
+      <c r="S427" s="3"/>
+      <c r="T427" s="3"/>
+      <c r="U427" s="5"/>
     </row>
     <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="12">
@@ -13665,10 +14606,12 @@
       <c r="B428" s="4">
         <v>50230</v>
       </c>
-      <c r="C428" s="16"/>
+      <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
+      <c r="F428" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
@@ -13692,27 +14635,29 @@
       <c r="B429" s="4">
         <v>50231</v>
       </c>
-      <c r="C429" s="16"/>
-      <c r="D429" s="18" t="s">
+      <c r="C429" s="3"/>
+      <c r="D429" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="18"/>
-      <c r="H429" s="18"/>
-      <c r="I429" s="18"/>
-      <c r="J429" s="18"/>
-      <c r="K429" s="18"/>
-      <c r="L429" s="18"/>
-      <c r="M429" s="18"/>
-      <c r="N429" s="18"/>
-      <c r="O429" s="18"/>
-      <c r="P429" s="18"/>
-      <c r="Q429" s="18"/>
-      <c r="R429" s="18"/>
-      <c r="S429" s="18"/>
-      <c r="T429" s="18"/>
-      <c r="U429" s="20"/>
+      <c r="E429" s="3"/>
+      <c r="F429" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G429" s="3"/>
+      <c r="H429" s="3"/>
+      <c r="I429" s="3"/>
+      <c r="J429" s="3"/>
+      <c r="K429" s="3"/>
+      <c r="L429" s="3"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="O429" s="3"/>
+      <c r="P429" s="3"/>
+      <c r="Q429" s="3"/>
+      <c r="R429" s="3"/>
+      <c r="S429" s="3"/>
+      <c r="T429" s="3"/>
+      <c r="U429" s="5"/>
     </row>
     <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="12">
@@ -13721,27 +14666,29 @@
       <c r="B430" s="4">
         <v>50232</v>
       </c>
-      <c r="C430" s="16"/>
-      <c r="D430" s="18" t="s">
+      <c r="C430" s="3"/>
+      <c r="D430" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E430" s="18"/>
-      <c r="F430" s="18"/>
-      <c r="G430" s="18"/>
-      <c r="H430" s="18"/>
-      <c r="I430" s="18"/>
-      <c r="J430" s="18"/>
-      <c r="K430" s="18"/>
-      <c r="L430" s="18"/>
-      <c r="M430" s="18"/>
-      <c r="N430" s="18"/>
-      <c r="O430" s="18"/>
-      <c r="P430" s="18"/>
-      <c r="Q430" s="18"/>
-      <c r="R430" s="18"/>
-      <c r="S430" s="18"/>
-      <c r="T430" s="18"/>
-      <c r="U430" s="20"/>
+      <c r="E430" s="3"/>
+      <c r="F430" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+      <c r="I430" s="3"/>
+      <c r="J430" s="3"/>
+      <c r="K430" s="3"/>
+      <c r="L430" s="3"/>
+      <c r="M430" s="3"/>
+      <c r="N430" s="3"/>
+      <c r="O430" s="3"/>
+      <c r="P430" s="3"/>
+      <c r="Q430" s="3"/>
+      <c r="R430" s="3"/>
+      <c r="S430" s="3"/>
+      <c r="T430" s="3"/>
+      <c r="U430" s="5"/>
     </row>
     <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="12">
@@ -13750,10 +14697,12 @@
       <c r="B431" s="4">
         <v>50233</v>
       </c>
-      <c r="C431" s="16"/>
+      <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
+      <c r="F431" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
@@ -13777,27 +14726,29 @@
       <c r="B432" s="4">
         <v>50234</v>
       </c>
-      <c r="C432" s="16"/>
-      <c r="D432" s="18" t="s">
+      <c r="C432" s="3"/>
+      <c r="D432" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E432" s="18"/>
-      <c r="F432" s="18"/>
-      <c r="G432" s="18"/>
-      <c r="H432" s="18"/>
-      <c r="I432" s="18"/>
-      <c r="J432" s="18"/>
-      <c r="K432" s="18"/>
-      <c r="L432" s="18"/>
-      <c r="M432" s="18"/>
-      <c r="N432" s="18"/>
-      <c r="O432" s="18"/>
-      <c r="P432" s="18"/>
-      <c r="Q432" s="18"/>
-      <c r="R432" s="18"/>
-      <c r="S432" s="18"/>
-      <c r="T432" s="18"/>
-      <c r="U432" s="20"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+      <c r="I432" s="3"/>
+      <c r="J432" s="3"/>
+      <c r="K432" s="3"/>
+      <c r="L432" s="3"/>
+      <c r="M432" s="3"/>
+      <c r="N432" s="3"/>
+      <c r="O432" s="3"/>
+      <c r="P432" s="3"/>
+      <c r="Q432" s="3"/>
+      <c r="R432" s="3"/>
+      <c r="S432" s="3"/>
+      <c r="T432" s="3"/>
+      <c r="U432" s="5"/>
     </row>
     <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="12">
@@ -13806,10 +14757,12 @@
       <c r="B433" s="4">
         <v>50235</v>
       </c>
-      <c r="C433" s="16"/>
+      <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
+      <c r="F433" s="3" t="s">
+        <v>510</v>
+      </c>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
@@ -13833,27 +14786,29 @@
       <c r="B434" s="4">
         <v>50236</v>
       </c>
-      <c r="C434" s="16"/>
-      <c r="D434" s="18" t="s">
+      <c r="C434" s="3"/>
+      <c r="D434" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E434" s="18"/>
-      <c r="F434" s="18"/>
-      <c r="G434" s="18"/>
-      <c r="H434" s="18"/>
-      <c r="I434" s="18"/>
-      <c r="J434" s="18"/>
-      <c r="K434" s="18"/>
-      <c r="L434" s="18"/>
-      <c r="M434" s="18"/>
-      <c r="N434" s="18"/>
-      <c r="O434" s="18"/>
-      <c r="P434" s="18"/>
-      <c r="Q434" s="18"/>
-      <c r="R434" s="18"/>
-      <c r="S434" s="18"/>
-      <c r="T434" s="18"/>
-      <c r="U434" s="20"/>
+      <c r="E434" s="3"/>
+      <c r="F434" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+      <c r="I434" s="3"/>
+      <c r="J434" s="3"/>
+      <c r="K434" s="3"/>
+      <c r="L434" s="3"/>
+      <c r="M434" s="3"/>
+      <c r="N434" s="3"/>
+      <c r="O434" s="3"/>
+      <c r="P434" s="3"/>
+      <c r="Q434" s="3"/>
+      <c r="R434" s="3"/>
+      <c r="S434" s="3"/>
+      <c r="T434" s="3"/>
+      <c r="U434" s="5"/>
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="12">
@@ -13862,27 +14817,29 @@
       <c r="B435" s="4">
         <v>50240</v>
       </c>
-      <c r="C435" s="16"/>
-      <c r="D435" s="18" t="s">
+      <c r="C435" s="3"/>
+      <c r="D435" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
-      <c r="I435" s="18"/>
-      <c r="J435" s="18"/>
-      <c r="K435" s="18"/>
-      <c r="L435" s="18"/>
-      <c r="M435" s="18"/>
-      <c r="N435" s="18"/>
-      <c r="O435" s="18"/>
-      <c r="P435" s="18"/>
-      <c r="Q435" s="18"/>
-      <c r="R435" s="18"/>
-      <c r="S435" s="18"/>
-      <c r="T435" s="18"/>
-      <c r="U435" s="20"/>
+      <c r="E435" s="3"/>
+      <c r="F435" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+      <c r="I435" s="3"/>
+      <c r="J435" s="3"/>
+      <c r="K435" s="3"/>
+      <c r="L435" s="3"/>
+      <c r="M435" s="3"/>
+      <c r="N435" s="3"/>
+      <c r="O435" s="3"/>
+      <c r="P435" s="3"/>
+      <c r="Q435" s="3"/>
+      <c r="R435" s="3"/>
+      <c r="S435" s="3"/>
+      <c r="T435" s="3"/>
+      <c r="U435" s="5"/>
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
@@ -13891,27 +14848,29 @@
       <c r="B436" s="4">
         <v>50120</v>
       </c>
-      <c r="C436" s="16"/>
-      <c r="D436" s="18" t="s">
+      <c r="C436" s="3"/>
+      <c r="D436" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="E436" s="18"/>
-      <c r="F436" s="18"/>
-      <c r="G436" s="18"/>
-      <c r="H436" s="18"/>
-      <c r="I436" s="18"/>
-      <c r="J436" s="18"/>
-      <c r="K436" s="18"/>
-      <c r="L436" s="18"/>
-      <c r="M436" s="18"/>
-      <c r="N436" s="18"/>
-      <c r="O436" s="18"/>
-      <c r="P436" s="18"/>
-      <c r="Q436" s="18"/>
-      <c r="R436" s="18"/>
-      <c r="S436" s="18"/>
-      <c r="T436" s="18"/>
-      <c r="U436" s="20"/>
+      <c r="E436" s="3"/>
+      <c r="F436" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+      <c r="I436" s="3"/>
+      <c r="J436" s="3"/>
+      <c r="K436" s="3"/>
+      <c r="L436" s="3"/>
+      <c r="M436" s="3"/>
+      <c r="N436" s="3"/>
+      <c r="O436" s="3"/>
+      <c r="P436" s="3"/>
+      <c r="Q436" s="3"/>
+      <c r="R436" s="3"/>
+      <c r="S436" s="3"/>
+      <c r="T436" s="3"/>
+      <c r="U436" s="5"/>
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
@@ -13920,27 +14879,29 @@
       <c r="B437" s="4">
         <v>50121</v>
       </c>
-      <c r="C437" s="16"/>
-      <c r="D437" s="18" t="s">
+      <c r="C437" s="3"/>
+      <c r="D437" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E437" s="18"/>
-      <c r="F437" s="18"/>
-      <c r="G437" s="18"/>
-      <c r="H437" s="18"/>
-      <c r="I437" s="18"/>
-      <c r="J437" s="18"/>
-      <c r="K437" s="18"/>
-      <c r="L437" s="18"/>
-      <c r="M437" s="18"/>
-      <c r="N437" s="18"/>
-      <c r="O437" s="18"/>
-      <c r="P437" s="18"/>
-      <c r="Q437" s="18"/>
-      <c r="R437" s="18"/>
-      <c r="S437" s="18"/>
-      <c r="T437" s="18"/>
-      <c r="U437" s="20"/>
+      <c r="E437" s="3"/>
+      <c r="F437" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+      <c r="I437" s="3"/>
+      <c r="J437" s="3"/>
+      <c r="K437" s="3"/>
+      <c r="L437" s="3"/>
+      <c r="M437" s="3"/>
+      <c r="N437" s="3"/>
+      <c r="O437" s="3"/>
+      <c r="P437" s="3"/>
+      <c r="Q437" s="3"/>
+      <c r="R437" s="3"/>
+      <c r="S437" s="3"/>
+      <c r="T437" s="3"/>
+      <c r="U437" s="5"/>
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
@@ -13949,27 +14910,29 @@
       <c r="B438" s="4">
         <v>50122</v>
       </c>
-      <c r="C438" s="16"/>
-      <c r="D438" s="18" t="s">
+      <c r="C438" s="3"/>
+      <c r="D438" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E438" s="18"/>
-      <c r="F438" s="18"/>
-      <c r="G438" s="18"/>
-      <c r="H438" s="18"/>
-      <c r="I438" s="18"/>
-      <c r="J438" s="18"/>
-      <c r="K438" s="18"/>
-      <c r="L438" s="18"/>
-      <c r="M438" s="18"/>
-      <c r="N438" s="18"/>
-      <c r="O438" s="18"/>
-      <c r="P438" s="18"/>
-      <c r="Q438" s="18"/>
-      <c r="R438" s="18"/>
-      <c r="S438" s="18"/>
-      <c r="T438" s="18"/>
-      <c r="U438" s="20"/>
+      <c r="E438" s="3"/>
+      <c r="F438" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+      <c r="I438" s="3"/>
+      <c r="J438" s="3"/>
+      <c r="K438" s="3"/>
+      <c r="L438" s="3"/>
+      <c r="M438" s="3"/>
+      <c r="N438" s="3"/>
+      <c r="O438" s="3"/>
+      <c r="P438" s="3"/>
+      <c r="Q438" s="3"/>
+      <c r="R438" s="3"/>
+      <c r="S438" s="3"/>
+      <c r="T438" s="3"/>
+      <c r="U438" s="5"/>
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
@@ -13978,27 +14941,29 @@
       <c r="B439" s="4">
         <v>50123</v>
       </c>
-      <c r="C439" s="16"/>
-      <c r="D439" s="18" t="s">
+      <c r="C439" s="3"/>
+      <c r="D439" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" s="18"/>
-      <c r="I439" s="18"/>
-      <c r="J439" s="18"/>
-      <c r="K439" s="18"/>
-      <c r="L439" s="18"/>
-      <c r="M439" s="18"/>
-      <c r="N439" s="18"/>
-      <c r="O439" s="18"/>
-      <c r="P439" s="18"/>
-      <c r="Q439" s="18"/>
-      <c r="R439" s="18"/>
-      <c r="S439" s="18"/>
-      <c r="T439" s="18"/>
-      <c r="U439" s="20"/>
+      <c r="E439" s="3"/>
+      <c r="F439" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+      <c r="I439" s="3"/>
+      <c r="J439" s="3"/>
+      <c r="K439" s="3"/>
+      <c r="L439" s="3"/>
+      <c r="M439" s="3"/>
+      <c r="N439" s="3"/>
+      <c r="O439" s="3"/>
+      <c r="P439" s="3"/>
+      <c r="Q439" s="3"/>
+      <c r="R439" s="3"/>
+      <c r="S439" s="3"/>
+      <c r="T439" s="3"/>
+      <c r="U439" s="5"/>
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
@@ -14007,27 +14972,29 @@
       <c r="B440" s="4">
         <v>50124</v>
       </c>
-      <c r="C440" s="16"/>
-      <c r="D440" s="18" t="s">
+      <c r="C440" s="3"/>
+      <c r="D440" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E440" s="18"/>
-      <c r="F440" s="18"/>
-      <c r="G440" s="18"/>
-      <c r="H440" s="18"/>
-      <c r="I440" s="18"/>
-      <c r="J440" s="18"/>
-      <c r="K440" s="18"/>
-      <c r="L440" s="18"/>
-      <c r="M440" s="18"/>
-      <c r="N440" s="18"/>
-      <c r="O440" s="18"/>
-      <c r="P440" s="18"/>
-      <c r="Q440" s="18"/>
-      <c r="R440" s="18"/>
-      <c r="S440" s="18"/>
-      <c r="T440" s="18"/>
-      <c r="U440" s="20"/>
+      <c r="E440" s="3"/>
+      <c r="F440" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+      <c r="I440" s="3"/>
+      <c r="J440" s="3"/>
+      <c r="K440" s="3"/>
+      <c r="L440" s="3"/>
+      <c r="M440" s="3"/>
+      <c r="N440" s="3"/>
+      <c r="O440" s="3"/>
+      <c r="P440" s="3"/>
+      <c r="Q440" s="3"/>
+      <c r="R440" s="3"/>
+      <c r="S440" s="3"/>
+      <c r="T440" s="3"/>
+      <c r="U440" s="5"/>
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
@@ -14036,27 +15003,29 @@
       <c r="B441" s="4">
         <v>50125</v>
       </c>
-      <c r="C441" s="16"/>
-      <c r="D441" s="18" t="s">
+      <c r="C441" s="3"/>
+      <c r="D441" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E441" s="18"/>
-      <c r="F441" s="18"/>
-      <c r="G441" s="18"/>
-      <c r="H441" s="18"/>
-      <c r="I441" s="18"/>
-      <c r="J441" s="18"/>
-      <c r="K441" s="18"/>
-      <c r="L441" s="18"/>
-      <c r="M441" s="18"/>
-      <c r="N441" s="18"/>
-      <c r="O441" s="18"/>
-      <c r="P441" s="18"/>
-      <c r="Q441" s="18"/>
-      <c r="R441" s="18"/>
-      <c r="S441" s="18"/>
-      <c r="T441" s="18"/>
-      <c r="U441" s="20"/>
+      <c r="E441" s="3"/>
+      <c r="F441" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+      <c r="I441" s="3"/>
+      <c r="J441" s="3"/>
+      <c r="K441" s="3"/>
+      <c r="L441" s="3"/>
+      <c r="M441" s="3"/>
+      <c r="N441" s="3"/>
+      <c r="O441" s="3"/>
+      <c r="P441" s="3"/>
+      <c r="Q441" s="3"/>
+      <c r="R441" s="3"/>
+      <c r="S441" s="3"/>
+      <c r="T441" s="3"/>
+      <c r="U441" s="5"/>
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
@@ -14065,10 +15034,12 @@
       <c r="B442" s="4">
         <v>50126</v>
       </c>
-      <c r="C442" s="16"/>
+      <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
+      <c r="F442" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
@@ -14092,10 +15063,12 @@
       <c r="B443" s="4">
         <v>50127</v>
       </c>
-      <c r="C443" s="16"/>
+      <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
+      <c r="F443" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
@@ -14119,27 +15092,29 @@
       <c r="B444" s="4">
         <v>50128</v>
       </c>
-      <c r="C444" s="16"/>
-      <c r="D444" s="19" t="s">
+      <c r="C444" s="3"/>
+      <c r="D444" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="E444" s="18"/>
-      <c r="F444" s="18"/>
-      <c r="G444" s="18"/>
-      <c r="H444" s="18"/>
-      <c r="I444" s="18"/>
-      <c r="J444" s="18"/>
-      <c r="K444" s="18"/>
-      <c r="L444" s="18"/>
-      <c r="M444" s="18"/>
-      <c r="N444" s="18"/>
-      <c r="O444" s="18"/>
-      <c r="P444" s="18"/>
-      <c r="Q444" s="18"/>
-      <c r="R444" s="18"/>
-      <c r="S444" s="18"/>
-      <c r="T444" s="18"/>
-      <c r="U444" s="20"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="3"/>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3"/>
+      <c r="N444" s="3"/>
+      <c r="O444" s="3"/>
+      <c r="P444" s="3"/>
+      <c r="Q444" s="3"/>
+      <c r="R444" s="3"/>
+      <c r="S444" s="3"/>
+      <c r="T444" s="3"/>
+      <c r="U444" s="5"/>
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
@@ -14148,7 +15123,9 @@
       <c r="B445" s="4">
         <v>50129</v>
       </c>
-      <c r="C445" s="16"/>
+      <c r="C445" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
@@ -14175,27 +15152,29 @@
       <c r="B446" s="4">
         <v>50132</v>
       </c>
-      <c r="C446" s="16"/>
-      <c r="D446" s="18" t="s">
+      <c r="C446" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D446" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E446" s="18"/>
-      <c r="F446" s="18"/>
-      <c r="G446" s="18"/>
-      <c r="H446" s="18"/>
-      <c r="I446" s="18"/>
-      <c r="J446" s="18"/>
-      <c r="K446" s="18"/>
-      <c r="L446" s="18"/>
-      <c r="M446" s="18"/>
-      <c r="N446" s="18"/>
-      <c r="O446" s="18"/>
-      <c r="P446" s="18"/>
-      <c r="Q446" s="18"/>
-      <c r="R446" s="18"/>
-      <c r="S446" s="18"/>
-      <c r="T446" s="18"/>
-      <c r="U446" s="20"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="3"/>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="3"/>
+      <c r="L446" s="3"/>
+      <c r="M446" s="3"/>
+      <c r="N446" s="3"/>
+      <c r="O446" s="3"/>
+      <c r="P446" s="3"/>
+      <c r="Q446" s="3"/>
+      <c r="R446" s="3"/>
+      <c r="S446" s="3"/>
+      <c r="T446" s="3"/>
+      <c r="U446" s="5"/>
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
@@ -14204,27 +15183,29 @@
       <c r="B447" s="4">
         <v>50133</v>
       </c>
-      <c r="C447" s="16"/>
-      <c r="D447" s="18" t="s">
+      <c r="C447" s="3"/>
+      <c r="D447" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="18"/>
-      <c r="H447" s="18"/>
-      <c r="I447" s="18"/>
-      <c r="J447" s="18"/>
-      <c r="K447" s="18"/>
-      <c r="L447" s="18"/>
-      <c r="M447" s="18"/>
-      <c r="N447" s="18"/>
-      <c r="O447" s="18"/>
-      <c r="P447" s="18"/>
-      <c r="Q447" s="18"/>
-      <c r="R447" s="18"/>
-      <c r="S447" s="18"/>
-      <c r="T447" s="18"/>
-      <c r="U447" s="20"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+      <c r="I447" s="3"/>
+      <c r="J447" s="3"/>
+      <c r="K447" s="3"/>
+      <c r="L447" s="3"/>
+      <c r="M447" s="3"/>
+      <c r="N447" s="3"/>
+      <c r="O447" s="3"/>
+      <c r="P447" s="3"/>
+      <c r="Q447" s="3"/>
+      <c r="R447" s="3"/>
+      <c r="S447" s="3"/>
+      <c r="T447" s="3"/>
+      <c r="U447" s="5"/>
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
@@ -14233,27 +15214,29 @@
       <c r="B448" s="4">
         <v>50134</v>
       </c>
-      <c r="C448" s="16"/>
-      <c r="D448" s="18" t="s">
+      <c r="C448" s="3"/>
+      <c r="D448" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E448" s="18"/>
-      <c r="F448" s="18"/>
-      <c r="G448" s="18"/>
-      <c r="H448" s="18"/>
-      <c r="I448" s="18"/>
-      <c r="J448" s="18"/>
-      <c r="K448" s="18"/>
-      <c r="L448" s="18"/>
-      <c r="M448" s="18"/>
-      <c r="N448" s="18"/>
-      <c r="O448" s="18"/>
-      <c r="P448" s="18"/>
-      <c r="Q448" s="18"/>
-      <c r="R448" s="18"/>
-      <c r="S448" s="18"/>
-      <c r="T448" s="18"/>
-      <c r="U448" s="20"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="I448" s="3"/>
+      <c r="J448" s="3"/>
+      <c r="K448" s="3"/>
+      <c r="L448" s="3"/>
+      <c r="M448" s="3"/>
+      <c r="N448" s="3"/>
+      <c r="O448" s="3"/>
+      <c r="P448" s="3"/>
+      <c r="Q448" s="3"/>
+      <c r="R448" s="3"/>
+      <c r="S448" s="3"/>
+      <c r="T448" s="3"/>
+      <c r="U448" s="5"/>
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
@@ -14262,27 +15245,29 @@
       <c r="B449" s="4">
         <v>50135</v>
       </c>
-      <c r="C449" s="16"/>
-      <c r="D449" s="18" t="s">
+      <c r="C449" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D449" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="18"/>
-      <c r="H449" s="18"/>
-      <c r="I449" s="18"/>
-      <c r="J449" s="18"/>
-      <c r="K449" s="18"/>
-      <c r="L449" s="18"/>
-      <c r="M449" s="18"/>
-      <c r="N449" s="18"/>
-      <c r="O449" s="18"/>
-      <c r="P449" s="18"/>
-      <c r="Q449" s="18"/>
-      <c r="R449" s="18"/>
-      <c r="S449" s="18"/>
-      <c r="T449" s="18"/>
-      <c r="U449" s="20"/>
+      <c r="E449" s="3"/>
+      <c r="F449" s="3"/>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+      <c r="I449" s="3"/>
+      <c r="J449" s="3"/>
+      <c r="K449" s="3"/>
+      <c r="L449" s="3"/>
+      <c r="M449" s="3"/>
+      <c r="N449" s="3"/>
+      <c r="O449" s="3"/>
+      <c r="P449" s="3"/>
+      <c r="Q449" s="3"/>
+      <c r="R449" s="3"/>
+      <c r="S449" s="3"/>
+      <c r="T449" s="3"/>
+      <c r="U449" s="5"/>
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
@@ -14291,27 +15276,29 @@
       <c r="B450" s="4">
         <v>50136</v>
       </c>
-      <c r="C450" s="16"/>
-      <c r="D450" s="18" t="s">
+      <c r="C450" s="3"/>
+      <c r="D450" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E450" s="18"/>
-      <c r="F450" s="18"/>
-      <c r="G450" s="18"/>
-      <c r="H450" s="18"/>
-      <c r="I450" s="18"/>
-      <c r="J450" s="18"/>
-      <c r="K450" s="18"/>
-      <c r="L450" s="18"/>
-      <c r="M450" s="18"/>
-      <c r="N450" s="18"/>
-      <c r="O450" s="18"/>
-      <c r="P450" s="18"/>
-      <c r="Q450" s="18"/>
-      <c r="R450" s="18"/>
-      <c r="S450" s="18"/>
-      <c r="T450" s="18"/>
-      <c r="U450" s="20"/>
+      <c r="E450" s="3"/>
+      <c r="F450" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+      <c r="I450" s="3"/>
+      <c r="J450" s="3"/>
+      <c r="K450" s="3"/>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3"/>
+      <c r="N450" s="3"/>
+      <c r="O450" s="3"/>
+      <c r="P450" s="3"/>
+      <c r="Q450" s="3"/>
+      <c r="R450" s="3"/>
+      <c r="S450" s="3"/>
+      <c r="T450" s="3"/>
+      <c r="U450" s="5"/>
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
@@ -14320,27 +15307,29 @@
       <c r="B451" s="4">
         <v>50137</v>
       </c>
-      <c r="C451" s="16"/>
-      <c r="D451" s="18" t="s">
+      <c r="C451" s="3"/>
+      <c r="D451" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="18"/>
-      <c r="H451" s="18"/>
-      <c r="I451" s="18"/>
-      <c r="J451" s="18"/>
-      <c r="K451" s="18"/>
-      <c r="L451" s="18"/>
-      <c r="M451" s="18"/>
-      <c r="N451" s="18"/>
-      <c r="O451" s="18"/>
-      <c r="P451" s="18"/>
-      <c r="Q451" s="18"/>
-      <c r="R451" s="18"/>
-      <c r="S451" s="18"/>
-      <c r="T451" s="18"/>
-      <c r="U451" s="20"/>
+      <c r="E451" s="3"/>
+      <c r="F451" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="I451" s="3"/>
+      <c r="J451" s="3"/>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3"/>
+      <c r="N451" s="3"/>
+      <c r="O451" s="3"/>
+      <c r="P451" s="3"/>
+      <c r="Q451" s="3"/>
+      <c r="R451" s="3"/>
+      <c r="S451" s="3"/>
+      <c r="T451" s="3"/>
+      <c r="U451" s="5"/>
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
@@ -14349,10 +15338,12 @@
       <c r="B452" s="4">
         <v>50138</v>
       </c>
-      <c r="C452" s="16"/>
+      <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
+      <c r="F452" s="3" t="s">
+        <v>514</v>
+      </c>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
@@ -14376,10 +15367,12 @@
       <c r="B453" s="4">
         <v>50139</v>
       </c>
-      <c r="C453" s="16"/>
+      <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
+      <c r="F453" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
@@ -14403,27 +15396,29 @@
       <c r="B454" s="4">
         <v>50140</v>
       </c>
-      <c r="C454" s="16"/>
-      <c r="D454" s="18" t="s">
+      <c r="C454" s="3"/>
+      <c r="D454" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E454" s="18"/>
-      <c r="F454" s="18"/>
-      <c r="G454" s="18"/>
-      <c r="H454" s="18"/>
-      <c r="I454" s="18"/>
-      <c r="J454" s="18"/>
-      <c r="K454" s="18"/>
-      <c r="L454" s="18"/>
-      <c r="M454" s="18"/>
-      <c r="N454" s="18"/>
-      <c r="O454" s="18"/>
-      <c r="P454" s="18"/>
-      <c r="Q454" s="18"/>
-      <c r="R454" s="18"/>
-      <c r="S454" s="18"/>
-      <c r="T454" s="18"/>
-      <c r="U454" s="20"/>
+      <c r="E454" s="3"/>
+      <c r="F454" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+      <c r="I454" s="3"/>
+      <c r="J454" s="3"/>
+      <c r="K454" s="3"/>
+      <c r="L454" s="3"/>
+      <c r="M454" s="3"/>
+      <c r="N454" s="3"/>
+      <c r="O454" s="3"/>
+      <c r="P454" s="3"/>
+      <c r="Q454" s="3"/>
+      <c r="R454" s="3"/>
+      <c r="S454" s="3"/>
+      <c r="T454" s="3"/>
+      <c r="U454" s="5"/>
     </row>
     <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
@@ -14432,10 +15427,12 @@
       <c r="B455" s="4">
         <v>50160</v>
       </c>
-      <c r="C455" s="16"/>
+      <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
+      <c r="F455" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
@@ -14459,10 +15456,12 @@
       <c r="B456" s="4">
         <v>50241</v>
       </c>
-      <c r="C456" s="16"/>
+      <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
+      <c r="F456" s="3" t="s">
+        <v>518</v>
+      </c>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
@@ -14486,27 +15485,29 @@
       <c r="B457" s="4">
         <v>50242</v>
       </c>
-      <c r="C457" s="16"/>
-      <c r="D457" s="18" t="s">
+      <c r="C457" s="3"/>
+      <c r="D457" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E457" s="18"/>
-      <c r="F457" s="18"/>
-      <c r="G457" s="18"/>
-      <c r="H457" s="18"/>
-      <c r="I457" s="18"/>
-      <c r="J457" s="18"/>
-      <c r="K457" s="18"/>
-      <c r="L457" s="18"/>
-      <c r="M457" s="18"/>
-      <c r="N457" s="18"/>
-      <c r="O457" s="18"/>
-      <c r="P457" s="18"/>
-      <c r="Q457" s="18"/>
-      <c r="R457" s="18"/>
-      <c r="S457" s="18"/>
-      <c r="T457" s="18"/>
-      <c r="U457" s="20"/>
+      <c r="E457" s="3"/>
+      <c r="F457" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+      <c r="I457" s="3"/>
+      <c r="J457" s="3"/>
+      <c r="K457" s="3"/>
+      <c r="L457" s="3"/>
+      <c r="M457" s="3"/>
+      <c r="N457" s="3"/>
+      <c r="O457" s="3"/>
+      <c r="P457" s="3"/>
+      <c r="Q457" s="3"/>
+      <c r="R457" s="3"/>
+      <c r="S457" s="3"/>
+      <c r="T457" s="3"/>
+      <c r="U457" s="5"/>
     </row>
     <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" s="12">
@@ -14515,27 +15516,29 @@
       <c r="B458" s="4">
         <v>50243</v>
       </c>
-      <c r="C458" s="16"/>
-      <c r="D458" s="18" t="s">
+      <c r="C458" s="3"/>
+      <c r="D458" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E458" s="18"/>
-      <c r="F458" s="18"/>
-      <c r="G458" s="18"/>
-      <c r="H458" s="18"/>
-      <c r="I458" s="18"/>
-      <c r="J458" s="18"/>
-      <c r="K458" s="18"/>
-      <c r="L458" s="18"/>
-      <c r="M458" s="18"/>
-      <c r="N458" s="18"/>
-      <c r="O458" s="18"/>
-      <c r="P458" s="18"/>
-      <c r="Q458" s="18"/>
-      <c r="R458" s="18"/>
-      <c r="S458" s="18"/>
-      <c r="T458" s="18"/>
-      <c r="U458" s="20"/>
+      <c r="E458" s="3"/>
+      <c r="F458" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+      <c r="I458" s="3"/>
+      <c r="J458" s="3"/>
+      <c r="K458" s="3"/>
+      <c r="L458" s="3"/>
+      <c r="M458" s="3"/>
+      <c r="N458" s="3"/>
+      <c r="O458" s="3"/>
+      <c r="P458" s="3"/>
+      <c r="Q458" s="3"/>
+      <c r="R458" s="3"/>
+      <c r="S458" s="3"/>
+      <c r="T458" s="3"/>
+      <c r="U458" s="5"/>
     </row>
     <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
@@ -14544,27 +15547,29 @@
       <c r="B459" s="4">
         <v>50244</v>
       </c>
-      <c r="C459" s="16"/>
-      <c r="D459" s="18" t="s">
+      <c r="C459" s="3"/>
+      <c r="D459" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E459" s="18"/>
-      <c r="F459" s="18"/>
-      <c r="G459" s="18"/>
-      <c r="H459" s="18"/>
-      <c r="I459" s="18"/>
-      <c r="J459" s="18"/>
-      <c r="K459" s="18"/>
-      <c r="L459" s="18"/>
-      <c r="M459" s="18"/>
-      <c r="N459" s="18"/>
-      <c r="O459" s="18"/>
-      <c r="P459" s="18"/>
-      <c r="Q459" s="18"/>
-      <c r="R459" s="18"/>
-      <c r="S459" s="18"/>
-      <c r="T459" s="18"/>
-      <c r="U459" s="20"/>
+      <c r="E459" s="3"/>
+      <c r="F459" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+      <c r="I459" s="3"/>
+      <c r="J459" s="3"/>
+      <c r="K459" s="3"/>
+      <c r="L459" s="3"/>
+      <c r="M459" s="3"/>
+      <c r="N459" s="3"/>
+      <c r="O459" s="3"/>
+      <c r="P459" s="3"/>
+      <c r="Q459" s="3"/>
+      <c r="R459" s="3"/>
+      <c r="S459" s="3"/>
+      <c r="T459" s="3"/>
+      <c r="U459" s="5"/>
     </row>
     <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" s="12">
@@ -14576,7 +15581,9 @@
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
+      <c r="F460" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
@@ -14603,7 +15610,9 @@
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
-      <c r="F461" s="3"/>
+      <c r="F461" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
@@ -14630,7 +15639,9 @@
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
+      <c r="F462" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
@@ -14657,7 +15668,9 @@
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
+      <c r="F463" s="3" t="s">
+        <v>521</v>
+      </c>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
@@ -14684,7 +15697,9 @@
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
+      <c r="F464" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
@@ -14711,7 +15726,9 @@
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
+      <c r="F465" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
@@ -14738,7 +15755,9 @@
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
-      <c r="F466" s="3"/>
+      <c r="F466" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
@@ -14765,7 +15784,9 @@
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
+      <c r="F467" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
@@ -14789,7 +15810,9 @@
       <c r="B468" s="4">
         <v>50463</v>
       </c>
-      <c r="C468" s="3"/>
+      <c r="C468" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
@@ -14816,7 +15839,9 @@
       <c r="B469" s="4">
         <v>50464</v>
       </c>
-      <c r="C469" s="3"/>
+      <c r="C469" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
@@ -14843,7 +15868,9 @@
       <c r="B470" s="4">
         <v>50465</v>
       </c>
-      <c r="C470" s="3"/>
+      <c r="C470" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
@@ -14870,7 +15897,9 @@
       <c r="B471" s="4">
         <v>50466</v>
       </c>
-      <c r="C471" s="3"/>
+      <c r="C471" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
@@ -14900,7 +15929,9 @@
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
+      <c r="F472" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
       <c r="I472" s="3"/>
@@ -14927,7 +15958,9 @@
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
-      <c r="F473" s="3"/>
+      <c r="F473" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
@@ -14951,7 +15984,9 @@
       <c r="B474" s="4">
         <v>50469</v>
       </c>
-      <c r="C474" s="3"/>
+      <c r="C474" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
@@ -14978,7 +16013,9 @@
       <c r="B475" s="4">
         <v>50470</v>
       </c>
-      <c r="C475" s="3"/>
+      <c r="C475" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
@@ -15005,7 +16042,9 @@
       <c r="B476" s="4">
         <v>50471</v>
       </c>
-      <c r="C476" s="3"/>
+      <c r="C476" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
@@ -15032,7 +16071,9 @@
       <c r="B477" s="4">
         <v>50472</v>
       </c>
-      <c r="C477" s="3"/>
+      <c r="C477" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
@@ -15059,7 +16100,9 @@
       <c r="B478" s="4">
         <v>50473</v>
       </c>
-      <c r="C478" s="3"/>
+      <c r="C478" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
@@ -15086,7 +16129,9 @@
       <c r="B479" s="4">
         <v>50474</v>
       </c>
-      <c r="C479" s="3"/>
+      <c r="C479" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
@@ -15113,7 +16158,9 @@
       <c r="B480" s="4">
         <v>50475</v>
       </c>
-      <c r="C480" s="3"/>
+      <c r="C480" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
@@ -15140,7 +16187,9 @@
       <c r="B481" s="4">
         <v>50476</v>
       </c>
-      <c r="C481" s="3"/>
+      <c r="C481" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
@@ -15167,7 +16216,9 @@
       <c r="B482" s="4">
         <v>50477</v>
       </c>
-      <c r="C482" s="3"/>
+      <c r="C482" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
@@ -15194,7 +16245,9 @@
       <c r="B483" s="4">
         <v>50478</v>
       </c>
-      <c r="C483" s="3"/>
+      <c r="C483" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
@@ -15221,7 +16274,9 @@
       <c r="B484" s="4">
         <v>50479</v>
       </c>
-      <c r="C484" s="3"/>
+      <c r="C484" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
@@ -15248,7 +16303,9 @@
       <c r="B485" s="4">
         <v>50480</v>
       </c>
-      <c r="C485" s="3"/>
+      <c r="C485" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
@@ -15275,7 +16332,9 @@
       <c r="B486" s="4">
         <v>50481</v>
       </c>
-      <c r="C486" s="3"/>
+      <c r="C486" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
@@ -15305,7 +16364,9 @@
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
+      <c r="F487" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
@@ -15329,7 +16390,9 @@
       <c r="B488" s="4">
         <v>50483</v>
       </c>
-      <c r="C488" s="3"/>
+      <c r="C488" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
@@ -15356,7 +16419,9 @@
       <c r="B489" s="4">
         <v>50484</v>
       </c>
-      <c r="C489" s="3"/>
+      <c r="C489" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
@@ -15383,7 +16448,9 @@
       <c r="B490" s="4">
         <v>50485</v>
       </c>
-      <c r="C490" s="3"/>
+      <c r="C490" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
@@ -15410,7 +16477,9 @@
       <c r="B491" s="4">
         <v>50486</v>
       </c>
-      <c r="C491" s="3"/>
+      <c r="C491" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
@@ -15437,7 +16506,9 @@
       <c r="B492" s="4">
         <v>50487</v>
       </c>
-      <c r="C492" s="3"/>
+      <c r="C492" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
@@ -15464,7 +16535,9 @@
       <c r="B493" s="4">
         <v>50488</v>
       </c>
-      <c r="C493" s="3"/>
+      <c r="C493" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
@@ -15491,7 +16564,9 @@
       <c r="B494" s="4">
         <v>50489</v>
       </c>
-      <c r="C494" s="3"/>
+      <c r="C494" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
@@ -15518,7 +16593,9 @@
       <c r="B495" s="4">
         <v>50490</v>
       </c>
-      <c r="C495" s="3"/>
+      <c r="C495" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
@@ -15548,7 +16625,9 @@
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
+      <c r="F496" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
@@ -15575,7 +16654,9 @@
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
+      <c r="F497" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
@@ -15602,7 +16683,9 @@
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
+      <c r="F498" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
@@ -15629,7 +16712,9 @@
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
+      <c r="F499" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
@@ -15656,7 +16741,9 @@
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
+      <c r="F500" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
@@ -15680,7 +16767,9 @@
       <c r="B501" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C501" s="3"/>
+      <c r="C501" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
@@ -15707,7 +16796,9 @@
       <c r="B502" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C502" s="3"/>
+      <c r="C502" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
@@ -15734,7 +16825,9 @@
       <c r="B503" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C503" s="3"/>
+      <c r="C503" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
@@ -15761,7 +16854,9 @@
       <c r="B504" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C504" s="3"/>
+      <c r="C504" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
@@ -15788,7 +16883,9 @@
       <c r="B505" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C505" s="3"/>
+      <c r="C505" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
@@ -15815,7 +16912,9 @@
       <c r="B506" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C506" s="3"/>
+      <c r="C506" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
@@ -15842,7 +16941,9 @@
       <c r="B507" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C507" s="3"/>
+      <c r="C507" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
@@ -15869,7 +16970,9 @@
       <c r="B508" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C508" s="3"/>
+      <c r="C508" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
@@ -15896,7 +16999,9 @@
       <c r="B509" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C509" s="3"/>
+      <c r="C509" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
@@ -15923,7 +17028,9 @@
       <c r="B510" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C510" s="3"/>
+      <c r="C510" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
@@ -15950,7 +17057,9 @@
       <c r="B511" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C511" s="3"/>
+      <c r="C511" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
@@ -15977,7 +17086,9 @@
       <c r="B512" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C512" s="3"/>
+      <c r="C512" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
@@ -16004,7 +17115,9 @@
       <c r="B513" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C513" s="3"/>
+      <c r="C513" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
@@ -16031,7 +17144,9 @@
       <c r="B514" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C514" s="3"/>
+      <c r="C514" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
@@ -16058,7 +17173,9 @@
       <c r="B515" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C515" s="3"/>
+      <c r="C515" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
@@ -16085,7 +17202,9 @@
       <c r="B516" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C516" s="3"/>
+      <c r="C516" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
@@ -16112,7 +17231,9 @@
       <c r="B517" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C517" s="3"/>
+      <c r="C517" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
@@ -16139,7 +17260,9 @@
       <c r="B518" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C518" s="3"/>
+      <c r="C518" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
@@ -16166,7 +17289,9 @@
       <c r="B519" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C519" s="3"/>
+      <c r="C519" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
@@ -16193,7 +17318,9 @@
       <c r="B520" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C520" s="3"/>
+      <c r="C520" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
@@ -16220,7 +17347,9 @@
       <c r="B521" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C521" s="3"/>
+      <c r="C521" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
@@ -16247,7 +17376,9 @@
       <c r="B522" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C522" s="3"/>
+      <c r="C522" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
@@ -16274,7 +17405,9 @@
       <c r="B523" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="C523" s="3"/>
+      <c r="C523" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
@@ -16301,7 +17434,9 @@
       <c r="B524" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C524" s="3"/>
+      <c r="C524" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
@@ -16328,7 +17463,9 @@
       <c r="B525" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C525" s="3"/>
+      <c r="C525" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
@@ -16355,7 +17492,9 @@
       <c r="B526" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="C526" s="3"/>
+      <c r="C526" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
@@ -16382,7 +17521,9 @@
       <c r="B527" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C527" s="3"/>
+      <c r="C527" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
@@ -16409,7 +17550,9 @@
       <c r="B528" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C528" s="3"/>
+      <c r="C528" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
@@ -16436,7 +17579,9 @@
       <c r="B529" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="C529" s="3"/>
+      <c r="C529" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
@@ -16463,7 +17608,9 @@
       <c r="B530" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C530" s="3"/>
+      <c r="C530" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
@@ -16490,7 +17637,9 @@
       <c r="B531" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C531" s="3"/>
+      <c r="C531" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
@@ -16517,7 +17666,9 @@
       <c r="B532" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C532" s="3"/>
+      <c r="C532" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
@@ -16544,7 +17695,9 @@
       <c r="B533" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="C533" s="3"/>
+      <c r="C533" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
@@ -16571,7 +17724,9 @@
       <c r="B534" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C534" s="3"/>
+      <c r="C534" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
@@ -16598,7 +17753,9 @@
       <c r="B535" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C535" s="3"/>
+      <c r="C535" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
@@ -16625,7 +17782,9 @@
       <c r="B536" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C536" s="3"/>
+      <c r="C536" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
@@ -16652,7 +17811,9 @@
       <c r="B537" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C537" s="3"/>
+      <c r="C537" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
@@ -16679,7 +17840,9 @@
       <c r="B538" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C538" s="3"/>
+      <c r="C538" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
@@ -16706,7 +17869,9 @@
       <c r="B539" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C539" s="3"/>
+      <c r="C539" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
@@ -16733,7 +17898,9 @@
       <c r="B540" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C540" s="3"/>
+      <c r="C540" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
@@ -16760,7 +17927,9 @@
       <c r="B541" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C541" s="3"/>
+      <c r="C541" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
@@ -16787,7 +17956,9 @@
       <c r="B542" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C542" s="3"/>
+      <c r="C542" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
@@ -16814,7 +17985,9 @@
       <c r="B543" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C543" s="3"/>
+      <c r="C543" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
@@ -16841,7 +18014,9 @@
       <c r="B544" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C544" s="3"/>
+      <c r="C544" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
@@ -16868,7 +18043,9 @@
       <c r="B545" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C545" s="3"/>
+      <c r="C545" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
@@ -16895,7 +18072,9 @@
       <c r="B546" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C546" s="3"/>
+      <c r="C546" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
@@ -16922,7 +18101,9 @@
       <c r="B547" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C547" s="3"/>
+      <c r="C547" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
@@ -16949,7 +18130,9 @@
       <c r="B548" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C548" s="3"/>
+      <c r="C548" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
@@ -16976,7 +18159,9 @@
       <c r="B549" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C549" s="3"/>
+      <c r="C549" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
@@ -17003,7 +18188,9 @@
       <c r="B550" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C550" s="3"/>
+      <c r="C550" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
@@ -17030,7 +18217,9 @@
       <c r="B551" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C551" s="3"/>
+      <c r="C551" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
@@ -17057,7 +18246,9 @@
       <c r="B552" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C552" s="3"/>
+      <c r="C552" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
@@ -17084,7 +18275,9 @@
       <c r="B553" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C553" s="3"/>
+      <c r="C553" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
@@ -17111,7 +18304,9 @@
       <c r="B554" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C554" s="3"/>
+      <c r="C554" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
@@ -17138,7 +18333,9 @@
       <c r="B555" s="4">
         <v>50301</v>
       </c>
-      <c r="C555" s="3"/>
+      <c r="C555" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
@@ -17165,7 +18362,9 @@
       <c r="B556" s="4">
         <v>50302</v>
       </c>
-      <c r="C556" s="3"/>
+      <c r="C556" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
@@ -17192,7 +18391,9 @@
       <c r="B557" s="4">
         <v>50303</v>
       </c>
-      <c r="C557" s="3"/>
+      <c r="C557" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
@@ -17219,7 +18420,9 @@
       <c r="B558" s="4">
         <v>50304</v>
       </c>
-      <c r="C558" s="3"/>
+      <c r="C558" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
@@ -17246,7 +18449,9 @@
       <c r="B559" s="4">
         <v>50305</v>
       </c>
-      <c r="C559" s="3"/>
+      <c r="C559" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
@@ -17273,7 +18478,9 @@
       <c r="B560" s="4">
         <v>50306</v>
       </c>
-      <c r="C560" s="3"/>
+      <c r="C560" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
@@ -17300,7 +18507,9 @@
       <c r="B561" s="6">
         <v>50307</v>
       </c>
-      <c r="C561" s="3"/>
+      <c r="C561" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D561" s="7"/>
       <c r="E561" s="7"/>
       <c r="F561" s="7"/>
@@ -17327,8 +18536,12 @@
       <c r="B562" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E562" s="22" t="s">
+      <c r="C562" s="3"/>
+      <c r="E562" t="s">
         <v>488</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="563" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -17338,9 +18551,13 @@
       <c r="B563" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D563" s="21"/>
-      <c r="E563" s="22" t="s">
+      <c r="C563" s="3"/>
+      <c r="D563" s="17"/>
+      <c r="E563" t="s">
         <v>488</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="564" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
@@ -17350,45 +18567,61 @@
       <c r="B564" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D564" s="21"/>
-      <c r="E564" s="22" t="s">
+      <c r="C564" s="3"/>
+      <c r="D564" s="17"/>
+      <c r="E564" t="s">
         <v>488</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="565" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="13">
         <v>563</v>
       </c>
-      <c r="B565" s="27" t="s">
+      <c r="B565" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="D565" s="21"/>
-      <c r="E565" s="22" t="s">
+      <c r="C565" s="3"/>
+      <c r="D565" s="17"/>
+      <c r="E565" t="s">
         <v>489</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="566" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
         <v>564</v>
       </c>
-      <c r="B566" s="27" t="s">
+      <c r="B566" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D566" s="21"/>
-      <c r="E566" s="22" t="s">
+      <c r="C566" s="3"/>
+      <c r="D566" s="17"/>
+      <c r="E566" t="s">
         <v>490</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="13">
         <v>565</v>
       </c>
-      <c r="B567" s="27" t="s">
+      <c r="B567" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D567" s="21"/>
-      <c r="E567" s="22" t="s">
+      <c r="C567" s="3"/>
+      <c r="D567" s="17"/>
+      <c r="E567" t="s">
         <v>491</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="568" spans="1:21" x14ac:dyDescent="0.25">
@@ -17398,19 +18631,27 @@
       <c r="B568" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E568" s="22" t="s">
+      <c r="C568" s="3"/>
+      <c r="E568" t="s">
         <v>488</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="13">
         <v>567</v>
       </c>
-      <c r="B569" s="27" t="s">
+      <c r="B569" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="E569" s="22" t="s">
+      <c r="C569" s="3"/>
+      <c r="E569" t="s">
         <v>492</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">
@@ -17420,39 +18661,49 @@
       <c r="B570" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E570" s="22" t="s">
+      <c r="C570" s="3"/>
+      <c r="E570" t="s">
         <v>488</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>569</v>
       </c>
+      <c r="C571" s="3"/>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>570</v>
       </c>
+      <c r="C572" s="3"/>
     </row>
     <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>571</v>
       </c>
+      <c r="C573" s="3"/>
     </row>
     <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>572</v>
       </c>
+      <c r="C574" s="3"/>
     </row>
     <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>573</v>
       </c>
+      <c r="C575" s="3"/>
     </row>
     <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>574</v>
       </c>
+      <c r="C576" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\localrun\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BA846-1DF2-4714-A3FB-972F13D0A362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF7A1F-A0EA-4904-A532-0C6A92A21AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="536">
   <si>
     <t>S.No.</t>
   </si>
@@ -1629,6 +1629,42 @@
   </si>
   <si>
     <t>change in source sequence; percentage reversed;</t>
+  </si>
+  <si>
+    <t>Slight improvement in results</t>
+  </si>
+  <si>
+    <t>Improvement in results in week2/3 results</t>
+  </si>
+  <si>
+    <t>no change in weekly results, only one rounding change</t>
+  </si>
+  <si>
+    <t>results much better; last source also better</t>
+  </si>
+  <si>
+    <t>results better; earlier issue resolved;week2/3 still have bad results</t>
+  </si>
+  <si>
+    <t>results better; can improve by one rounding</t>
+  </si>
+  <si>
+    <t>1 rouding/unit difference; no change in week percentage</t>
+  </si>
+  <si>
+    <t>results better as fairshare working well</t>
+  </si>
+  <si>
+    <t>1rounding change; results slightly bad</t>
+  </si>
+  <si>
+    <t>Results better; we were exceeding the UPTO limit due to SRS</t>
+  </si>
+  <si>
+    <t>Results better; we were exceeding the UPTO limit due to SRS; also for 5001 changes due to fairshare</t>
+  </si>
+  <si>
+    <t>no change in summary sheet, exception change</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,6 +1907,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1883,8 +1921,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2199,13 +2240,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B6F5-D95C-4060-89B9-FDDC3DEF8E41}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D423" sqref="D423"/>
+      <selection pane="bottomRight" activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,14 +2255,16 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16"/>
@@ -2233,7 +2277,9 @@
       <c r="F1" s="16">
         <v>44452</v>
       </c>
-      <c r="G1" s="14"/>
+      <c r="G1" s="16">
+        <v>44453</v>
+      </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -2249,9 +2295,9 @@
       <c r="T1" s="14"/>
       <c r="U1" s="15"/>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2272,7 +2318,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2301,7 +2347,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2330,7 +2376,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2359,7 +2405,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2388,7 +2434,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2417,7 +2463,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2446,7 +2492,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2475,7 +2521,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2504,7 +2550,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2533,7 +2579,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2562,7 +2608,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2591,7 +2637,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2620,7 +2666,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2649,7 +2695,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2678,7 +2724,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2707,7 +2753,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2736,7 +2782,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2765,7 +2811,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2794,7 +2840,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -2823,7 +2869,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2852,7 +2898,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2881,7 +2927,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -2910,7 +2956,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2939,7 +2985,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -2968,7 +3014,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -2997,7 +3043,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -3026,7 +3072,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -3055,7 +3101,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -3084,7 +3130,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -3113,7 +3159,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -3142,7 +3188,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -3171,7 +3217,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -3200,7 +3246,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -3229,7 +3275,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -3258,7 +3304,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -3287,7 +3333,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -3316,7 +3362,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -3345,7 +3391,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -3374,7 +3420,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -3403,7 +3449,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -3432,7 +3478,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -3461,7 +3507,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -3490,7 +3536,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -3519,7 +3565,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
@@ -3548,7 +3594,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -3577,7 +3623,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -3606,7 +3652,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -3635,7 +3681,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -3664,7 +3710,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -3693,7 +3739,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -3722,7 +3768,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -3751,7 +3797,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -3780,7 +3826,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -3809,7 +3855,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -3838,7 +3884,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -3867,7 +3913,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -3896,7 +3942,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -3925,7 +3971,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -3954,7 +4000,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -3983,7 +4029,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -4012,7 +4058,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -4041,7 +4087,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -4070,7 +4116,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -4099,7 +4145,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -4128,7 +4174,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -4157,7 +4203,7 @@
       <c r="T67" s="3"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -4186,7 +4232,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -4215,7 +4261,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -4244,7 +4290,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -4273,7 +4319,7 @@
       <c r="T71" s="3"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -4302,7 +4348,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -4331,7 +4377,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -4360,7 +4406,7 @@
       <c r="T74" s="3"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -4389,7 +4435,7 @@
       <c r="T75" s="3"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -4418,7 +4464,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -4447,7 +4493,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -4476,7 +4522,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -4505,7 +4551,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -4534,7 +4580,7 @@
       <c r="T80" s="3"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -4563,7 +4609,7 @@
       <c r="T81" s="3"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -4592,7 +4638,7 @@
       <c r="T82" s="3"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -4621,7 +4667,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -4650,7 +4696,7 @@
       <c r="T84" s="3"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -4679,7 +4725,7 @@
       <c r="T85" s="3"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -4708,7 +4754,7 @@
       <c r="T86" s="3"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>85</v>
       </c>
@@ -4737,7 +4783,7 @@
       <c r="T87" s="3"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -4766,7 +4812,7 @@
       <c r="T88" s="3"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -4795,7 +4841,7 @@
       <c r="T89" s="3"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -4824,7 +4870,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -4853,7 +4899,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -4882,7 +4928,7 @@
       <c r="T92" s="3"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -4911,7 +4957,7 @@
       <c r="T93" s="3"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -4940,7 +4986,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -4969,7 +5015,7 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -4998,7 +5044,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -5027,7 +5073,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -5056,7 +5102,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -5085,7 +5131,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -5114,7 +5160,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -5143,7 +5189,7 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -5172,7 +5218,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -5201,7 +5247,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -5230,7 +5276,7 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -5259,7 +5305,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -5288,7 +5334,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -5317,7 +5363,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -5346,7 +5392,7 @@
       <c r="T108" s="3"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -5375,7 +5421,7 @@
       <c r="T109" s="3"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -5404,7 +5450,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -5433,7 +5479,7 @@
       <c r="T111" s="3"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -5462,7 +5508,7 @@
       <c r="T112" s="3"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -5491,7 +5537,7 @@
       <c r="T113" s="3"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -5520,7 +5566,7 @@
       <c r="T114" s="3"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -5549,7 +5595,7 @@
       <c r="T115" s="3"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -5578,7 +5624,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -5607,7 +5653,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -5636,7 +5682,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -5665,7 +5711,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -5694,7 +5740,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>119</v>
       </c>
@@ -5723,7 +5769,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>120</v>
       </c>
@@ -5752,7 +5798,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -5781,7 +5827,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -5810,7 +5856,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>123</v>
       </c>
@@ -5839,7 +5885,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>124</v>
       </c>
@@ -5868,7 +5914,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>125</v>
       </c>
@@ -5897,7 +5943,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -5926,7 +5972,7 @@
       <c r="T128" s="3"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>127</v>
       </c>
@@ -5955,7 +6001,7 @@
       <c r="T129" s="3"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>128</v>
       </c>
@@ -5984,7 +6030,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>129</v>
       </c>
@@ -6013,7 +6059,7 @@
       <c r="T131" s="3"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>130</v>
       </c>
@@ -6042,7 +6088,7 @@
       <c r="T132" s="3"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>131</v>
       </c>
@@ -6071,7 +6117,7 @@
       <c r="T133" s="3"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -6100,7 +6146,7 @@
       <c r="T134" s="3"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>133</v>
       </c>
@@ -6129,7 +6175,7 @@
       <c r="T135" s="3"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>134</v>
       </c>
@@ -6158,7 +6204,7 @@
       <c r="T136" s="3"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>135</v>
       </c>
@@ -6187,7 +6233,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>136</v>
       </c>
@@ -6216,7 +6262,7 @@
       <c r="T138" s="3"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -6245,7 +6291,7 @@
       <c r="T139" s="3"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -6274,7 +6320,7 @@
       <c r="T140" s="3"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>139</v>
       </c>
@@ -6303,7 +6349,7 @@
       <c r="T141" s="3"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>140</v>
       </c>
@@ -6332,7 +6378,7 @@
       <c r="T142" s="3"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -6361,7 +6407,7 @@
       <c r="T143" s="3"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>142</v>
       </c>
@@ -6390,7 +6436,7 @@
       <c r="T144" s="3"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>143</v>
       </c>
@@ -6419,7 +6465,7 @@
       <c r="T145" s="3"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>144</v>
       </c>
@@ -6448,7 +6494,7 @@
       <c r="T146" s="3"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>145</v>
       </c>
@@ -6477,7 +6523,7 @@
       <c r="T147" s="3"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>146</v>
       </c>
@@ -6506,7 +6552,7 @@
       <c r="T148" s="3"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>147</v>
       </c>
@@ -6535,7 +6581,7 @@
       <c r="T149" s="3"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>148</v>
       </c>
@@ -6564,7 +6610,7 @@
       <c r="T150" s="3"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>149</v>
       </c>
@@ -6593,7 +6639,7 @@
       <c r="T151" s="3"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>150</v>
       </c>
@@ -6622,7 +6668,7 @@
       <c r="T152" s="3"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>151</v>
       </c>
@@ -6651,7 +6697,7 @@
       <c r="T153" s="3"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>152</v>
       </c>
@@ -6680,7 +6726,7 @@
       <c r="T154" s="3"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -6709,7 +6755,7 @@
       <c r="T155" s="3"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>154</v>
       </c>
@@ -6738,7 +6784,7 @@
       <c r="T156" s="3"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>155</v>
       </c>
@@ -6767,7 +6813,7 @@
       <c r="T157" s="3"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -6796,7 +6842,7 @@
       <c r="T158" s="3"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>157</v>
       </c>
@@ -6825,7 +6871,7 @@
       <c r="T159" s="3"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>158</v>
       </c>
@@ -6854,7 +6900,7 @@
       <c r="T160" s="3"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>159</v>
       </c>
@@ -6883,7 +6929,7 @@
       <c r="T161" s="3"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>160</v>
       </c>
@@ -6912,7 +6958,7 @@
       <c r="T162" s="3"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>161</v>
       </c>
@@ -6941,7 +6987,7 @@
       <c r="T163" s="3"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>162</v>
       </c>
@@ -6970,7 +7016,7 @@
       <c r="T164" s="3"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>163</v>
       </c>
@@ -6999,7 +7045,7 @@
       <c r="T165" s="3"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -7028,7 +7074,7 @@
       <c r="T166" s="3"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -7057,7 +7103,7 @@
       <c r="T167" s="3"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>166</v>
       </c>
@@ -7086,7 +7132,7 @@
       <c r="T168" s="3"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -7115,7 +7161,7 @@
       <c r="T169" s="3"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>168</v>
       </c>
@@ -7144,7 +7190,7 @@
       <c r="T170" s="3"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -7173,7 +7219,7 @@
       <c r="T171" s="3"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>170</v>
       </c>
@@ -7202,7 +7248,7 @@
       <c r="T172" s="3"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>171</v>
       </c>
@@ -7231,7 +7277,7 @@
       <c r="T173" s="3"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>172</v>
       </c>
@@ -7260,7 +7306,7 @@
       <c r="T174" s="3"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -7289,7 +7335,7 @@
       <c r="T175" s="3"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>174</v>
       </c>
@@ -7318,7 +7364,7 @@
       <c r="T176" s="3"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>175</v>
       </c>
@@ -7347,7 +7393,7 @@
       <c r="T177" s="3"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>176</v>
       </c>
@@ -7376,7 +7422,7 @@
       <c r="T178" s="3"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>177</v>
       </c>
@@ -7405,7 +7451,7 @@
       <c r="T179" s="3"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>178</v>
       </c>
@@ -7434,7 +7480,7 @@
       <c r="T180" s="3"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>179</v>
       </c>
@@ -7463,7 +7509,7 @@
       <c r="T181" s="3"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -7492,7 +7538,7 @@
       <c r="T182" s="3"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -7521,7 +7567,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -7550,7 +7596,7 @@
       <c r="T184" s="3"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -7579,7 +7625,7 @@
       <c r="T185" s="3"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -7608,7 +7654,7 @@
       <c r="T186" s="3"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -7637,7 +7683,7 @@
       <c r="T187" s="3"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>186</v>
       </c>
@@ -7666,7 +7712,7 @@
       <c r="T188" s="3"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>187</v>
       </c>
@@ -7695,7 +7741,7 @@
       <c r="T189" s="3"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -7724,7 +7770,7 @@
       <c r="T190" s="3"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -7753,7 +7799,7 @@
       <c r="T191" s="3"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -7782,7 +7828,7 @@
       <c r="T192" s="3"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -7811,7 +7857,7 @@
       <c r="T193" s="3"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -7840,7 +7886,7 @@
       <c r="T194" s="3"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -7869,7 +7915,7 @@
       <c r="T195" s="3"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -7898,7 +7944,7 @@
       <c r="T196" s="3"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -7927,7 +7973,7 @@
       <c r="T197" s="3"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -7956,7 +8002,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>197</v>
       </c>
@@ -7985,7 +8031,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>198</v>
       </c>
@@ -8014,7 +8060,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>199</v>
       </c>
@@ -8043,7 +8089,7 @@
       <c r="T201" s="3"/>
       <c r="U201" s="5"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>200</v>
       </c>
@@ -8072,7 +8118,7 @@
       <c r="T202" s="3"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>201</v>
       </c>
@@ -8101,7 +8147,7 @@
       <c r="T203" s="3"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>202</v>
       </c>
@@ -8130,7 +8176,7 @@
       <c r="T204" s="3"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>203</v>
       </c>
@@ -8159,7 +8205,7 @@
       <c r="T205" s="3"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>204</v>
       </c>
@@ -8188,7 +8234,7 @@
       <c r="T206" s="3"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>205</v>
       </c>
@@ -8217,7 +8263,7 @@
       <c r="T207" s="3"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>206</v>
       </c>
@@ -8246,7 +8292,7 @@
       <c r="T208" s="3"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -8275,7 +8321,7 @@
       <c r="T209" s="3"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>208</v>
       </c>
@@ -8304,7 +8350,7 @@
       <c r="T210" s="3"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>209</v>
       </c>
@@ -8333,7 +8379,7 @@
       <c r="T211" s="3"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>210</v>
       </c>
@@ -8362,7 +8408,7 @@
       <c r="T212" s="3"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>211</v>
       </c>
@@ -8391,7 +8437,7 @@
       <c r="T213" s="3"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -8420,7 +8466,7 @@
       <c r="T214" s="3"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -8449,7 +8495,7 @@
       <c r="T215" s="3"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -8478,7 +8524,7 @@
       <c r="T216" s="3"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -8507,7 +8553,7 @@
       <c r="T217" s="3"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -8536,7 +8582,7 @@
       <c r="T218" s="3"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>217</v>
       </c>
@@ -8565,7 +8611,7 @@
       <c r="T219" s="3"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>218</v>
       </c>
@@ -8594,7 +8640,7 @@
       <c r="T220" s="3"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>219</v>
       </c>
@@ -8623,7 +8669,7 @@
       <c r="T221" s="3"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>220</v>
       </c>
@@ -8652,7 +8698,7 @@
       <c r="T222" s="3"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>221</v>
       </c>
@@ -8681,7 +8727,7 @@
       <c r="T223" s="3"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>222</v>
       </c>
@@ -8710,7 +8756,7 @@
       <c r="T224" s="3"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>223</v>
       </c>
@@ -8739,7 +8785,7 @@
       <c r="T225" s="3"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>224</v>
       </c>
@@ -8768,7 +8814,7 @@
       <c r="T226" s="3"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>225</v>
       </c>
@@ -8797,7 +8843,7 @@
       <c r="T227" s="3"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>226</v>
       </c>
@@ -8826,7 +8872,7 @@
       <c r="T228" s="3"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>227</v>
       </c>
@@ -8855,7 +8901,7 @@
       <c r="T229" s="3"/>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>228</v>
       </c>
@@ -8884,7 +8930,7 @@
       <c r="T230" s="3"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>229</v>
       </c>
@@ -8913,7 +8959,7 @@
       <c r="T231" s="3"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>230</v>
       </c>
@@ -8942,7 +8988,7 @@
       <c r="T232" s="3"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -8971,7 +9017,7 @@
       <c r="T233" s="3"/>
       <c r="U233" s="5"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -9000,7 +9046,7 @@
       <c r="T234" s="3"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -9029,7 +9075,7 @@
       <c r="T235" s="3"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>234</v>
       </c>
@@ -9058,7 +9104,7 @@
       <c r="T236" s="3"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>235</v>
       </c>
@@ -9087,7 +9133,7 @@
       <c r="T237" s="3"/>
       <c r="U237" s="5"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -9116,7 +9162,7 @@
       <c r="T238" s="3"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -9145,7 +9191,7 @@
       <c r="T239" s="3"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>238</v>
       </c>
@@ -9174,7 +9220,7 @@
       <c r="T240" s="3"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -9203,7 +9249,7 @@
       <c r="T241" s="3"/>
       <c r="U241" s="5"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>240</v>
       </c>
@@ -9232,7 +9278,7 @@
       <c r="T242" s="3"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>241</v>
       </c>
@@ -9261,7 +9307,7 @@
       <c r="T243" s="3"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>242</v>
       </c>
@@ -9290,7 +9336,7 @@
       <c r="T244" s="3"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>243</v>
       </c>
@@ -9319,7 +9365,7 @@
       <c r="T245" s="3"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>244</v>
       </c>
@@ -9348,7 +9394,7 @@
       <c r="T246" s="3"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>245</v>
       </c>
@@ -9377,7 +9423,7 @@
       <c r="T247" s="3"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>246</v>
       </c>
@@ -9406,7 +9452,7 @@
       <c r="T248" s="3"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>247</v>
       </c>
@@ -9435,7 +9481,7 @@
       <c r="T249" s="3"/>
       <c r="U249" s="5"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>248</v>
       </c>
@@ -9464,7 +9510,7 @@
       <c r="T250" s="3"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>249</v>
       </c>
@@ -9493,7 +9539,7 @@
       <c r="T251" s="3"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>250</v>
       </c>
@@ -9522,7 +9568,7 @@
       <c r="T252" s="3"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>251</v>
       </c>
@@ -9551,7 +9597,7 @@
       <c r="T253" s="3"/>
       <c r="U253" s="5"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>252</v>
       </c>
@@ -9580,7 +9626,7 @@
       <c r="T254" s="3"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>253</v>
       </c>
@@ -9609,7 +9655,7 @@
       <c r="T255" s="3"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>254</v>
       </c>
@@ -9638,7 +9684,7 @@
       <c r="T256" s="3"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>255</v>
       </c>
@@ -9667,7 +9713,7 @@
       <c r="T257" s="3"/>
       <c r="U257" s="5"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>256</v>
       </c>
@@ -9696,7 +9742,7 @@
       <c r="T258" s="3"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>257</v>
       </c>
@@ -9725,7 +9771,7 @@
       <c r="T259" s="3"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>258</v>
       </c>
@@ -9754,7 +9800,7 @@
       <c r="T260" s="3"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>259</v>
       </c>
@@ -9783,7 +9829,7 @@
       <c r="T261" s="3"/>
       <c r="U261" s="5"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>260</v>
       </c>
@@ -9812,7 +9858,7 @@
       <c r="T262" s="3"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>261</v>
       </c>
@@ -9841,7 +9887,7 @@
       <c r="T263" s="3"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>262</v>
       </c>
@@ -9870,7 +9916,7 @@
       <c r="T264" s="3"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12">
         <v>263</v>
       </c>
@@ -9899,7 +9945,7 @@
       <c r="T265" s="3"/>
       <c r="U265" s="5"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12">
         <v>264</v>
       </c>
@@ -9928,7 +9974,7 @@
       <c r="T266" s="3"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12">
         <v>265</v>
       </c>
@@ -9957,7 +10003,7 @@
       <c r="T267" s="3"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12">
         <v>266</v>
       </c>
@@ -9986,7 +10032,7 @@
       <c r="T268" s="3"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12">
         <v>267</v>
       </c>
@@ -10015,7 +10061,7 @@
       <c r="T269" s="3"/>
       <c r="U269" s="5"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12">
         <v>268</v>
       </c>
@@ -10044,7 +10090,7 @@
       <c r="T270" s="3"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12">
         <v>269</v>
       </c>
@@ -10073,7 +10119,7 @@
       <c r="T271" s="3"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12">
         <v>270</v>
       </c>
@@ -10102,7 +10148,7 @@
       <c r="T272" s="3"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12">
         <v>271</v>
       </c>
@@ -10131,7 +10177,7 @@
       <c r="T273" s="3"/>
       <c r="U273" s="5"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12">
         <v>272</v>
       </c>
@@ -10160,7 +10206,7 @@
       <c r="T274" s="3"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12">
         <v>273</v>
       </c>
@@ -10189,7 +10235,7 @@
       <c r="T275" s="3"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12">
         <v>274</v>
       </c>
@@ -10218,7 +10264,7 @@
       <c r="T276" s="3"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
         <v>275</v>
       </c>
@@ -10247,7 +10293,7 @@
       <c r="T277" s="3"/>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12">
         <v>276</v>
       </c>
@@ -10276,7 +10322,7 @@
       <c r="T278" s="3"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12">
         <v>277</v>
       </c>
@@ -10305,7 +10351,7 @@
       <c r="T279" s="3"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12">
         <v>278</v>
       </c>
@@ -10334,7 +10380,7 @@
       <c r="T280" s="3"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12">
         <v>279</v>
       </c>
@@ -10363,7 +10409,7 @@
       <c r="T281" s="3"/>
       <c r="U281" s="5"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12">
         <v>280</v>
       </c>
@@ -10392,7 +10438,7 @@
       <c r="T282" s="3"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12">
         <v>281</v>
       </c>
@@ -10421,7 +10467,7 @@
       <c r="T283" s="3"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12">
         <v>282</v>
       </c>
@@ -10450,7 +10496,7 @@
       <c r="T284" s="3"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12">
         <v>283</v>
       </c>
@@ -10479,7 +10525,7 @@
       <c r="T285" s="3"/>
       <c r="U285" s="5"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12">
         <v>284</v>
       </c>
@@ -10508,7 +10554,7 @@
       <c r="T286" s="3"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12">
         <v>285</v>
       </c>
@@ -10537,7 +10583,7 @@
       <c r="T287" s="3"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12">
         <v>286</v>
       </c>
@@ -10566,7 +10612,7 @@
       <c r="T288" s="3"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12">
         <v>287</v>
       </c>
@@ -10595,7 +10641,7 @@
       <c r="T289" s="3"/>
       <c r="U289" s="5"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12">
         <v>288</v>
       </c>
@@ -10624,7 +10670,7 @@
       <c r="T290" s="3"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12">
         <v>289</v>
       </c>
@@ -10653,7 +10699,7 @@
       <c r="T291" s="3"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12">
         <v>290</v>
       </c>
@@ -10682,7 +10728,7 @@
       <c r="T292" s="3"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12">
         <v>291</v>
       </c>
@@ -10711,7 +10757,7 @@
       <c r="T293" s="3"/>
       <c r="U293" s="5"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12">
         <v>292</v>
       </c>
@@ -10740,7 +10786,7 @@
       <c r="T294" s="3"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12">
         <v>293</v>
       </c>
@@ -10769,7 +10815,7 @@
       <c r="T295" s="3"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12">
         <v>294</v>
       </c>
@@ -10798,7 +10844,7 @@
       <c r="T296" s="3"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12">
         <v>295</v>
       </c>
@@ -10827,7 +10873,7 @@
       <c r="T297" s="3"/>
       <c r="U297" s="5"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12">
         <v>296</v>
       </c>
@@ -10856,7 +10902,7 @@
       <c r="T298" s="3"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12">
         <v>297</v>
       </c>
@@ -10885,7 +10931,7 @@
       <c r="T299" s="3"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12">
         <v>298</v>
       </c>
@@ -10914,7 +10960,7 @@
       <c r="T300" s="3"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12">
         <v>299</v>
       </c>
@@ -10943,7 +10989,7 @@
       <c r="T301" s="3"/>
       <c r="U301" s="5"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12">
         <v>300</v>
       </c>
@@ -10972,7 +11018,7 @@
       <c r="T302" s="3"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12">
         <v>301</v>
       </c>
@@ -11001,7 +11047,7 @@
       <c r="T303" s="3"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12">
         <v>302</v>
       </c>
@@ -11030,7 +11076,7 @@
       <c r="T304" s="3"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12">
         <v>303</v>
       </c>
@@ -11059,7 +11105,7 @@
       <c r="T305" s="3"/>
       <c r="U305" s="5"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12">
         <v>304</v>
       </c>
@@ -11088,7 +11134,7 @@
       <c r="T306" s="3"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12">
         <v>305</v>
       </c>
@@ -11117,7 +11163,7 @@
       <c r="T307" s="3"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12">
         <v>306</v>
       </c>
@@ -11146,7 +11192,7 @@
       <c r="T308" s="3"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12">
         <v>307</v>
       </c>
@@ -11175,7 +11221,7 @@
       <c r="T309" s="3"/>
       <c r="U309" s="5"/>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12">
         <v>308</v>
       </c>
@@ -11204,7 +11250,7 @@
       <c r="T310" s="3"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12">
         <v>309</v>
       </c>
@@ -11233,7 +11279,7 @@
       <c r="T311" s="3"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="12">
         <v>310</v>
       </c>
@@ -11262,7 +11308,7 @@
       <c r="T312" s="3"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12">
         <v>311</v>
       </c>
@@ -11291,7 +11337,7 @@
       <c r="T313" s="3"/>
       <c r="U313" s="5"/>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12">
         <v>312</v>
       </c>
@@ -11320,7 +11366,7 @@
       <c r="T314" s="3"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="12">
         <v>313</v>
       </c>
@@ -11349,7 +11395,7 @@
       <c r="T315" s="3"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12">
         <v>314</v>
       </c>
@@ -11378,7 +11424,7 @@
       <c r="T316" s="3"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12">
         <v>315</v>
       </c>
@@ -11407,7 +11453,7 @@
       <c r="T317" s="3"/>
       <c r="U317" s="5"/>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12">
         <v>316</v>
       </c>
@@ -11436,7 +11482,7 @@
       <c r="T318" s="3"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12">
         <v>317</v>
       </c>
@@ -11465,7 +11511,7 @@
       <c r="T319" s="3"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12">
         <v>318</v>
       </c>
@@ -11494,7 +11540,7 @@
       <c r="T320" s="3"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12">
         <v>319</v>
       </c>
@@ -11523,7 +11569,7 @@
       <c r="T321" s="3"/>
       <c r="U321" s="5"/>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="12">
         <v>320</v>
       </c>
@@ -11552,7 +11598,7 @@
       <c r="T322" s="3"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="12">
         <v>321</v>
       </c>
@@ -11581,7 +11627,7 @@
       <c r="T323" s="3"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12">
         <v>322</v>
       </c>
@@ -11610,7 +11656,7 @@
       <c r="T324" s="3"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12">
         <v>323</v>
       </c>
@@ -11639,7 +11685,7 @@
       <c r="T325" s="3"/>
       <c r="U325" s="5"/>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12">
         <v>324</v>
       </c>
@@ -11668,7 +11714,7 @@
       <c r="T326" s="3"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12">
         <v>325</v>
       </c>
@@ -11697,7 +11743,7 @@
       <c r="T327" s="3"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="12">
         <v>326</v>
       </c>
@@ -11726,7 +11772,7 @@
       <c r="T328" s="3"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="12">
         <v>327</v>
       </c>
@@ -11755,7 +11801,7 @@
       <c r="T329" s="3"/>
       <c r="U329" s="5"/>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="12">
         <v>328</v>
       </c>
@@ -11784,7 +11830,7 @@
       <c r="T330" s="3"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12">
         <v>329</v>
       </c>
@@ -11813,7 +11859,7 @@
       <c r="T331" s="3"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12">
         <v>330</v>
       </c>
@@ -11842,7 +11888,7 @@
       <c r="T332" s="3"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="12">
         <v>331</v>
       </c>
@@ -11871,7 +11917,7 @@
       <c r="T333" s="3"/>
       <c r="U333" s="5"/>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="12">
         <v>332</v>
       </c>
@@ -11900,7 +11946,7 @@
       <c r="T334" s="3"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12">
         <v>333</v>
       </c>
@@ -11929,7 +11975,7 @@
       <c r="T335" s="3"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="12">
         <v>334</v>
       </c>
@@ -11958,7 +12004,7 @@
       <c r="T336" s="3"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12">
         <v>335</v>
       </c>
@@ -11987,7 +12033,7 @@
       <c r="T337" s="3"/>
       <c r="U337" s="5"/>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12">
         <v>336</v>
       </c>
@@ -12016,7 +12062,7 @@
       <c r="T338" s="3"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12">
         <v>337</v>
       </c>
@@ -12045,7 +12091,7 @@
       <c r="T339" s="3"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12">
         <v>338</v>
       </c>
@@ -12074,7 +12120,7 @@
       <c r="T340" s="3"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="12">
         <v>339</v>
       </c>
@@ -12103,7 +12149,7 @@
       <c r="T341" s="3"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12">
         <v>340</v>
       </c>
@@ -12132,7 +12178,7 @@
       <c r="T342" s="3"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="12">
         <v>341</v>
       </c>
@@ -12161,7 +12207,7 @@
       <c r="T343" s="3"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="12">
         <v>342</v>
       </c>
@@ -12190,7 +12236,7 @@
       <c r="T344" s="3"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="12">
         <v>343</v>
       </c>
@@ -12219,7 +12265,7 @@
       <c r="T345" s="3"/>
       <c r="U345" s="5"/>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12">
         <v>344</v>
       </c>
@@ -12248,7 +12294,7 @@
       <c r="T346" s="3"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="12">
         <v>345</v>
       </c>
@@ -12277,7 +12323,7 @@
       <c r="T347" s="3"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="12">
         <v>346</v>
       </c>
@@ -12306,7 +12352,7 @@
       <c r="T348" s="3"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="12">
         <v>347</v>
       </c>
@@ -12335,7 +12381,7 @@
       <c r="T349" s="3"/>
       <c r="U349" s="5"/>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12">
         <v>348</v>
       </c>
@@ -12364,7 +12410,7 @@
       <c r="T350" s="3"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="12">
         <v>349</v>
       </c>
@@ -12393,7 +12439,7 @@
       <c r="T351" s="3"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12">
         <v>350</v>
       </c>
@@ -12422,7 +12468,7 @@
       <c r="T352" s="3"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12">
         <v>351</v>
       </c>
@@ -12451,7 +12497,7 @@
       <c r="T353" s="3"/>
       <c r="U353" s="5"/>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="12">
         <v>352</v>
       </c>
@@ -12480,7 +12526,7 @@
       <c r="T354" s="3"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="12">
         <v>353</v>
       </c>
@@ -12509,7 +12555,7 @@
       <c r="T355" s="3"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="12">
         <v>354</v>
       </c>
@@ -12538,7 +12584,7 @@
       <c r="T356" s="3"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="12">
         <v>355</v>
       </c>
@@ -12567,7 +12613,7 @@
       <c r="T357" s="3"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="12">
         <v>356</v>
       </c>
@@ -12596,7 +12642,7 @@
       <c r="T358" s="3"/>
       <c r="U358" s="5"/>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="12">
         <v>357</v>
       </c>
@@ -12625,7 +12671,7 @@
       <c r="T359" s="3"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="12">
         <v>358</v>
       </c>
@@ -12654,7 +12700,7 @@
       <c r="T360" s="3"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="12">
         <v>359</v>
       </c>
@@ -12683,7 +12729,7 @@
       <c r="T361" s="3"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="12">
         <v>360</v>
       </c>
@@ -12712,7 +12758,7 @@
       <c r="T362" s="3"/>
       <c r="U362" s="5"/>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="12">
         <v>361</v>
       </c>
@@ -12741,7 +12787,7 @@
       <c r="T363" s="3"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="12">
         <v>362</v>
       </c>
@@ -12770,7 +12816,7 @@
       <c r="T364" s="3"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="12">
         <v>363</v>
       </c>
@@ -12799,7 +12845,7 @@
       <c r="T365" s="3"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="12">
         <v>364</v>
       </c>
@@ -12828,7 +12874,7 @@
       <c r="T366" s="3"/>
       <c r="U366" s="5"/>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="12">
         <v>365</v>
       </c>
@@ -12857,7 +12903,7 @@
       <c r="T367" s="3"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="12">
         <v>366</v>
       </c>
@@ -12886,7 +12932,7 @@
       <c r="T368" s="3"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="12">
         <v>367</v>
       </c>
@@ -12915,7 +12961,7 @@
       <c r="T369" s="3"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="12">
         <v>368</v>
       </c>
@@ -12944,7 +12990,7 @@
       <c r="T370" s="3"/>
       <c r="U370" s="5"/>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="12">
         <v>369</v>
       </c>
@@ -12973,7 +13019,7 @@
       <c r="T371" s="3"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="12">
         <v>370</v>
       </c>
@@ -13002,7 +13048,7 @@
       <c r="T372" s="3"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="12">
         <v>371</v>
       </c>
@@ -13031,7 +13077,7 @@
       <c r="T373" s="3"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="12">
         <v>372</v>
       </c>
@@ -13060,7 +13106,7 @@
       <c r="T374" s="3"/>
       <c r="U374" s="5"/>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="12">
         <v>373</v>
       </c>
@@ -13089,7 +13135,7 @@
       <c r="T375" s="3"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="12">
         <v>374</v>
       </c>
@@ -13118,7 +13164,7 @@
       <c r="T376" s="3"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="12">
         <v>375</v>
       </c>
@@ -13147,7 +13193,7 @@
       <c r="T377" s="3"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="12">
         <v>376</v>
       </c>
@@ -13176,7 +13222,7 @@
       <c r="T378" s="3"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="12">
         <v>377</v>
       </c>
@@ -13205,7 +13251,7 @@
       <c r="T379" s="3"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="12">
         <v>378</v>
       </c>
@@ -13234,7 +13280,7 @@
       <c r="T380" s="3"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="12">
         <v>379</v>
       </c>
@@ -13263,7 +13309,7 @@
       <c r="T381" s="3"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="12">
         <v>380</v>
       </c>
@@ -13292,7 +13338,7 @@
       <c r="T382" s="3"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="12">
         <v>381</v>
       </c>
@@ -13321,7 +13367,7 @@
       <c r="T383" s="3"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="12">
         <v>382</v>
       </c>
@@ -13350,7 +13396,7 @@
       <c r="T384" s="3"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="12">
         <v>383</v>
       </c>
@@ -13379,7 +13425,7 @@
       <c r="T385" s="3"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="12">
         <v>384</v>
       </c>
@@ -13408,7 +13454,7 @@
       <c r="T386" s="3"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="12">
         <v>385</v>
       </c>
@@ -13437,7 +13483,7 @@
       <c r="T387" s="3"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="12">
         <v>386</v>
       </c>
@@ -13466,7 +13512,7 @@
       <c r="T388" s="3"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="12">
         <v>387</v>
       </c>
@@ -13495,7 +13541,7 @@
       <c r="T389" s="3"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="12">
         <v>388</v>
       </c>
@@ -13524,7 +13570,7 @@
       <c r="T390" s="3"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="12">
         <v>389</v>
       </c>
@@ -13553,7 +13599,7 @@
       <c r="T391" s="3"/>
       <c r="U391" s="5"/>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="12">
         <v>390</v>
       </c>
@@ -13582,7 +13628,7 @@
       <c r="T392" s="3"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="12">
         <v>391</v>
       </c>
@@ -13611,7 +13657,7 @@
       <c r="T393" s="3"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="12">
         <v>392</v>
       </c>
@@ -13640,7 +13686,7 @@
       <c r="T394" s="3"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="12">
         <v>393</v>
       </c>
@@ -13669,7 +13715,7 @@
       <c r="T395" s="3"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12">
         <v>394</v>
       </c>
@@ -13698,7 +13744,7 @@
       <c r="T396" s="3"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12">
         <v>395</v>
       </c>
@@ -13727,7 +13773,7 @@
       <c r="T397" s="3"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="12">
         <v>396</v>
       </c>
@@ -13756,7 +13802,7 @@
       <c r="T398" s="3"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="12">
         <v>397</v>
       </c>
@@ -13785,7 +13831,7 @@
       <c r="T399" s="3"/>
       <c r="U399" s="5"/>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12">
         <v>398</v>
       </c>
@@ -13814,14 +13860,16 @@
       <c r="T400" s="3"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="12">
         <v>399</v>
       </c>
       <c r="B401" s="4">
         <v>50101</v>
       </c>
-      <c r="C401" s="3"/>
+      <c r="C401" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3" t="s">
@@ -13843,14 +13891,16 @@
       <c r="T401" s="3"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12">
         <v>400</v>
       </c>
       <c r="B402" s="4">
         <v>50102</v>
       </c>
-      <c r="C402" s="3"/>
+      <c r="C402" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3" t="s">
@@ -13872,7 +13922,7 @@
       <c r="T402" s="3"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>401</v>
       </c>
@@ -13901,14 +13951,16 @@
       <c r="T403" s="3"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>402</v>
       </c>
       <c r="B404" s="4">
         <v>50105</v>
       </c>
-      <c r="C404" s="3"/>
+      <c r="C404" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3" t="s">
@@ -13930,7 +13982,7 @@
       <c r="T404" s="3"/>
       <c r="U404" s="5"/>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>403</v>
       </c>
@@ -13959,7 +14011,7 @@
       <c r="T405" s="3"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>404</v>
       </c>
@@ -13988,7 +14040,7 @@
       <c r="T406" s="3"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>405</v>
       </c>
@@ -14017,7 +14069,7 @@
       <c r="T407" s="3"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>406</v>
       </c>
@@ -14046,7 +14098,7 @@
       <c r="T408" s="3"/>
       <c r="U408" s="5"/>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>407</v>
       </c>
@@ -14075,14 +14127,16 @@
       <c r="T409" s="3"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>408</v>
       </c>
       <c r="B410" s="4">
         <v>50111</v>
       </c>
-      <c r="C410" s="3"/>
+      <c r="C410" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3" t="s">
@@ -14104,14 +14158,16 @@
       <c r="T410" s="3"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>409</v>
       </c>
       <c r="B411" s="4">
         <v>50112</v>
       </c>
-      <c r="C411" s="3"/>
+      <c r="C411" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3" t="s">
@@ -14133,17 +14189,19 @@
       <c r="T411" s="3"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>410</v>
       </c>
       <c r="B412" s="4">
         <v>50113</v>
       </c>
-      <c r="C412" s="3"/>
+      <c r="C412" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
-      <c r="F412" s="23" t="s">
+      <c r="F412" s="19" t="s">
         <v>497</v>
       </c>
       <c r="G412" s="3"/>
@@ -14162,14 +14220,16 @@
       <c r="T412" s="3"/>
       <c r="U412" s="5"/>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>411</v>
       </c>
       <c r="B413" s="4">
         <v>50114</v>
       </c>
-      <c r="C413" s="3"/>
+      <c r="C413" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3" t="s">
@@ -14191,14 +14251,16 @@
       <c r="T413" s="3"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>412</v>
       </c>
       <c r="B414" s="4">
         <v>50115</v>
       </c>
-      <c r="C414" s="3"/>
+      <c r="C414" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3" t="s">
@@ -14227,13 +14289,17 @@
       <c r="B415" s="4">
         <v>50116</v>
       </c>
-      <c r="C415" s="3"/>
+      <c r="C415" s="3">
+        <v>50116</v>
+      </c>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G415" s="3"/>
+      <c r="G415" s="3" t="s">
+        <v>524</v>
+      </c>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
       <c r="J415" s="3"/>
@@ -14249,7 +14315,7 @@
       <c r="T415" s="3"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>414</v>
       </c>
@@ -14278,7 +14344,7 @@
       <c r="T416" s="3"/>
       <c r="U416" s="5"/>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>415</v>
       </c>
@@ -14311,16 +14377,20 @@
       <c r="A418" s="12">
         <v>416</v>
       </c>
-      <c r="B418" s="4">
+      <c r="B418" s="25">
         <v>50119</v>
       </c>
-      <c r="C418" s="3"/>
+      <c r="C418" s="3">
+        <v>50119</v>
+      </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
-      <c r="F418" s="23" t="s">
+      <c r="F418" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="G418" s="3"/>
+      <c r="G418" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
@@ -14343,13 +14413,17 @@
       <c r="B419" s="4">
         <v>50220</v>
       </c>
-      <c r="C419" s="3"/>
+      <c r="C419" s="3">
+        <v>50220</v>
+      </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G419" s="3"/>
+      <c r="G419" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
@@ -14372,13 +14446,17 @@
       <c r="B420" s="4">
         <v>50221</v>
       </c>
-      <c r="C420" s="3"/>
+      <c r="C420" s="3">
+        <v>50221</v>
+      </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G420" s="3"/>
+      <c r="G420" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
@@ -14401,13 +14479,17 @@
       <c r="B421" s="4">
         <v>50222</v>
       </c>
-      <c r="C421" s="3"/>
+      <c r="C421" s="3">
+        <v>50222</v>
+      </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G421" s="3"/>
+      <c r="G421" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
@@ -14430,13 +14512,17 @@
       <c r="B422" s="4">
         <v>50223</v>
       </c>
-      <c r="C422" s="3"/>
+      <c r="C422" s="3">
+        <v>50223</v>
+      </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G422" s="3"/>
+      <c r="G422" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
       <c r="J422" s="3"/>
@@ -14459,13 +14545,17 @@
       <c r="B423" s="4">
         <v>50224</v>
       </c>
-      <c r="C423" s="3"/>
+      <c r="C423" s="3">
+        <v>50224</v>
+      </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-      <c r="F423" s="23" t="s">
+      <c r="F423" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="G423" s="3"/>
+      <c r="G423" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
       <c r="J423" s="3"/>
@@ -14488,13 +14578,17 @@
       <c r="B424" s="4">
         <v>50225</v>
       </c>
-      <c r="C424" s="3"/>
+      <c r="C424" s="3">
+        <v>50225</v>
+      </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G424" s="3"/>
+      <c r="G424" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
       <c r="J424" s="3"/>
@@ -14517,13 +14611,17 @@
       <c r="B425" s="4">
         <v>50226</v>
       </c>
-      <c r="C425" s="3"/>
+      <c r="C425" s="3">
+        <v>50226</v>
+      </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
-      <c r="F425" s="23" t="s">
+      <c r="F425" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="G425" s="3"/>
+      <c r="G425" s="3" t="s">
+        <v>528</v>
+      </c>
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
       <c r="J425" s="3"/>
@@ -14546,13 +14644,17 @@
       <c r="B426" s="4">
         <v>50227</v>
       </c>
-      <c r="C426" s="3"/>
+      <c r="C426" s="3">
+        <v>50227</v>
+      </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
-      <c r="F426" s="23" t="s">
+      <c r="F426" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="G426" s="3"/>
+      <c r="G426" s="3" t="s">
+        <v>529</v>
+      </c>
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
       <c r="J426" s="3"/>
@@ -14575,7 +14677,9 @@
       <c r="B427" s="4">
         <v>50229</v>
       </c>
-      <c r="C427" s="3"/>
+      <c r="C427" s="3">
+        <v>50229</v>
+      </c>
       <c r="D427" s="3" t="s">
         <v>459</v>
       </c>
@@ -14606,13 +14710,17 @@
       <c r="B428" s="4">
         <v>50230</v>
       </c>
-      <c r="C428" s="3"/>
+      <c r="C428" s="3">
+        <v>50230</v>
+      </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G428" s="3"/>
+      <c r="G428" s="3" t="s">
+        <v>515</v>
+      </c>
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
       <c r="J428" s="3"/>
@@ -14635,15 +14743,19 @@
       <c r="B429" s="4">
         <v>50231</v>
       </c>
-      <c r="C429" s="3"/>
+      <c r="C429" s="3">
+        <v>50231</v>
+      </c>
       <c r="D429" s="3" t="s">
         <v>460</v>
       </c>
       <c r="E429" s="3"/>
-      <c r="F429" s="23" t="s">
+      <c r="F429" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="G429" s="3"/>
+      <c r="G429" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
       <c r="J429" s="3"/>
@@ -14666,15 +14778,19 @@
       <c r="B430" s="4">
         <v>50232</v>
       </c>
-      <c r="C430" s="3"/>
+      <c r="C430" s="3">
+        <v>50232</v>
+      </c>
       <c r="D430" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E430" s="3"/>
-      <c r="F430" s="23" t="s">
+      <c r="F430" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="G430" s="3"/>
+      <c r="G430" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
       <c r="J430" s="3"/>
@@ -14697,13 +14813,17 @@
       <c r="B431" s="4">
         <v>50233</v>
       </c>
-      <c r="C431" s="3"/>
+      <c r="C431" s="3">
+        <v>50233</v>
+      </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G431" s="3"/>
+      <c r="G431" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
       <c r="J431" s="3"/>
@@ -14726,15 +14846,19 @@
       <c r="B432" s="4">
         <v>50234</v>
       </c>
-      <c r="C432" s="3"/>
+      <c r="C432" s="3">
+        <v>50234</v>
+      </c>
       <c r="D432" s="3" t="s">
         <v>462</v>
       </c>
       <c r="E432" s="3"/>
-      <c r="F432" s="23" t="s">
+      <c r="F432" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="G432" s="3"/>
+      <c r="G432" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
       <c r="J432" s="3"/>
@@ -14757,13 +14881,17 @@
       <c r="B433" s="4">
         <v>50235</v>
       </c>
-      <c r="C433" s="3"/>
+      <c r="C433" s="3">
+        <v>50235</v>
+      </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="G433" s="3"/>
+      <c r="G433" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
@@ -14786,15 +14914,19 @@
       <c r="B434" s="4">
         <v>50236</v>
       </c>
-      <c r="C434" s="3"/>
+      <c r="C434" s="3">
+        <v>50236</v>
+      </c>
       <c r="D434" s="3" t="s">
         <v>461</v>
       </c>
       <c r="E434" s="3"/>
-      <c r="F434" s="23" t="s">
+      <c r="F434" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="G434" s="3"/>
+      <c r="G434" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
       <c r="J434" s="3"/>
@@ -14817,7 +14949,9 @@
       <c r="B435" s="4">
         <v>50240</v>
       </c>
-      <c r="C435" s="3"/>
+      <c r="C435" s="3">
+        <v>50240</v>
+      </c>
       <c r="D435" s="3" t="s">
         <v>463</v>
       </c>
@@ -14825,7 +14959,9 @@
       <c r="F435" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="G435" s="3"/>
+      <c r="G435" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
       <c r="J435" s="3"/>
@@ -14841,14 +14977,16 @@
       <c r="T435" s="3"/>
       <c r="U435" s="5"/>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
         <v>434</v>
       </c>
       <c r="B436" s="4">
         <v>50120</v>
       </c>
-      <c r="C436" s="3"/>
+      <c r="C436" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D436" s="3" t="s">
         <v>464</v>
       </c>
@@ -14872,14 +15010,16 @@
       <c r="T436" s="3"/>
       <c r="U436" s="5"/>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
         <v>435</v>
       </c>
       <c r="B437" s="4">
         <v>50121</v>
       </c>
-      <c r="C437" s="3"/>
+      <c r="C437" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D437" s="3" t="s">
         <v>465</v>
       </c>
@@ -14903,14 +15043,16 @@
       <c r="T437" s="3"/>
       <c r="U437" s="5"/>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
         <v>436</v>
       </c>
       <c r="B438" s="4">
         <v>50122</v>
       </c>
-      <c r="C438" s="3"/>
+      <c r="C438" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D438" s="3" t="s">
         <v>466</v>
       </c>
@@ -14934,14 +15076,16 @@
       <c r="T438" s="3"/>
       <c r="U438" s="5"/>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
         <v>437</v>
       </c>
       <c r="B439" s="4">
         <v>50123</v>
       </c>
-      <c r="C439" s="3"/>
+      <c r="C439" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D439" s="3" t="s">
         <v>467</v>
       </c>
@@ -14965,14 +15109,16 @@
       <c r="T439" s="3"/>
       <c r="U439" s="5"/>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
         <v>438</v>
       </c>
       <c r="B440" s="4">
         <v>50124</v>
       </c>
-      <c r="C440" s="3"/>
+      <c r="C440" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D440" s="3" t="s">
         <v>467</v>
       </c>
@@ -14996,14 +15142,16 @@
       <c r="T440" s="3"/>
       <c r="U440" s="5"/>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
         <v>439</v>
       </c>
       <c r="B441" s="4">
         <v>50125</v>
       </c>
-      <c r="C441" s="3"/>
+      <c r="C441" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D441" s="3" t="s">
         <v>467</v>
       </c>
@@ -15027,14 +15175,16 @@
       <c r="T441" s="3"/>
       <c r="U441" s="5"/>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
         <v>440</v>
       </c>
       <c r="B442" s="4">
         <v>50126</v>
       </c>
-      <c r="C442" s="3"/>
+      <c r="C442" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3" t="s">
@@ -15056,14 +15206,16 @@
       <c r="T442" s="3"/>
       <c r="U442" s="5"/>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12">
         <v>441</v>
       </c>
       <c r="B443" s="4">
         <v>50127</v>
       </c>
-      <c r="C443" s="3"/>
+      <c r="C443" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3" t="s">
@@ -15085,15 +15237,17 @@
       <c r="T443" s="3"/>
       <c r="U443" s="5"/>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12">
         <v>442</v>
       </c>
       <c r="B444" s="4">
         <v>50128</v>
       </c>
-      <c r="C444" s="3"/>
-      <c r="D444" s="24" t="s">
+      <c r="C444" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D444" s="20" t="s">
         <v>468</v>
       </c>
       <c r="E444" s="3"/>
@@ -15116,7 +15270,7 @@
       <c r="T444" s="3"/>
       <c r="U444" s="5"/>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
         <v>443</v>
       </c>
@@ -15145,7 +15299,7 @@
       <c r="T445" s="3"/>
       <c r="U445" s="5"/>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="12">
         <v>444</v>
       </c>
@@ -15176,14 +15330,16 @@
       <c r="T446" s="3"/>
       <c r="U446" s="5"/>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
         <v>445</v>
       </c>
       <c r="B447" s="4">
         <v>50133</v>
       </c>
-      <c r="C447" s="3"/>
+      <c r="C447" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D447" s="3" t="s">
         <v>470</v>
       </c>
@@ -15207,14 +15363,16 @@
       <c r="T447" s="3"/>
       <c r="U447" s="5"/>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
         <v>446</v>
       </c>
       <c r="B448" s="4">
         <v>50134</v>
       </c>
-      <c r="C448" s="3"/>
+      <c r="C448" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D448" s="3" t="s">
         <v>471</v>
       </c>
@@ -15238,7 +15396,7 @@
       <c r="T448" s="3"/>
       <c r="U448" s="5"/>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
         <v>447</v>
       </c>
@@ -15269,14 +15427,16 @@
       <c r="T449" s="3"/>
       <c r="U449" s="5"/>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>448</v>
       </c>
       <c r="B450" s="4">
         <v>50136</v>
       </c>
-      <c r="C450" s="3"/>
+      <c r="C450" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D450" s="3" t="s">
         <v>473</v>
       </c>
@@ -15300,14 +15460,16 @@
       <c r="T450" s="3"/>
       <c r="U450" s="5"/>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>449</v>
       </c>
       <c r="B451" s="4">
         <v>50137</v>
       </c>
-      <c r="C451" s="3"/>
+      <c r="C451" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D451" s="3" t="s">
         <v>474</v>
       </c>
@@ -15331,14 +15493,16 @@
       <c r="T451" s="3"/>
       <c r="U451" s="5"/>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>450</v>
       </c>
       <c r="B452" s="4">
         <v>50138</v>
       </c>
-      <c r="C452" s="3"/>
+      <c r="C452" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3" t="s">
@@ -15360,14 +15524,16 @@
       <c r="T452" s="3"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>451</v>
       </c>
       <c r="B453" s="4">
         <v>50139</v>
       </c>
-      <c r="C453" s="3"/>
+      <c r="C453" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3" t="s">
@@ -15389,14 +15555,16 @@
       <c r="T453" s="3"/>
       <c r="U453" s="5"/>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>452</v>
       </c>
       <c r="B454" s="4">
         <v>50140</v>
       </c>
-      <c r="C454" s="3"/>
+      <c r="C454" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D454" s="3" t="s">
         <v>475</v>
       </c>
@@ -15420,14 +15588,16 @@
       <c r="T454" s="3"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>453</v>
       </c>
       <c r="B455" s="4">
         <v>50160</v>
       </c>
-      <c r="C455" s="3"/>
+      <c r="C455" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3" t="s">
@@ -15456,13 +15626,17 @@
       <c r="B456" s="4">
         <v>50241</v>
       </c>
-      <c r="C456" s="3"/>
+      <c r="C456" s="3">
+        <v>50241</v>
+      </c>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="G456" s="3"/>
+      <c r="G456" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H456" s="3"/>
       <c r="I456" s="3"/>
       <c r="J456" s="3"/>
@@ -15485,7 +15659,9 @@
       <c r="B457" s="4">
         <v>50242</v>
       </c>
-      <c r="C457" s="3"/>
+      <c r="C457" s="3">
+        <v>50242</v>
+      </c>
       <c r="D457" s="3" t="s">
         <v>476</v>
       </c>
@@ -15493,7 +15669,9 @@
       <c r="F457" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G457" s="3"/>
+      <c r="G457" s="3" t="s">
+        <v>519</v>
+      </c>
       <c r="H457" s="3"/>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
@@ -15516,7 +15694,9 @@
       <c r="B458" s="4">
         <v>50243</v>
       </c>
-      <c r="C458" s="3"/>
+      <c r="C458" s="3">
+        <v>50243</v>
+      </c>
       <c r="D458" s="3" t="s">
         <v>477</v>
       </c>
@@ -15524,7 +15704,9 @@
       <c r="F458" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G458" s="3"/>
+      <c r="G458" s="19" t="s">
+        <v>532</v>
+      </c>
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
@@ -15540,19 +15722,21 @@
       <c r="T458" s="3"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>457</v>
       </c>
       <c r="B459" s="4">
         <v>50244</v>
       </c>
-      <c r="C459" s="3"/>
+      <c r="C459" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D459" s="3" t="s">
         <v>478</v>
       </c>
       <c r="E459" s="3"/>
-      <c r="F459" s="23" t="s">
+      <c r="F459" s="19" t="s">
         <v>520</v>
       </c>
       <c r="G459" s="3"/>
@@ -15578,13 +15762,17 @@
       <c r="B460" s="4">
         <v>50245</v>
       </c>
-      <c r="C460" s="3"/>
+      <c r="C460" s="3">
+        <v>50245</v>
+      </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G460" s="3"/>
+      <c r="G460" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H460" s="3"/>
       <c r="I460" s="3"/>
       <c r="J460" s="3"/>
@@ -15607,13 +15795,17 @@
       <c r="B461" s="4">
         <v>50246</v>
       </c>
-      <c r="C461" s="3"/>
+      <c r="C461" s="3">
+        <v>50246</v>
+      </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G461" s="3"/>
+      <c r="G461" s="3" t="s">
+        <v>530</v>
+      </c>
       <c r="H461" s="3"/>
       <c r="I461" s="3"/>
       <c r="J461" s="3"/>
@@ -15629,14 +15821,16 @@
       <c r="T461" s="3"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>460</v>
       </c>
       <c r="B462" s="4">
         <v>50247</v>
       </c>
-      <c r="C462" s="3"/>
+      <c r="C462" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3" t="s">
@@ -15665,13 +15859,17 @@
       <c r="B463" s="4">
         <v>50401</v>
       </c>
-      <c r="C463" s="3"/>
+      <c r="C463" s="3">
+        <v>50401</v>
+      </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="G463" s="3"/>
+      <c r="G463" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
       <c r="J463" s="3"/>
@@ -15694,13 +15892,17 @@
       <c r="B464" s="4">
         <v>50402</v>
       </c>
-      <c r="C464" s="3"/>
+      <c r="C464" s="3">
+        <v>50402</v>
+      </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G464" s="3"/>
+      <c r="G464" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
       <c r="J464" s="3"/>
@@ -15723,13 +15925,17 @@
       <c r="B465" s="4">
         <v>50403</v>
       </c>
-      <c r="C465" s="3"/>
+      <c r="C465" s="3">
+        <v>50403</v>
+      </c>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G465" s="3"/>
+      <c r="G465" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
       <c r="J465" s="3"/>
@@ -15752,13 +15958,17 @@
       <c r="B466" s="4">
         <v>50404</v>
       </c>
-      <c r="C466" s="3"/>
+      <c r="C466" s="3">
+        <v>50404</v>
+      </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G466" s="3"/>
+      <c r="G466" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
       <c r="J466" s="3"/>
@@ -15781,13 +15991,17 @@
       <c r="B467" s="4">
         <v>50462</v>
       </c>
-      <c r="C467" s="3"/>
+      <c r="C467" s="3">
+        <v>50462</v>
+      </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="G467" s="3"/>
+      <c r="G467" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H467" s="3"/>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
@@ -15810,13 +16024,15 @@
       <c r="B468" s="4">
         <v>50463</v>
       </c>
-      <c r="C468" s="3" t="s">
-        <v>493</v>
+      <c r="C468" s="3">
+        <v>50463</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
-      <c r="G468" s="3"/>
+      <c r="G468" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
       <c r="J468" s="3"/>
@@ -15839,13 +16055,15 @@
       <c r="B469" s="4">
         <v>50464</v>
       </c>
-      <c r="C469" s="3" t="s">
-        <v>493</v>
+      <c r="C469" s="3">
+        <v>50464</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
-      <c r="G469" s="3"/>
+      <c r="G469" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H469" s="3"/>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
@@ -15868,13 +16086,15 @@
       <c r="B470" s="4">
         <v>50465</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>493</v>
+      <c r="C470" s="3">
+        <v>50465</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
-      <c r="G470" s="3"/>
+      <c r="G470" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H470" s="3"/>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
@@ -15890,7 +16110,7 @@
       <c r="T470" s="3"/>
       <c r="U470" s="5"/>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>469</v>
       </c>
@@ -15919,14 +16139,16 @@
       <c r="T471" s="3"/>
       <c r="U471" s="5"/>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>470</v>
       </c>
       <c r="B472" s="4">
         <v>50467</v>
       </c>
-      <c r="C472" s="3"/>
+      <c r="C472" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3" t="s">
@@ -15955,13 +16177,17 @@
       <c r="B473" s="4">
         <v>50468</v>
       </c>
-      <c r="C473" s="3"/>
+      <c r="C473" s="3">
+        <v>50468</v>
+      </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G473" s="3"/>
+      <c r="G473" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H473" s="3"/>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
@@ -15977,7 +16203,7 @@
       <c r="T473" s="3"/>
       <c r="U473" s="5"/>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>472</v>
       </c>
@@ -16006,7 +16232,7 @@
       <c r="T474" s="3"/>
       <c r="U474" s="5"/>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>473</v>
       </c>
@@ -16035,7 +16261,7 @@
       <c r="T475" s="3"/>
       <c r="U475" s="5"/>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>474</v>
       </c>
@@ -16071,13 +16297,15 @@
       <c r="B477" s="4">
         <v>50472</v>
       </c>
-      <c r="C477" s="3" t="s">
-        <v>493</v>
+      <c r="C477" s="3">
+        <v>50472</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
+      <c r="G477" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H477" s="3"/>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
@@ -16093,7 +16321,7 @@
       <c r="T477" s="3"/>
       <c r="U477" s="5"/>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>476</v>
       </c>
@@ -16122,7 +16350,7 @@
       <c r="T478" s="3"/>
       <c r="U478" s="5"/>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>477</v>
       </c>
@@ -16151,7 +16379,7 @@
       <c r="T479" s="3"/>
       <c r="U479" s="5"/>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>478</v>
       </c>
@@ -16180,7 +16408,7 @@
       <c r="T480" s="3"/>
       <c r="U480" s="5"/>
     </row>
-    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>479</v>
       </c>
@@ -16216,13 +16444,15 @@
       <c r="B482" s="4">
         <v>50477</v>
       </c>
-      <c r="C482" s="3" t="s">
-        <v>493</v>
+      <c r="C482" s="3">
+        <v>50477</v>
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
-      <c r="G482" s="3"/>
+      <c r="G482" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
       <c r="J482" s="3"/>
@@ -16245,13 +16475,15 @@
       <c r="B483" s="4">
         <v>50478</v>
       </c>
-      <c r="C483" s="3" t="s">
-        <v>493</v>
+      <c r="C483" s="3">
+        <v>50478</v>
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
+      <c r="G483" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
       <c r="J483" s="3"/>
@@ -16274,13 +16506,15 @@
       <c r="B484" s="4">
         <v>50479</v>
       </c>
-      <c r="C484" s="3" t="s">
-        <v>493</v>
+      <c r="C484" s="3">
+        <v>50479</v>
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
+      <c r="G484" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
       <c r="J484" s="3"/>
@@ -16296,7 +16530,7 @@
       <c r="T484" s="3"/>
       <c r="U484" s="5"/>
     </row>
-    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>483</v>
       </c>
@@ -16325,7 +16559,7 @@
       <c r="T485" s="3"/>
       <c r="U485" s="5"/>
     </row>
-    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>484</v>
       </c>
@@ -16354,14 +16588,16 @@
       <c r="T486" s="3"/>
       <c r="U486" s="5"/>
     </row>
-    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>485</v>
       </c>
       <c r="B487" s="4">
         <v>50482</v>
       </c>
-      <c r="C487" s="3"/>
+      <c r="C487" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3" t="s">
@@ -16390,13 +16626,15 @@
       <c r="B488" s="4">
         <v>50483</v>
       </c>
-      <c r="C488" s="3" t="s">
-        <v>493</v>
+      <c r="C488" s="3">
+        <v>50483</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
+      <c r="G488" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
@@ -16419,13 +16657,15 @@
       <c r="B489" s="4">
         <v>50484</v>
       </c>
-      <c r="C489" s="3" t="s">
-        <v>493</v>
+      <c r="C489" s="3">
+        <v>50484</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
+      <c r="G489" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
       <c r="J489" s="3"/>
@@ -16448,13 +16688,15 @@
       <c r="B490" s="4">
         <v>50485</v>
       </c>
-      <c r="C490" s="3" t="s">
-        <v>493</v>
+      <c r="C490" s="3">
+        <v>50485</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
+      <c r="G490" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
@@ -16470,7 +16712,7 @@
       <c r="T490" s="3"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>489</v>
       </c>
@@ -16499,7 +16741,7 @@
       <c r="T491" s="3"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>490</v>
       </c>
@@ -16535,13 +16777,15 @@
       <c r="B493" s="4">
         <v>50488</v>
       </c>
-      <c r="C493" s="3" t="s">
-        <v>493</v>
+      <c r="C493" s="3">
+        <v>50488</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
+      <c r="G493" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
@@ -16564,13 +16808,15 @@
       <c r="B494" s="4">
         <v>50489</v>
       </c>
-      <c r="C494" s="3" t="s">
-        <v>493</v>
+      <c r="C494" s="3">
+        <v>50489</v>
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
+      <c r="G494" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
@@ -16586,7 +16832,7 @@
       <c r="T494" s="3"/>
       <c r="U494" s="5"/>
     </row>
-    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>493</v>
       </c>
@@ -16615,14 +16861,16 @@
       <c r="T495" s="3"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>494</v>
       </c>
       <c r="B496" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C496" s="3"/>
+      <c r="C496" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3" t="s">
@@ -16644,14 +16892,16 @@
       <c r="T496" s="3"/>
       <c r="U496" s="5"/>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>495</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C497" s="3"/>
+      <c r="C497" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3" t="s">
@@ -16680,13 +16930,17 @@
       <c r="B498" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C498" s="3"/>
+      <c r="C498" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G498" s="3"/>
+      <c r="G498" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
       <c r="J498" s="3"/>
@@ -16709,13 +16963,17 @@
       <c r="B499" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C499" s="3"/>
+      <c r="C499" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G499" s="3"/>
+      <c r="G499" s="3" t="s">
+        <v>535</v>
+      </c>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
@@ -16731,14 +16989,16 @@
       <c r="T499" s="3"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>498</v>
       </c>
       <c r="B500" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C500" s="3"/>
+      <c r="C500" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3" t="s">
@@ -16760,7 +17020,7 @@
       <c r="T500" s="3"/>
       <c r="U500" s="5"/>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>499</v>
       </c>
@@ -16789,7 +17049,7 @@
       <c r="T501" s="3"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>500</v>
       </c>
@@ -16818,7 +17078,7 @@
       <c r="T502" s="3"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>501</v>
       </c>
@@ -16847,7 +17107,7 @@
       <c r="T503" s="3"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>502</v>
       </c>
@@ -16876,7 +17136,7 @@
       <c r="T504" s="3"/>
       <c r="U504" s="5"/>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>503</v>
       </c>
@@ -16905,7 +17165,7 @@
       <c r="T505" s="3"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>504</v>
       </c>
@@ -16934,7 +17194,7 @@
       <c r="T506" s="3"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>505</v>
       </c>
@@ -16963,7 +17223,7 @@
       <c r="T507" s="3"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>506</v>
       </c>
@@ -16992,7 +17252,7 @@
       <c r="T508" s="3"/>
       <c r="U508" s="5"/>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>507</v>
       </c>
@@ -17021,7 +17281,7 @@
       <c r="T509" s="3"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>508</v>
       </c>
@@ -17050,7 +17310,7 @@
       <c r="T510" s="3"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>509</v>
       </c>
@@ -17079,7 +17339,7 @@
       <c r="T511" s="3"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>510</v>
       </c>
@@ -17108,7 +17368,7 @@
       <c r="T512" s="3"/>
       <c r="U512" s="5"/>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>511</v>
       </c>
@@ -17137,7 +17397,7 @@
       <c r="T513" s="3"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>512</v>
       </c>
@@ -17166,7 +17426,7 @@
       <c r="T514" s="3"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>513</v>
       </c>
@@ -17195,7 +17455,7 @@
       <c r="T515" s="3"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>514</v>
       </c>
@@ -17224,7 +17484,7 @@
       <c r="T516" s="3"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>515</v>
       </c>
@@ -17253,7 +17513,7 @@
       <c r="T517" s="3"/>
       <c r="U517" s="5"/>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>516</v>
       </c>
@@ -17282,7 +17542,7 @@
       <c r="T518" s="3"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>517</v>
       </c>
@@ -17311,7 +17571,7 @@
       <c r="T519" s="3"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>518</v>
       </c>
@@ -17340,7 +17600,7 @@
       <c r="T520" s="3"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>519</v>
       </c>
@@ -17369,7 +17629,7 @@
       <c r="T521" s="3"/>
       <c r="U521" s="5"/>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>520</v>
       </c>
@@ -17398,7 +17658,7 @@
       <c r="T522" s="3"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>521</v>
       </c>
@@ -17427,7 +17687,7 @@
       <c r="T523" s="3"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>522</v>
       </c>
@@ -17456,7 +17716,7 @@
       <c r="T524" s="3"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>523</v>
       </c>
@@ -17485,7 +17745,7 @@
       <c r="T525" s="3"/>
       <c r="U525" s="5"/>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>524</v>
       </c>
@@ -17514,7 +17774,7 @@
       <c r="T526" s="3"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>525</v>
       </c>
@@ -17543,7 +17803,7 @@
       <c r="T527" s="3"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>526</v>
       </c>
@@ -17572,7 +17832,7 @@
       <c r="T528" s="3"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>527</v>
       </c>
@@ -17601,7 +17861,7 @@
       <c r="T529" s="3"/>
       <c r="U529" s="5"/>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>528</v>
       </c>
@@ -17630,7 +17890,7 @@
       <c r="T530" s="3"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>529</v>
       </c>
@@ -17659,7 +17919,7 @@
       <c r="T531" s="3"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>530</v>
       </c>
@@ -17688,7 +17948,7 @@
       <c r="T532" s="3"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>531</v>
       </c>
@@ -17717,7 +17977,7 @@
       <c r="T533" s="3"/>
       <c r="U533" s="5"/>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>532</v>
       </c>
@@ -17746,7 +18006,7 @@
       <c r="T534" s="3"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>533</v>
       </c>
@@ -17775,7 +18035,7 @@
       <c r="T535" s="3"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>534</v>
       </c>
@@ -17804,7 +18064,7 @@
       <c r="T536" s="3"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>535</v>
       </c>
@@ -17833,7 +18093,7 @@
       <c r="T537" s="3"/>
       <c r="U537" s="5"/>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>536</v>
       </c>
@@ -17862,7 +18122,7 @@
       <c r="T538" s="3"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>537</v>
       </c>
@@ -17891,7 +18151,7 @@
       <c r="T539" s="3"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>538</v>
       </c>
@@ -17920,7 +18180,7 @@
       <c r="T540" s="3"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>539</v>
       </c>
@@ -17949,7 +18209,7 @@
       <c r="T541" s="3"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>540</v>
       </c>
@@ -17978,7 +18238,7 @@
       <c r="T542" s="3"/>
       <c r="U542" s="5"/>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>541</v>
       </c>
@@ -18007,7 +18267,7 @@
       <c r="T543" s="3"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>542</v>
       </c>
@@ -18036,7 +18296,7 @@
       <c r="T544" s="3"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>543</v>
       </c>
@@ -18065,7 +18325,7 @@
       <c r="T545" s="3"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>544</v>
       </c>
@@ -18094,7 +18354,7 @@
       <c r="T546" s="3"/>
       <c r="U546" s="5"/>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>545</v>
       </c>
@@ -18123,7 +18383,7 @@
       <c r="T547" s="3"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>546</v>
       </c>
@@ -18152,7 +18412,7 @@
       <c r="T548" s="3"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>547</v>
       </c>
@@ -18181,7 +18441,7 @@
       <c r="T549" s="3"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>548</v>
       </c>
@@ -18210,7 +18470,7 @@
       <c r="T550" s="3"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>549</v>
       </c>
@@ -18239,7 +18499,7 @@
       <c r="T551" s="3"/>
       <c r="U551" s="5"/>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>550</v>
       </c>
@@ -18268,7 +18528,7 @@
       <c r="T552" s="3"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>551</v>
       </c>
@@ -18297,7 +18557,7 @@
       <c r="T553" s="3"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>552</v>
       </c>
@@ -18326,7 +18586,7 @@
       <c r="T554" s="3"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>553</v>
       </c>
@@ -18355,7 +18615,7 @@
       <c r="T555" s="3"/>
       <c r="U555" s="5"/>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>554</v>
       </c>
@@ -18384,7 +18644,7 @@
       <c r="T556" s="3"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>555</v>
       </c>
@@ -18413,7 +18673,7 @@
       <c r="T557" s="3"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>556</v>
       </c>
@@ -18442,7 +18702,7 @@
       <c r="T558" s="3"/>
       <c r="U558" s="5"/>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>557</v>
       </c>
@@ -18471,7 +18731,7 @@
       <c r="T559" s="3"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>558</v>
       </c>
@@ -18500,7 +18760,7 @@
       <c r="T560" s="3"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="13">
         <v>559</v>
       </c>
@@ -18529,14 +18789,16 @@
       <c r="T561" s="7"/>
       <c r="U561" s="8"/>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>560</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C562" s="3"/>
+      <c r="C562" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E562" t="s">
         <v>488</v>
       </c>
@@ -18551,7 +18813,9 @@
       <c r="B563" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C563" s="3"/>
+      <c r="C563" s="3" t="s">
+        <v>480</v>
+      </c>
       <c r="D563" s="17"/>
       <c r="E563" t="s">
         <v>488</v>
@@ -18559,6 +18823,9 @@
       <c r="F563" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="G563" s="27" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="564" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
@@ -18567,7 +18834,9 @@
       <c r="B564" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C564" s="3"/>
+      <c r="C564" s="3" t="s">
+        <v>481</v>
+      </c>
       <c r="D564" s="17"/>
       <c r="E564" t="s">
         <v>488</v>
@@ -18575,6 +18844,9 @@
       <c r="F564" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="G564" s="27" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="565" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="13">
@@ -18583,7 +18855,9 @@
       <c r="B565" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C565" s="3"/>
+      <c r="C565" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="D565" s="17"/>
       <c r="E565" t="s">
         <v>489</v>
@@ -18591,6 +18865,9 @@
       <c r="F565" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="G565" s="27" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="566" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A566" s="12">
@@ -18599,7 +18876,9 @@
       <c r="B566" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="C566" s="3"/>
+      <c r="C566" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="D566" s="17"/>
       <c r="E566" t="s">
         <v>490</v>
@@ -18607,6 +18886,9 @@
       <c r="F566" s="3" t="s">
         <v>515</v>
       </c>
+      <c r="G566" s="27" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="13">
@@ -18615,7 +18897,9 @@
       <c r="B567" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="C567" s="3"/>
+      <c r="C567" s="3" t="s">
+        <v>484</v>
+      </c>
       <c r="D567" s="17"/>
       <c r="E567" t="s">
         <v>491</v>
@@ -18623,6 +18907,9 @@
       <c r="F567" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="G567" s="27" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="568" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A568" s="12">
@@ -18631,12 +18918,17 @@
       <c r="B568" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C568" s="3"/>
+      <c r="C568" s="3" t="s">
+        <v>485</v>
+      </c>
       <c r="E568" t="s">
         <v>488</v>
       </c>
       <c r="F568" s="3" t="s">
         <v>519</v>
+      </c>
+      <c r="G568" s="27" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18646,12 +18938,17 @@
       <c r="B569" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C569" s="3"/>
+      <c r="C569" s="3" t="s">
+        <v>486</v>
+      </c>
       <c r="E569" t="s">
         <v>492</v>
       </c>
       <c r="F569" s="3" t="s">
         <v>519</v>
+      </c>
+      <c r="G569" s="27" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">
@@ -18661,51 +18958,63 @@
       <c r="B570" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C570" s="3"/>
+      <c r="C570" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="E570" t="s">
         <v>488</v>
       </c>
       <c r="F570" s="3" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G570" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>569</v>
       </c>
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>570</v>
       </c>
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>571</v>
       </c>
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>572</v>
       </c>
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>573</v>
       </c>
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>574</v>
       </c>
       <c r="C576" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U576" xr:uid="{61033EA4-C934-4BBC-BB09-38BD18F63385}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\localrun\outputbaselines\1.TestCaseUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF7A1F-A0EA-4904-A532-0C6A92A21AC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3450D-FEEB-4CC6-B8B8-8CBF225C389A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="537">
   <si>
     <t>S.No.</t>
   </si>
@@ -1665,6 +1665,9 @@
   </si>
   <si>
     <t>no change in summary sheet, exception change</t>
+  </si>
+  <si>
+    <t>change in derived rank logic, current result in-line with expectation</t>
   </si>
 </sst>
 </file>
@@ -1909,6 +1912,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,11 +1929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2240,14 +2243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B6F5-D95C-4060-89B9-FDDC3DEF8E41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B426" sqref="B426"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,16 +2257,16 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16"/>
@@ -2280,7 +2282,9 @@
       <c r="G1" s="16">
         <v>44453</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="16">
+        <v>44456</v>
+      </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
@@ -2295,9 +2299,9 @@
       <c r="T1" s="14"/>
       <c r="U1" s="15"/>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2318,7 +2322,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2347,7 +2351,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2405,7 +2409,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2521,7 +2525,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2550,7 +2554,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2579,7 +2583,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2608,7 +2612,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2637,7 +2641,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2666,7 +2670,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2695,7 +2699,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2724,7 +2728,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2782,7 +2786,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2811,7 +2815,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -2840,7 +2844,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -2869,7 +2873,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -2898,7 +2902,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -2956,7 +2960,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -2985,7 +2989,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -3014,7 +3018,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -3043,7 +3047,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -3072,7 +3076,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -3101,7 +3105,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -3130,7 +3134,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -3159,7 +3163,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -3188,7 +3192,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -3217,7 +3221,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -3246,7 +3250,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -3275,7 +3279,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -3304,7 +3308,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -3333,7 +3337,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -3362,7 +3366,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -3391,7 +3395,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -3420,7 +3424,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -3449,7 +3453,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -3507,7 +3511,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -3536,7 +3540,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -3565,7 +3569,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
@@ -3594,7 +3598,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -3623,7 +3627,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -3652,7 +3656,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -3681,7 +3685,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -3739,7 +3743,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -3768,7 +3772,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -3797,7 +3801,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -3855,7 +3859,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -3884,7 +3888,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -3913,7 +3917,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -3942,7 +3946,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -3971,7 +3975,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -4000,7 +4004,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -4029,7 +4033,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -4058,7 +4062,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -4087,7 +4091,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -4145,7 +4149,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -4174,7 +4178,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -4203,7 +4207,7 @@
       <c r="T67" s="3"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -4261,7 +4265,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -4290,7 +4294,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -4319,7 +4323,7 @@
       <c r="T71" s="3"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -4348,7 +4352,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -4377,7 +4381,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -4406,7 +4410,7 @@
       <c r="T74" s="3"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -4435,7 +4439,7 @@
       <c r="T75" s="3"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -4464,7 +4468,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -4493,7 +4497,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -4522,7 +4526,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -4551,7 +4555,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -4580,7 +4584,7 @@
       <c r="T80" s="3"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -4609,7 +4613,7 @@
       <c r="T81" s="3"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -4638,7 +4642,7 @@
       <c r="T82" s="3"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -4667,7 +4671,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -4696,7 +4700,7 @@
       <c r="T84" s="3"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -4725,7 +4729,7 @@
       <c r="T85" s="3"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -4754,7 +4758,7 @@
       <c r="T86" s="3"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>85</v>
       </c>
@@ -4783,7 +4787,7 @@
       <c r="T87" s="3"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -4812,7 +4816,7 @@
       <c r="T88" s="3"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -4841,7 +4845,7 @@
       <c r="T89" s="3"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -4870,7 +4874,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -4899,7 +4903,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -4928,7 +4932,7 @@
       <c r="T92" s="3"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -4957,7 +4961,7 @@
       <c r="T93" s="3"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -4986,7 +4990,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -5015,7 +5019,7 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -5073,7 +5077,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -5102,7 +5106,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -5131,7 +5135,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -5160,7 +5164,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -5189,7 +5193,7 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -5247,7 +5251,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -5276,7 +5280,7 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -5305,7 +5309,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -5334,7 +5338,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -5363,7 +5367,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -5392,7 +5396,7 @@
       <c r="T108" s="3"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -5421,7 +5425,7 @@
       <c r="T109" s="3"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -5450,7 +5454,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -5479,7 +5483,7 @@
       <c r="T111" s="3"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="T112" s="3"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -5537,7 +5541,7 @@
       <c r="T113" s="3"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -5566,7 +5570,7 @@
       <c r="T114" s="3"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -5595,7 +5599,7 @@
       <c r="T115" s="3"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -5624,7 +5628,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -5653,7 +5657,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -5682,7 +5686,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -5711,7 +5715,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -5740,7 +5744,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>119</v>
       </c>
@@ -5769,7 +5773,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>120</v>
       </c>
@@ -5798,7 +5802,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -5827,7 +5831,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -5856,7 +5860,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>123</v>
       </c>
@@ -5885,7 +5889,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>124</v>
       </c>
@@ -5914,7 +5918,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>125</v>
       </c>
@@ -5943,7 +5947,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -5972,7 +5976,7 @@
       <c r="T128" s="3"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>127</v>
       </c>
@@ -6001,7 +6005,7 @@
       <c r="T129" s="3"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>128</v>
       </c>
@@ -6030,7 +6034,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>129</v>
       </c>
@@ -6059,7 +6063,7 @@
       <c r="T131" s="3"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>130</v>
       </c>
@@ -6088,7 +6092,7 @@
       <c r="T132" s="3"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>131</v>
       </c>
@@ -6117,7 +6121,7 @@
       <c r="T133" s="3"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -6146,7 +6150,7 @@
       <c r="T134" s="3"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>133</v>
       </c>
@@ -6175,7 +6179,7 @@
       <c r="T135" s="3"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>134</v>
       </c>
@@ -6204,7 +6208,7 @@
       <c r="T136" s="3"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>135</v>
       </c>
@@ -6233,7 +6237,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>136</v>
       </c>
@@ -6262,7 +6266,7 @@
       <c r="T138" s="3"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -6291,7 +6295,7 @@
       <c r="T139" s="3"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -6320,7 +6324,7 @@
       <c r="T140" s="3"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>139</v>
       </c>
@@ -6349,7 +6353,7 @@
       <c r="T141" s="3"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>140</v>
       </c>
@@ -6378,7 +6382,7 @@
       <c r="T142" s="3"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -6407,7 +6411,7 @@
       <c r="T143" s="3"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>142</v>
       </c>
@@ -6436,7 +6440,7 @@
       <c r="T144" s="3"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>143</v>
       </c>
@@ -6465,7 +6469,7 @@
       <c r="T145" s="3"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>144</v>
       </c>
@@ -6494,7 +6498,7 @@
       <c r="T146" s="3"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>145</v>
       </c>
@@ -6523,7 +6527,7 @@
       <c r="T147" s="3"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>146</v>
       </c>
@@ -6552,7 +6556,7 @@
       <c r="T148" s="3"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>147</v>
       </c>
@@ -6581,7 +6585,7 @@
       <c r="T149" s="3"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>148</v>
       </c>
@@ -6610,7 +6614,7 @@
       <c r="T150" s="3"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>149</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="T151" s="3"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>150</v>
       </c>
@@ -6668,7 +6672,7 @@
       <c r="T152" s="3"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>151</v>
       </c>
@@ -6697,7 +6701,7 @@
       <c r="T153" s="3"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>152</v>
       </c>
@@ -6726,7 +6730,7 @@
       <c r="T154" s="3"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -6755,7 +6759,7 @@
       <c r="T155" s="3"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>154</v>
       </c>
@@ -6784,7 +6788,7 @@
       <c r="T156" s="3"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>155</v>
       </c>
@@ -6813,7 +6817,7 @@
       <c r="T157" s="3"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -6842,7 +6846,7 @@
       <c r="T158" s="3"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>157</v>
       </c>
@@ -6871,7 +6875,7 @@
       <c r="T159" s="3"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>158</v>
       </c>
@@ -6900,7 +6904,7 @@
       <c r="T160" s="3"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>159</v>
       </c>
@@ -6929,7 +6933,7 @@
       <c r="T161" s="3"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>160</v>
       </c>
@@ -6958,7 +6962,7 @@
       <c r="T162" s="3"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>161</v>
       </c>
@@ -6987,7 +6991,7 @@
       <c r="T163" s="3"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>162</v>
       </c>
@@ -7016,7 +7020,7 @@
       <c r="T164" s="3"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>163</v>
       </c>
@@ -7045,7 +7049,7 @@
       <c r="T165" s="3"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -7074,7 +7078,7 @@
       <c r="T166" s="3"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -7103,7 +7107,7 @@
       <c r="T167" s="3"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>166</v>
       </c>
@@ -7132,7 +7136,7 @@
       <c r="T168" s="3"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -7161,7 +7165,7 @@
       <c r="T169" s="3"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>168</v>
       </c>
@@ -7190,7 +7194,7 @@
       <c r="T170" s="3"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -7219,7 +7223,7 @@
       <c r="T171" s="3"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>170</v>
       </c>
@@ -7248,7 +7252,7 @@
       <c r="T172" s="3"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>171</v>
       </c>
@@ -7277,7 +7281,7 @@
       <c r="T173" s="3"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>172</v>
       </c>
@@ -7306,7 +7310,7 @@
       <c r="T174" s="3"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -7335,7 +7339,7 @@
       <c r="T175" s="3"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>174</v>
       </c>
@@ -7364,7 +7368,7 @@
       <c r="T176" s="3"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>175</v>
       </c>
@@ -7393,7 +7397,7 @@
       <c r="T177" s="3"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>176</v>
       </c>
@@ -7422,7 +7426,7 @@
       <c r="T178" s="3"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>177</v>
       </c>
@@ -7451,7 +7455,7 @@
       <c r="T179" s="3"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>178</v>
       </c>
@@ -7480,7 +7484,7 @@
       <c r="T180" s="3"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>179</v>
       </c>
@@ -7509,7 +7513,7 @@
       <c r="T181" s="3"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -7538,7 +7542,7 @@
       <c r="T182" s="3"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -7567,7 +7571,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -7596,7 +7600,7 @@
       <c r="T184" s="3"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -7625,7 +7629,7 @@
       <c r="T185" s="3"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -7654,7 +7658,7 @@
       <c r="T186" s="3"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -7683,7 +7687,7 @@
       <c r="T187" s="3"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>186</v>
       </c>
@@ -7712,7 +7716,7 @@
       <c r="T188" s="3"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>187</v>
       </c>
@@ -7741,7 +7745,7 @@
       <c r="T189" s="3"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -7770,7 +7774,7 @@
       <c r="T190" s="3"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -7799,7 +7803,7 @@
       <c r="T191" s="3"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -7828,7 +7832,7 @@
       <c r="T192" s="3"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -7857,7 +7861,7 @@
       <c r="T193" s="3"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -7886,7 +7890,7 @@
       <c r="T194" s="3"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -7915,7 +7919,7 @@
       <c r="T195" s="3"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -7944,7 +7948,7 @@
       <c r="T196" s="3"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -7973,7 +7977,7 @@
       <c r="T197" s="3"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -8002,7 +8006,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>197</v>
       </c>
@@ -8031,7 +8035,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>198</v>
       </c>
@@ -8060,7 +8064,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>199</v>
       </c>
@@ -8089,7 +8093,7 @@
       <c r="T201" s="3"/>
       <c r="U201" s="5"/>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>200</v>
       </c>
@@ -8118,7 +8122,7 @@
       <c r="T202" s="3"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>201</v>
       </c>
@@ -8147,7 +8151,7 @@
       <c r="T203" s="3"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>202</v>
       </c>
@@ -8176,7 +8180,7 @@
       <c r="T204" s="3"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>203</v>
       </c>
@@ -8205,7 +8209,7 @@
       <c r="T205" s="3"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>204</v>
       </c>
@@ -8234,7 +8238,7 @@
       <c r="T206" s="3"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>205</v>
       </c>
@@ -8263,7 +8267,7 @@
       <c r="T207" s="3"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>206</v>
       </c>
@@ -8292,7 +8296,7 @@
       <c r="T208" s="3"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -8321,7 +8325,7 @@
       <c r="T209" s="3"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>208</v>
       </c>
@@ -8350,7 +8354,7 @@
       <c r="T210" s="3"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>209</v>
       </c>
@@ -8379,7 +8383,7 @@
       <c r="T211" s="3"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>210</v>
       </c>
@@ -8408,7 +8412,7 @@
       <c r="T212" s="3"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>211</v>
       </c>
@@ -8437,7 +8441,7 @@
       <c r="T213" s="3"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -8466,7 +8470,7 @@
       <c r="T214" s="3"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -8495,7 +8499,7 @@
       <c r="T215" s="3"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -8524,7 +8528,7 @@
       <c r="T216" s="3"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -8553,7 +8557,7 @@
       <c r="T217" s="3"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -8582,7 +8586,7 @@
       <c r="T218" s="3"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>217</v>
       </c>
@@ -8611,7 +8615,7 @@
       <c r="T219" s="3"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>218</v>
       </c>
@@ -8640,7 +8644,7 @@
       <c r="T220" s="3"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>219</v>
       </c>
@@ -8669,7 +8673,7 @@
       <c r="T221" s="3"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>220</v>
       </c>
@@ -8698,7 +8702,7 @@
       <c r="T222" s="3"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>221</v>
       </c>
@@ -8727,7 +8731,7 @@
       <c r="T223" s="3"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>222</v>
       </c>
@@ -8756,7 +8760,7 @@
       <c r="T224" s="3"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>223</v>
       </c>
@@ -8785,7 +8789,7 @@
       <c r="T225" s="3"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>224</v>
       </c>
@@ -8814,7 +8818,7 @@
       <c r="T226" s="3"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>225</v>
       </c>
@@ -8843,7 +8847,7 @@
       <c r="T227" s="3"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>226</v>
       </c>
@@ -8872,7 +8876,7 @@
       <c r="T228" s="3"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>227</v>
       </c>
@@ -8901,7 +8905,7 @@
       <c r="T229" s="3"/>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>228</v>
       </c>
@@ -8930,7 +8934,7 @@
       <c r="T230" s="3"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>229</v>
       </c>
@@ -8959,7 +8963,7 @@
       <c r="T231" s="3"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>230</v>
       </c>
@@ -8988,7 +8992,7 @@
       <c r="T232" s="3"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -9017,7 +9021,7 @@
       <c r="T233" s="3"/>
       <c r="U233" s="5"/>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -9046,7 +9050,7 @@
       <c r="T234" s="3"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -9075,7 +9079,7 @@
       <c r="T235" s="3"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>234</v>
       </c>
@@ -9104,7 +9108,7 @@
       <c r="T236" s="3"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>235</v>
       </c>
@@ -9133,7 +9137,7 @@
       <c r="T237" s="3"/>
       <c r="U237" s="5"/>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -9162,7 +9166,7 @@
       <c r="T238" s="3"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -9191,7 +9195,7 @@
       <c r="T239" s="3"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>238</v>
       </c>
@@ -9220,7 +9224,7 @@
       <c r="T240" s="3"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -9249,7 +9253,7 @@
       <c r="T241" s="3"/>
       <c r="U241" s="5"/>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>240</v>
       </c>
@@ -9278,7 +9282,7 @@
       <c r="T242" s="3"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>241</v>
       </c>
@@ -9307,7 +9311,7 @@
       <c r="T243" s="3"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>242</v>
       </c>
@@ -9336,7 +9340,7 @@
       <c r="T244" s="3"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>243</v>
       </c>
@@ -9365,7 +9369,7 @@
       <c r="T245" s="3"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>244</v>
       </c>
@@ -9394,7 +9398,7 @@
       <c r="T246" s="3"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>245</v>
       </c>
@@ -9423,7 +9427,7 @@
       <c r="T247" s="3"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>246</v>
       </c>
@@ -9452,7 +9456,7 @@
       <c r="T248" s="3"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>247</v>
       </c>
@@ -9481,7 +9485,7 @@
       <c r="T249" s="3"/>
       <c r="U249" s="5"/>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>248</v>
       </c>
@@ -9510,7 +9514,7 @@
       <c r="T250" s="3"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>249</v>
       </c>
@@ -9539,7 +9543,7 @@
       <c r="T251" s="3"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>250</v>
       </c>
@@ -9568,7 +9572,7 @@
       <c r="T252" s="3"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>251</v>
       </c>
@@ -9597,7 +9601,7 @@
       <c r="T253" s="3"/>
       <c r="U253" s="5"/>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>252</v>
       </c>
@@ -9626,7 +9630,7 @@
       <c r="T254" s="3"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>253</v>
       </c>
@@ -9655,7 +9659,7 @@
       <c r="T255" s="3"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>254</v>
       </c>
@@ -9684,7 +9688,7 @@
       <c r="T256" s="3"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>255</v>
       </c>
@@ -9713,7 +9717,7 @@
       <c r="T257" s="3"/>
       <c r="U257" s="5"/>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>256</v>
       </c>
@@ -9742,7 +9746,7 @@
       <c r="T258" s="3"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>257</v>
       </c>
@@ -9771,7 +9775,7 @@
       <c r="T259" s="3"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>258</v>
       </c>
@@ -9800,7 +9804,7 @@
       <c r="T260" s="3"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>259</v>
       </c>
@@ -9829,7 +9833,7 @@
       <c r="T261" s="3"/>
       <c r="U261" s="5"/>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>260</v>
       </c>
@@ -9858,7 +9862,7 @@
       <c r="T262" s="3"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>261</v>
       </c>
@@ -9887,7 +9891,7 @@
       <c r="T263" s="3"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>262</v>
       </c>
@@ -9916,7 +9920,7 @@
       <c r="T264" s="3"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="12">
         <v>263</v>
       </c>
@@ -9945,7 +9949,7 @@
       <c r="T265" s="3"/>
       <c r="U265" s="5"/>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="12">
         <v>264</v>
       </c>
@@ -9974,7 +9978,7 @@
       <c r="T266" s="3"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="12">
         <v>265</v>
       </c>
@@ -10003,7 +10007,7 @@
       <c r="T267" s="3"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="12">
         <v>266</v>
       </c>
@@ -10032,7 +10036,7 @@
       <c r="T268" s="3"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="12">
         <v>267</v>
       </c>
@@ -10061,7 +10065,7 @@
       <c r="T269" s="3"/>
       <c r="U269" s="5"/>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="12">
         <v>268</v>
       </c>
@@ -10090,7 +10094,7 @@
       <c r="T270" s="3"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="12">
         <v>269</v>
       </c>
@@ -10119,7 +10123,7 @@
       <c r="T271" s="3"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="12">
         <v>270</v>
       </c>
@@ -10148,7 +10152,7 @@
       <c r="T272" s="3"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="12">
         <v>271</v>
       </c>
@@ -10177,7 +10181,7 @@
       <c r="T273" s="3"/>
       <c r="U273" s="5"/>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="12">
         <v>272</v>
       </c>
@@ -10206,7 +10210,7 @@
       <c r="T274" s="3"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="12">
         <v>273</v>
       </c>
@@ -10235,7 +10239,7 @@
       <c r="T275" s="3"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="12">
         <v>274</v>
       </c>
@@ -10264,7 +10268,7 @@
       <c r="T276" s="3"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
         <v>275</v>
       </c>
@@ -10293,7 +10297,7 @@
       <c r="T277" s="3"/>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="12">
         <v>276</v>
       </c>
@@ -10322,7 +10326,7 @@
       <c r="T278" s="3"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="12">
         <v>277</v>
       </c>
@@ -10351,7 +10355,7 @@
       <c r="T279" s="3"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="12">
         <v>278</v>
       </c>
@@ -10380,7 +10384,7 @@
       <c r="T280" s="3"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="12">
         <v>279</v>
       </c>
@@ -10409,7 +10413,7 @@
       <c r="T281" s="3"/>
       <c r="U281" s="5"/>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="12">
         <v>280</v>
       </c>
@@ -10438,7 +10442,7 @@
       <c r="T282" s="3"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="12">
         <v>281</v>
       </c>
@@ -10467,7 +10471,7 @@
       <c r="T283" s="3"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="12">
         <v>282</v>
       </c>
@@ -10496,7 +10500,7 @@
       <c r="T284" s="3"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="12">
         <v>283</v>
       </c>
@@ -10525,7 +10529,7 @@
       <c r="T285" s="3"/>
       <c r="U285" s="5"/>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="12">
         <v>284</v>
       </c>
@@ -10554,7 +10558,7 @@
       <c r="T286" s="3"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="12">
         <v>285</v>
       </c>
@@ -10583,7 +10587,7 @@
       <c r="T287" s="3"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="12">
         <v>286</v>
       </c>
@@ -10612,7 +10616,7 @@
       <c r="T288" s="3"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="12">
         <v>287</v>
       </c>
@@ -10641,7 +10645,7 @@
       <c r="T289" s="3"/>
       <c r="U289" s="5"/>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="12">
         <v>288</v>
       </c>
@@ -10670,7 +10674,7 @@
       <c r="T290" s="3"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="12">
         <v>289</v>
       </c>
@@ -10699,7 +10703,7 @@
       <c r="T291" s="3"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="12">
         <v>290</v>
       </c>
@@ -10728,7 +10732,7 @@
       <c r="T292" s="3"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="12">
         <v>291</v>
       </c>
@@ -10757,7 +10761,7 @@
       <c r="T293" s="3"/>
       <c r="U293" s="5"/>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="12">
         <v>292</v>
       </c>
@@ -10786,7 +10790,7 @@
       <c r="T294" s="3"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="12">
         <v>293</v>
       </c>
@@ -10815,7 +10819,7 @@
       <c r="T295" s="3"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="12">
         <v>294</v>
       </c>
@@ -10844,7 +10848,7 @@
       <c r="T296" s="3"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="12">
         <v>295</v>
       </c>
@@ -10873,7 +10877,7 @@
       <c r="T297" s="3"/>
       <c r="U297" s="5"/>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="12">
         <v>296</v>
       </c>
@@ -10902,7 +10906,7 @@
       <c r="T298" s="3"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="12">
         <v>297</v>
       </c>
@@ -10931,7 +10935,7 @@
       <c r="T299" s="3"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="12">
         <v>298</v>
       </c>
@@ -10960,7 +10964,7 @@
       <c r="T300" s="3"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="12">
         <v>299</v>
       </c>
@@ -10989,7 +10993,7 @@
       <c r="T301" s="3"/>
       <c r="U301" s="5"/>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="12">
         <v>300</v>
       </c>
@@ -11018,7 +11022,7 @@
       <c r="T302" s="3"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="12">
         <v>301</v>
       </c>
@@ -11047,7 +11051,7 @@
       <c r="T303" s="3"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="12">
         <v>302</v>
       </c>
@@ -11076,7 +11080,7 @@
       <c r="T304" s="3"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="12">
         <v>303</v>
       </c>
@@ -11105,7 +11109,7 @@
       <c r="T305" s="3"/>
       <c r="U305" s="5"/>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="12">
         <v>304</v>
       </c>
@@ -11134,7 +11138,7 @@
       <c r="T306" s="3"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="12">
         <v>305</v>
       </c>
@@ -11163,7 +11167,7 @@
       <c r="T307" s="3"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="12">
         <v>306</v>
       </c>
@@ -11192,7 +11196,7 @@
       <c r="T308" s="3"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="12">
         <v>307</v>
       </c>
@@ -11221,7 +11225,7 @@
       <c r="T309" s="3"/>
       <c r="U309" s="5"/>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="12">
         <v>308</v>
       </c>
@@ -11250,7 +11254,7 @@
       <c r="T310" s="3"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="12">
         <v>309</v>
       </c>
@@ -11279,7 +11283,7 @@
       <c r="T311" s="3"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="12">
         <v>310</v>
       </c>
@@ -11308,7 +11312,7 @@
       <c r="T312" s="3"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="12">
         <v>311</v>
       </c>
@@ -11337,7 +11341,7 @@
       <c r="T313" s="3"/>
       <c r="U313" s="5"/>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="12">
         <v>312</v>
       </c>
@@ -11366,7 +11370,7 @@
       <c r="T314" s="3"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="12">
         <v>313</v>
       </c>
@@ -11395,7 +11399,7 @@
       <c r="T315" s="3"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="12">
         <v>314</v>
       </c>
@@ -11424,7 +11428,7 @@
       <c r="T316" s="3"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="12">
         <v>315</v>
       </c>
@@ -11453,7 +11457,7 @@
       <c r="T317" s="3"/>
       <c r="U317" s="5"/>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="12">
         <v>316</v>
       </c>
@@ -11482,7 +11486,7 @@
       <c r="T318" s="3"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="12">
         <v>317</v>
       </c>
@@ -11511,7 +11515,7 @@
       <c r="T319" s="3"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="12">
         <v>318</v>
       </c>
@@ -11540,7 +11544,7 @@
       <c r="T320" s="3"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="12">
         <v>319</v>
       </c>
@@ -11569,7 +11573,7 @@
       <c r="T321" s="3"/>
       <c r="U321" s="5"/>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="12">
         <v>320</v>
       </c>
@@ -11598,7 +11602,7 @@
       <c r="T322" s="3"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="12">
         <v>321</v>
       </c>
@@ -11627,7 +11631,7 @@
       <c r="T323" s="3"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="12">
         <v>322</v>
       </c>
@@ -11656,7 +11660,7 @@
       <c r="T324" s="3"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="12">
         <v>323</v>
       </c>
@@ -11685,7 +11689,7 @@
       <c r="T325" s="3"/>
       <c r="U325" s="5"/>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="12">
         <v>324</v>
       </c>
@@ -11714,7 +11718,7 @@
       <c r="T326" s="3"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="12">
         <v>325</v>
       </c>
@@ -11743,7 +11747,7 @@
       <c r="T327" s="3"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="12">
         <v>326</v>
       </c>
@@ -11772,7 +11776,7 @@
       <c r="T328" s="3"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="12">
         <v>327</v>
       </c>
@@ -11801,7 +11805,7 @@
       <c r="T329" s="3"/>
       <c r="U329" s="5"/>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="12">
         <v>328</v>
       </c>
@@ -11830,7 +11834,7 @@
       <c r="T330" s="3"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="12">
         <v>329</v>
       </c>
@@ -11859,7 +11863,7 @@
       <c r="T331" s="3"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="12">
         <v>330</v>
       </c>
@@ -11888,7 +11892,7 @@
       <c r="T332" s="3"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="12">
         <v>331</v>
       </c>
@@ -11917,7 +11921,7 @@
       <c r="T333" s="3"/>
       <c r="U333" s="5"/>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="12">
         <v>332</v>
       </c>
@@ -11946,7 +11950,7 @@
       <c r="T334" s="3"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="12">
         <v>333</v>
       </c>
@@ -11975,7 +11979,7 @@
       <c r="T335" s="3"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="12">
         <v>334</v>
       </c>
@@ -12004,7 +12008,7 @@
       <c r="T336" s="3"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="12">
         <v>335</v>
       </c>
@@ -12033,7 +12037,7 @@
       <c r="T337" s="3"/>
       <c r="U337" s="5"/>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="12">
         <v>336</v>
       </c>
@@ -12062,7 +12066,7 @@
       <c r="T338" s="3"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="12">
         <v>337</v>
       </c>
@@ -12091,7 +12095,7 @@
       <c r="T339" s="3"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="12">
         <v>338</v>
       </c>
@@ -12120,7 +12124,7 @@
       <c r="T340" s="3"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="12">
         <v>339</v>
       </c>
@@ -12149,7 +12153,7 @@
       <c r="T341" s="3"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="12">
         <v>340</v>
       </c>
@@ -12178,7 +12182,7 @@
       <c r="T342" s="3"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="12">
         <v>341</v>
       </c>
@@ -12207,7 +12211,7 @@
       <c r="T343" s="3"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="12">
         <v>342</v>
       </c>
@@ -12236,7 +12240,7 @@
       <c r="T344" s="3"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="12">
         <v>343</v>
       </c>
@@ -12265,7 +12269,7 @@
       <c r="T345" s="3"/>
       <c r="U345" s="5"/>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="12">
         <v>344</v>
       </c>
@@ -12294,7 +12298,7 @@
       <c r="T346" s="3"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="12">
         <v>345</v>
       </c>
@@ -12323,7 +12327,7 @@
       <c r="T347" s="3"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="12">
         <v>346</v>
       </c>
@@ -12352,7 +12356,7 @@
       <c r="T348" s="3"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="12">
         <v>347</v>
       </c>
@@ -12381,7 +12385,7 @@
       <c r="T349" s="3"/>
       <c r="U349" s="5"/>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="12">
         <v>348</v>
       </c>
@@ -12410,7 +12414,7 @@
       <c r="T350" s="3"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="12">
         <v>349</v>
       </c>
@@ -12439,7 +12443,7 @@
       <c r="T351" s="3"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="12">
         <v>350</v>
       </c>
@@ -12468,7 +12472,7 @@
       <c r="T352" s="3"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="12">
         <v>351</v>
       </c>
@@ -12497,7 +12501,7 @@
       <c r="T353" s="3"/>
       <c r="U353" s="5"/>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="12">
         <v>352</v>
       </c>
@@ -12526,7 +12530,7 @@
       <c r="T354" s="3"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="12">
         <v>353</v>
       </c>
@@ -12555,7 +12559,7 @@
       <c r="T355" s="3"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="12">
         <v>354</v>
       </c>
@@ -12584,7 +12588,7 @@
       <c r="T356" s="3"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="12">
         <v>355</v>
       </c>
@@ -12613,7 +12617,7 @@
       <c r="T357" s="3"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="12">
         <v>356</v>
       </c>
@@ -12642,7 +12646,7 @@
       <c r="T358" s="3"/>
       <c r="U358" s="5"/>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="12">
         <v>357</v>
       </c>
@@ -12671,7 +12675,7 @@
       <c r="T359" s="3"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="12">
         <v>358</v>
       </c>
@@ -12700,7 +12704,7 @@
       <c r="T360" s="3"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="12">
         <v>359</v>
       </c>
@@ -12729,7 +12733,7 @@
       <c r="T361" s="3"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="12">
         <v>360</v>
       </c>
@@ -12758,7 +12762,7 @@
       <c r="T362" s="3"/>
       <c r="U362" s="5"/>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="12">
         <v>361</v>
       </c>
@@ -12787,7 +12791,7 @@
       <c r="T363" s="3"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="12">
         <v>362</v>
       </c>
@@ -12816,7 +12820,7 @@
       <c r="T364" s="3"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="12">
         <v>363</v>
       </c>
@@ -12845,7 +12849,7 @@
       <c r="T365" s="3"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="12">
         <v>364</v>
       </c>
@@ -12874,7 +12878,7 @@
       <c r="T366" s="3"/>
       <c r="U366" s="5"/>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="12">
         <v>365</v>
       </c>
@@ -12903,7 +12907,7 @@
       <c r="T367" s="3"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="12">
         <v>366</v>
       </c>
@@ -12932,7 +12936,7 @@
       <c r="T368" s="3"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="12">
         <v>367</v>
       </c>
@@ -12961,7 +12965,7 @@
       <c r="T369" s="3"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="12">
         <v>368</v>
       </c>
@@ -12990,7 +12994,7 @@
       <c r="T370" s="3"/>
       <c r="U370" s="5"/>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="12">
         <v>369</v>
       </c>
@@ -13019,7 +13023,7 @@
       <c r="T371" s="3"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="12">
         <v>370</v>
       </c>
@@ -13048,7 +13052,7 @@
       <c r="T372" s="3"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="12">
         <v>371</v>
       </c>
@@ -13077,7 +13081,7 @@
       <c r="T373" s="3"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="12">
         <v>372</v>
       </c>
@@ -13106,7 +13110,7 @@
       <c r="T374" s="3"/>
       <c r="U374" s="5"/>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="12">
         <v>373</v>
       </c>
@@ -13135,7 +13139,7 @@
       <c r="T375" s="3"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="12">
         <v>374</v>
       </c>
@@ -13164,7 +13168,7 @@
       <c r="T376" s="3"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="12">
         <v>375</v>
       </c>
@@ -13193,7 +13197,7 @@
       <c r="T377" s="3"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="12">
         <v>376</v>
       </c>
@@ -13222,7 +13226,7 @@
       <c r="T378" s="3"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="12">
         <v>377</v>
       </c>
@@ -13251,7 +13255,7 @@
       <c r="T379" s="3"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="12">
         <v>378</v>
       </c>
@@ -13280,7 +13284,7 @@
       <c r="T380" s="3"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="12">
         <v>379</v>
       </c>
@@ -13309,7 +13313,7 @@
       <c r="T381" s="3"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="12">
         <v>380</v>
       </c>
@@ -13338,7 +13342,7 @@
       <c r="T382" s="3"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="12">
         <v>381</v>
       </c>
@@ -13367,7 +13371,7 @@
       <c r="T383" s="3"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="12">
         <v>382</v>
       </c>
@@ -13396,7 +13400,7 @@
       <c r="T384" s="3"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="12">
         <v>383</v>
       </c>
@@ -13425,7 +13429,7 @@
       <c r="T385" s="3"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="12">
         <v>384</v>
       </c>
@@ -13454,7 +13458,7 @@
       <c r="T386" s="3"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="12">
         <v>385</v>
       </c>
@@ -13483,7 +13487,7 @@
       <c r="T387" s="3"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="12">
         <v>386</v>
       </c>
@@ -13512,7 +13516,7 @@
       <c r="T388" s="3"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="12">
         <v>387</v>
       </c>
@@ -13541,7 +13545,7 @@
       <c r="T389" s="3"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="12">
         <v>388</v>
       </c>
@@ -13570,7 +13574,7 @@
       <c r="T390" s="3"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="12">
         <v>389</v>
       </c>
@@ -13599,7 +13603,7 @@
       <c r="T391" s="3"/>
       <c r="U391" s="5"/>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="12">
         <v>390</v>
       </c>
@@ -13628,7 +13632,7 @@
       <c r="T392" s="3"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="12">
         <v>391</v>
       </c>
@@ -13657,7 +13661,7 @@
       <c r="T393" s="3"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="12">
         <v>392</v>
       </c>
@@ -13686,7 +13690,7 @@
       <c r="T394" s="3"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="12">
         <v>393</v>
       </c>
@@ -13715,7 +13719,7 @@
       <c r="T395" s="3"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="12">
         <v>394</v>
       </c>
@@ -13744,7 +13748,7 @@
       <c r="T396" s="3"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="12">
         <v>395</v>
       </c>
@@ -13773,7 +13777,7 @@
       <c r="T397" s="3"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="12">
         <v>396</v>
       </c>
@@ -13802,7 +13806,7 @@
       <c r="T398" s="3"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="12">
         <v>397</v>
       </c>
@@ -13831,7 +13835,7 @@
       <c r="T399" s="3"/>
       <c r="U399" s="5"/>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="12">
         <v>398</v>
       </c>
@@ -13860,7 +13864,7 @@
       <c r="T400" s="3"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="12">
         <v>399</v>
       </c>
@@ -13891,7 +13895,7 @@
       <c r="T401" s="3"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="12">
         <v>400</v>
       </c>
@@ -13922,7 +13926,7 @@
       <c r="T402" s="3"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>401</v>
       </c>
@@ -13951,7 +13955,7 @@
       <c r="T403" s="3"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>402</v>
       </c>
@@ -13982,7 +13986,7 @@
       <c r="T404" s="3"/>
       <c r="U404" s="5"/>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>403</v>
       </c>
@@ -14011,7 +14015,7 @@
       <c r="T405" s="3"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>404</v>
       </c>
@@ -14040,7 +14044,7 @@
       <c r="T406" s="3"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>405</v>
       </c>
@@ -14069,7 +14073,7 @@
       <c r="T407" s="3"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>406</v>
       </c>
@@ -14098,7 +14102,7 @@
       <c r="T408" s="3"/>
       <c r="U408" s="5"/>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>407</v>
       </c>
@@ -14127,7 +14131,7 @@
       <c r="T409" s="3"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>408</v>
       </c>
@@ -14158,7 +14162,7 @@
       <c r="T410" s="3"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>409</v>
       </c>
@@ -14189,7 +14193,7 @@
       <c r="T411" s="3"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>410</v>
       </c>
@@ -14220,7 +14224,7 @@
       <c r="T412" s="3"/>
       <c r="U412" s="5"/>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>411</v>
       </c>
@@ -14251,7 +14255,7 @@
       <c r="T413" s="3"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>412</v>
       </c>
@@ -14289,9 +14293,7 @@
       <c r="B415" s="4">
         <v>50116</v>
       </c>
-      <c r="C415" s="3">
-        <v>50116</v>
-      </c>
+      <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3" t="s">
@@ -14315,7 +14317,7 @@
       <c r="T415" s="3"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>414</v>
       </c>
@@ -14344,7 +14346,7 @@
       <c r="T416" s="3"/>
       <c r="U416" s="5"/>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>415</v>
       </c>
@@ -14377,12 +14379,10 @@
       <c r="A418" s="12">
         <v>416</v>
       </c>
-      <c r="B418" s="25">
+      <c r="B418" s="21">
         <v>50119</v>
       </c>
-      <c r="C418" s="3">
-        <v>50119</v>
-      </c>
+      <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="19" t="s">
@@ -14413,9 +14413,7 @@
       <c r="B419" s="4">
         <v>50220</v>
       </c>
-      <c r="C419" s="3">
-        <v>50220</v>
-      </c>
+      <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3" t="s">
@@ -14446,9 +14444,7 @@
       <c r="B420" s="4">
         <v>50221</v>
       </c>
-      <c r="C420" s="3">
-        <v>50221</v>
-      </c>
+      <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3" t="s">
@@ -14479,9 +14475,7 @@
       <c r="B421" s="4">
         <v>50222</v>
       </c>
-      <c r="C421" s="3">
-        <v>50222</v>
-      </c>
+      <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3" t="s">
@@ -14512,9 +14506,7 @@
       <c r="B422" s="4">
         <v>50223</v>
       </c>
-      <c r="C422" s="3">
-        <v>50223</v>
-      </c>
+      <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3" t="s">
@@ -14545,12 +14537,10 @@
       <c r="B423" s="4">
         <v>50224</v>
       </c>
-      <c r="C423" s="3">
-        <v>50224</v>
-      </c>
+      <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-      <c r="F423" s="26" t="s">
+      <c r="F423" s="22" t="s">
         <v>503</v>
       </c>
       <c r="G423" s="3" t="s">
@@ -14578,9 +14568,7 @@
       <c r="B424" s="4">
         <v>50225</v>
       </c>
-      <c r="C424" s="3">
-        <v>50225</v>
-      </c>
+      <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3" t="s">
@@ -14611,12 +14599,10 @@
       <c r="B425" s="4">
         <v>50226</v>
       </c>
-      <c r="C425" s="3">
-        <v>50226</v>
-      </c>
+      <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
-      <c r="F425" s="26" t="s">
+      <c r="F425" s="22" t="s">
         <v>504</v>
       </c>
       <c r="G425" s="3" t="s">
@@ -14644,12 +14630,10 @@
       <c r="B426" s="4">
         <v>50227</v>
       </c>
-      <c r="C426" s="3">
-        <v>50227</v>
-      </c>
+      <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
-      <c r="F426" s="26" t="s">
+      <c r="F426" s="22" t="s">
         <v>505</v>
       </c>
       <c r="G426" s="3" t="s">
@@ -14677,9 +14661,7 @@
       <c r="B427" s="4">
         <v>50229</v>
       </c>
-      <c r="C427" s="3">
-        <v>50229</v>
-      </c>
+      <c r="C427" s="3"/>
       <c r="D427" s="3" t="s">
         <v>459</v>
       </c>
@@ -14710,9 +14692,7 @@
       <c r="B428" s="4">
         <v>50230</v>
       </c>
-      <c r="C428" s="3">
-        <v>50230</v>
-      </c>
+      <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3" t="s">
@@ -14743,9 +14723,7 @@
       <c r="B429" s="4">
         <v>50231</v>
       </c>
-      <c r="C429" s="3">
-        <v>50231</v>
-      </c>
+      <c r="C429" s="3"/>
       <c r="D429" s="3" t="s">
         <v>460</v>
       </c>
@@ -14778,9 +14756,7 @@
       <c r="B430" s="4">
         <v>50232</v>
       </c>
-      <c r="C430" s="3">
-        <v>50232</v>
-      </c>
+      <c r="C430" s="3"/>
       <c r="D430" s="3" t="s">
         <v>461</v>
       </c>
@@ -14813,9 +14789,7 @@
       <c r="B431" s="4">
         <v>50233</v>
       </c>
-      <c r="C431" s="3">
-        <v>50233</v>
-      </c>
+      <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3" t="s">
@@ -14846,9 +14820,7 @@
       <c r="B432" s="4">
         <v>50234</v>
       </c>
-      <c r="C432" s="3">
-        <v>50234</v>
-      </c>
+      <c r="C432" s="3"/>
       <c r="D432" s="3" t="s">
         <v>462</v>
       </c>
@@ -14881,9 +14853,7 @@
       <c r="B433" s="4">
         <v>50235</v>
       </c>
-      <c r="C433" s="3">
-        <v>50235</v>
-      </c>
+      <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3" t="s">
@@ -14914,9 +14884,7 @@
       <c r="B434" s="4">
         <v>50236</v>
       </c>
-      <c r="C434" s="3">
-        <v>50236</v>
-      </c>
+      <c r="C434" s="3"/>
       <c r="D434" s="3" t="s">
         <v>461</v>
       </c>
@@ -14949,9 +14917,7 @@
       <c r="B435" s="4">
         <v>50240</v>
       </c>
-      <c r="C435" s="3">
-        <v>50240</v>
-      </c>
+      <c r="C435" s="3"/>
       <c r="D435" s="3" t="s">
         <v>463</v>
       </c>
@@ -14977,7 +14943,7 @@
       <c r="T435" s="3"/>
       <c r="U435" s="5"/>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
         <v>434</v>
       </c>
@@ -15010,7 +14976,7 @@
       <c r="T436" s="3"/>
       <c r="U436" s="5"/>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
         <v>435</v>
       </c>
@@ -15043,7 +15009,7 @@
       <c r="T437" s="3"/>
       <c r="U437" s="5"/>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
         <v>436</v>
       </c>
@@ -15076,7 +15042,7 @@
       <c r="T438" s="3"/>
       <c r="U438" s="5"/>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
         <v>437</v>
       </c>
@@ -15109,7 +15075,7 @@
       <c r="T439" s="3"/>
       <c r="U439" s="5"/>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
         <v>438</v>
       </c>
@@ -15142,7 +15108,7 @@
       <c r="T440" s="3"/>
       <c r="U440" s="5"/>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
         <v>439</v>
       </c>
@@ -15175,7 +15141,7 @@
       <c r="T441" s="3"/>
       <c r="U441" s="5"/>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
         <v>440</v>
       </c>
@@ -15206,7 +15172,7 @@
       <c r="T442" s="3"/>
       <c r="U442" s="5"/>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="12">
         <v>441</v>
       </c>
@@ -15237,7 +15203,7 @@
       <c r="T443" s="3"/>
       <c r="U443" s="5"/>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="12">
         <v>442</v>
       </c>
@@ -15270,7 +15236,7 @@
       <c r="T444" s="3"/>
       <c r="U444" s="5"/>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
         <v>443</v>
       </c>
@@ -15299,7 +15265,7 @@
       <c r="T445" s="3"/>
       <c r="U445" s="5"/>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="12">
         <v>444</v>
       </c>
@@ -15330,7 +15296,7 @@
       <c r="T446" s="3"/>
       <c r="U446" s="5"/>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
         <v>445</v>
       </c>
@@ -15363,7 +15329,7 @@
       <c r="T447" s="3"/>
       <c r="U447" s="5"/>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
         <v>446</v>
       </c>
@@ -15396,7 +15362,7 @@
       <c r="T448" s="3"/>
       <c r="U448" s="5"/>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
         <v>447</v>
       </c>
@@ -15427,7 +15393,7 @@
       <c r="T449" s="3"/>
       <c r="U449" s="5"/>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>448</v>
       </c>
@@ -15460,7 +15426,7 @@
       <c r="T450" s="3"/>
       <c r="U450" s="5"/>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>449</v>
       </c>
@@ -15493,7 +15459,7 @@
       <c r="T451" s="3"/>
       <c r="U451" s="5"/>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>450</v>
       </c>
@@ -15524,7 +15490,7 @@
       <c r="T452" s="3"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>451</v>
       </c>
@@ -15555,7 +15521,7 @@
       <c r="T453" s="3"/>
       <c r="U453" s="5"/>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>452</v>
       </c>
@@ -15588,7 +15554,7 @@
       <c r="T454" s="3"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="12">
         <v>453</v>
       </c>
@@ -15626,9 +15592,7 @@
       <c r="B456" s="4">
         <v>50241</v>
       </c>
-      <c r="C456" s="3">
-        <v>50241</v>
-      </c>
+      <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3" t="s">
@@ -15659,9 +15623,7 @@
       <c r="B457" s="4">
         <v>50242</v>
       </c>
-      <c r="C457" s="3">
-        <v>50242</v>
-      </c>
+      <c r="C457" s="3"/>
       <c r="D457" s="3" t="s">
         <v>476</v>
       </c>
@@ -15694,9 +15656,7 @@
       <c r="B458" s="4">
         <v>50243</v>
       </c>
-      <c r="C458" s="3">
-        <v>50243</v>
-      </c>
+      <c r="C458" s="3"/>
       <c r="D458" s="3" t="s">
         <v>477</v>
       </c>
@@ -15722,7 +15682,7 @@
       <c r="T458" s="3"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="12">
         <v>457</v>
       </c>
@@ -15762,9 +15722,7 @@
       <c r="B460" s="4">
         <v>50245</v>
       </c>
-      <c r="C460" s="3">
-        <v>50245</v>
-      </c>
+      <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3" t="s">
@@ -15795,9 +15753,7 @@
       <c r="B461" s="4">
         <v>50246</v>
       </c>
-      <c r="C461" s="3">
-        <v>50246</v>
-      </c>
+      <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3" t="s">
@@ -15821,7 +15777,7 @@
       <c r="T461" s="3"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>460</v>
       </c>
@@ -15859,9 +15815,7 @@
       <c r="B463" s="4">
         <v>50401</v>
       </c>
-      <c r="C463" s="3">
-        <v>50401</v>
-      </c>
+      <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3" t="s">
@@ -15892,9 +15846,7 @@
       <c r="B464" s="4">
         <v>50402</v>
       </c>
-      <c r="C464" s="3">
-        <v>50402</v>
-      </c>
+      <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3" t="s">
@@ -15925,9 +15877,7 @@
       <c r="B465" s="4">
         <v>50403</v>
       </c>
-      <c r="C465" s="3">
-        <v>50403</v>
-      </c>
+      <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3" t="s">
@@ -15958,9 +15908,7 @@
       <c r="B466" s="4">
         <v>50404</v>
       </c>
-      <c r="C466" s="3">
-        <v>50404</v>
-      </c>
+      <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3" t="s">
@@ -15991,9 +15939,7 @@
       <c r="B467" s="4">
         <v>50462</v>
       </c>
-      <c r="C467" s="3">
-        <v>50462</v>
-      </c>
+      <c r="C467" s="4"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3" t="s">
@@ -16002,7 +15948,9 @@
       <c r="G467" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H467" s="3"/>
+      <c r="H467" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I467" s="3"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
@@ -16024,9 +15972,7 @@
       <c r="B468" s="4">
         <v>50463</v>
       </c>
-      <c r="C468" s="3">
-        <v>50463</v>
-      </c>
+      <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
@@ -16055,16 +16001,16 @@
       <c r="B469" s="4">
         <v>50464</v>
       </c>
-      <c r="C469" s="3">
-        <v>50464</v>
-      </c>
+      <c r="C469" s="4"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H469" s="3"/>
+      <c r="H469" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
@@ -16086,16 +16032,16 @@
       <c r="B470" s="4">
         <v>50465</v>
       </c>
-      <c r="C470" s="3">
-        <v>50465</v>
-      </c>
+      <c r="C470" s="4"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H470" s="3"/>
+      <c r="H470" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I470" s="3"/>
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
@@ -16110,21 +16056,21 @@
       <c r="T470" s="3"/>
       <c r="U470" s="5"/>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="12">
         <v>469</v>
       </c>
       <c r="B471" s="4">
         <v>50466</v>
       </c>
-      <c r="C471" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C471" s="4"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
+      <c r="H471" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I471" s="3"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
@@ -16139,23 +16085,23 @@
       <c r="T471" s="3"/>
       <c r="U471" s="5"/>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="12">
         <v>470</v>
       </c>
       <c r="B472" s="4">
         <v>50467</v>
       </c>
-      <c r="C472" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C472" s="4"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3" t="s">
         <v>515</v>
       </c>
       <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
+      <c r="H472" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I472" s="3"/>
       <c r="J472" s="3"/>
       <c r="K472" s="3"/>
@@ -16177,9 +16123,7 @@
       <c r="B473" s="4">
         <v>50468</v>
       </c>
-      <c r="C473" s="3">
-        <v>50468</v>
-      </c>
+      <c r="C473" s="4"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3" t="s">
@@ -16188,7 +16132,9 @@
       <c r="G473" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H473" s="3"/>
+      <c r="H473" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I473" s="3"/>
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
@@ -16203,21 +16149,21 @@
       <c r="T473" s="3"/>
       <c r="U473" s="5"/>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="12">
         <v>472</v>
       </c>
       <c r="B474" s="4">
         <v>50469</v>
       </c>
-      <c r="C474" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C474" s="4"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
+      <c r="H474" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I474" s="3"/>
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
@@ -16232,21 +16178,21 @@
       <c r="T474" s="3"/>
       <c r="U474" s="5"/>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="12">
         <v>473</v>
       </c>
       <c r="B475" s="4">
         <v>50470</v>
       </c>
-      <c r="C475" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C475" s="4"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
+      <c r="H475" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I475" s="3"/>
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
@@ -16261,21 +16207,21 @@
       <c r="T475" s="3"/>
       <c r="U475" s="5"/>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="12">
         <v>474</v>
       </c>
       <c r="B476" s="4">
         <v>50471</v>
       </c>
-      <c r="C476" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C476" s="4"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
+      <c r="H476" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I476" s="3"/>
       <c r="J476" s="3"/>
       <c r="K476" s="3"/>
@@ -16297,16 +16243,16 @@
       <c r="B477" s="4">
         <v>50472</v>
       </c>
-      <c r="C477" s="3">
-        <v>50472</v>
-      </c>
+      <c r="C477" s="4"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H477" s="3"/>
+      <c r="H477" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I477" s="3"/>
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
@@ -16321,15 +16267,12 @@
       <c r="T477" s="3"/>
       <c r="U477" s="5"/>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="12">
         <v>476</v>
       </c>
       <c r="B478" s="4">
         <v>50473</v>
-      </c>
-      <c r="C478" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -16350,21 +16293,21 @@
       <c r="T478" s="3"/>
       <c r="U478" s="5"/>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="12">
         <v>477</v>
       </c>
       <c r="B479" s="4">
         <v>50474</v>
       </c>
-      <c r="C479" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C479" s="4"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
+      <c r="H479" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I479" s="3"/>
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
@@ -16379,21 +16322,21 @@
       <c r="T479" s="3"/>
       <c r="U479" s="5"/>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="12">
         <v>478</v>
       </c>
       <c r="B480" s="4">
         <v>50475</v>
       </c>
-      <c r="C480" s="3" t="s">
-        <v>493</v>
-      </c>
+      <c r="C480" s="4"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
+      <c r="H480" s="3" t="s">
+        <v>536</v>
+      </c>
       <c r="I480" s="3"/>
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
@@ -16408,7 +16351,7 @@
       <c r="T480" s="3"/>
       <c r="U480" s="5"/>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="12">
         <v>479</v>
       </c>
@@ -16444,9 +16387,7 @@
       <c r="B482" s="4">
         <v>50477</v>
       </c>
-      <c r="C482" s="3">
-        <v>50477</v>
-      </c>
+      <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
@@ -16475,9 +16416,7 @@
       <c r="B483" s="4">
         <v>50478</v>
       </c>
-      <c r="C483" s="3">
-        <v>50478</v>
-      </c>
+      <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
@@ -16506,9 +16445,7 @@
       <c r="B484" s="4">
         <v>50479</v>
       </c>
-      <c r="C484" s="3">
-        <v>50479</v>
-      </c>
+      <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
@@ -16530,7 +16467,7 @@
       <c r="T484" s="3"/>
       <c r="U484" s="5"/>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="12">
         <v>483</v>
       </c>
@@ -16559,7 +16496,7 @@
       <c r="T485" s="3"/>
       <c r="U485" s="5"/>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="12">
         <v>484</v>
       </c>
@@ -16588,7 +16525,7 @@
       <c r="T486" s="3"/>
       <c r="U486" s="5"/>
     </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="12">
         <v>485</v>
       </c>
@@ -16626,9 +16563,7 @@
       <c r="B488" s="4">
         <v>50483</v>
       </c>
-      <c r="C488" s="3">
-        <v>50483</v>
-      </c>
+      <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
@@ -16657,9 +16592,7 @@
       <c r="B489" s="4">
         <v>50484</v>
       </c>
-      <c r="C489" s="3">
-        <v>50484</v>
-      </c>
+      <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
@@ -16688,9 +16621,7 @@
       <c r="B490" s="4">
         <v>50485</v>
       </c>
-      <c r="C490" s="3">
-        <v>50485</v>
-      </c>
+      <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
@@ -16712,7 +16643,7 @@
       <c r="T490" s="3"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="12">
         <v>489</v>
       </c>
@@ -16741,7 +16672,7 @@
       <c r="T491" s="3"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="12">
         <v>490</v>
       </c>
@@ -16777,9 +16708,7 @@
       <c r="B493" s="4">
         <v>50488</v>
       </c>
-      <c r="C493" s="3">
-        <v>50488</v>
-      </c>
+      <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
@@ -16808,9 +16737,7 @@
       <c r="B494" s="4">
         <v>50489</v>
       </c>
-      <c r="C494" s="3">
-        <v>50489</v>
-      </c>
+      <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
@@ -16832,7 +16759,7 @@
       <c r="T494" s="3"/>
       <c r="U494" s="5"/>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="12">
         <v>493</v>
       </c>
@@ -16861,7 +16788,7 @@
       <c r="T495" s="3"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>494</v>
       </c>
@@ -16892,7 +16819,7 @@
       <c r="T496" s="3"/>
       <c r="U496" s="5"/>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>495</v>
       </c>
@@ -16930,9 +16857,7 @@
       <c r="B498" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C498" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3" t="s">
@@ -16963,9 +16888,7 @@
       <c r="B499" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C499" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3" t="s">
@@ -16989,7 +16912,7 @@
       <c r="T499" s="3"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>498</v>
       </c>
@@ -17020,7 +16943,7 @@
       <c r="T500" s="3"/>
       <c r="U500" s="5"/>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>499</v>
       </c>
@@ -17049,7 +16972,7 @@
       <c r="T501" s="3"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>500</v>
       </c>
@@ -17078,7 +17001,7 @@
       <c r="T502" s="3"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>501</v>
       </c>
@@ -17107,7 +17030,7 @@
       <c r="T503" s="3"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>502</v>
       </c>
@@ -17136,7 +17059,7 @@
       <c r="T504" s="3"/>
       <c r="U504" s="5"/>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>503</v>
       </c>
@@ -17165,7 +17088,7 @@
       <c r="T505" s="3"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>504</v>
       </c>
@@ -17194,7 +17117,7 @@
       <c r="T506" s="3"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>505</v>
       </c>
@@ -17223,7 +17146,7 @@
       <c r="T507" s="3"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>506</v>
       </c>
@@ -17252,7 +17175,7 @@
       <c r="T508" s="3"/>
       <c r="U508" s="5"/>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>507</v>
       </c>
@@ -17281,7 +17204,7 @@
       <c r="T509" s="3"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>508</v>
       </c>
@@ -17310,7 +17233,7 @@
       <c r="T510" s="3"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>509</v>
       </c>
@@ -17339,7 +17262,7 @@
       <c r="T511" s="3"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>510</v>
       </c>
@@ -17368,7 +17291,7 @@
       <c r="T512" s="3"/>
       <c r="U512" s="5"/>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>511</v>
       </c>
@@ -17397,7 +17320,7 @@
       <c r="T513" s="3"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>512</v>
       </c>
@@ -17426,7 +17349,7 @@
       <c r="T514" s="3"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>513</v>
       </c>
@@ -17455,7 +17378,7 @@
       <c r="T515" s="3"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>514</v>
       </c>
@@ -17484,7 +17407,7 @@
       <c r="T516" s="3"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>515</v>
       </c>
@@ -17513,7 +17436,7 @@
       <c r="T517" s="3"/>
       <c r="U517" s="5"/>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>516</v>
       </c>
@@ -17542,7 +17465,7 @@
       <c r="T518" s="3"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>517</v>
       </c>
@@ -17571,7 +17494,7 @@
       <c r="T519" s="3"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>518</v>
       </c>
@@ -17600,7 +17523,7 @@
       <c r="T520" s="3"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>519</v>
       </c>
@@ -17629,7 +17552,7 @@
       <c r="T521" s="3"/>
       <c r="U521" s="5"/>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>520</v>
       </c>
@@ -17658,7 +17581,7 @@
       <c r="T522" s="3"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>521</v>
       </c>
@@ -17687,7 +17610,7 @@
       <c r="T523" s="3"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>522</v>
       </c>
@@ -17716,7 +17639,7 @@
       <c r="T524" s="3"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>523</v>
       </c>
@@ -17745,7 +17668,7 @@
       <c r="T525" s="3"/>
       <c r="U525" s="5"/>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>524</v>
       </c>
@@ -17774,7 +17697,7 @@
       <c r="T526" s="3"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>525</v>
       </c>
@@ -17803,7 +17726,7 @@
       <c r="T527" s="3"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>526</v>
       </c>
@@ -17832,7 +17755,7 @@
       <c r="T528" s="3"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>527</v>
       </c>
@@ -17861,7 +17784,7 @@
       <c r="T529" s="3"/>
       <c r="U529" s="5"/>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>528</v>
       </c>
@@ -17890,7 +17813,7 @@
       <c r="T530" s="3"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>529</v>
       </c>
@@ -17919,7 +17842,7 @@
       <c r="T531" s="3"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>530</v>
       </c>
@@ -17948,7 +17871,7 @@
       <c r="T532" s="3"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>531</v>
       </c>
@@ -17977,7 +17900,7 @@
       <c r="T533" s="3"/>
       <c r="U533" s="5"/>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>532</v>
       </c>
@@ -18006,7 +17929,7 @@
       <c r="T534" s="3"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>533</v>
       </c>
@@ -18035,7 +17958,7 @@
       <c r="T535" s="3"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>534</v>
       </c>
@@ -18064,7 +17987,7 @@
       <c r="T536" s="3"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>535</v>
       </c>
@@ -18093,7 +18016,7 @@
       <c r="T537" s="3"/>
       <c r="U537" s="5"/>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>536</v>
       </c>
@@ -18122,7 +18045,7 @@
       <c r="T538" s="3"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>537</v>
       </c>
@@ -18151,7 +18074,7 @@
       <c r="T539" s="3"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>538</v>
       </c>
@@ -18180,7 +18103,7 @@
       <c r="T540" s="3"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>539</v>
       </c>
@@ -18209,7 +18132,7 @@
       <c r="T541" s="3"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>540</v>
       </c>
@@ -18238,7 +18161,7 @@
       <c r="T542" s="3"/>
       <c r="U542" s="5"/>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>541</v>
       </c>
@@ -18267,7 +18190,7 @@
       <c r="T543" s="3"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>542</v>
       </c>
@@ -18296,7 +18219,7 @@
       <c r="T544" s="3"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>543</v>
       </c>
@@ -18325,7 +18248,7 @@
       <c r="T545" s="3"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>544</v>
       </c>
@@ -18354,7 +18277,7 @@
       <c r="T546" s="3"/>
       <c r="U546" s="5"/>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>545</v>
       </c>
@@ -18383,7 +18306,7 @@
       <c r="T547" s="3"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>546</v>
       </c>
@@ -18412,7 +18335,7 @@
       <c r="T548" s="3"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>547</v>
       </c>
@@ -18441,7 +18364,7 @@
       <c r="T549" s="3"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>548</v>
       </c>
@@ -18470,7 +18393,7 @@
       <c r="T550" s="3"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>549</v>
       </c>
@@ -18499,7 +18422,7 @@
       <c r="T551" s="3"/>
       <c r="U551" s="5"/>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>550</v>
       </c>
@@ -18528,7 +18451,7 @@
       <c r="T552" s="3"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>551</v>
       </c>
@@ -18557,7 +18480,7 @@
       <c r="T553" s="3"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>552</v>
       </c>
@@ -18586,7 +18509,7 @@
       <c r="T554" s="3"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>553</v>
       </c>
@@ -18615,7 +18538,7 @@
       <c r="T555" s="3"/>
       <c r="U555" s="5"/>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>554</v>
       </c>
@@ -18644,7 +18567,7 @@
       <c r="T556" s="3"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>555</v>
       </c>
@@ -18673,7 +18596,7 @@
       <c r="T557" s="3"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>556</v>
       </c>
@@ -18702,7 +18625,7 @@
       <c r="T558" s="3"/>
       <c r="U558" s="5"/>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>557</v>
       </c>
@@ -18731,7 +18654,7 @@
       <c r="T559" s="3"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>558</v>
       </c>
@@ -18760,7 +18683,7 @@
       <c r="T560" s="3"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="13">
         <v>559</v>
       </c>
@@ -18789,7 +18712,7 @@
       <c r="T561" s="7"/>
       <c r="U561" s="8"/>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>560</v>
       </c>
@@ -18813,9 +18736,7 @@
       <c r="B563" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C563" s="3" t="s">
-        <v>480</v>
-      </c>
+      <c r="C563" s="3"/>
       <c r="D563" s="17"/>
       <c r="E563" t="s">
         <v>488</v>
@@ -18823,7 +18744,7 @@
       <c r="F563" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G563" s="27" t="s">
+      <c r="G563" s="23" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18834,9 +18755,7 @@
       <c r="B564" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C564" s="3" t="s">
-        <v>481</v>
-      </c>
+      <c r="C564" s="3"/>
       <c r="D564" s="17"/>
       <c r="E564" t="s">
         <v>488</v>
@@ -18844,7 +18763,7 @@
       <c r="F564" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G564" s="27" t="s">
+      <c r="G564" s="23" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18855,9 +18774,7 @@
       <c r="B565" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C565" s="3" t="s">
-        <v>482</v>
-      </c>
+      <c r="C565" s="3"/>
       <c r="D565" s="17"/>
       <c r="E565" t="s">
         <v>489</v>
@@ -18865,7 +18782,7 @@
       <c r="F565" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G565" s="27" t="s">
+      <c r="G565" s="23" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18876,9 +18793,7 @@
       <c r="B566" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="C566" s="3" t="s">
-        <v>483</v>
-      </c>
+      <c r="C566" s="3"/>
       <c r="D566" s="17"/>
       <c r="E566" t="s">
         <v>490</v>
@@ -18886,7 +18801,7 @@
       <c r="F566" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G566" s="27" t="s">
+      <c r="G566" s="23" t="s">
         <v>534</v>
       </c>
     </row>
@@ -18897,9 +18812,7 @@
       <c r="B567" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="C567" s="3" t="s">
-        <v>484</v>
-      </c>
+      <c r="C567" s="3"/>
       <c r="D567" s="17"/>
       <c r="E567" t="s">
         <v>491</v>
@@ -18907,7 +18820,7 @@
       <c r="F567" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G567" s="27" t="s">
+      <c r="G567" s="23" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18918,16 +18831,14 @@
       <c r="B568" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C568" s="3" t="s">
-        <v>485</v>
-      </c>
+      <c r="C568" s="3"/>
       <c r="E568" t="s">
         <v>488</v>
       </c>
       <c r="F568" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G568" s="27" t="s">
+      <c r="G568" s="23" t="s">
         <v>533</v>
       </c>
     </row>
@@ -18938,16 +18849,14 @@
       <c r="B569" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C569" s="3" t="s">
-        <v>486</v>
-      </c>
+      <c r="C569" s="3"/>
       <c r="E569" t="s">
         <v>492</v>
       </c>
       <c r="F569" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G569" s="27" t="s">
+      <c r="G569" s="23" t="s">
         <v>534</v>
       </c>
     </row>
@@ -18958,63 +18867,54 @@
       <c r="B570" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C570" s="3" t="s">
-        <v>487</v>
-      </c>
+      <c r="C570" s="3"/>
       <c r="E570" t="s">
         <v>488</v>
       </c>
       <c r="F570" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G570" s="27" t="s">
+      <c r="G570" s="23" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="571" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>569</v>
       </c>
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>570</v>
       </c>
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>571</v>
       </c>
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>572</v>
       </c>
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>573</v>
       </c>
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>574</v>
       </c>
       <c r="C576" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U576" xr:uid="{61033EA4-C934-4BBC-BB09-38BD18F63385}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3450D-FEEB-4CC6-B8B8-8CBF225C389A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136E638-B1E2-42D6-9E68-FF30CDD2E967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="538">
   <si>
     <t>S.No.</t>
   </si>
@@ -1668,13 +1668,16 @@
   </si>
   <si>
     <t>change in derived rank logic, current result in-line with expectation</t>
+  </si>
+  <si>
+    <t>Results better than before due to improvement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,6 +1696,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1715,7 +1724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1858,11 +1867,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1928,6 +1952,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2249,7 +2276,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,7 +2312,9 @@
       <c r="H1" s="16">
         <v>44456</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="16">
+        <v>44467</v>
+      </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -14375,7 +14404,7 @@
       <c r="T417" s="3"/>
       <c r="U417" s="5"/>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12">
         <v>416</v>
       </c>
@@ -14406,7 +14435,7 @@
       <c r="T418" s="3"/>
       <c r="U418" s="5"/>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12">
         <v>417</v>
       </c>
@@ -14423,7 +14452,9 @@
         <v>526</v>
       </c>
       <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
+      <c r="I419" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
@@ -14437,7 +14468,7 @@
       <c r="T419" s="3"/>
       <c r="U419" s="5"/>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12">
         <v>418</v>
       </c>
@@ -14454,7 +14485,9 @@
         <v>526</v>
       </c>
       <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
+      <c r="I420" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
@@ -14468,7 +14501,7 @@
       <c r="T420" s="3"/>
       <c r="U420" s="5"/>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12">
         <v>419</v>
       </c>
@@ -14485,7 +14518,9 @@
         <v>526</v>
       </c>
       <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
+      <c r="I421" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
@@ -14499,7 +14534,7 @@
       <c r="T421" s="3"/>
       <c r="U421" s="5"/>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12">
         <v>420</v>
       </c>
@@ -14516,7 +14551,9 @@
         <v>526</v>
       </c>
       <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
+      <c r="I422" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
@@ -14530,7 +14567,7 @@
       <c r="T422" s="3"/>
       <c r="U422" s="5"/>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12">
         <v>421</v>
       </c>
@@ -14547,7 +14584,9 @@
         <v>527</v>
       </c>
       <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
+      <c r="I423" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
@@ -14561,7 +14600,7 @@
       <c r="T423" s="3"/>
       <c r="U423" s="5"/>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12">
         <v>422</v>
       </c>
@@ -14578,7 +14617,9 @@
         <v>515</v>
       </c>
       <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
+      <c r="I424" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
@@ -14592,7 +14633,7 @@
       <c r="T424" s="3"/>
       <c r="U424" s="5"/>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12">
         <v>423</v>
       </c>
@@ -14609,7 +14650,9 @@
         <v>528</v>
       </c>
       <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
+      <c r="I425" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
@@ -14623,7 +14666,7 @@
       <c r="T425" s="3"/>
       <c r="U425" s="5"/>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12">
         <v>424</v>
       </c>
@@ -14640,7 +14683,9 @@
         <v>529</v>
       </c>
       <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
+      <c r="I426" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
@@ -14654,7 +14699,7 @@
       <c r="T426" s="3"/>
       <c r="U426" s="5"/>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12">
         <v>425</v>
       </c>
@@ -14671,7 +14716,9 @@
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
+      <c r="I427" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
@@ -14685,7 +14732,7 @@
       <c r="T427" s="3"/>
       <c r="U427" s="5"/>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12">
         <v>426</v>
       </c>
@@ -14702,7 +14749,9 @@
         <v>515</v>
       </c>
       <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
+      <c r="I428" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
@@ -14716,7 +14765,7 @@
       <c r="T428" s="3"/>
       <c r="U428" s="5"/>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12">
         <v>427</v>
       </c>
@@ -14735,7 +14784,9 @@
         <v>519</v>
       </c>
       <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
+      <c r="I429" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
@@ -14749,7 +14800,7 @@
       <c r="T429" s="3"/>
       <c r="U429" s="5"/>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12">
         <v>428</v>
       </c>
@@ -14768,7 +14819,9 @@
         <v>519</v>
       </c>
       <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
+      <c r="I430" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
@@ -14782,7 +14835,7 @@
       <c r="T430" s="3"/>
       <c r="U430" s="5"/>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12">
         <v>429</v>
       </c>
@@ -14799,7 +14852,9 @@
         <v>530</v>
       </c>
       <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
+      <c r="I431" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
@@ -14813,7 +14868,7 @@
       <c r="T431" s="3"/>
       <c r="U431" s="5"/>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="12">
         <v>430</v>
       </c>
@@ -14832,7 +14887,9 @@
         <v>519</v>
       </c>
       <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
+      <c r="I432" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
@@ -14846,7 +14903,7 @@
       <c r="T432" s="3"/>
       <c r="U432" s="5"/>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="12">
         <v>431</v>
       </c>
@@ -14863,7 +14920,9 @@
         <v>530</v>
       </c>
       <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
+      <c r="I433" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
@@ -14877,7 +14936,7 @@
       <c r="T433" s="3"/>
       <c r="U433" s="5"/>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="12">
         <v>432</v>
       </c>
@@ -14896,7 +14955,9 @@
         <v>519</v>
       </c>
       <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
+      <c r="I434" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
@@ -14910,7 +14971,7 @@
       <c r="T434" s="3"/>
       <c r="U434" s="5"/>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="12">
         <v>433</v>
       </c>
@@ -14929,7 +14990,9 @@
         <v>531</v>
       </c>
       <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
+      <c r="I435" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
@@ -15554,7 +15617,7 @@
       <c r="T454" s="3"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12">
         <v>453</v>
       </c>
@@ -15585,7 +15648,7 @@
       <c r="T455" s="3"/>
       <c r="U455" s="5"/>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="12">
         <v>454</v>
       </c>
@@ -15602,7 +15665,9 @@
         <v>530</v>
       </c>
       <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
+      <c r="I456" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
@@ -15616,7 +15681,7 @@
       <c r="T456" s="3"/>
       <c r="U456" s="5"/>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12">
         <v>455</v>
       </c>
@@ -15635,7 +15700,9 @@
         <v>519</v>
       </c>
       <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
+      <c r="I457" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
@@ -15649,7 +15716,7 @@
       <c r="T457" s="3"/>
       <c r="U457" s="5"/>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="12">
         <v>456</v>
       </c>
@@ -15668,7 +15735,9 @@
         <v>532</v>
       </c>
       <c r="H458" s="3"/>
-      <c r="I458" s="3"/>
+      <c r="I458" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
@@ -15682,7 +15751,7 @@
       <c r="T458" s="3"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="12">
         <v>457</v>
       </c>
@@ -15715,7 +15784,7 @@
       <c r="T459" s="3"/>
       <c r="U459" s="5"/>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="12">
         <v>458</v>
       </c>
@@ -15732,7 +15801,9 @@
         <v>530</v>
       </c>
       <c r="H460" s="3"/>
-      <c r="I460" s="3"/>
+      <c r="I460" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
@@ -15746,7 +15817,7 @@
       <c r="T460" s="3"/>
       <c r="U460" s="5"/>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="12">
         <v>459</v>
       </c>
@@ -15763,7 +15834,9 @@
         <v>530</v>
       </c>
       <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
+      <c r="I461" s="28" t="s">
+        <v>537</v>
+      </c>
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
@@ -18786,7 +18859,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="12">
         <v>564</v>
       </c>
@@ -18804,6 +18877,9 @@
       <c r="G566" s="23" t="s">
         <v>534</v>
       </c>
+      <c r="I566" s="28" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="13">
@@ -18824,7 +18900,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="12">
         <v>566</v>
       </c>
@@ -18858,6 +18934,9 @@
       </c>
       <c r="G569" s="23" t="s">
         <v>534</v>
+      </c>
+      <c r="I569" s="28" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F136E638-B1E2-42D6-9E68-FF30CDD2E967}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA20F5-B153-4926-A511-87E115AB8B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="540">
   <si>
     <t>S.No.</t>
   </si>
@@ -1671,6 +1671,12 @@
   </si>
   <si>
     <t>Results better than before due to improvement</t>
+  </si>
+  <si>
+    <t>28-Sep[2]</t>
+  </si>
+  <si>
+    <t>Trimming changes</t>
   </si>
 </sst>
 </file>
@@ -1941,6 +1947,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,9 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2276,7 +2282,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,13 +2293,14 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16"/>
@@ -2315,7 +2322,9 @@
       <c r="I1" s="16">
         <v>44467</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
@@ -2329,8 +2338,8 @@
       <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2367,7 +2376,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2396,7 +2407,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2425,7 +2438,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2454,7 +2469,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2483,7 +2500,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2512,7 +2531,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2541,7 +2562,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2570,7 +2593,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2599,7 +2624,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2628,7 +2655,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2657,7 +2686,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2686,7 +2717,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2715,7 +2748,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2744,7 +2779,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2773,7 +2810,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2802,7 +2841,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2831,7 +2872,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2860,7 +2903,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2889,7 +2934,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2918,7 +2965,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2947,7 +2996,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2976,7 +3027,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -3005,7 +3058,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3034,7 +3089,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3063,7 +3120,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -3092,7 +3151,9 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3121,7 +3182,9 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -3150,7 +3213,9 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -3179,7 +3244,9 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -3208,7 +3275,9 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -3237,7 +3306,9 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -3266,7 +3337,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3295,7 +3368,9 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3324,7 +3399,9 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3353,7 +3430,9 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -3382,7 +3461,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -3411,7 +3492,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3440,7 +3523,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3469,7 +3554,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3498,7 +3585,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3527,7 +3616,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3556,7 +3647,9 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3585,7 +3678,9 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3614,7 +3709,9 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -3643,7 +3740,9 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -3672,7 +3771,9 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3701,7 +3802,9 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3730,7 +3833,9 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3759,7 +3864,9 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -3788,7 +3895,9 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3817,7 +3926,9 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3846,7 +3957,9 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3875,7 +3988,9 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3904,7 +4019,9 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -3933,7 +4050,9 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -3962,7 +4081,9 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -3991,7 +4112,9 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -4020,7 +4143,9 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4049,7 +4174,9 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -4078,7 +4205,9 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -4107,7 +4236,9 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -4136,7 +4267,9 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -4165,7 +4298,9 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -4194,7 +4329,9 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -4223,7 +4360,9 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -4252,7 +4391,9 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -4281,7 +4422,9 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -4310,7 +4453,9 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -4339,7 +4484,9 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -4368,7 +4515,9 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -4397,7 +4546,9 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -4426,7 +4577,9 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -4455,7 +4608,9 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -4484,7 +4639,9 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -4513,7 +4670,9 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -4542,7 +4701,9 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -4571,7 +4732,9 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -4600,7 +4763,9 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -4629,7 +4794,9 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -4658,7 +4825,9 @@
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -4687,7 +4856,9 @@
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -4716,7 +4887,9 @@
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -4745,7 +4918,9 @@
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -4774,7 +4949,9 @@
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -4803,7 +4980,9 @@
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -4832,7 +5011,9 @@
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -4861,7 +5042,9 @@
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -4890,7 +5073,9 @@
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -4919,7 +5104,9 @@
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -4948,7 +5135,9 @@
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -4977,7 +5166,9 @@
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -5006,7 +5197,9 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -5035,7 +5228,9 @@
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -5064,7 +5259,9 @@
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -5093,7 +5290,9 @@
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -5122,7 +5321,9 @@
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -5151,7 +5352,9 @@
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -5180,7 +5383,9 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -5209,7 +5414,9 @@
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="J101" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -5238,7 +5445,9 @@
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="J102" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -5267,7 +5476,9 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="J103" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -5296,7 +5507,9 @@
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="J104" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -5325,7 +5538,9 @@
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="J105" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -5354,7 +5569,9 @@
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="J106" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -5383,7 +5600,9 @@
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -5412,7 +5631,9 @@
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -5441,7 +5662,9 @@
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="J109" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -5470,7 +5693,9 @@
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="J110" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -5499,7 +5724,9 @@
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="J111" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -5528,7 +5755,9 @@
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="J112" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -5557,7 +5786,9 @@
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="J113" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -5586,7 +5817,9 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="J114" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -5615,7 +5848,9 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="J115" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -5644,7 +5879,9 @@
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="J116" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -5673,7 +5910,9 @@
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="J117" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -5702,7 +5941,9 @@
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="J118" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -5731,7 +5972,9 @@
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -5760,7 +6003,9 @@
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="J120" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -5789,7 +6034,9 @@
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="J121" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -5818,7 +6065,9 @@
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="J122" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -5847,7 +6096,9 @@
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="J123" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -5876,7 +6127,9 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="J124" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -5905,7 +6158,9 @@
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="J125" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -5934,7 +6189,9 @@
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="J126" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -5963,7 +6220,9 @@
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="J127" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -5992,7 +6251,9 @@
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="J128" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -6021,7 +6282,9 @@
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="J129" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -6050,7 +6313,9 @@
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -6079,7 +6344,9 @@
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="J131" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -6108,7 +6375,9 @@
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="J132" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -6137,7 +6406,9 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="J133" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -6166,7 +6437,9 @@
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="J134" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -6195,7 +6468,9 @@
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="J135" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -6224,7 +6499,9 @@
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="J136" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -6253,7 +6530,9 @@
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="J137" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -6282,7 +6561,9 @@
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="J138" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -6311,7 +6592,9 @@
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="J139" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -6340,7 +6623,9 @@
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="J140" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -6369,7 +6654,9 @@
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="J141" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -6398,7 +6685,9 @@
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="J142" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -6427,7 +6716,9 @@
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="J143" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -6456,7 +6747,9 @@
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="J144" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -6485,7 +6778,9 @@
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="J145" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -6514,7 +6809,9 @@
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="J146" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -6543,7 +6840,9 @@
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="J147" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -6572,7 +6871,9 @@
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="J148" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -6601,7 +6902,9 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="J149" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -6630,7 +6933,9 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="J150" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -6659,7 +6964,9 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="J151" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -6688,7 +6995,9 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="J152" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -6717,7 +7026,9 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="J153" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -6746,7 +7057,9 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="J154" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -6775,7 +7088,9 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
+      <c r="J155" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -6804,7 +7119,9 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
+      <c r="J156" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -6833,7 +7150,9 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
+      <c r="J157" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -6862,7 +7181,9 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="J158" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -6891,7 +7212,9 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
+      <c r="J159" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -6920,7 +7243,9 @@
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
+      <c r="J160" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -6949,7 +7274,9 @@
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="J161" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -6978,7 +7305,9 @@
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="J162" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -7007,7 +7336,9 @@
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="J163" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -7036,7 +7367,9 @@
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="J164" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -7065,7 +7398,9 @@
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="J165" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -7094,7 +7429,9 @@
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -7123,7 +7460,9 @@
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
-      <c r="J167" s="3"/>
+      <c r="J167" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -7152,7 +7491,9 @@
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3"/>
+      <c r="J168" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -7181,7 +7522,9 @@
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
-      <c r="J169" s="3"/>
+      <c r="J169" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -7210,7 +7553,9 @@
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
-      <c r="J170" s="3"/>
+      <c r="J170" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -7239,7 +7584,9 @@
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="J171" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -7268,7 +7615,9 @@
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="J172" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -7297,7 +7646,9 @@
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
+      <c r="J173" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -7326,7 +7677,9 @@
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="J174" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -7355,7 +7708,9 @@
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
-      <c r="J175" s="3"/>
+      <c r="J175" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -7384,7 +7739,9 @@
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
-      <c r="J176" s="3"/>
+      <c r="J176" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -7413,7 +7770,9 @@
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="3"/>
+      <c r="J177" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -7442,7 +7801,9 @@
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
+      <c r="J178" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -7471,7 +7832,9 @@
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
-      <c r="J179" s="3"/>
+      <c r="J179" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -7500,7 +7863,9 @@
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="J180" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -7529,7 +7894,9 @@
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
+      <c r="J181" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -7558,7 +7925,9 @@
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
-      <c r="J182" s="3"/>
+      <c r="J182" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -7587,7 +7956,9 @@
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="J183" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -7616,7 +7987,9 @@
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
-      <c r="J184" s="3"/>
+      <c r="J184" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -7645,7 +8018,9 @@
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
+      <c r="J185" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -7674,7 +8049,9 @@
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
+      <c r="J186" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -7703,7 +8080,9 @@
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
+      <c r="J187" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -7732,7 +8111,9 @@
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="J188" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -7761,7 +8142,9 @@
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="J189" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -7790,7 +8173,9 @@
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="J190" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -7819,7 +8204,9 @@
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
+      <c r="J191" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -7848,7 +8235,9 @@
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
+      <c r="J192" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -7877,7 +8266,9 @@
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="J193" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -7906,7 +8297,9 @@
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="J194" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -7935,7 +8328,9 @@
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -7964,7 +8359,9 @@
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -7993,7 +8390,9 @@
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="J197" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -8022,7 +8421,9 @@
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="J198" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -8051,7 +8452,9 @@
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -8080,7 +8483,9 @@
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
-      <c r="J200" s="3"/>
+      <c r="J200" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -8109,7 +8514,9 @@
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="J201" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -8138,7 +8545,9 @@
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
+      <c r="J202" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -8167,7 +8576,9 @@
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
-      <c r="J203" s="3"/>
+      <c r="J203" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -8196,7 +8607,9 @@
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
-      <c r="J204" s="3"/>
+      <c r="J204" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -8225,7 +8638,9 @@
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
-      <c r="J205" s="3"/>
+      <c r="J205" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -8254,7 +8669,9 @@
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -8283,7 +8700,9 @@
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+      <c r="J207" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
@@ -8312,7 +8731,9 @@
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+      <c r="J208" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
@@ -8341,7 +8762,9 @@
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="J209" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -8370,7 +8793,9 @@
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
+      <c r="J210" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -8399,7 +8824,9 @@
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
+      <c r="J211" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
@@ -8428,7 +8855,9 @@
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
+      <c r="J212" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
@@ -8457,7 +8886,9 @@
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
+      <c r="J213" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
@@ -8486,7 +8917,9 @@
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
-      <c r="J214" s="3"/>
+      <c r="J214" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -8515,7 +8948,9 @@
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
+      <c r="J215" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
@@ -8544,7 +8979,9 @@
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
-      <c r="J216" s="3"/>
+      <c r="J216" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
@@ -8573,7 +9010,9 @@
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
+      <c r="J217" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
@@ -8602,7 +9041,9 @@
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+      <c r="J218" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
@@ -8631,7 +9072,9 @@
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+      <c r="J219" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
@@ -8660,7 +9103,9 @@
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
+      <c r="J220" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
@@ -8689,7 +9134,9 @@
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+      <c r="J221" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
@@ -8718,7 +9165,9 @@
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
+      <c r="J222" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
@@ -8747,7 +9196,9 @@
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
+      <c r="J223" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
@@ -8776,7 +9227,9 @@
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
+      <c r="J224" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
@@ -8805,7 +9258,9 @@
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
+      <c r="J225" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
@@ -8834,7 +9289,9 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
+      <c r="J226" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
@@ -8863,7 +9320,9 @@
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
+      <c r="J227" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -8892,7 +9351,9 @@
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
+      <c r="J228" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
@@ -8921,7 +9382,9 @@
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
+      <c r="J229" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -8950,7 +9413,9 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
-      <c r="J230" s="3"/>
+      <c r="J230" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -8979,7 +9444,9 @@
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="3"/>
+      <c r="J231" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
@@ -9008,7 +9475,9 @@
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="3"/>
+      <c r="J232" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -9037,7 +9506,9 @@
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="3"/>
+      <c r="J233" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -9066,7 +9537,9 @@
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
+      <c r="J234" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -9095,7 +9568,9 @@
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
+      <c r="J235" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
@@ -9124,7 +9599,9 @@
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
+      <c r="J236" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
@@ -9153,7 +9630,9 @@
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
+      <c r="J237" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
@@ -9182,7 +9661,9 @@
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
+      <c r="J238" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
@@ -9211,7 +9692,9 @@
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
+      <c r="J239" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
@@ -9240,7 +9723,9 @@
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
+      <c r="J240" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
@@ -9269,7 +9754,9 @@
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
+      <c r="J241" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
@@ -9298,7 +9785,9 @@
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
+      <c r="J242" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
@@ -9327,7 +9816,9 @@
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
+      <c r="J243" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3"/>
@@ -9356,7 +9847,9 @@
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
+      <c r="J244" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
@@ -9385,7 +9878,9 @@
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
+      <c r="J245" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
@@ -9414,7 +9909,9 @@
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
+      <c r="J246" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
@@ -9443,7 +9940,9 @@
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
+      <c r="J247" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
@@ -9472,7 +9971,9 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
+      <c r="J248" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
@@ -9501,7 +10002,9 @@
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
+      <c r="J249" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
@@ -9530,7 +10033,9 @@
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
+      <c r="J250" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
@@ -9559,7 +10064,9 @@
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
+      <c r="J251" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
@@ -9588,7 +10095,9 @@
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
+      <c r="J252" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
@@ -9617,7 +10126,9 @@
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
+      <c r="J253" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
@@ -9646,7 +10157,9 @@
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
+      <c r="J254" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
@@ -9675,7 +10188,9 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
+      <c r="J255" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
@@ -9704,7 +10219,9 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
+      <c r="J256" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
@@ -9733,7 +10250,9 @@
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
+      <c r="J257" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
@@ -9762,7 +10281,9 @@
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
+      <c r="J258" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
@@ -9791,7 +10312,9 @@
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
+      <c r="J259" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
@@ -9820,7 +10343,9 @@
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
+      <c r="J260" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
@@ -9849,7 +10374,9 @@
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
+      <c r="J261" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
       <c r="M261" s="3"/>
@@ -9878,7 +10405,9 @@
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
-      <c r="J262" s="3"/>
+      <c r="J262" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
       <c r="M262" s="3"/>
@@ -9907,7 +10436,9 @@
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
-      <c r="J263" s="3"/>
+      <c r="J263" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
       <c r="M263" s="3"/>
@@ -9936,7 +10467,9 @@
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
-      <c r="J264" s="3"/>
+      <c r="J264" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
@@ -9965,7 +10498,9 @@
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
-      <c r="J265" s="3"/>
+      <c r="J265" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
@@ -9994,7 +10529,9 @@
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
-      <c r="J266" s="3"/>
+      <c r="J266" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
@@ -10023,7 +10560,9 @@
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
-      <c r="J267" s="3"/>
+      <c r="J267" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
@@ -10052,7 +10591,9 @@
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
-      <c r="J268" s="3"/>
+      <c r="J268" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
       <c r="M268" s="3"/>
@@ -10081,7 +10622,9 @@
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
-      <c r="J269" s="3"/>
+      <c r="J269" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
       <c r="M269" s="3"/>
@@ -10110,7 +10653,9 @@
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
-      <c r="J270" s="3"/>
+      <c r="J270" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
@@ -10139,7 +10684,9 @@
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
-      <c r="J271" s="3"/>
+      <c r="J271" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
       <c r="M271" s="3"/>
@@ -10168,7 +10715,9 @@
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
+      <c r="J272" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
@@ -10197,7 +10746,9 @@
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
+      <c r="J273" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
@@ -10226,7 +10777,9 @@
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
+      <c r="J274" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
@@ -10255,7 +10808,9 @@
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
+      <c r="J275" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
       <c r="M275" s="3"/>
@@ -10284,7 +10839,9 @@
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
+      <c r="J276" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
@@ -10313,7 +10870,9 @@
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
+      <c r="J277" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
@@ -10342,7 +10901,9 @@
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
-      <c r="J278" s="3"/>
+      <c r="J278" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
       <c r="M278" s="3"/>
@@ -10371,7 +10932,9 @@
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
+      <c r="J279" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
       <c r="M279" s="3"/>
@@ -10400,7 +10963,9 @@
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
+      <c r="J280" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
@@ -10429,7 +10994,9 @@
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
+      <c r="J281" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
@@ -10458,7 +11025,9 @@
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
-      <c r="J282" s="3"/>
+      <c r="J282" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
       <c r="M282" s="3"/>
@@ -10487,7 +11056,9 @@
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
-      <c r="J283" s="3"/>
+      <c r="J283" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
       <c r="M283" s="3"/>
@@ -10516,7 +11087,9 @@
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
+      <c r="J284" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
@@ -10545,7 +11118,9 @@
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
+      <c r="J285" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
@@ -10574,7 +11149,9 @@
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
+      <c r="J286" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3"/>
@@ -10603,7 +11180,9 @@
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
+      <c r="J287" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
@@ -10632,7 +11211,9 @@
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
-      <c r="J288" s="3"/>
+      <c r="J288" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
       <c r="M288" s="3"/>
@@ -10661,7 +11242,9 @@
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
+      <c r="J289" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
@@ -10690,7 +11273,9 @@
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
+      <c r="J290" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
       <c r="M290" s="3"/>
@@ -10719,7 +11304,9 @@
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
+      <c r="J291" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
@@ -10748,7 +11335,9 @@
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
+      <c r="J292" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
       <c r="M292" s="3"/>
@@ -10777,7 +11366,9 @@
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
+      <c r="J293" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
       <c r="M293" s="3"/>
@@ -10806,7 +11397,9 @@
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
-      <c r="J294" s="3"/>
+      <c r="J294" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
@@ -10835,7 +11428,9 @@
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
+      <c r="J295" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
@@ -10864,7 +11459,9 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
-      <c r="J296" s="3"/>
+      <c r="J296" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
       <c r="M296" s="3"/>
@@ -10893,7 +11490,9 @@
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
-      <c r="J297" s="3"/>
+      <c r="J297" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
       <c r="M297" s="3"/>
@@ -10922,7 +11521,9 @@
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
-      <c r="J298" s="3"/>
+      <c r="J298" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
       <c r="M298" s="3"/>
@@ -10951,7 +11552,9 @@
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
+      <c r="J299" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
       <c r="M299" s="3"/>
@@ -10980,7 +11583,9 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
-      <c r="J300" s="3"/>
+      <c r="J300" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
       <c r="M300" s="3"/>
@@ -11009,7 +11614,9 @@
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
-      <c r="J301" s="3"/>
+      <c r="J301" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
       <c r="M301" s="3"/>
@@ -11038,7 +11645,9 @@
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
-      <c r="J302" s="3"/>
+      <c r="J302" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
       <c r="M302" s="3"/>
@@ -11067,7 +11676,9 @@
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
-      <c r="J303" s="3"/>
+      <c r="J303" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
@@ -11096,7 +11707,9 @@
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
-      <c r="J304" s="3"/>
+      <c r="J304" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
       <c r="M304" s="3"/>
@@ -11125,7 +11738,9 @@
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
-      <c r="J305" s="3"/>
+      <c r="J305" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
       <c r="M305" s="3"/>
@@ -11154,7 +11769,9 @@
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
-      <c r="J306" s="3"/>
+      <c r="J306" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
       <c r="M306" s="3"/>
@@ -11183,7 +11800,9 @@
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
-      <c r="J307" s="3"/>
+      <c r="J307" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
@@ -11212,7 +11831,9 @@
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
-      <c r="J308" s="3"/>
+      <c r="J308" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
       <c r="M308" s="3"/>
@@ -11241,7 +11862,9 @@
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
+      <c r="J309" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
       <c r="M309" s="3"/>
@@ -11270,7 +11893,9 @@
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
+      <c r="J310" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
       <c r="M310" s="3"/>
@@ -11299,7 +11924,9 @@
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
-      <c r="J311" s="3"/>
+      <c r="J311" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
       <c r="M311" s="3"/>
@@ -11328,7 +11955,9 @@
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
-      <c r="J312" s="3"/>
+      <c r="J312" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
       <c r="M312" s="3"/>
@@ -11357,7 +11986,9 @@
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
-      <c r="J313" s="3"/>
+      <c r="J313" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
@@ -11386,7 +12017,9 @@
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
-      <c r="J314" s="3"/>
+      <c r="J314" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
       <c r="M314" s="3"/>
@@ -11415,7 +12048,9 @@
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
+      <c r="J315" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
@@ -11444,7 +12079,9 @@
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
-      <c r="J316" s="3"/>
+      <c r="J316" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
       <c r="M316" s="3"/>
@@ -11473,7 +12110,9 @@
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
-      <c r="J317" s="3"/>
+      <c r="J317" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
@@ -11502,7 +12141,9 @@
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
+      <c r="J318" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
@@ -11531,7 +12172,9 @@
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
+      <c r="J319" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
       <c r="M319" s="3"/>
@@ -11560,7 +12203,9 @@
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
+      <c r="J320" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
@@ -11589,7 +12234,9 @@
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
+      <c r="J321" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
       <c r="M321" s="3"/>
@@ -11618,7 +12265,9 @@
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
+      <c r="J322" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
@@ -11647,7 +12296,9 @@
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
+      <c r="J323" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
@@ -11676,7 +12327,9 @@
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
-      <c r="J324" s="3"/>
+      <c r="J324" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
@@ -11705,7 +12358,9 @@
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
-      <c r="J325" s="3"/>
+      <c r="J325" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
@@ -11734,7 +12389,9 @@
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
-      <c r="J326" s="3"/>
+      <c r="J326" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
       <c r="M326" s="3"/>
@@ -11763,7 +12420,9 @@
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
-      <c r="J327" s="3"/>
+      <c r="J327" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
@@ -11792,7 +12451,9 @@
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
-      <c r="J328" s="3"/>
+      <c r="J328" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
       <c r="M328" s="3"/>
@@ -11821,7 +12482,9 @@
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
-      <c r="J329" s="3"/>
+      <c r="J329" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
@@ -11850,7 +12513,9 @@
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
-      <c r="J330" s="3"/>
+      <c r="J330" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
       <c r="M330" s="3"/>
@@ -11879,7 +12544,9 @@
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
-      <c r="J331" s="3"/>
+      <c r="J331" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
       <c r="M331" s="3"/>
@@ -11908,7 +12575,9 @@
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
-      <c r="J332" s="3"/>
+      <c r="J332" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
       <c r="M332" s="3"/>
@@ -11937,7 +12606,9 @@
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
-      <c r="J333" s="3"/>
+      <c r="J333" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
       <c r="M333" s="3"/>
@@ -11966,7 +12637,9 @@
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
-      <c r="J334" s="3"/>
+      <c r="J334" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
       <c r="M334" s="3"/>
@@ -11995,7 +12668,9 @@
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
-      <c r="J335" s="3"/>
+      <c r="J335" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
       <c r="M335" s="3"/>
@@ -12024,7 +12699,9 @@
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
-      <c r="J336" s="3"/>
+      <c r="J336" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
       <c r="M336" s="3"/>
@@ -12053,7 +12730,9 @@
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
-      <c r="J337" s="3"/>
+      <c r="J337" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
       <c r="M337" s="3"/>
@@ -12082,7 +12761,9 @@
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
-      <c r="J338" s="3"/>
+      <c r="J338" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
       <c r="M338" s="3"/>
@@ -12111,7 +12792,9 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
-      <c r="J339" s="3"/>
+      <c r="J339" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
       <c r="M339" s="3"/>
@@ -12140,7 +12823,9 @@
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
-      <c r="J340" s="3"/>
+      <c r="J340" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
       <c r="M340" s="3"/>
@@ -12169,7 +12854,9 @@
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
+      <c r="J341" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
@@ -12198,7 +12885,9 @@
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
-      <c r="J342" s="3"/>
+      <c r="J342" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
       <c r="M342" s="3"/>
@@ -12227,7 +12916,9 @@
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
-      <c r="J343" s="3"/>
+      <c r="J343" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
       <c r="M343" s="3"/>
@@ -12256,7 +12947,9 @@
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
-      <c r="J344" s="3"/>
+      <c r="J344" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
@@ -12285,7 +12978,9 @@
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
+      <c r="J345" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
@@ -12314,7 +13009,9 @@
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
+      <c r="J346" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
@@ -12343,7 +13040,9 @@
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
+      <c r="J347" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
@@ -12372,7 +13071,9 @@
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
-      <c r="J348" s="3"/>
+      <c r="J348" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
       <c r="M348" s="3"/>
@@ -12401,7 +13102,9 @@
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
+      <c r="J349" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
       <c r="M349" s="3"/>
@@ -12430,7 +13133,9 @@
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
-      <c r="J350" s="3"/>
+      <c r="J350" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
       <c r="M350" s="3"/>
@@ -12459,7 +13164,9 @@
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
-      <c r="J351" s="3"/>
+      <c r="J351" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
       <c r="M351" s="3"/>
@@ -12488,7 +13195,9 @@
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
-      <c r="J352" s="3"/>
+      <c r="J352" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
       <c r="M352" s="3"/>
@@ -12517,7 +13226,9 @@
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
-      <c r="J353" s="3"/>
+      <c r="J353" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
       <c r="M353" s="3"/>
@@ -12546,7 +13257,9 @@
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
-      <c r="J354" s="3"/>
+      <c r="J354" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
       <c r="M354" s="3"/>
@@ -12575,7 +13288,9 @@
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
-      <c r="J355" s="3"/>
+      <c r="J355" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
       <c r="M355" s="3"/>
@@ -12604,7 +13319,9 @@
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
-      <c r="J356" s="3"/>
+      <c r="J356" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
       <c r="M356" s="3"/>
@@ -12633,7 +13350,9 @@
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
-      <c r="J357" s="3"/>
+      <c r="J357" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
       <c r="M357" s="3"/>
@@ -12662,7 +13381,9 @@
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
-      <c r="J358" s="3"/>
+      <c r="J358" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
       <c r="M358" s="3"/>
@@ -12691,7 +13412,9 @@
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
-      <c r="J359" s="3"/>
+      <c r="J359" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
       <c r="M359" s="3"/>
@@ -12720,7 +13443,9 @@
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
-      <c r="J360" s="3"/>
+      <c r="J360" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
       <c r="M360" s="3"/>
@@ -12749,7 +13474,9 @@
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
-      <c r="J361" s="3"/>
+      <c r="J361" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
       <c r="M361" s="3"/>
@@ -12778,7 +13505,9 @@
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
+      <c r="J362" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
       <c r="M362" s="3"/>
@@ -12807,7 +13536,9 @@
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
+      <c r="J363" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
       <c r="M363" s="3"/>
@@ -12836,7 +13567,9 @@
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
+      <c r="J364" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
       <c r="M364" s="3"/>
@@ -12865,7 +13598,9 @@
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
+      <c r="J365" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
       <c r="M365" s="3"/>
@@ -12894,7 +13629,9 @@
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
+      <c r="J366" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
       <c r="M366" s="3"/>
@@ -12923,7 +13660,9 @@
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
+      <c r="J367" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
       <c r="M367" s="3"/>
@@ -12952,7 +13691,9 @@
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
-      <c r="J368" s="3"/>
+      <c r="J368" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
       <c r="M368" s="3"/>
@@ -12981,7 +13722,9 @@
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
-      <c r="J369" s="3"/>
+      <c r="J369" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
       <c r="M369" s="3"/>
@@ -13010,7 +13753,9 @@
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
-      <c r="J370" s="3"/>
+      <c r="J370" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
       <c r="M370" s="3"/>
@@ -13039,7 +13784,9 @@
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
-      <c r="J371" s="3"/>
+      <c r="J371" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
       <c r="M371" s="3"/>
@@ -13068,7 +13815,9 @@
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
-      <c r="J372" s="3"/>
+      <c r="J372" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
       <c r="M372" s="3"/>
@@ -13097,7 +13846,9 @@
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
+      <c r="J373" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
       <c r="M373" s="3"/>
@@ -13126,7 +13877,9 @@
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
+      <c r="J374" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
@@ -13155,7 +13908,9 @@
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
+      <c r="J375" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
       <c r="M375" s="3"/>
@@ -13184,7 +13939,9 @@
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
-      <c r="J376" s="3"/>
+      <c r="J376" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
       <c r="M376" s="3"/>
@@ -13213,7 +13970,9 @@
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
-      <c r="J377" s="3"/>
+      <c r="J377" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
       <c r="M377" s="3"/>
@@ -13242,7 +14001,9 @@
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
-      <c r="J378" s="3"/>
+      <c r="J378" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
       <c r="M378" s="3"/>
@@ -13271,7 +14032,9 @@
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
-      <c r="J379" s="3"/>
+      <c r="J379" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
       <c r="M379" s="3"/>
@@ -13300,7 +14063,9 @@
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
-      <c r="J380" s="3"/>
+      <c r="J380" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
       <c r="M380" s="3"/>
@@ -13329,7 +14094,9 @@
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
-      <c r="J381" s="3"/>
+      <c r="J381" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
       <c r="M381" s="3"/>
@@ -13358,7 +14125,9 @@
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
-      <c r="J382" s="3"/>
+      <c r="J382" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
       <c r="M382" s="3"/>
@@ -13387,7 +14156,9 @@
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
-      <c r="J383" s="3"/>
+      <c r="J383" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
       <c r="M383" s="3"/>
@@ -13416,7 +14187,9 @@
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
+      <c r="J384" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
       <c r="M384" s="3"/>
@@ -13445,7 +14218,9 @@
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
-      <c r="J385" s="3"/>
+      <c r="J385" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
       <c r="M385" s="3"/>
@@ -13474,7 +14249,9 @@
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
-      <c r="J386" s="3"/>
+      <c r="J386" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
       <c r="M386" s="3"/>
@@ -13503,7 +14280,9 @@
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
-      <c r="J387" s="3"/>
+      <c r="J387" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
       <c r="M387" s="3"/>
@@ -13532,7 +14311,9 @@
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
-      <c r="J388" s="3"/>
+      <c r="J388" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
       <c r="M388" s="3"/>
@@ -13561,7 +14342,9 @@
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
+      <c r="J389" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
       <c r="M389" s="3"/>
@@ -13590,7 +14373,9 @@
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
-      <c r="J390" s="3"/>
+      <c r="J390" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
       <c r="M390" s="3"/>
@@ -13619,7 +14404,9 @@
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
-      <c r="J391" s="3"/>
+      <c r="J391" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
       <c r="M391" s="3"/>
@@ -13648,7 +14435,9 @@
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
+      <c r="J392" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
       <c r="M392" s="3"/>
@@ -13677,7 +14466,9 @@
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
-      <c r="J393" s="3"/>
+      <c r="J393" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
       <c r="M393" s="3"/>
@@ -13706,7 +14497,9 @@
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
-      <c r="J394" s="3"/>
+      <c r="J394" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
       <c r="M394" s="3"/>
@@ -13735,7 +14528,9 @@
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
-      <c r="J395" s="3"/>
+      <c r="J395" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
       <c r="M395" s="3"/>
@@ -13764,7 +14559,9 @@
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
+      <c r="J396" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
       <c r="M396" s="3"/>
@@ -13793,7 +14590,9 @@
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
-      <c r="J397" s="3"/>
+      <c r="J397" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
       <c r="M397" s="3"/>
@@ -13822,7 +14621,9 @@
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
-      <c r="J398" s="3"/>
+      <c r="J398" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
       <c r="M398" s="3"/>
@@ -13851,7 +14652,9 @@
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
-      <c r="J399" s="3"/>
+      <c r="J399" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
       <c r="M399" s="3"/>
@@ -13880,7 +14683,9 @@
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
-      <c r="J400" s="3"/>
+      <c r="J400" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
       <c r="M400" s="3"/>
@@ -13911,7 +14716,9 @@
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
-      <c r="J401" s="3"/>
+      <c r="J401" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
       <c r="M401" s="3"/>
@@ -13942,7 +14749,9 @@
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
-      <c r="J402" s="3"/>
+      <c r="J402" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
       <c r="M402" s="3"/>
@@ -13971,7 +14780,9 @@
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
-      <c r="J403" s="3"/>
+      <c r="J403" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
       <c r="M403" s="3"/>
@@ -14002,7 +14813,9 @@
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
-      <c r="J404" s="3"/>
+      <c r="J404" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
       <c r="M404" s="3"/>
@@ -14031,7 +14844,9 @@
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
-      <c r="J405" s="3"/>
+      <c r="J405" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
       <c r="M405" s="3"/>
@@ -14060,7 +14875,9 @@
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
-      <c r="J406" s="3"/>
+      <c r="J406" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
@@ -14089,7 +14906,9 @@
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
-      <c r="J407" s="3"/>
+      <c r="J407" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
@@ -14118,7 +14937,9 @@
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
-      <c r="J408" s="3"/>
+      <c r="J408" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
       <c r="M408" s="3"/>
@@ -14147,7 +14968,9 @@
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
-      <c r="J409" s="3"/>
+      <c r="J409" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
       <c r="M409" s="3"/>
@@ -14178,7 +15001,9 @@
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
-      <c r="J410" s="3"/>
+      <c r="J410" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
       <c r="M410" s="3"/>
@@ -14209,7 +15034,9 @@
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
-      <c r="J411" s="3"/>
+      <c r="J411" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
       <c r="M411" s="3"/>
@@ -14240,7 +15067,9 @@
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
-      <c r="J412" s="3"/>
+      <c r="J412" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
       <c r="M412" s="3"/>
@@ -14271,7 +15100,9 @@
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
-      <c r="J413" s="3"/>
+      <c r="J413" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
       <c r="M413" s="3"/>
@@ -14302,7 +15133,9 @@
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
-      <c r="J414" s="3"/>
+      <c r="J414" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
       <c r="M414" s="3"/>
@@ -14333,7 +15166,9 @@
       </c>
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
-      <c r="J415" s="3"/>
+      <c r="J415" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
       <c r="M415" s="3"/>
@@ -14362,7 +15197,9 @@
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
-      <c r="J416" s="3"/>
+      <c r="J416" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
       <c r="M416" s="3"/>
@@ -14391,7 +15228,9 @@
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
-      <c r="J417" s="3"/>
+      <c r="J417" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
       <c r="M417" s="3"/>
@@ -14422,7 +15261,9 @@
       </c>
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
-      <c r="J418" s="3"/>
+      <c r="J418" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
       <c r="M418" s="3"/>
@@ -14452,10 +15293,12 @@
         <v>526</v>
       </c>
       <c r="H419" s="3"/>
-      <c r="I419" s="28" t="s">
+      <c r="I419" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J419" s="3"/>
+      <c r="J419" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
       <c r="M419" s="3"/>
@@ -14485,10 +15328,12 @@
         <v>526</v>
       </c>
       <c r="H420" s="3"/>
-      <c r="I420" s="28" t="s">
+      <c r="I420" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J420" s="3"/>
+      <c r="J420" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
       <c r="M420" s="3"/>
@@ -14518,10 +15363,12 @@
         <v>526</v>
       </c>
       <c r="H421" s="3"/>
-      <c r="I421" s="28" t="s">
+      <c r="I421" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J421" s="3"/>
+      <c r="J421" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
       <c r="M421" s="3"/>
@@ -14551,10 +15398,12 @@
         <v>526</v>
       </c>
       <c r="H422" s="3"/>
-      <c r="I422" s="28" t="s">
+      <c r="I422" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J422" s="3"/>
+      <c r="J422" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
       <c r="M422" s="3"/>
@@ -14584,10 +15433,12 @@
         <v>527</v>
       </c>
       <c r="H423" s="3"/>
-      <c r="I423" s="28" t="s">
+      <c r="I423" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J423" s="3"/>
+      <c r="J423" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
       <c r="M423" s="3"/>
@@ -14617,10 +15468,12 @@
         <v>515</v>
       </c>
       <c r="H424" s="3"/>
-      <c r="I424" s="28" t="s">
+      <c r="I424" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J424" s="3"/>
+      <c r="J424" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
       <c r="M424" s="3"/>
@@ -14650,10 +15503,12 @@
         <v>528</v>
       </c>
       <c r="H425" s="3"/>
-      <c r="I425" s="28" t="s">
+      <c r="I425" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J425" s="3"/>
+      <c r="J425" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
       <c r="M425" s="3"/>
@@ -14683,10 +15538,12 @@
         <v>529</v>
       </c>
       <c r="H426" s="3"/>
-      <c r="I426" s="28" t="s">
+      <c r="I426" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J426" s="3"/>
+      <c r="J426" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
       <c r="M426" s="3"/>
@@ -14716,10 +15573,12 @@
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="28" t="s">
+      <c r="I427" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J427" s="3"/>
+      <c r="J427" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
       <c r="M427" s="3"/>
@@ -14749,10 +15608,12 @@
         <v>515</v>
       </c>
       <c r="H428" s="3"/>
-      <c r="I428" s="28" t="s">
+      <c r="I428" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J428" s="3"/>
+      <c r="J428" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
       <c r="M428" s="3"/>
@@ -14784,10 +15645,12 @@
         <v>519</v>
       </c>
       <c r="H429" s="3"/>
-      <c r="I429" s="28" t="s">
+      <c r="I429" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J429" s="3"/>
+      <c r="J429" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
       <c r="M429" s="3"/>
@@ -14819,10 +15682,12 @@
         <v>519</v>
       </c>
       <c r="H430" s="3"/>
-      <c r="I430" s="28" t="s">
+      <c r="I430" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J430" s="3"/>
+      <c r="J430" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
       <c r="M430" s="3"/>
@@ -14852,10 +15717,12 @@
         <v>530</v>
       </c>
       <c r="H431" s="3"/>
-      <c r="I431" s="28" t="s">
+      <c r="I431" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J431" s="3"/>
+      <c r="J431" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
       <c r="M431" s="3"/>
@@ -14887,10 +15754,12 @@
         <v>519</v>
       </c>
       <c r="H432" s="3"/>
-      <c r="I432" s="28" t="s">
+      <c r="I432" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J432" s="3"/>
+      <c r="J432" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
       <c r="M432" s="3"/>
@@ -14920,10 +15789,12 @@
         <v>530</v>
       </c>
       <c r="H433" s="3"/>
-      <c r="I433" s="28" t="s">
+      <c r="I433" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J433" s="3"/>
+      <c r="J433" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
       <c r="M433" s="3"/>
@@ -14955,10 +15826,12 @@
         <v>519</v>
       </c>
       <c r="H434" s="3"/>
-      <c r="I434" s="28" t="s">
+      <c r="I434" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J434" s="3"/>
+      <c r="J434" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
       <c r="M434" s="3"/>
@@ -14990,10 +15863,12 @@
         <v>531</v>
       </c>
       <c r="H435" s="3"/>
-      <c r="I435" s="28" t="s">
+      <c r="I435" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J435" s="3"/>
+      <c r="J435" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
       <c r="M435" s="3"/>
@@ -15026,7 +15901,9 @@
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
-      <c r="J436" s="3"/>
+      <c r="J436" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
       <c r="M436" s="3"/>
@@ -15059,7 +15936,9 @@
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
-      <c r="J437" s="3"/>
+      <c r="J437" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
       <c r="M437" s="3"/>
@@ -15092,7 +15971,9 @@
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
-      <c r="J438" s="3"/>
+      <c r="J438" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
       <c r="M438" s="3"/>
@@ -15125,7 +16006,9 @@
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
-      <c r="J439" s="3"/>
+      <c r="J439" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
       <c r="M439" s="3"/>
@@ -15158,7 +16041,9 @@
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
-      <c r="J440" s="3"/>
+      <c r="J440" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
       <c r="M440" s="3"/>
@@ -15191,7 +16076,9 @@
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
-      <c r="J441" s="3"/>
+      <c r="J441" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
       <c r="M441" s="3"/>
@@ -15222,7 +16109,9 @@
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
-      <c r="J442" s="3"/>
+      <c r="J442" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
       <c r="M442" s="3"/>
@@ -15253,7 +16142,9 @@
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
-      <c r="J443" s="3"/>
+      <c r="J443" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
       <c r="M443" s="3"/>
@@ -15286,7 +16177,9 @@
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
-      <c r="J444" s="3"/>
+      <c r="J444" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
       <c r="M444" s="3"/>
@@ -15315,7 +16208,9 @@
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
-      <c r="J445" s="3"/>
+      <c r="J445" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
       <c r="M445" s="3"/>
@@ -15346,7 +16241,9 @@
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
-      <c r="J446" s="3"/>
+      <c r="J446" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
       <c r="M446" s="3"/>
@@ -15379,7 +16276,9 @@
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
-      <c r="J447" s="3"/>
+      <c r="J447" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
       <c r="M447" s="3"/>
@@ -15412,7 +16311,9 @@
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
-      <c r="J448" s="3"/>
+      <c r="J448" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
       <c r="M448" s="3"/>
@@ -15443,7 +16344,9 @@
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
-      <c r="J449" s="3"/>
+      <c r="J449" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
       <c r="M449" s="3"/>
@@ -15476,7 +16379,9 @@
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
-      <c r="J450" s="3"/>
+      <c r="J450" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
       <c r="M450" s="3"/>
@@ -15509,7 +16414,9 @@
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
-      <c r="J451" s="3"/>
+      <c r="J451" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
       <c r="M451" s="3"/>
@@ -15540,7 +16447,9 @@
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3"/>
-      <c r="J452" s="3"/>
+      <c r="J452" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
       <c r="M452" s="3"/>
@@ -15571,7 +16480,9 @@
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
       <c r="I453" s="3"/>
-      <c r="J453" s="3"/>
+      <c r="J453" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
       <c r="M453" s="3"/>
@@ -15604,7 +16515,9 @@
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
       <c r="I454" s="3"/>
-      <c r="J454" s="3"/>
+      <c r="J454" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
       <c r="M454" s="3"/>
@@ -15635,7 +16548,9 @@
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3"/>
-      <c r="J455" s="3"/>
+      <c r="J455" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
       <c r="M455" s="3"/>
@@ -15665,10 +16580,12 @@
         <v>530</v>
       </c>
       <c r="H456" s="3"/>
-      <c r="I456" s="28" t="s">
+      <c r="I456" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J456" s="3"/>
+      <c r="J456" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
       <c r="M456" s="3"/>
@@ -15700,10 +16617,12 @@
         <v>519</v>
       </c>
       <c r="H457" s="3"/>
-      <c r="I457" s="28" t="s">
+      <c r="I457" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J457" s="3"/>
+      <c r="J457" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
       <c r="M457" s="3"/>
@@ -15735,10 +16654,12 @@
         <v>532</v>
       </c>
       <c r="H458" s="3"/>
-      <c r="I458" s="28" t="s">
+      <c r="I458" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J458" s="3"/>
+      <c r="J458" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
       <c r="M458" s="3"/>
@@ -15771,7 +16692,9 @@
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
       <c r="I459" s="3"/>
-      <c r="J459" s="3"/>
+      <c r="J459" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
       <c r="M459" s="3"/>
@@ -15801,10 +16724,12 @@
         <v>530</v>
       </c>
       <c r="H460" s="3"/>
-      <c r="I460" s="28" t="s">
+      <c r="I460" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J460" s="3"/>
+      <c r="J460" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
       <c r="M460" s="3"/>
@@ -15834,10 +16759,12 @@
         <v>530</v>
       </c>
       <c r="H461" s="3"/>
-      <c r="I461" s="28" t="s">
+      <c r="I461" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="J461" s="3"/>
+      <c r="J461" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
       <c r="M461" s="3"/>
@@ -15868,7 +16795,9 @@
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
       <c r="I462" s="3"/>
-      <c r="J462" s="3"/>
+      <c r="J462" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
       <c r="M462" s="3"/>
@@ -15899,7 +16828,9 @@
       </c>
       <c r="H463" s="3"/>
       <c r="I463" s="3"/>
-      <c r="J463" s="3"/>
+      <c r="J463" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
       <c r="M463" s="3"/>
@@ -15930,7 +16861,9 @@
       </c>
       <c r="H464" s="3"/>
       <c r="I464" s="3"/>
-      <c r="J464" s="3"/>
+      <c r="J464" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
       <c r="M464" s="3"/>
@@ -15961,7 +16894,9 @@
       </c>
       <c r="H465" s="3"/>
       <c r="I465" s="3"/>
-      <c r="J465" s="3"/>
+      <c r="J465" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
       <c r="M465" s="3"/>
@@ -15992,7 +16927,9 @@
       </c>
       <c r="H466" s="3"/>
       <c r="I466" s="3"/>
-      <c r="J466" s="3"/>
+      <c r="J466" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
       <c r="M466" s="3"/>
@@ -16025,7 +16962,9 @@
         <v>536</v>
       </c>
       <c r="I467" s="3"/>
-      <c r="J467" s="3"/>
+      <c r="J467" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
       <c r="M467" s="3"/>
@@ -16054,7 +16993,9 @@
       </c>
       <c r="H468" s="3"/>
       <c r="I468" s="3"/>
-      <c r="J468" s="3"/>
+      <c r="J468" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
       <c r="M468" s="3"/>
@@ -16085,7 +17026,9 @@
         <v>536</v>
       </c>
       <c r="I469" s="3"/>
-      <c r="J469" s="3"/>
+      <c r="J469" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
       <c r="M469" s="3"/>
@@ -16116,7 +17059,9 @@
         <v>536</v>
       </c>
       <c r="I470" s="3"/>
-      <c r="J470" s="3"/>
+      <c r="J470" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
       <c r="M470" s="3"/>
@@ -16145,7 +17090,9 @@
         <v>536</v>
       </c>
       <c r="I471" s="3"/>
-      <c r="J471" s="3"/>
+      <c r="J471" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
       <c r="M471" s="3"/>
@@ -16176,7 +17123,9 @@
         <v>536</v>
       </c>
       <c r="I472" s="3"/>
-      <c r="J472" s="3"/>
+      <c r="J472" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
       <c r="M472" s="3"/>
@@ -16209,7 +17158,9 @@
         <v>536</v>
       </c>
       <c r="I473" s="3"/>
-      <c r="J473" s="3"/>
+      <c r="J473" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
       <c r="M473" s="3"/>
@@ -16238,7 +17189,9 @@
         <v>536</v>
       </c>
       <c r="I474" s="3"/>
-      <c r="J474" s="3"/>
+      <c r="J474" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
       <c r="M474" s="3"/>
@@ -16267,7 +17220,9 @@
         <v>536</v>
       </c>
       <c r="I475" s="3"/>
-      <c r="J475" s="3"/>
+      <c r="J475" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
       <c r="M475" s="3"/>
@@ -16296,7 +17251,9 @@
         <v>536</v>
       </c>
       <c r="I476" s="3"/>
-      <c r="J476" s="3"/>
+      <c r="J476" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
       <c r="M476" s="3"/>
@@ -16327,7 +17284,9 @@
         <v>536</v>
       </c>
       <c r="I477" s="3"/>
-      <c r="J477" s="3"/>
+      <c r="J477" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
       <c r="M477" s="3"/>
@@ -16353,7 +17312,9 @@
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
       <c r="I478" s="3"/>
-      <c r="J478" s="3"/>
+      <c r="J478" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
       <c r="M478" s="3"/>
@@ -16382,7 +17343,9 @@
         <v>536</v>
       </c>
       <c r="I479" s="3"/>
-      <c r="J479" s="3"/>
+      <c r="J479" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
       <c r="M479" s="3"/>
@@ -16411,7 +17374,9 @@
         <v>536</v>
       </c>
       <c r="I480" s="3"/>
-      <c r="J480" s="3"/>
+      <c r="J480" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
       <c r="M480" s="3"/>
@@ -16440,7 +17405,9 @@
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
-      <c r="J481" s="3"/>
+      <c r="J481" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
       <c r="M481" s="3"/>
@@ -16469,7 +17436,9 @@
       </c>
       <c r="H482" s="3"/>
       <c r="I482" s="3"/>
-      <c r="J482" s="3"/>
+      <c r="J482" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
       <c r="M482" s="3"/>
@@ -16498,7 +17467,9 @@
       </c>
       <c r="H483" s="3"/>
       <c r="I483" s="3"/>
-      <c r="J483" s="3"/>
+      <c r="J483" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
       <c r="M483" s="3"/>
@@ -16527,7 +17498,9 @@
       </c>
       <c r="H484" s="3"/>
       <c r="I484" s="3"/>
-      <c r="J484" s="3"/>
+      <c r="J484" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
       <c r="M484" s="3"/>
@@ -16556,7 +17529,9 @@
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
       <c r="I485" s="3"/>
-      <c r="J485" s="3"/>
+      <c r="J485" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
       <c r="M485" s="3"/>
@@ -16585,7 +17560,9 @@
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
-      <c r="J486" s="3"/>
+      <c r="J486" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
       <c r="M486" s="3"/>
@@ -16616,7 +17593,9 @@
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3"/>
-      <c r="J487" s="3"/>
+      <c r="J487" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
       <c r="M487" s="3"/>
@@ -16645,7 +17624,9 @@
       </c>
       <c r="H488" s="3"/>
       <c r="I488" s="3"/>
-      <c r="J488" s="3"/>
+      <c r="J488" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
       <c r="M488" s="3"/>
@@ -16674,7 +17655,9 @@
       </c>
       <c r="H489" s="3"/>
       <c r="I489" s="3"/>
-      <c r="J489" s="3"/>
+      <c r="J489" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
       <c r="M489" s="3"/>
@@ -16703,7 +17686,9 @@
       </c>
       <c r="H490" s="3"/>
       <c r="I490" s="3"/>
-      <c r="J490" s="3"/>
+      <c r="J490" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
       <c r="M490" s="3"/>
@@ -16732,7 +17717,9 @@
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
       <c r="I491" s="3"/>
-      <c r="J491" s="3"/>
+      <c r="J491" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
       <c r="M491" s="3"/>
@@ -16761,7 +17748,9 @@
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
       <c r="I492" s="3"/>
-      <c r="J492" s="3"/>
+      <c r="J492" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
       <c r="M492" s="3"/>
@@ -16790,7 +17779,9 @@
       </c>
       <c r="H493" s="3"/>
       <c r="I493" s="3"/>
-      <c r="J493" s="3"/>
+      <c r="J493" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
       <c r="M493" s="3"/>
@@ -16819,7 +17810,9 @@
       </c>
       <c r="H494" s="3"/>
       <c r="I494" s="3"/>
-      <c r="J494" s="3"/>
+      <c r="J494" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
       <c r="M494" s="3"/>
@@ -16848,7 +17841,9 @@
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
       <c r="I495" s="3"/>
-      <c r="J495" s="3"/>
+      <c r="J495" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
       <c r="M495" s="3"/>
@@ -16879,7 +17874,9 @@
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
       <c r="I496" s="3"/>
-      <c r="J496" s="3"/>
+      <c r="J496" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
       <c r="M496" s="3"/>
@@ -16910,7 +17907,9 @@
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
       <c r="I497" s="3"/>
-      <c r="J497" s="3"/>
+      <c r="J497" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
       <c r="M497" s="3"/>
@@ -16941,7 +17940,9 @@
       </c>
       <c r="H498" s="3"/>
       <c r="I498" s="3"/>
-      <c r="J498" s="3"/>
+      <c r="J498" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
       <c r="M498" s="3"/>
@@ -16972,7 +17973,9 @@
       </c>
       <c r="H499" s="3"/>
       <c r="I499" s="3"/>
-      <c r="J499" s="3"/>
+      <c r="J499" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
       <c r="M499" s="3"/>
@@ -17003,7 +18006,9 @@
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
       <c r="I500" s="3"/>
-      <c r="J500" s="3"/>
+      <c r="J500" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
       <c r="M500" s="3"/>
@@ -17032,7 +18037,9 @@
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
       <c r="I501" s="3"/>
-      <c r="J501" s="3"/>
+      <c r="J501" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
       <c r="M501" s="3"/>
@@ -17061,7 +18068,9 @@
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
       <c r="I502" s="3"/>
-      <c r="J502" s="3"/>
+      <c r="J502" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
       <c r="M502" s="3"/>
@@ -17090,7 +18099,9 @@
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
       <c r="I503" s="3"/>
-      <c r="J503" s="3"/>
+      <c r="J503" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
       <c r="M503" s="3"/>
@@ -17119,7 +18130,9 @@
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
       <c r="I504" s="3"/>
-      <c r="J504" s="3"/>
+      <c r="J504" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
       <c r="M504" s="3"/>
@@ -17148,7 +18161,9 @@
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
       <c r="I505" s="3"/>
-      <c r="J505" s="3"/>
+      <c r="J505" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
       <c r="M505" s="3"/>
@@ -17177,7 +18192,9 @@
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
       <c r="I506" s="3"/>
-      <c r="J506" s="3"/>
+      <c r="J506" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
       <c r="M506" s="3"/>
@@ -17206,7 +18223,9 @@
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
       <c r="I507" s="3"/>
-      <c r="J507" s="3"/>
+      <c r="J507" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
       <c r="M507" s="3"/>
@@ -17235,7 +18254,9 @@
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
-      <c r="J508" s="3"/>
+      <c r="J508" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
       <c r="M508" s="3"/>
@@ -17264,7 +18285,9 @@
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
       <c r="I509" s="3"/>
-      <c r="J509" s="3"/>
+      <c r="J509" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
       <c r="M509" s="3"/>
@@ -17293,7 +18316,9 @@
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
       <c r="I510" s="3"/>
-      <c r="J510" s="3"/>
+      <c r="J510" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
       <c r="M510" s="3"/>
@@ -17322,7 +18347,9 @@
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
       <c r="I511" s="3"/>
-      <c r="J511" s="3"/>
+      <c r="J511" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
       <c r="M511" s="3"/>
@@ -17351,7 +18378,9 @@
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
       <c r="I512" s="3"/>
-      <c r="J512" s="3"/>
+      <c r="J512" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
       <c r="M512" s="3"/>
@@ -17380,7 +18409,9 @@
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
       <c r="I513" s="3"/>
-      <c r="J513" s="3"/>
+      <c r="J513" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
       <c r="M513" s="3"/>
@@ -17409,7 +18440,9 @@
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
       <c r="I514" s="3"/>
-      <c r="J514" s="3"/>
+      <c r="J514" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
       <c r="M514" s="3"/>
@@ -17438,7 +18471,9 @@
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
       <c r="I515" s="3"/>
-      <c r="J515" s="3"/>
+      <c r="J515" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
       <c r="M515" s="3"/>
@@ -17467,7 +18502,9 @@
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
       <c r="I516" s="3"/>
-      <c r="J516" s="3"/>
+      <c r="J516" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
       <c r="M516" s="3"/>
@@ -17496,7 +18533,9 @@
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
       <c r="I517" s="3"/>
-      <c r="J517" s="3"/>
+      <c r="J517" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
       <c r="M517" s="3"/>
@@ -17525,7 +18564,9 @@
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
       <c r="I518" s="3"/>
-      <c r="J518" s="3"/>
+      <c r="J518" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
       <c r="M518" s="3"/>
@@ -17554,7 +18595,9 @@
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
       <c r="I519" s="3"/>
-      <c r="J519" s="3"/>
+      <c r="J519" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
       <c r="M519" s="3"/>
@@ -17583,7 +18626,9 @@
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
       <c r="I520" s="3"/>
-      <c r="J520" s="3"/>
+      <c r="J520" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
       <c r="M520" s="3"/>
@@ -17612,7 +18657,9 @@
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
       <c r="I521" s="3"/>
-      <c r="J521" s="3"/>
+      <c r="J521" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
       <c r="M521" s="3"/>
@@ -17641,7 +18688,9 @@
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
       <c r="I522" s="3"/>
-      <c r="J522" s="3"/>
+      <c r="J522" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
       <c r="M522" s="3"/>
@@ -17670,7 +18719,9 @@
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
       <c r="I523" s="3"/>
-      <c r="J523" s="3"/>
+      <c r="J523" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
       <c r="M523" s="3"/>
@@ -17699,7 +18750,9 @@
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
       <c r="I524" s="3"/>
-      <c r="J524" s="3"/>
+      <c r="J524" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K524" s="3"/>
       <c r="L524" s="3"/>
       <c r="M524" s="3"/>
@@ -17728,7 +18781,9 @@
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
       <c r="I525" s="3"/>
-      <c r="J525" s="3"/>
+      <c r="J525" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K525" s="3"/>
       <c r="L525" s="3"/>
       <c r="M525" s="3"/>
@@ -17757,7 +18812,9 @@
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
       <c r="I526" s="3"/>
-      <c r="J526" s="3"/>
+      <c r="J526" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K526" s="3"/>
       <c r="L526" s="3"/>
       <c r="M526" s="3"/>
@@ -17786,7 +18843,9 @@
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3"/>
-      <c r="J527" s="3"/>
+      <c r="J527" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K527" s="3"/>
       <c r="L527" s="3"/>
       <c r="M527" s="3"/>
@@ -17815,7 +18874,9 @@
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3"/>
-      <c r="J528" s="3"/>
+      <c r="J528" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
       <c r="M528" s="3"/>
@@ -17844,7 +18905,9 @@
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
       <c r="I529" s="3"/>
-      <c r="J529" s="3"/>
+      <c r="J529" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K529" s="3"/>
       <c r="L529" s="3"/>
       <c r="M529" s="3"/>
@@ -17873,7 +18936,9 @@
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
       <c r="I530" s="3"/>
-      <c r="J530" s="3"/>
+      <c r="J530" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K530" s="3"/>
       <c r="L530" s="3"/>
       <c r="M530" s="3"/>
@@ -17902,7 +18967,9 @@
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
       <c r="I531" s="3"/>
-      <c r="J531" s="3"/>
+      <c r="J531" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K531" s="3"/>
       <c r="L531" s="3"/>
       <c r="M531" s="3"/>
@@ -17931,7 +18998,9 @@
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
       <c r="I532" s="3"/>
-      <c r="J532" s="3"/>
+      <c r="J532" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K532" s="3"/>
       <c r="L532" s="3"/>
       <c r="M532" s="3"/>
@@ -17960,7 +19029,9 @@
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
       <c r="I533" s="3"/>
-      <c r="J533" s="3"/>
+      <c r="J533" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K533" s="3"/>
       <c r="L533" s="3"/>
       <c r="M533" s="3"/>
@@ -17989,7 +19060,9 @@
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
       <c r="I534" s="3"/>
-      <c r="J534" s="3"/>
+      <c r="J534" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K534" s="3"/>
       <c r="L534" s="3"/>
       <c r="M534" s="3"/>
@@ -18018,7 +19091,9 @@
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
       <c r="I535" s="3"/>
-      <c r="J535" s="3"/>
+      <c r="J535" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K535" s="3"/>
       <c r="L535" s="3"/>
       <c r="M535" s="3"/>
@@ -18047,7 +19122,9 @@
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3"/>
-      <c r="J536" s="3"/>
+      <c r="J536" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K536" s="3"/>
       <c r="L536" s="3"/>
       <c r="M536" s="3"/>
@@ -18076,7 +19153,9 @@
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
       <c r="I537" s="3"/>
-      <c r="J537" s="3"/>
+      <c r="J537" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K537" s="3"/>
       <c r="L537" s="3"/>
       <c r="M537" s="3"/>
@@ -18105,7 +19184,9 @@
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
       <c r="I538" s="3"/>
-      <c r="J538" s="3"/>
+      <c r="J538" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K538" s="3"/>
       <c r="L538" s="3"/>
       <c r="M538" s="3"/>
@@ -18134,7 +19215,9 @@
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3"/>
-      <c r="J539" s="3"/>
+      <c r="J539" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K539" s="3"/>
       <c r="L539" s="3"/>
       <c r="M539" s="3"/>
@@ -18163,7 +19246,9 @@
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
       <c r="I540" s="3"/>
-      <c r="J540" s="3"/>
+      <c r="J540" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
       <c r="M540" s="3"/>
@@ -18192,7 +19277,9 @@
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
       <c r="I541" s="3"/>
-      <c r="J541" s="3"/>
+      <c r="J541" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K541" s="3"/>
       <c r="L541" s="3"/>
       <c r="M541" s="3"/>
@@ -18221,7 +19308,9 @@
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
-      <c r="J542" s="3"/>
+      <c r="J542" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K542" s="3"/>
       <c r="L542" s="3"/>
       <c r="M542" s="3"/>
@@ -18250,7 +19339,9 @@
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
       <c r="I543" s="3"/>
-      <c r="J543" s="3"/>
+      <c r="J543" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K543" s="3"/>
       <c r="L543" s="3"/>
       <c r="M543" s="3"/>
@@ -18279,7 +19370,9 @@
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
       <c r="I544" s="3"/>
-      <c r="J544" s="3"/>
+      <c r="J544" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K544" s="3"/>
       <c r="L544" s="3"/>
       <c r="M544" s="3"/>
@@ -18308,7 +19401,9 @@
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
       <c r="I545" s="3"/>
-      <c r="J545" s="3"/>
+      <c r="J545" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K545" s="3"/>
       <c r="L545" s="3"/>
       <c r="M545" s="3"/>
@@ -18337,7 +19432,9 @@
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
       <c r="I546" s="3"/>
-      <c r="J546" s="3"/>
+      <c r="J546" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K546" s="3"/>
       <c r="L546" s="3"/>
       <c r="M546" s="3"/>
@@ -18366,7 +19463,9 @@
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
       <c r="I547" s="3"/>
-      <c r="J547" s="3"/>
+      <c r="J547" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K547" s="3"/>
       <c r="L547" s="3"/>
       <c r="M547" s="3"/>
@@ -18395,7 +19494,9 @@
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
       <c r="I548" s="3"/>
-      <c r="J548" s="3"/>
+      <c r="J548" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K548" s="3"/>
       <c r="L548" s="3"/>
       <c r="M548" s="3"/>
@@ -18424,7 +19525,9 @@
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
       <c r="I549" s="3"/>
-      <c r="J549" s="3"/>
+      <c r="J549" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K549" s="3"/>
       <c r="L549" s="3"/>
       <c r="M549" s="3"/>
@@ -18453,7 +19556,9 @@
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
       <c r="I550" s="3"/>
-      <c r="J550" s="3"/>
+      <c r="J550" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K550" s="3"/>
       <c r="L550" s="3"/>
       <c r="M550" s="3"/>
@@ -18482,7 +19587,9 @@
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
       <c r="I551" s="3"/>
-      <c r="J551" s="3"/>
+      <c r="J551" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K551" s="3"/>
       <c r="L551" s="3"/>
       <c r="M551" s="3"/>
@@ -18511,7 +19618,9 @@
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
       <c r="I552" s="3"/>
-      <c r="J552" s="3"/>
+      <c r="J552" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K552" s="3"/>
       <c r="L552" s="3"/>
       <c r="M552" s="3"/>
@@ -18540,7 +19649,9 @@
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
       <c r="I553" s="3"/>
-      <c r="J553" s="3"/>
+      <c r="J553" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K553" s="3"/>
       <c r="L553" s="3"/>
       <c r="M553" s="3"/>
@@ -18569,7 +19680,9 @@
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
       <c r="I554" s="3"/>
-      <c r="J554" s="3"/>
+      <c r="J554" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K554" s="3"/>
       <c r="L554" s="3"/>
       <c r="M554" s="3"/>
@@ -18598,7 +19711,9 @@
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
       <c r="I555" s="3"/>
-      <c r="J555" s="3"/>
+      <c r="J555" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K555" s="3"/>
       <c r="L555" s="3"/>
       <c r="M555" s="3"/>
@@ -18627,7 +19742,9 @@
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
       <c r="I556" s="3"/>
-      <c r="J556" s="3"/>
+      <c r="J556" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K556" s="3"/>
       <c r="L556" s="3"/>
       <c r="M556" s="3"/>
@@ -18656,7 +19773,9 @@
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
       <c r="I557" s="3"/>
-      <c r="J557" s="3"/>
+      <c r="J557" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K557" s="3"/>
       <c r="L557" s="3"/>
       <c r="M557" s="3"/>
@@ -18685,7 +19804,9 @@
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3"/>
-      <c r="J558" s="3"/>
+      <c r="J558" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K558" s="3"/>
       <c r="L558" s="3"/>
       <c r="M558" s="3"/>
@@ -18714,7 +19835,9 @@
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3"/>
-      <c r="J559" s="3"/>
+      <c r="J559" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K559" s="3"/>
       <c r="L559" s="3"/>
       <c r="M559" s="3"/>
@@ -18743,7 +19866,9 @@
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3"/>
-      <c r="J560" s="3"/>
+      <c r="J560" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K560" s="3"/>
       <c r="L560" s="3"/>
       <c r="M560" s="3"/>
@@ -18772,7 +19897,9 @@
       <c r="G561" s="7"/>
       <c r="H561" s="7"/>
       <c r="I561" s="7"/>
-      <c r="J561" s="7"/>
+      <c r="J561" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="K561" s="7"/>
       <c r="L561" s="7"/>
       <c r="M561" s="7"/>
@@ -18801,6 +19928,9 @@
       <c r="F562" s="3" t="s">
         <v>519</v>
       </c>
+      <c r="J562" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="563" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="13">
@@ -18820,6 +19950,9 @@
       <c r="G563" s="23" t="s">
         <v>533</v>
       </c>
+      <c r="J563" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="564" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
@@ -18839,6 +19972,9 @@
       <c r="G564" s="23" t="s">
         <v>533</v>
       </c>
+      <c r="J564" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="565" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="13">
@@ -18858,6 +19994,9 @@
       <c r="G565" s="23" t="s">
         <v>533</v>
       </c>
+      <c r="J565" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="566" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="12">
@@ -18877,8 +20016,11 @@
       <c r="G566" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="I566" s="28" t="s">
+      <c r="I566" s="24" t="s">
         <v>537</v>
+      </c>
+      <c r="J566" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -18899,6 +20041,9 @@
       <c r="G567" s="23" t="s">
         <v>533</v>
       </c>
+      <c r="J567" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="568" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="12">
@@ -18917,6 +20062,9 @@
       <c r="G568" s="23" t="s">
         <v>533</v>
       </c>
+      <c r="J568" s="3" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="13">
@@ -18935,8 +20083,11 @@
       <c r="G569" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="I569" s="28" t="s">
+      <c r="I569" s="24" t="s">
         <v>537</v>
+      </c>
+      <c r="J569" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">
@@ -18955,6 +20106,9 @@
       </c>
       <c r="G570" s="23" t="s">
         <v>533</v>
+      </c>
+      <c r="J570" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDA20F5-B153-4926-A511-87E115AB8B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE798D60-A1F6-4A89-B61A-B2FB157C853C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="544">
   <si>
     <t>S.No.</t>
   </si>
@@ -1677,6 +1677,18 @@
   </si>
   <si>
     <t>Trimming changes</t>
+  </si>
+  <si>
+    <t>Results better and projAvail not excessive</t>
+  </si>
+  <si>
+    <t>why not 25/25, earlier 2 weeks have that why not for 3rd week</t>
+  </si>
+  <si>
+    <t>Projavail better, but ratio off</t>
+  </si>
+  <si>
+    <t>no change in utility</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1961,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2279,10 +2294,10 @@
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="K493" sqref="K493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2340,9 @@
       <c r="J1" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="16">
+        <v>44468</v>
+      </c>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -15474,7 +15491,9 @@
       <c r="J424" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K424" s="3"/>
+      <c r="K424" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L424" s="3"/>
       <c r="M424" s="3"/>
       <c r="N424" s="3"/>
@@ -15544,7 +15563,9 @@
       <c r="J426" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K426" s="3"/>
+      <c r="K426" s="29" t="s">
+        <v>541</v>
+      </c>
       <c r="L426" s="3"/>
       <c r="M426" s="3"/>
       <c r="N426" s="3"/>
@@ -16586,7 +16607,9 @@
       <c r="J456" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K456" s="3"/>
+      <c r="K456" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L456" s="3"/>
       <c r="M456" s="3"/>
       <c r="N456" s="3"/>
@@ -16623,7 +16646,9 @@
       <c r="J457" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K457" s="3"/>
+      <c r="K457" s="29" t="s">
+        <v>542</v>
+      </c>
       <c r="L457" s="3"/>
       <c r="M457" s="3"/>
       <c r="N457" s="3"/>
@@ -16730,7 +16755,9 @@
       <c r="J460" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K460" s="3"/>
+      <c r="K460" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L460" s="3"/>
       <c r="M460" s="3"/>
       <c r="N460" s="3"/>
@@ -16765,7 +16792,9 @@
       <c r="J461" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K461" s="3"/>
+      <c r="K461" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L461" s="3"/>
       <c r="M461" s="3"/>
       <c r="N461" s="3"/>
@@ -16798,7 +16827,9 @@
       <c r="J462" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K462" s="3"/>
+      <c r="K462" s="3" t="s">
+        <v>540</v>
+      </c>
       <c r="L462" s="3"/>
       <c r="M462" s="3"/>
       <c r="N462" s="3"/>
@@ -17701,7 +17732,7 @@
       <c r="T490" s="3"/>
       <c r="U490" s="5"/>
     </row>
-    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12">
         <v>489</v>
       </c>
@@ -17732,7 +17763,7 @@
       <c r="T491" s="3"/>
       <c r="U491" s="5"/>
     </row>
-    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12">
         <v>490</v>
       </c>
@@ -17751,7 +17782,9 @@
       <c r="J492" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K492" s="3"/>
+      <c r="K492" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="L492" s="3"/>
       <c r="M492" s="3"/>
       <c r="N492" s="3"/>
@@ -17763,7 +17796,7 @@
       <c r="T492" s="3"/>
       <c r="U492" s="5"/>
     </row>
-    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12">
         <v>491</v>
       </c>
@@ -17782,7 +17815,9 @@
       <c r="J493" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K493" s="3"/>
+      <c r="K493" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="L493" s="3"/>
       <c r="M493" s="3"/>
       <c r="N493" s="3"/>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE798D60-A1F6-4A89-B61A-B2FB157C853C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D088B4D-1F28-48AE-B802-81E8A266277A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="547">
   <si>
     <t>S.No.</t>
   </si>
@@ -1689,6 +1689,15 @@
   </si>
   <si>
     <t>no change in utility</t>
+  </si>
+  <si>
+    <t>Change in exception</t>
+  </si>
+  <si>
+    <t>instead of 100+50, order now =200; respecting DCRPCOVDUR and not ignoring any demand</t>
+  </si>
+  <si>
+    <t>Results are respecting DRPCOVDUR</t>
   </si>
 </sst>
 </file>
@@ -1962,6 +1971,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,9 +1985,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2294,10 +2303,10 @@
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J463" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C553" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K493" sqref="K493"/>
+      <selection pane="bottomRight" activeCell="L569" sqref="L569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2312,10 +2321,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16"/>
@@ -2343,7 +2352,9 @@
       <c r="K1" s="16">
         <v>44468</v>
       </c>
-      <c r="L1" s="14"/>
+      <c r="L1" s="16">
+        <v>44469</v>
+      </c>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
@@ -2355,8 +2366,8 @@
       <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -5105,7 +5116,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -5136,7 +5147,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -5156,7 +5167,9 @@
         <v>539</v>
       </c>
       <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -5167,7 +5180,7 @@
       <c r="T92" s="3"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -5187,7 +5200,9 @@
         <v>539</v>
       </c>
       <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -5198,7 +5213,7 @@
       <c r="T93" s="3"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -5229,7 +5244,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -5249,7 +5264,9 @@
         <v>539</v>
       </c>
       <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -5260,7 +5277,7 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -5280,7 +5297,9 @@
         <v>539</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -6097,7 +6116,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -6128,7 +6147,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -6148,7 +6167,9 @@
         <v>493</v>
       </c>
       <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
+      <c r="L124" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -14064,7 +14085,7 @@
       <c r="T379" s="3"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="12">
         <v>378</v>
       </c>
@@ -14095,7 +14116,7 @@
       <c r="T380" s="3"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="12">
         <v>379</v>
       </c>
@@ -14115,7 +14136,9 @@
         <v>539</v>
       </c>
       <c r="K381" s="3"/>
-      <c r="L381" s="3"/>
+      <c r="L381" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M381" s="3"/>
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
@@ -14188,7 +14211,7 @@
       <c r="T383" s="3"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="12">
         <v>382</v>
       </c>
@@ -14219,7 +14242,7 @@
       <c r="T384" s="3"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12">
         <v>383</v>
       </c>
@@ -14239,7 +14262,9 @@
         <v>539</v>
       </c>
       <c r="K385" s="3"/>
-      <c r="L385" s="3"/>
+      <c r="L385" s="24" t="s">
+        <v>544</v>
+      </c>
       <c r="M385" s="3"/>
       <c r="N385" s="3"/>
       <c r="O385" s="3"/>
@@ -14281,7 +14306,7 @@
       <c r="T386" s="3"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12">
         <v>385</v>
       </c>
@@ -14312,7 +14337,7 @@
       <c r="T387" s="3"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12">
         <v>386</v>
       </c>
@@ -14332,7 +14357,9 @@
         <v>539</v>
       </c>
       <c r="K388" s="3"/>
-      <c r="L388" s="3"/>
+      <c r="L388" s="24" t="s">
+        <v>469</v>
+      </c>
       <c r="M388" s="3"/>
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
@@ -14560,7 +14587,7 @@
       <c r="T395" s="3"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12">
         <v>394</v>
       </c>
@@ -14591,7 +14618,7 @@
       <c r="T396" s="3"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="12">
         <v>395</v>
       </c>
@@ -14611,7 +14638,9 @@
         <v>539</v>
       </c>
       <c r="K397" s="3"/>
-      <c r="L397" s="3"/>
+      <c r="L397" s="24" t="s">
+        <v>469</v>
+      </c>
       <c r="M397" s="3"/>
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
@@ -15282,7 +15311,9 @@
         <v>539</v>
       </c>
       <c r="K418" s="3"/>
-      <c r="L418" s="3"/>
+      <c r="L418" s="3" t="s">
+        <v>545</v>
+      </c>
       <c r="M418" s="3"/>
       <c r="N418" s="3"/>
       <c r="O418" s="3"/>
@@ -15563,7 +15594,7 @@
       <c r="J426" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K426" s="29" t="s">
+      <c r="K426" s="25" t="s">
         <v>541</v>
       </c>
       <c r="L426" s="3"/>
@@ -16646,7 +16677,7 @@
       <c r="J457" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K457" s="29" t="s">
+      <c r="K457" s="25" t="s">
         <v>542</v>
       </c>
       <c r="L457" s="3"/>
@@ -20124,6 +20155,9 @@
       <c r="J569" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="L569" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A570" s="12">

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A6B9A0-675A-4AB9-B294-9C135BFF7A99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E966C9AB-6EB6-4640-999C-22A2A9A1A50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="549">
   <si>
     <t>S.No.</t>
   </si>
@@ -1704,6 +1704,9 @@
   </si>
   <si>
     <t>changes due to Buy guide changes for Loblaws; wont order if not in buy guide</t>
+  </si>
+  <si>
+    <t>updated Min/Multiple qty for item=5001</t>
   </si>
 </sst>
 </file>
@@ -2477,14 +2480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B6F5-D95C-4060-89B9-FDDC3DEF8E41}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C384" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D479" sqref="D479"/>
+      <selection pane="bottomRight" activeCell="F391" sqref="F391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,8 +2538,12 @@
       <c r="M1" s="16">
         <v>44479</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="N1" s="16">
+        <v>44508</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44510</v>
+      </c>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -2545,7 +2551,7 @@
       <c r="T1" s="14"/>
       <c r="U1" s="15"/>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="29"/>
       <c r="C2" s="10"/>
@@ -2568,7 +2574,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2600,7 +2606,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2632,7 +2638,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2664,7 +2670,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2696,7 +2702,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2728,7 +2734,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2760,7 +2766,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2792,7 +2798,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2824,7 +2830,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2856,7 +2862,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2888,7 +2894,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2920,7 +2926,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2952,7 +2958,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2984,7 +2990,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -3016,7 +3022,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -3048,7 +3054,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3080,7 +3086,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3112,7 +3118,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3144,7 +3150,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3176,7 +3182,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -3208,7 +3214,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -3240,7 +3246,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -3272,7 +3278,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -3304,7 +3310,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -3336,7 +3342,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -3368,7 +3374,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -3400,7 +3406,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -3432,7 +3438,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -3464,7 +3470,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -3496,7 +3502,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -3528,7 +3534,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -3560,7 +3566,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -3592,7 +3598,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -3624,7 +3630,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -3656,7 +3662,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -3688,7 +3694,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -3720,7 +3726,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -3752,7 +3758,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -3784,7 +3790,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -3816,7 +3822,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -3848,7 +3854,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -3880,7 +3886,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -3912,7 +3918,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -3944,7 +3950,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44</v>
       </c>
@@ -3976,7 +3982,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -4008,7 +4014,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -4040,7 +4046,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -4072,7 +4078,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -4104,7 +4110,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -4136,7 +4142,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -4168,7 +4174,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -4200,7 +4206,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -4232,7 +4238,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -4264,7 +4270,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -4295,7 +4301,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -4327,7 +4333,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -4359,7 +4365,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -4423,7 +4429,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -4455,7 +4461,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -4487,7 +4493,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -4519,7 +4525,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -4551,7 +4557,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="5"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -4583,7 +4589,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="5"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -4615,7 +4621,7 @@
       <c r="T66" s="3"/>
       <c r="U66" s="5"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -4647,7 +4653,7 @@
       <c r="T67" s="3"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -4679,7 +4685,7 @@
       <c r="T68" s="3"/>
       <c r="U68" s="5"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -4711,7 +4717,7 @@
       <c r="T69" s="3"/>
       <c r="U69" s="5"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -4743,7 +4749,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="5"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -4775,7 +4781,7 @@
       <c r="T71" s="3"/>
       <c r="U71" s="5"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -4807,7 +4813,7 @@
       <c r="T72" s="3"/>
       <c r="U72" s="5"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -4839,7 +4845,7 @@
       <c r="T73" s="3"/>
       <c r="U73" s="5"/>
     </row>
-    <row r="74" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -4871,7 +4877,7 @@
       <c r="T74" s="3"/>
       <c r="U74" s="5"/>
     </row>
-    <row r="75" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -4903,7 +4909,7 @@
       <c r="T75" s="3"/>
       <c r="U75" s="5"/>
     </row>
-    <row r="76" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -4935,7 +4941,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="5"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -4967,7 +4973,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -4999,7 +5005,7 @@
       <c r="T78" s="3"/>
       <c r="U78" s="5"/>
     </row>
-    <row r="79" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -5031,7 +5037,7 @@
       <c r="T79" s="3"/>
       <c r="U79" s="5"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -5063,7 +5069,7 @@
       <c r="T80" s="3"/>
       <c r="U80" s="5"/>
     </row>
-    <row r="81" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -5095,7 +5101,7 @@
       <c r="T81" s="3"/>
       <c r="U81" s="5"/>
     </row>
-    <row r="82" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -5127,7 +5133,7 @@
       <c r="T82" s="3"/>
       <c r="U82" s="5"/>
     </row>
-    <row r="83" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -5159,7 +5165,7 @@
       <c r="T83" s="3"/>
       <c r="U83" s="5"/>
     </row>
-    <row r="84" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -5191,7 +5197,7 @@
       <c r="T84" s="3"/>
       <c r="U84" s="5"/>
     </row>
-    <row r="85" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -5223,7 +5229,7 @@
       <c r="T85" s="3"/>
       <c r="U85" s="5"/>
     </row>
-    <row r="86" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -5255,7 +5261,7 @@
       <c r="T86" s="3"/>
       <c r="U86" s="5"/>
     </row>
-    <row r="87" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>85</v>
       </c>
@@ -5287,7 +5293,7 @@
       <c r="T87" s="3"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -5319,7 +5325,7 @@
       <c r="T88" s="3"/>
       <c r="U88" s="5"/>
     </row>
-    <row r="89" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -5351,7 +5357,7 @@
       <c r="T89" s="3"/>
       <c r="U89" s="5"/>
     </row>
-    <row r="90" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -5383,7 +5389,7 @@
       <c r="T90" s="3"/>
       <c r="U90" s="5"/>
     </row>
-    <row r="91" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -5415,7 +5421,7 @@
       <c r="T91" s="3"/>
       <c r="U91" s="5"/>
     </row>
-    <row r="92" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -5449,7 +5455,7 @@
       <c r="T92" s="3"/>
       <c r="U92" s="5"/>
     </row>
-    <row r="93" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -5483,7 +5489,7 @@
       <c r="T93" s="3"/>
       <c r="U93" s="5"/>
     </row>
-    <row r="94" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -5515,7 +5521,7 @@
       <c r="T94" s="3"/>
       <c r="U94" s="5"/>
     </row>
-    <row r="95" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -5549,7 +5555,7 @@
       <c r="T95" s="3"/>
       <c r="U95" s="5"/>
     </row>
-    <row r="96" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -5583,7 +5589,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="5"/>
     </row>
-    <row r="97" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -5615,7 +5621,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="5"/>
     </row>
-    <row r="98" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -5647,7 +5653,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="5"/>
     </row>
-    <row r="99" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -5679,7 +5685,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="5"/>
     </row>
-    <row r="100" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -5711,7 +5717,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="5"/>
     </row>
-    <row r="101" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -5743,7 +5749,7 @@
       <c r="T101" s="3"/>
       <c r="U101" s="5"/>
     </row>
-    <row r="102" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -5775,7 +5781,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -5807,7 +5813,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="5"/>
     </row>
-    <row r="104" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -5839,7 +5845,7 @@
       <c r="T104" s="3"/>
       <c r="U104" s="5"/>
     </row>
-    <row r="105" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -5871,7 +5877,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="5"/>
     </row>
-    <row r="106" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -5903,7 +5909,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="5"/>
     </row>
-    <row r="107" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -5935,7 +5941,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="5"/>
     </row>
-    <row r="108" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -5967,7 +5973,7 @@
       <c r="T108" s="3"/>
       <c r="U108" s="5"/>
     </row>
-    <row r="109" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -5999,7 +6005,7 @@
       <c r="T109" s="3"/>
       <c r="U109" s="5"/>
     </row>
-    <row r="110" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -6031,7 +6037,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -6063,7 +6069,7 @@
       <c r="T111" s="3"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -6095,7 +6101,7 @@
       <c r="T112" s="3"/>
       <c r="U112" s="5"/>
     </row>
-    <row r="113" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -6127,7 +6133,7 @@
       <c r="T113" s="3"/>
       <c r="U113" s="5"/>
     </row>
-    <row r="114" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -6159,7 +6165,7 @@
       <c r="T114" s="3"/>
       <c r="U114" s="5"/>
     </row>
-    <row r="115" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -6191,7 +6197,7 @@
       <c r="T115" s="3"/>
       <c r="U115" s="5"/>
     </row>
-    <row r="116" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -6223,7 +6229,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="5"/>
     </row>
-    <row r="117" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -6255,7 +6261,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="5"/>
     </row>
-    <row r="118" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -6287,7 +6293,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="5"/>
     </row>
-    <row r="119" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -6319,7 +6325,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="5"/>
     </row>
-    <row r="120" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -6351,7 +6357,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="5"/>
     </row>
-    <row r="121" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>119</v>
       </c>
@@ -6383,7 +6389,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="5"/>
     </row>
-    <row r="122" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>120</v>
       </c>
@@ -6415,7 +6421,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="5"/>
     </row>
-    <row r="123" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -6447,7 +6453,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="5"/>
     </row>
-    <row r="124" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -6481,7 +6487,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="5"/>
     </row>
-    <row r="125" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>123</v>
       </c>
@@ -6513,7 +6519,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="5"/>
     </row>
-    <row r="126" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>124</v>
       </c>
@@ -6545,7 +6551,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="5"/>
     </row>
-    <row r="127" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>125</v>
       </c>
@@ -6577,7 +6583,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="5"/>
     </row>
-    <row r="128" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -6609,7 +6615,7 @@
       <c r="T128" s="3"/>
       <c r="U128" s="5"/>
     </row>
-    <row r="129" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>127</v>
       </c>
@@ -6641,7 +6647,7 @@
       <c r="T129" s="3"/>
       <c r="U129" s="5"/>
     </row>
-    <row r="130" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>128</v>
       </c>
@@ -6673,7 +6679,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="5"/>
     </row>
-    <row r="131" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>129</v>
       </c>
@@ -6705,7 +6711,7 @@
       <c r="T131" s="3"/>
       <c r="U131" s="5"/>
     </row>
-    <row r="132" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>130</v>
       </c>
@@ -6737,7 +6743,7 @@
       <c r="T132" s="3"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>131</v>
       </c>
@@ -6769,7 +6775,7 @@
       <c r="T133" s="3"/>
       <c r="U133" s="5"/>
     </row>
-    <row r="134" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -6801,7 +6807,7 @@
       <c r="T134" s="3"/>
       <c r="U134" s="5"/>
     </row>
-    <row r="135" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>133</v>
       </c>
@@ -6833,7 +6839,7 @@
       <c r="T135" s="3"/>
       <c r="U135" s="5"/>
     </row>
-    <row r="136" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>134</v>
       </c>
@@ -6865,7 +6871,7 @@
       <c r="T136" s="3"/>
       <c r="U136" s="5"/>
     </row>
-    <row r="137" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>135</v>
       </c>
@@ -6897,7 +6903,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="5"/>
     </row>
-    <row r="138" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>136</v>
       </c>
@@ -6929,7 +6935,7 @@
       <c r="T138" s="3"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -6961,7 +6967,7 @@
       <c r="T139" s="3"/>
       <c r="U139" s="5"/>
     </row>
-    <row r="140" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -6993,7 +6999,7 @@
       <c r="T140" s="3"/>
       <c r="U140" s="5"/>
     </row>
-    <row r="141" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>139</v>
       </c>
@@ -7025,7 +7031,7 @@
       <c r="T141" s="3"/>
       <c r="U141" s="5"/>
     </row>
-    <row r="142" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>140</v>
       </c>
@@ -7057,7 +7063,7 @@
       <c r="T142" s="3"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -7089,7 +7095,7 @@
       <c r="T143" s="3"/>
       <c r="U143" s="5"/>
     </row>
-    <row r="144" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>142</v>
       </c>
@@ -7121,7 +7127,7 @@
       <c r="T144" s="3"/>
       <c r="U144" s="5"/>
     </row>
-    <row r="145" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>143</v>
       </c>
@@ -7153,7 +7159,7 @@
       <c r="T145" s="3"/>
       <c r="U145" s="5"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>144</v>
       </c>
@@ -7185,7 +7191,7 @@
       <c r="T146" s="3"/>
       <c r="U146" s="5"/>
     </row>
-    <row r="147" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>145</v>
       </c>
@@ -7217,7 +7223,7 @@
       <c r="T147" s="3"/>
       <c r="U147" s="5"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>146</v>
       </c>
@@ -7249,7 +7255,7 @@
       <c r="T148" s="3"/>
       <c r="U148" s="5"/>
     </row>
-    <row r="149" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>147</v>
       </c>
@@ -7281,7 +7287,7 @@
       <c r="T149" s="3"/>
       <c r="U149" s="5"/>
     </row>
-    <row r="150" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>148</v>
       </c>
@@ -7313,7 +7319,7 @@
       <c r="T150" s="3"/>
       <c r="U150" s="5"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>149</v>
       </c>
@@ -7345,7 +7351,7 @@
       <c r="T151" s="3"/>
       <c r="U151" s="5"/>
     </row>
-    <row r="152" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>150</v>
       </c>
@@ -7377,7 +7383,7 @@
       <c r="T152" s="3"/>
       <c r="U152" s="5"/>
     </row>
-    <row r="153" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>151</v>
       </c>
@@ -7409,7 +7415,7 @@
       <c r="T153" s="3"/>
       <c r="U153" s="5"/>
     </row>
-    <row r="154" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>152</v>
       </c>
@@ -7441,7 +7447,7 @@
       <c r="T154" s="3"/>
       <c r="U154" s="5"/>
     </row>
-    <row r="155" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -7473,7 +7479,7 @@
       <c r="T155" s="3"/>
       <c r="U155" s="5"/>
     </row>
-    <row r="156" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>154</v>
       </c>
@@ -7505,7 +7511,7 @@
       <c r="T156" s="3"/>
       <c r="U156" s="5"/>
     </row>
-    <row r="157" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>155</v>
       </c>
@@ -7537,7 +7543,7 @@
       <c r="T157" s="3"/>
       <c r="U157" s="5"/>
     </row>
-    <row r="158" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -7569,7 +7575,7 @@
       <c r="T158" s="3"/>
       <c r="U158" s="5"/>
     </row>
-    <row r="159" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>157</v>
       </c>
@@ -7601,7 +7607,7 @@
       <c r="T159" s="3"/>
       <c r="U159" s="5"/>
     </row>
-    <row r="160" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>158</v>
       </c>
@@ -7633,7 +7639,7 @@
       <c r="T160" s="3"/>
       <c r="U160" s="5"/>
     </row>
-    <row r="161" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>159</v>
       </c>
@@ -7665,7 +7671,7 @@
       <c r="T161" s="3"/>
       <c r="U161" s="5"/>
     </row>
-    <row r="162" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>160</v>
       </c>
@@ -7697,7 +7703,7 @@
       <c r="T162" s="3"/>
       <c r="U162" s="5"/>
     </row>
-    <row r="163" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>161</v>
       </c>
@@ -7729,7 +7735,7 @@
       <c r="T163" s="3"/>
       <c r="U163" s="5"/>
     </row>
-    <row r="164" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>162</v>
       </c>
@@ -7761,7 +7767,7 @@
       <c r="T164" s="3"/>
       <c r="U164" s="5"/>
     </row>
-    <row r="165" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>163</v>
       </c>
@@ -7793,7 +7799,7 @@
       <c r="T165" s="3"/>
       <c r="U165" s="5"/>
     </row>
-    <row r="166" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -7825,7 +7831,7 @@
       <c r="T166" s="3"/>
       <c r="U166" s="5"/>
     </row>
-    <row r="167" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -7857,7 +7863,7 @@
       <c r="T167" s="3"/>
       <c r="U167" s="5"/>
     </row>
-    <row r="168" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>166</v>
       </c>
@@ -7889,7 +7895,7 @@
       <c r="T168" s="3"/>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -7921,7 +7927,7 @@
       <c r="T169" s="3"/>
       <c r="U169" s="5"/>
     </row>
-    <row r="170" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>168</v>
       </c>
@@ -7953,7 +7959,7 @@
       <c r="T170" s="3"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -7985,7 +7991,7 @@
       <c r="T171" s="3"/>
       <c r="U171" s="5"/>
     </row>
-    <row r="172" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>170</v>
       </c>
@@ -8017,7 +8023,7 @@
       <c r="T172" s="3"/>
       <c r="U172" s="5"/>
     </row>
-    <row r="173" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>171</v>
       </c>
@@ -8049,7 +8055,7 @@
       <c r="T173" s="3"/>
       <c r="U173" s="5"/>
     </row>
-    <row r="174" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>172</v>
       </c>
@@ -8081,7 +8087,7 @@
       <c r="T174" s="3"/>
       <c r="U174" s="5"/>
     </row>
-    <row r="175" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -8113,7 +8119,7 @@
       <c r="T175" s="3"/>
       <c r="U175" s="5"/>
     </row>
-    <row r="176" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>174</v>
       </c>
@@ -8145,7 +8151,7 @@
       <c r="T176" s="3"/>
       <c r="U176" s="5"/>
     </row>
-    <row r="177" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>175</v>
       </c>
@@ -8177,7 +8183,7 @@
       <c r="T177" s="3"/>
       <c r="U177" s="5"/>
     </row>
-    <row r="178" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>176</v>
       </c>
@@ -8209,7 +8215,7 @@
       <c r="T178" s="3"/>
       <c r="U178" s="5"/>
     </row>
-    <row r="179" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>177</v>
       </c>
@@ -8241,7 +8247,7 @@
       <c r="T179" s="3"/>
       <c r="U179" s="5"/>
     </row>
-    <row r="180" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>178</v>
       </c>
@@ -8273,7 +8279,7 @@
       <c r="T180" s="3"/>
       <c r="U180" s="5"/>
     </row>
-    <row r="181" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>179</v>
       </c>
@@ -8305,7 +8311,7 @@
       <c r="T181" s="3"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -8337,7 +8343,7 @@
       <c r="T182" s="3"/>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -8369,7 +8375,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="5"/>
     </row>
-    <row r="184" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -8401,7 +8407,7 @@
       <c r="T184" s="3"/>
       <c r="U184" s="5"/>
     </row>
-    <row r="185" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -8433,7 +8439,7 @@
       <c r="T185" s="3"/>
       <c r="U185" s="5"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -8465,7 +8471,7 @@
       <c r="T186" s="3"/>
       <c r="U186" s="5"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -8497,7 +8503,7 @@
       <c r="T187" s="3"/>
       <c r="U187" s="5"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>186</v>
       </c>
@@ -8529,7 +8535,7 @@
       <c r="T188" s="3"/>
       <c r="U188" s="5"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>187</v>
       </c>
@@ -8561,7 +8567,7 @@
       <c r="T189" s="3"/>
       <c r="U189" s="5"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -8593,7 +8599,7 @@
       <c r="T190" s="3"/>
       <c r="U190" s="5"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -8625,7 +8631,7 @@
       <c r="T191" s="3"/>
       <c r="U191" s="5"/>
     </row>
-    <row r="192" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -8657,7 +8663,7 @@
       <c r="T192" s="3"/>
       <c r="U192" s="5"/>
     </row>
-    <row r="193" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -8689,7 +8695,7 @@
       <c r="T193" s="3"/>
       <c r="U193" s="5"/>
     </row>
-    <row r="194" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -8721,7 +8727,7 @@
       <c r="T194" s="3"/>
       <c r="U194" s="5"/>
     </row>
-    <row r="195" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -8753,7 +8759,7 @@
       <c r="T195" s="3"/>
       <c r="U195" s="5"/>
     </row>
-    <row r="196" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -8785,7 +8791,7 @@
       <c r="T196" s="3"/>
       <c r="U196" s="5"/>
     </row>
-    <row r="197" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -8817,7 +8823,7 @@
       <c r="T197" s="3"/>
       <c r="U197" s="5"/>
     </row>
-    <row r="198" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -8849,7 +8855,7 @@
       <c r="T198" s="3"/>
       <c r="U198" s="5"/>
     </row>
-    <row r="199" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>197</v>
       </c>
@@ -8881,7 +8887,7 @@
       <c r="T199" s="3"/>
       <c r="U199" s="5"/>
     </row>
-    <row r="200" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>198</v>
       </c>
@@ -8913,7 +8919,7 @@
       <c r="T200" s="3"/>
       <c r="U200" s="5"/>
     </row>
-    <row r="201" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>199</v>
       </c>
@@ -8945,7 +8951,7 @@
       <c r="T201" s="3"/>
       <c r="U201" s="5"/>
     </row>
-    <row r="202" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>200</v>
       </c>
@@ -8977,7 +8983,7 @@
       <c r="T202" s="3"/>
       <c r="U202" s="5"/>
     </row>
-    <row r="203" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>201</v>
       </c>
@@ -9009,7 +9015,7 @@
       <c r="T203" s="3"/>
       <c r="U203" s="5"/>
     </row>
-    <row r="204" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>202</v>
       </c>
@@ -9041,7 +9047,7 @@
       <c r="T204" s="3"/>
       <c r="U204" s="5"/>
     </row>
-    <row r="205" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>203</v>
       </c>
@@ -9073,7 +9079,7 @@
       <c r="T205" s="3"/>
       <c r="U205" s="5"/>
     </row>
-    <row r="206" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>204</v>
       </c>
@@ -9105,7 +9111,7 @@
       <c r="T206" s="3"/>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>205</v>
       </c>
@@ -9137,7 +9143,7 @@
       <c r="T207" s="3"/>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>206</v>
       </c>
@@ -9169,7 +9175,7 @@
       <c r="T208" s="3"/>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -9201,7 +9207,7 @@
       <c r="T209" s="3"/>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>208</v>
       </c>
@@ -9233,7 +9239,7 @@
       <c r="T210" s="3"/>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>209</v>
       </c>
@@ -9265,7 +9271,7 @@
       <c r="T211" s="3"/>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>210</v>
       </c>
@@ -9297,7 +9303,7 @@
       <c r="T212" s="3"/>
       <c r="U212" s="5"/>
     </row>
-    <row r="213" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>211</v>
       </c>
@@ -9329,7 +9335,7 @@
       <c r="T213" s="3"/>
       <c r="U213" s="5"/>
     </row>
-    <row r="214" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -9361,7 +9367,7 @@
       <c r="T214" s="3"/>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -9393,7 +9399,7 @@
       <c r="T215" s="3"/>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -9425,7 +9431,7 @@
       <c r="T216" s="3"/>
       <c r="U216" s="5"/>
     </row>
-    <row r="217" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -9457,7 +9463,7 @@
       <c r="T217" s="3"/>
       <c r="U217" s="5"/>
     </row>
-    <row r="218" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -9489,7 +9495,7 @@
       <c r="T218" s="3"/>
       <c r="U218" s="5"/>
     </row>
-    <row r="219" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>217</v>
       </c>
@@ -9521,7 +9527,7 @@
       <c r="T219" s="3"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>218</v>
       </c>
@@ -9553,7 +9559,7 @@
       <c r="T220" s="3"/>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>219</v>
       </c>
@@ -9585,7 +9591,7 @@
       <c r="T221" s="3"/>
       <c r="U221" s="5"/>
     </row>
-    <row r="222" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>220</v>
       </c>
@@ -9617,7 +9623,7 @@
       <c r="T222" s="3"/>
       <c r="U222" s="5"/>
     </row>
-    <row r="223" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>221</v>
       </c>
@@ -9649,7 +9655,7 @@
       <c r="T223" s="3"/>
       <c r="U223" s="5"/>
     </row>
-    <row r="224" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>222</v>
       </c>
@@ -9681,7 +9687,7 @@
       <c r="T224" s="3"/>
       <c r="U224" s="5"/>
     </row>
-    <row r="225" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>223</v>
       </c>
@@ -9713,7 +9719,7 @@
       <c r="T225" s="3"/>
       <c r="U225" s="5"/>
     </row>
-    <row r="226" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>224</v>
       </c>
@@ -9745,7 +9751,7 @@
       <c r="T226" s="3"/>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>225</v>
       </c>
@@ -9777,7 +9783,7 @@
       <c r="T227" s="3"/>
       <c r="U227" s="5"/>
     </row>
-    <row r="228" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>226</v>
       </c>
@@ -9809,7 +9815,7 @@
       <c r="T228" s="3"/>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>227</v>
       </c>
@@ -9841,7 +9847,7 @@
       <c r="T229" s="3"/>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="12">
         <v>228</v>
       </c>
@@ -9873,7 +9879,7 @@
       <c r="T230" s="3"/>
       <c r="U230" s="5"/>
     </row>
-    <row r="231" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>229</v>
       </c>
@@ -9905,7 +9911,7 @@
       <c r="T231" s="3"/>
       <c r="U231" s="5"/>
     </row>
-    <row r="232" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>230</v>
       </c>
@@ -9937,7 +9943,7 @@
       <c r="T232" s="3"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -9969,7 +9975,7 @@
       <c r="T233" s="3"/>
       <c r="U233" s="5"/>
     </row>
-    <row r="234" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -10001,7 +10007,7 @@
       <c r="T234" s="3"/>
       <c r="U234" s="5"/>
     </row>
-    <row r="235" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -10033,7 +10039,7 @@
       <c r="T235" s="3"/>
       <c r="U235" s="5"/>
     </row>
-    <row r="236" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>234</v>
       </c>
@@ -10065,7 +10071,7 @@
       <c r="T236" s="3"/>
       <c r="U236" s="5"/>
     </row>
-    <row r="237" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>235</v>
       </c>
@@ -10097,7 +10103,7 @@
       <c r="T237" s="3"/>
       <c r="U237" s="5"/>
     </row>
-    <row r="238" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -10129,7 +10135,7 @@
       <c r="T238" s="3"/>
       <c r="U238" s="5"/>
     </row>
-    <row r="239" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -10161,7 +10167,7 @@
       <c r="T239" s="3"/>
       <c r="U239" s="5"/>
     </row>
-    <row r="240" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>238</v>
       </c>
@@ -10193,7 +10199,7 @@
       <c r="T240" s="3"/>
       <c r="U240" s="5"/>
     </row>
-    <row r="241" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -10225,7 +10231,7 @@
       <c r="T241" s="3"/>
       <c r="U241" s="5"/>
     </row>
-    <row r="242" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="12">
         <v>240</v>
       </c>
@@ -10257,7 +10263,7 @@
       <c r="T242" s="3"/>
       <c r="U242" s="5"/>
     </row>
-    <row r="243" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="12">
         <v>241</v>
       </c>
@@ -10289,7 +10295,7 @@
       <c r="T243" s="3"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="12">
         <v>242</v>
       </c>
@@ -10321,7 +10327,7 @@
       <c r="T244" s="3"/>
       <c r="U244" s="5"/>
     </row>
-    <row r="245" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="12">
         <v>243</v>
       </c>
@@ -10353,7 +10359,7 @@
       <c r="T245" s="3"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="12">
         <v>244</v>
       </c>
@@ -10385,7 +10391,7 @@
       <c r="T246" s="3"/>
       <c r="U246" s="5"/>
     </row>
-    <row r="247" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="12">
         <v>245</v>
       </c>
@@ -10417,7 +10423,7 @@
       <c r="T247" s="3"/>
       <c r="U247" s="5"/>
     </row>
-    <row r="248" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="12">
         <v>246</v>
       </c>
@@ -10449,7 +10455,7 @@
       <c r="T248" s="3"/>
       <c r="U248" s="5"/>
     </row>
-    <row r="249" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="12">
         <v>247</v>
       </c>
@@ -10481,7 +10487,7 @@
       <c r="T249" s="3"/>
       <c r="U249" s="5"/>
     </row>
-    <row r="250" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="12">
         <v>248</v>
       </c>
@@ -10513,7 +10519,7 @@
       <c r="T250" s="3"/>
       <c r="U250" s="5"/>
     </row>
-    <row r="251" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="12">
         <v>249</v>
       </c>
@@ -10545,7 +10551,7 @@
       <c r="T251" s="3"/>
       <c r="U251" s="5"/>
     </row>
-    <row r="252" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="12">
         <v>250</v>
       </c>
@@ -10577,7 +10583,7 @@
       <c r="T252" s="3"/>
       <c r="U252" s="5"/>
     </row>
-    <row r="253" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="12">
         <v>251</v>
       </c>
@@ -10609,7 +10615,7 @@
       <c r="T253" s="3"/>
       <c r="U253" s="5"/>
     </row>
-    <row r="254" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="12">
         <v>252</v>
       </c>
@@ -10641,7 +10647,7 @@
       <c r="T254" s="3"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="12">
         <v>253</v>
       </c>
@@ -10673,7 +10679,7 @@
       <c r="T255" s="3"/>
       <c r="U255" s="5"/>
     </row>
-    <row r="256" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="12">
         <v>254</v>
       </c>
@@ -10705,7 +10711,7 @@
       <c r="T256" s="3"/>
       <c r="U256" s="5"/>
     </row>
-    <row r="257" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="12">
         <v>255</v>
       </c>
@@ -10737,7 +10743,7 @@
       <c r="T257" s="3"/>
       <c r="U257" s="5"/>
     </row>
-    <row r="258" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="12">
         <v>256</v>
       </c>
@@ -10769,7 +10775,7 @@
       <c r="T258" s="3"/>
       <c r="U258" s="5"/>
     </row>
-    <row r="259" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="12">
         <v>257</v>
       </c>
@@ -10801,7 +10807,7 @@
       <c r="T259" s="3"/>
       <c r="U259" s="5"/>
     </row>
-    <row r="260" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="12">
         <v>258</v>
       </c>
@@ -10833,7 +10839,7 @@
       <c r="T260" s="3"/>
       <c r="U260" s="5"/>
     </row>
-    <row r="261" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="12">
         <v>259</v>
       </c>
@@ -10865,7 +10871,7 @@
       <c r="T261" s="3"/>
       <c r="U261" s="5"/>
     </row>
-    <row r="262" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="12">
         <v>260</v>
       </c>
@@ -10897,7 +10903,7 @@
       <c r="T262" s="3"/>
       <c r="U262" s="5"/>
     </row>
-    <row r="263" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="12">
         <v>261</v>
       </c>
@@ -10929,7 +10935,7 @@
       <c r="T263" s="3"/>
       <c r="U263" s="5"/>
     </row>
-    <row r="264" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="12">
         <v>262</v>
       </c>
@@ -10961,7 +10967,7 @@
       <c r="T264" s="3"/>
       <c r="U264" s="5"/>
     </row>
-    <row r="265" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="12">
         <v>263</v>
       </c>
@@ -10993,7 +10999,7 @@
       <c r="T265" s="3"/>
       <c r="U265" s="5"/>
     </row>
-    <row r="266" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="12">
         <v>264</v>
       </c>
@@ -11025,7 +11031,7 @@
       <c r="T266" s="3"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="12">
         <v>265</v>
       </c>
@@ -11057,7 +11063,7 @@
       <c r="T267" s="3"/>
       <c r="U267" s="5"/>
     </row>
-    <row r="268" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="12">
         <v>266</v>
       </c>
@@ -11089,7 +11095,7 @@
       <c r="T268" s="3"/>
       <c r="U268" s="5"/>
     </row>
-    <row r="269" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="12">
         <v>267</v>
       </c>
@@ -11121,7 +11127,7 @@
       <c r="T269" s="3"/>
       <c r="U269" s="5"/>
     </row>
-    <row r="270" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="12">
         <v>268</v>
       </c>
@@ -11153,7 +11159,7 @@
       <c r="T270" s="3"/>
       <c r="U270" s="5"/>
     </row>
-    <row r="271" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="12">
         <v>269</v>
       </c>
@@ -11185,7 +11191,7 @@
       <c r="T271" s="3"/>
       <c r="U271" s="5"/>
     </row>
-    <row r="272" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="12">
         <v>270</v>
       </c>
@@ -11217,7 +11223,7 @@
       <c r="T272" s="3"/>
       <c r="U272" s="5"/>
     </row>
-    <row r="273" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="12">
         <v>271</v>
       </c>
@@ -11249,7 +11255,7 @@
       <c r="T273" s="3"/>
       <c r="U273" s="5"/>
     </row>
-    <row r="274" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="12">
         <v>272</v>
       </c>
@@ -11281,7 +11287,7 @@
       <c r="T274" s="3"/>
       <c r="U274" s="5"/>
     </row>
-    <row r="275" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="12">
         <v>273</v>
       </c>
@@ -11313,7 +11319,7 @@
       <c r="T275" s="3"/>
       <c r="U275" s="5"/>
     </row>
-    <row r="276" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="12">
         <v>274</v>
       </c>
@@ -11345,7 +11351,7 @@
       <c r="T276" s="3"/>
       <c r="U276" s="5"/>
     </row>
-    <row r="277" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="12">
         <v>275</v>
       </c>
@@ -11377,7 +11383,7 @@
       <c r="T277" s="3"/>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="12">
         <v>276</v>
       </c>
@@ -11409,7 +11415,7 @@
       <c r="T278" s="3"/>
       <c r="U278" s="5"/>
     </row>
-    <row r="279" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="12">
         <v>277</v>
       </c>
@@ -11441,7 +11447,7 @@
       <c r="T279" s="3"/>
       <c r="U279" s="5"/>
     </row>
-    <row r="280" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="12">
         <v>278</v>
       </c>
@@ -11473,7 +11479,7 @@
       <c r="T280" s="3"/>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="12">
         <v>279</v>
       </c>
@@ -11505,7 +11511,7 @@
       <c r="T281" s="3"/>
       <c r="U281" s="5"/>
     </row>
-    <row r="282" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="12">
         <v>280</v>
       </c>
@@ -11537,7 +11543,7 @@
       <c r="T282" s="3"/>
       <c r="U282" s="5"/>
     </row>
-    <row r="283" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="12">
         <v>281</v>
       </c>
@@ -11569,7 +11575,7 @@
       <c r="T283" s="3"/>
       <c r="U283" s="5"/>
     </row>
-    <row r="284" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="12">
         <v>282</v>
       </c>
@@ -11601,7 +11607,7 @@
       <c r="T284" s="3"/>
       <c r="U284" s="5"/>
     </row>
-    <row r="285" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="12">
         <v>283</v>
       </c>
@@ -11633,7 +11639,7 @@
       <c r="T285" s="3"/>
       <c r="U285" s="5"/>
     </row>
-    <row r="286" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="12">
         <v>284</v>
       </c>
@@ -11665,7 +11671,7 @@
       <c r="T286" s="3"/>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="12">
         <v>285</v>
       </c>
@@ -11697,7 +11703,7 @@
       <c r="T287" s="3"/>
       <c r="U287" s="5"/>
     </row>
-    <row r="288" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="12">
         <v>286</v>
       </c>
@@ -11729,7 +11735,7 @@
       <c r="T288" s="3"/>
       <c r="U288" s="5"/>
     </row>
-    <row r="289" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="12">
         <v>287</v>
       </c>
@@ -11761,7 +11767,7 @@
       <c r="T289" s="3"/>
       <c r="U289" s="5"/>
     </row>
-    <row r="290" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="12">
         <v>288</v>
       </c>
@@ -11793,7 +11799,7 @@
       <c r="T290" s="3"/>
       <c r="U290" s="5"/>
     </row>
-    <row r="291" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="12">
         <v>289</v>
       </c>
@@ -11825,7 +11831,7 @@
       <c r="T291" s="3"/>
       <c r="U291" s="5"/>
     </row>
-    <row r="292" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="12">
         <v>290</v>
       </c>
@@ -11857,7 +11863,7 @@
       <c r="T292" s="3"/>
       <c r="U292" s="5"/>
     </row>
-    <row r="293" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="12">
         <v>291</v>
       </c>
@@ -11889,7 +11895,7 @@
       <c r="T293" s="3"/>
       <c r="U293" s="5"/>
     </row>
-    <row r="294" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="12">
         <v>292</v>
       </c>
@@ -11921,7 +11927,7 @@
       <c r="T294" s="3"/>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="12">
         <v>293</v>
       </c>
@@ -11953,7 +11959,7 @@
       <c r="T295" s="3"/>
       <c r="U295" s="5"/>
     </row>
-    <row r="296" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="12">
         <v>294</v>
       </c>
@@ -11985,7 +11991,7 @@
       <c r="T296" s="3"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="12">
         <v>295</v>
       </c>
@@ -12017,7 +12023,7 @@
       <c r="T297" s="3"/>
       <c r="U297" s="5"/>
     </row>
-    <row r="298" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="12">
         <v>296</v>
       </c>
@@ -12049,7 +12055,7 @@
       <c r="T298" s="3"/>
       <c r="U298" s="5"/>
     </row>
-    <row r="299" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="12">
         <v>297</v>
       </c>
@@ -12081,7 +12087,7 @@
       <c r="T299" s="3"/>
       <c r="U299" s="5"/>
     </row>
-    <row r="300" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="12">
         <v>298</v>
       </c>
@@ -12113,7 +12119,7 @@
       <c r="T300" s="3"/>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="12">
         <v>299</v>
       </c>
@@ -12145,7 +12151,7 @@
       <c r="T301" s="3"/>
       <c r="U301" s="5"/>
     </row>
-    <row r="302" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="12">
         <v>300</v>
       </c>
@@ -12177,7 +12183,7 @@
       <c r="T302" s="3"/>
       <c r="U302" s="5"/>
     </row>
-    <row r="303" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="12">
         <v>301</v>
       </c>
@@ -12209,7 +12215,7 @@
       <c r="T303" s="3"/>
       <c r="U303" s="5"/>
     </row>
-    <row r="304" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="12">
         <v>302</v>
       </c>
@@ -12241,7 +12247,7 @@
       <c r="T304" s="3"/>
       <c r="U304" s="5"/>
     </row>
-    <row r="305" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="12">
         <v>303</v>
       </c>
@@ -12273,7 +12279,7 @@
       <c r="T305" s="3"/>
       <c r="U305" s="5"/>
     </row>
-    <row r="306" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="12">
         <v>304</v>
       </c>
@@ -12305,7 +12311,7 @@
       <c r="T306" s="3"/>
       <c r="U306" s="5"/>
     </row>
-    <row r="307" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="12">
         <v>305</v>
       </c>
@@ -12337,7 +12343,7 @@
       <c r="T307" s="3"/>
       <c r="U307" s="5"/>
     </row>
-    <row r="308" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="12">
         <v>306</v>
       </c>
@@ -12369,7 +12375,7 @@
       <c r="T308" s="3"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="12">
         <v>307</v>
       </c>
@@ -12401,7 +12407,7 @@
       <c r="T309" s="3"/>
       <c r="U309" s="5"/>
     </row>
-    <row r="310" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="12">
         <v>308</v>
       </c>
@@ -12433,7 +12439,7 @@
       <c r="T310" s="3"/>
       <c r="U310" s="5"/>
     </row>
-    <row r="311" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="12">
         <v>309</v>
       </c>
@@ -12465,7 +12471,7 @@
       <c r="T311" s="3"/>
       <c r="U311" s="5"/>
     </row>
-    <row r="312" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="12">
         <v>310</v>
       </c>
@@ -12497,7 +12503,7 @@
       <c r="T312" s="3"/>
       <c r="U312" s="5"/>
     </row>
-    <row r="313" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="12">
         <v>311</v>
       </c>
@@ -12529,7 +12535,7 @@
       <c r="T313" s="3"/>
       <c r="U313" s="5"/>
     </row>
-    <row r="314" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="12">
         <v>312</v>
       </c>
@@ -12561,7 +12567,7 @@
       <c r="T314" s="3"/>
       <c r="U314" s="5"/>
     </row>
-    <row r="315" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="12">
         <v>313</v>
       </c>
@@ -12593,7 +12599,7 @@
       <c r="T315" s="3"/>
       <c r="U315" s="5"/>
     </row>
-    <row r="316" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="12">
         <v>314</v>
       </c>
@@ -12625,7 +12631,7 @@
       <c r="T316" s="3"/>
       <c r="U316" s="5"/>
     </row>
-    <row r="317" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="12">
         <v>315</v>
       </c>
@@ -12657,7 +12663,7 @@
       <c r="T317" s="3"/>
       <c r="U317" s="5"/>
     </row>
-    <row r="318" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="12">
         <v>316</v>
       </c>
@@ -12689,7 +12695,7 @@
       <c r="T318" s="3"/>
       <c r="U318" s="5"/>
     </row>
-    <row r="319" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="12">
         <v>317</v>
       </c>
@@ -12721,7 +12727,7 @@
       <c r="T319" s="3"/>
       <c r="U319" s="5"/>
     </row>
-    <row r="320" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="12">
         <v>318</v>
       </c>
@@ -12753,7 +12759,7 @@
       <c r="T320" s="3"/>
       <c r="U320" s="5"/>
     </row>
-    <row r="321" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="12">
         <v>319</v>
       </c>
@@ -12785,7 +12791,7 @@
       <c r="T321" s="3"/>
       <c r="U321" s="5"/>
     </row>
-    <row r="322" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="12">
         <v>320</v>
       </c>
@@ -12817,7 +12823,7 @@
       <c r="T322" s="3"/>
       <c r="U322" s="5"/>
     </row>
-    <row r="323" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="12">
         <v>321</v>
       </c>
@@ -12849,7 +12855,7 @@
       <c r="T323" s="3"/>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="12">
         <v>322</v>
       </c>
@@ -12881,7 +12887,7 @@
       <c r="T324" s="3"/>
       <c r="U324" s="5"/>
     </row>
-    <row r="325" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="12">
         <v>323</v>
       </c>
@@ -12913,7 +12919,7 @@
       <c r="T325" s="3"/>
       <c r="U325" s="5"/>
     </row>
-    <row r="326" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="12">
         <v>324</v>
       </c>
@@ -12945,7 +12951,7 @@
       <c r="T326" s="3"/>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="12">
         <v>325</v>
       </c>
@@ -12977,7 +12983,7 @@
       <c r="T327" s="3"/>
       <c r="U327" s="5"/>
     </row>
-    <row r="328" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="12">
         <v>326</v>
       </c>
@@ -13009,7 +13015,7 @@
       <c r="T328" s="3"/>
       <c r="U328" s="5"/>
     </row>
-    <row r="329" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="12">
         <v>327</v>
       </c>
@@ -13041,7 +13047,7 @@
       <c r="T329" s="3"/>
       <c r="U329" s="5"/>
     </row>
-    <row r="330" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="12">
         <v>328</v>
       </c>
@@ -13073,7 +13079,7 @@
       <c r="T330" s="3"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="12">
         <v>329</v>
       </c>
@@ -13105,7 +13111,7 @@
       <c r="T331" s="3"/>
       <c r="U331" s="5"/>
     </row>
-    <row r="332" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="12">
         <v>330</v>
       </c>
@@ -13137,7 +13143,7 @@
       <c r="T332" s="3"/>
       <c r="U332" s="5"/>
     </row>
-    <row r="333" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="12">
         <v>331</v>
       </c>
@@ -13169,7 +13175,7 @@
       <c r="T333" s="3"/>
       <c r="U333" s="5"/>
     </row>
-    <row r="334" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="12">
         <v>332</v>
       </c>
@@ -13201,7 +13207,7 @@
       <c r="T334" s="3"/>
       <c r="U334" s="5"/>
     </row>
-    <row r="335" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="12">
         <v>333</v>
       </c>
@@ -13233,7 +13239,7 @@
       <c r="T335" s="3"/>
       <c r="U335" s="5"/>
     </row>
-    <row r="336" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="12">
         <v>334</v>
       </c>
@@ -13265,7 +13271,7 @@
       <c r="T336" s="3"/>
       <c r="U336" s="5"/>
     </row>
-    <row r="337" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="12">
         <v>335</v>
       </c>
@@ -13297,7 +13303,7 @@
       <c r="T337" s="3"/>
       <c r="U337" s="5"/>
     </row>
-    <row r="338" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="12">
         <v>336</v>
       </c>
@@ -13329,7 +13335,7 @@
       <c r="T338" s="3"/>
       <c r="U338" s="5"/>
     </row>
-    <row r="339" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="12">
         <v>337</v>
       </c>
@@ -13361,7 +13367,7 @@
       <c r="T339" s="3"/>
       <c r="U339" s="5"/>
     </row>
-    <row r="340" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="12">
         <v>338</v>
       </c>
@@ -13393,7 +13399,7 @@
       <c r="T340" s="3"/>
       <c r="U340" s="5"/>
     </row>
-    <row r="341" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="12">
         <v>339</v>
       </c>
@@ -13425,7 +13431,7 @@
       <c r="T341" s="3"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="12">
         <v>340</v>
       </c>
@@ -13457,7 +13463,7 @@
       <c r="T342" s="3"/>
       <c r="U342" s="5"/>
     </row>
-    <row r="343" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="12">
         <v>341</v>
       </c>
@@ -13489,7 +13495,7 @@
       <c r="T343" s="3"/>
       <c r="U343" s="5"/>
     </row>
-    <row r="344" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="12">
         <v>342</v>
       </c>
@@ -13521,7 +13527,7 @@
       <c r="T344" s="3"/>
       <c r="U344" s="5"/>
     </row>
-    <row r="345" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="12">
         <v>343</v>
       </c>
@@ -13553,7 +13559,7 @@
       <c r="T345" s="3"/>
       <c r="U345" s="5"/>
     </row>
-    <row r="346" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="12">
         <v>344</v>
       </c>
@@ -13585,7 +13591,7 @@
       <c r="T346" s="3"/>
       <c r="U346" s="5"/>
     </row>
-    <row r="347" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="12">
         <v>345</v>
       </c>
@@ -13617,7 +13623,7 @@
       <c r="T347" s="3"/>
       <c r="U347" s="5"/>
     </row>
-    <row r="348" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="12">
         <v>346</v>
       </c>
@@ -13649,7 +13655,7 @@
       <c r="T348" s="3"/>
       <c r="U348" s="5"/>
     </row>
-    <row r="349" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="12">
         <v>347</v>
       </c>
@@ -13681,7 +13687,7 @@
       <c r="T349" s="3"/>
       <c r="U349" s="5"/>
     </row>
-    <row r="350" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="12">
         <v>348</v>
       </c>
@@ -13713,7 +13719,7 @@
       <c r="T350" s="3"/>
       <c r="U350" s="5"/>
     </row>
-    <row r="351" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="12">
         <v>349</v>
       </c>
@@ -13745,7 +13751,7 @@
       <c r="T351" s="3"/>
       <c r="U351" s="5"/>
     </row>
-    <row r="352" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="12">
         <v>350</v>
       </c>
@@ -13777,7 +13783,7 @@
       <c r="T352" s="3"/>
       <c r="U352" s="5"/>
     </row>
-    <row r="353" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="12">
         <v>351</v>
       </c>
@@ -13809,7 +13815,7 @@
       <c r="T353" s="3"/>
       <c r="U353" s="5"/>
     </row>
-    <row r="354" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="12">
         <v>352</v>
       </c>
@@ -13841,7 +13847,7 @@
       <c r="T354" s="3"/>
       <c r="U354" s="5"/>
     </row>
-    <row r="355" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="12">
         <v>353</v>
       </c>
@@ -13873,7 +13879,7 @@
       <c r="T355" s="3"/>
       <c r="U355" s="5"/>
     </row>
-    <row r="356" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="12">
         <v>354</v>
       </c>
@@ -13905,7 +13911,7 @@
       <c r="T356" s="3"/>
       <c r="U356" s="5"/>
     </row>
-    <row r="357" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="12">
         <v>355</v>
       </c>
@@ -13937,7 +13943,7 @@
       <c r="T357" s="3"/>
       <c r="U357" s="5"/>
     </row>
-    <row r="358" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="12">
         <v>356</v>
       </c>
@@ -13969,7 +13975,7 @@
       <c r="T358" s="3"/>
       <c r="U358" s="5"/>
     </row>
-    <row r="359" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="12">
         <v>357</v>
       </c>
@@ -14001,7 +14007,7 @@
       <c r="T359" s="3"/>
       <c r="U359" s="5"/>
     </row>
-    <row r="360" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="12">
         <v>358</v>
       </c>
@@ -14033,7 +14039,7 @@
       <c r="T360" s="3"/>
       <c r="U360" s="5"/>
     </row>
-    <row r="361" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="12">
         <v>359</v>
       </c>
@@ -14065,7 +14071,7 @@
       <c r="T361" s="3"/>
       <c r="U361" s="5"/>
     </row>
-    <row r="362" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="12">
         <v>360</v>
       </c>
@@ -14097,7 +14103,7 @@
       <c r="T362" s="3"/>
       <c r="U362" s="5"/>
     </row>
-    <row r="363" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="12">
         <v>361</v>
       </c>
@@ -14129,7 +14135,7 @@
       <c r="T363" s="3"/>
       <c r="U363" s="5"/>
     </row>
-    <row r="364" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="12">
         <v>362</v>
       </c>
@@ -14161,7 +14167,7 @@
       <c r="T364" s="3"/>
       <c r="U364" s="5"/>
     </row>
-    <row r="365" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="12">
         <v>363</v>
       </c>
@@ -14193,7 +14199,7 @@
       <c r="T365" s="3"/>
       <c r="U365" s="5"/>
     </row>
-    <row r="366" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="12">
         <v>364</v>
       </c>
@@ -14225,7 +14231,7 @@
       <c r="T366" s="3"/>
       <c r="U366" s="5"/>
     </row>
-    <row r="367" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="12">
         <v>365</v>
       </c>
@@ -14257,7 +14263,7 @@
       <c r="T367" s="3"/>
       <c r="U367" s="5"/>
     </row>
-    <row r="368" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="12">
         <v>366</v>
       </c>
@@ -14289,7 +14295,7 @@
       <c r="T368" s="3"/>
       <c r="U368" s="5"/>
     </row>
-    <row r="369" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="12">
         <v>367</v>
       </c>
@@ -14321,7 +14327,7 @@
       <c r="T369" s="3"/>
       <c r="U369" s="5"/>
     </row>
-    <row r="370" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="12">
         <v>368</v>
       </c>
@@ -14353,7 +14359,7 @@
       <c r="T370" s="3"/>
       <c r="U370" s="5"/>
     </row>
-    <row r="371" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="12">
         <v>369</v>
       </c>
@@ -14385,7 +14391,7 @@
       <c r="T371" s="3"/>
       <c r="U371" s="5"/>
     </row>
-    <row r="372" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="12">
         <v>370</v>
       </c>
@@ -14417,7 +14423,7 @@
       <c r="T372" s="3"/>
       <c r="U372" s="5"/>
     </row>
-    <row r="373" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="12">
         <v>371</v>
       </c>
@@ -14449,7 +14455,7 @@
       <c r="T373" s="3"/>
       <c r="U373" s="5"/>
     </row>
-    <row r="374" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="12">
         <v>372</v>
       </c>
@@ -14481,7 +14487,7 @@
       <c r="T374" s="3"/>
       <c r="U374" s="5"/>
     </row>
-    <row r="375" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="12">
         <v>373</v>
       </c>
@@ -14513,7 +14519,7 @@
       <c r="T375" s="3"/>
       <c r="U375" s="5"/>
     </row>
-    <row r="376" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="12">
         <v>374</v>
       </c>
@@ -14545,7 +14551,7 @@
       <c r="T376" s="3"/>
       <c r="U376" s="5"/>
     </row>
-    <row r="377" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="12">
         <v>375</v>
       </c>
@@ -14577,7 +14583,7 @@
       <c r="T377" s="3"/>
       <c r="U377" s="5"/>
     </row>
-    <row r="378" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="12">
         <v>376</v>
       </c>
@@ -14609,7 +14615,7 @@
       <c r="T378" s="3"/>
       <c r="U378" s="5"/>
     </row>
-    <row r="379" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="12">
         <v>377</v>
       </c>
@@ -14641,7 +14647,7 @@
       <c r="T379" s="3"/>
       <c r="U379" s="5"/>
     </row>
-    <row r="380" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="12">
         <v>378</v>
       </c>
@@ -14673,7 +14679,7 @@
       <c r="T380" s="3"/>
       <c r="U380" s="5"/>
     </row>
-    <row r="381" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="12">
         <v>379</v>
       </c>
@@ -14707,7 +14713,7 @@
       <c r="T381" s="3"/>
       <c r="U381" s="5"/>
     </row>
-    <row r="382" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="12">
         <v>380</v>
       </c>
@@ -14739,7 +14745,7 @@
       <c r="T382" s="3"/>
       <c r="U382" s="5"/>
     </row>
-    <row r="383" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="12">
         <v>381</v>
       </c>
@@ -14771,7 +14777,7 @@
       <c r="T383" s="3"/>
       <c r="U383" s="5"/>
     </row>
-    <row r="384" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="12">
         <v>382</v>
       </c>
@@ -14803,7 +14809,7 @@
       <c r="T384" s="3"/>
       <c r="U384" s="5"/>
     </row>
-    <row r="385" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12">
         <v>383</v>
       </c>
@@ -14837,7 +14843,7 @@
       <c r="T385" s="3"/>
       <c r="U385" s="5"/>
     </row>
-    <row r="386" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="12">
         <v>384</v>
       </c>
@@ -14869,7 +14875,7 @@
       <c r="T386" s="3"/>
       <c r="U386" s="5"/>
     </row>
-    <row r="387" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12">
         <v>385</v>
       </c>
@@ -14901,7 +14907,7 @@
       <c r="T387" s="3"/>
       <c r="U387" s="5"/>
     </row>
-    <row r="388" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12">
         <v>386</v>
       </c>
@@ -14935,7 +14941,7 @@
       <c r="T388" s="3"/>
       <c r="U388" s="5"/>
     </row>
-    <row r="389" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="12">
         <v>387</v>
       </c>
@@ -14967,7 +14973,7 @@
       <c r="T389" s="3"/>
       <c r="U389" s="5"/>
     </row>
-    <row r="390" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="12">
         <v>388</v>
       </c>
@@ -14999,7 +15005,7 @@
       <c r="T390" s="3"/>
       <c r="U390" s="5"/>
     </row>
-    <row r="391" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="12">
         <v>389</v>
       </c>
@@ -15031,7 +15037,7 @@
       <c r="T391" s="3"/>
       <c r="U391" s="5"/>
     </row>
-    <row r="392" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="12">
         <v>390</v>
       </c>
@@ -15063,7 +15069,7 @@
       <c r="T392" s="3"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="12">
         <v>391</v>
       </c>
@@ -15095,7 +15101,7 @@
       <c r="T393" s="3"/>
       <c r="U393" s="5"/>
     </row>
-    <row r="394" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="12">
         <v>392</v>
       </c>
@@ -15127,7 +15133,7 @@
       <c r="T394" s="3"/>
       <c r="U394" s="5"/>
     </row>
-    <row r="395" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="12">
         <v>393</v>
       </c>
@@ -15159,7 +15165,7 @@
       <c r="T395" s="3"/>
       <c r="U395" s="5"/>
     </row>
-    <row r="396" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12">
         <v>394</v>
       </c>
@@ -15191,7 +15197,7 @@
       <c r="T396" s="3"/>
       <c r="U396" s="5"/>
     </row>
-    <row r="397" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="12">
         <v>395</v>
       </c>
@@ -15225,7 +15231,7 @@
       <c r="T397" s="3"/>
       <c r="U397" s="5"/>
     </row>
-    <row r="398" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="12">
         <v>396</v>
       </c>
@@ -15257,7 +15263,7 @@
       <c r="T398" s="3"/>
       <c r="U398" s="5"/>
     </row>
-    <row r="399" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="12">
         <v>397</v>
       </c>
@@ -15289,7 +15295,7 @@
       <c r="T399" s="3"/>
       <c r="U399" s="5"/>
     </row>
-    <row r="400" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="12">
         <v>398</v>
       </c>
@@ -15321,7 +15327,7 @@
       <c r="T400" s="3"/>
       <c r="U400" s="5"/>
     </row>
-    <row r="401" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="12">
         <v>399</v>
       </c>
@@ -15347,7 +15353,9 @@
       <c r="L401" s="3"/>
       <c r="M401" s="3"/>
       <c r="N401" s="3"/>
-      <c r="O401" s="3"/>
+      <c r="O401" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="P401" s="3"/>
       <c r="Q401" s="3"/>
       <c r="R401" s="3"/>
@@ -15355,7 +15363,7 @@
       <c r="T401" s="3"/>
       <c r="U401" s="5"/>
     </row>
-    <row r="402" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="12">
         <v>400</v>
       </c>
@@ -15389,7 +15397,7 @@
       <c r="T402" s="3"/>
       <c r="U402" s="5"/>
     </row>
-    <row r="403" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="12">
         <v>401</v>
       </c>
@@ -15421,7 +15429,7 @@
       <c r="T403" s="3"/>
       <c r="U403" s="5"/>
     </row>
-    <row r="404" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="12">
         <v>402</v>
       </c>
@@ -15455,7 +15463,7 @@
       <c r="T404" s="3"/>
       <c r="U404" s="5"/>
     </row>
-    <row r="405" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="12">
         <v>403</v>
       </c>
@@ -15487,7 +15495,7 @@
       <c r="T405" s="3"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="12">
         <v>404</v>
       </c>
@@ -15519,7 +15527,7 @@
       <c r="T406" s="3"/>
       <c r="U406" s="5"/>
     </row>
-    <row r="407" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="12">
         <v>405</v>
       </c>
@@ -15551,7 +15559,7 @@
       <c r="T407" s="3"/>
       <c r="U407" s="5"/>
     </row>
-    <row r="408" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="12">
         <v>406</v>
       </c>
@@ -15583,7 +15591,7 @@
       <c r="T408" s="3"/>
       <c r="U408" s="5"/>
     </row>
-    <row r="409" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="12">
         <v>407</v>
       </c>
@@ -15615,7 +15623,7 @@
       <c r="T409" s="3"/>
       <c r="U409" s="5"/>
     </row>
-    <row r="410" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="12">
         <v>408</v>
       </c>
@@ -15649,7 +15657,7 @@
       <c r="T410" s="3"/>
       <c r="U410" s="5"/>
     </row>
-    <row r="411" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="12">
         <v>409</v>
       </c>
@@ -15683,7 +15691,7 @@
       <c r="T411" s="3"/>
       <c r="U411" s="5"/>
     </row>
-    <row r="412" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="12">
         <v>410</v>
       </c>
@@ -15717,7 +15725,7 @@
       <c r="T412" s="3"/>
       <c r="U412" s="5"/>
     </row>
-    <row r="413" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="12">
         <v>411</v>
       </c>
@@ -15751,7 +15759,7 @@
       <c r="T413" s="3"/>
       <c r="U413" s="5"/>
     </row>
-    <row r="414" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="12">
         <v>412</v>
       </c>
@@ -15785,7 +15793,7 @@
       <c r="T414" s="3"/>
       <c r="U414" s="5"/>
     </row>
-    <row r="415" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="12">
         <v>413</v>
       </c>
@@ -15821,7 +15829,7 @@
       <c r="T415" s="3"/>
       <c r="U415" s="5"/>
     </row>
-    <row r="416" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="12">
         <v>414</v>
       </c>
@@ -15853,7 +15861,7 @@
       <c r="T416" s="3"/>
       <c r="U416" s="5"/>
     </row>
-    <row r="417" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="12">
         <v>415</v>
       </c>
@@ -15885,7 +15893,7 @@
       <c r="T417" s="3"/>
       <c r="U417" s="5"/>
     </row>
-    <row r="418" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12">
         <v>416</v>
       </c>
@@ -15923,7 +15931,7 @@
       <c r="T418" s="3"/>
       <c r="U418" s="5"/>
     </row>
-    <row r="419" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12">
         <v>417</v>
       </c>
@@ -15961,7 +15969,7 @@
       <c r="T419" s="3"/>
       <c r="U419" s="5"/>
     </row>
-    <row r="420" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12">
         <v>418</v>
       </c>
@@ -15999,7 +16007,7 @@
       <c r="T420" s="3"/>
       <c r="U420" s="5"/>
     </row>
-    <row r="421" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12">
         <v>419</v>
       </c>
@@ -16037,7 +16045,7 @@
       <c r="T421" s="3"/>
       <c r="U421" s="5"/>
     </row>
-    <row r="422" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12">
         <v>420</v>
       </c>
@@ -16075,7 +16083,7 @@
       <c r="T422" s="3"/>
       <c r="U422" s="5"/>
     </row>
-    <row r="423" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12">
         <v>421</v>
       </c>
@@ -16113,7 +16121,7 @@
       <c r="T423" s="3"/>
       <c r="U423" s="5"/>
     </row>
-    <row r="424" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12">
         <v>422</v>
       </c>
@@ -16153,7 +16161,7 @@
       <c r="T424" s="3"/>
       <c r="U424" s="5"/>
     </row>
-    <row r="425" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12">
         <v>423</v>
       </c>
@@ -16191,7 +16199,7 @@
       <c r="T425" s="3"/>
       <c r="U425" s="5"/>
     </row>
-    <row r="426" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12">
         <v>424</v>
       </c>
@@ -16231,7 +16239,7 @@
       <c r="T426" s="3"/>
       <c r="U426" s="5"/>
     </row>
-    <row r="427" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12">
         <v>425</v>
       </c>
@@ -16269,7 +16277,7 @@
       <c r="T427" s="3"/>
       <c r="U427" s="5"/>
     </row>
-    <row r="428" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12">
         <v>426</v>
       </c>
@@ -16307,7 +16315,7 @@
       <c r="T428" s="3"/>
       <c r="U428" s="5"/>
     </row>
-    <row r="429" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12">
         <v>427</v>
       </c>
@@ -16347,7 +16355,7 @@
       <c r="T429" s="3"/>
       <c r="U429" s="5"/>
     </row>
-    <row r="430" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12">
         <v>428</v>
       </c>
@@ -16387,7 +16395,7 @@
       <c r="T430" s="3"/>
       <c r="U430" s="5"/>
     </row>
-    <row r="431" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12">
         <v>429</v>
       </c>
@@ -16425,7 +16433,7 @@
       <c r="T431" s="3"/>
       <c r="U431" s="5"/>
     </row>
-    <row r="432" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="12">
         <v>430</v>
       </c>
@@ -16465,7 +16473,7 @@
       <c r="T432" s="3"/>
       <c r="U432" s="5"/>
     </row>
-    <row r="433" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="12">
         <v>431</v>
       </c>
@@ -16503,7 +16511,7 @@
       <c r="T433" s="3"/>
       <c r="U433" s="5"/>
     </row>
-    <row r="434" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="12">
         <v>432</v>
       </c>
@@ -16543,7 +16551,7 @@
       <c r="T434" s="3"/>
       <c r="U434" s="5"/>
     </row>
-    <row r="435" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="12">
         <v>433</v>
       </c>
@@ -16583,7 +16591,7 @@
       <c r="T435" s="3"/>
       <c r="U435" s="5"/>
     </row>
-    <row r="436" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="12">
         <v>434</v>
       </c>
@@ -16619,7 +16627,7 @@
       <c r="T436" s="3"/>
       <c r="U436" s="5"/>
     </row>
-    <row r="437" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="12">
         <v>435</v>
       </c>
@@ -16655,7 +16663,7 @@
       <c r="T437" s="3"/>
       <c r="U437" s="5"/>
     </row>
-    <row r="438" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="12">
         <v>436</v>
       </c>
@@ -16691,7 +16699,7 @@
       <c r="T438" s="3"/>
       <c r="U438" s="5"/>
     </row>
-    <row r="439" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="12">
         <v>437</v>
       </c>
@@ -16727,7 +16735,7 @@
       <c r="T439" s="3"/>
       <c r="U439" s="5"/>
     </row>
-    <row r="440" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="12">
         <v>438</v>
       </c>
@@ -16763,7 +16771,7 @@
       <c r="T440" s="3"/>
       <c r="U440" s="5"/>
     </row>
-    <row r="441" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="12">
         <v>439</v>
       </c>
@@ -16799,7 +16807,7 @@
       <c r="T441" s="3"/>
       <c r="U441" s="5"/>
     </row>
-    <row r="442" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="12">
         <v>440</v>
       </c>
@@ -16833,7 +16841,7 @@
       <c r="T442" s="3"/>
       <c r="U442" s="5"/>
     </row>
-    <row r="443" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="12">
         <v>441</v>
       </c>
@@ -16867,7 +16875,7 @@
       <c r="T443" s="3"/>
       <c r="U443" s="5"/>
     </row>
-    <row r="444" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="12">
         <v>442</v>
       </c>
@@ -16903,7 +16911,7 @@
       <c r="T444" s="3"/>
       <c r="U444" s="5"/>
     </row>
-    <row r="445" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="12">
         <v>443</v>
       </c>
@@ -16935,7 +16943,7 @@
       <c r="T445" s="3"/>
       <c r="U445" s="5"/>
     </row>
-    <row r="446" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="12">
         <v>444</v>
       </c>
@@ -16969,7 +16977,7 @@
       <c r="T446" s="3"/>
       <c r="U446" s="5"/>
     </row>
-    <row r="447" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="12">
         <v>445</v>
       </c>
@@ -17005,7 +17013,7 @@
       <c r="T447" s="3"/>
       <c r="U447" s="5"/>
     </row>
-    <row r="448" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="12">
         <v>446</v>
       </c>
@@ -17041,7 +17049,7 @@
       <c r="T448" s="3"/>
       <c r="U448" s="5"/>
     </row>
-    <row r="449" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="12">
         <v>447</v>
       </c>
@@ -17075,7 +17083,7 @@
       <c r="T449" s="3"/>
       <c r="U449" s="5"/>
     </row>
-    <row r="450" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="12">
         <v>448</v>
       </c>
@@ -17111,7 +17119,7 @@
       <c r="T450" s="3"/>
       <c r="U450" s="5"/>
     </row>
-    <row r="451" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="12">
         <v>449</v>
       </c>
@@ -17147,7 +17155,7 @@
       <c r="T451" s="3"/>
       <c r="U451" s="5"/>
     </row>
-    <row r="452" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="12">
         <v>450</v>
       </c>
@@ -17181,7 +17189,7 @@
       <c r="T452" s="3"/>
       <c r="U452" s="5"/>
     </row>
-    <row r="453" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="12">
         <v>451</v>
       </c>
@@ -17215,7 +17223,7 @@
       <c r="T453" s="3"/>
       <c r="U453" s="5"/>
     </row>
-    <row r="454" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" s="12">
         <v>452</v>
       </c>
@@ -17251,7 +17259,7 @@
       <c r="T454" s="3"/>
       <c r="U454" s="5"/>
     </row>
-    <row r="455" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="12">
         <v>453</v>
       </c>
@@ -17285,7 +17293,7 @@
       <c r="T455" s="3"/>
       <c r="U455" s="5"/>
     </row>
-    <row r="456" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="12">
         <v>454</v>
       </c>
@@ -17325,7 +17333,7 @@
       <c r="T456" s="3"/>
       <c r="U456" s="5"/>
     </row>
-    <row r="457" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="12">
         <v>455</v>
       </c>
@@ -17406,7 +17414,7 @@
       <c r="T458" s="3"/>
       <c r="U458" s="5"/>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="12">
         <v>457</v>
       </c>
@@ -17442,7 +17450,7 @@
       <c r="T459" s="3"/>
       <c r="U459" s="5"/>
     </row>
-    <row r="460" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="12">
         <v>458</v>
       </c>
@@ -17482,7 +17490,7 @@
       <c r="T460" s="3"/>
       <c r="U460" s="5"/>
     </row>
-    <row r="461" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="12">
         <v>459</v>
       </c>
@@ -17522,7 +17530,7 @@
       <c r="T461" s="3"/>
       <c r="U461" s="5"/>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" s="12">
         <v>460</v>
       </c>
@@ -17558,7 +17566,7 @@
       <c r="T462" s="3"/>
       <c r="U462" s="5"/>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="12">
         <v>461</v>
       </c>
@@ -17594,7 +17602,7 @@
       <c r="T463" s="3"/>
       <c r="U463" s="5"/>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464" s="12">
         <v>462</v>
       </c>
@@ -17630,7 +17638,7 @@
       <c r="T464" s="3"/>
       <c r="U464" s="5"/>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="12">
         <v>463</v>
       </c>
@@ -17666,7 +17674,7 @@
       <c r="T465" s="3"/>
       <c r="U465" s="5"/>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="12">
         <v>464</v>
       </c>
@@ -18665,7 +18673,7 @@
       <c r="T495" s="3"/>
       <c r="U495" s="5"/>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="12">
         <v>494</v>
       </c>
@@ -18699,7 +18707,7 @@
       <c r="T496" s="3"/>
       <c r="U496" s="5"/>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="12">
         <v>495</v>
       </c>
@@ -18733,7 +18741,7 @@
       <c r="T497" s="3"/>
       <c r="U497" s="5"/>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="12">
         <v>496</v>
       </c>
@@ -18769,7 +18777,7 @@
       <c r="T498" s="3"/>
       <c r="U498" s="5"/>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="12">
         <v>497</v>
       </c>
@@ -18805,7 +18813,7 @@
       <c r="T499" s="3"/>
       <c r="U499" s="5"/>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="12">
         <v>498</v>
       </c>
@@ -18839,7 +18847,7 @@
       <c r="T500" s="3"/>
       <c r="U500" s="5"/>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="12">
         <v>499</v>
       </c>
@@ -18871,7 +18879,7 @@
       <c r="T501" s="3"/>
       <c r="U501" s="5"/>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="12">
         <v>500</v>
       </c>
@@ -18903,7 +18911,7 @@
       <c r="T502" s="3"/>
       <c r="U502" s="5"/>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="12">
         <v>501</v>
       </c>
@@ -18935,7 +18943,7 @@
       <c r="T503" s="3"/>
       <c r="U503" s="5"/>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="12">
         <v>502</v>
       </c>
@@ -18967,7 +18975,7 @@
       <c r="T504" s="3"/>
       <c r="U504" s="5"/>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="12">
         <v>503</v>
       </c>
@@ -18999,7 +19007,7 @@
       <c r="T505" s="3"/>
       <c r="U505" s="5"/>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="12">
         <v>504</v>
       </c>
@@ -19031,7 +19039,7 @@
       <c r="T506" s="3"/>
       <c r="U506" s="5"/>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="12">
         <v>505</v>
       </c>
@@ -19063,7 +19071,7 @@
       <c r="T507" s="3"/>
       <c r="U507" s="5"/>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="12">
         <v>506</v>
       </c>
@@ -19095,7 +19103,7 @@
       <c r="T508" s="3"/>
       <c r="U508" s="5"/>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="12">
         <v>507</v>
       </c>
@@ -19127,7 +19135,7 @@
       <c r="T509" s="3"/>
       <c r="U509" s="5"/>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="12">
         <v>508</v>
       </c>
@@ -19159,7 +19167,7 @@
       <c r="T510" s="3"/>
       <c r="U510" s="5"/>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="12">
         <v>509</v>
       </c>
@@ -19191,7 +19199,7 @@
       <c r="T511" s="3"/>
       <c r="U511" s="5"/>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="12">
         <v>510</v>
       </c>
@@ -19223,7 +19231,7 @@
       <c r="T512" s="3"/>
       <c r="U512" s="5"/>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="12">
         <v>511</v>
       </c>
@@ -19255,7 +19263,7 @@
       <c r="T513" s="3"/>
       <c r="U513" s="5"/>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="12">
         <v>512</v>
       </c>
@@ -19287,7 +19295,7 @@
       <c r="T514" s="3"/>
       <c r="U514" s="5"/>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="12">
         <v>513</v>
       </c>
@@ -19319,7 +19327,7 @@
       <c r="T515" s="3"/>
       <c r="U515" s="5"/>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="12">
         <v>514</v>
       </c>
@@ -19351,7 +19359,7 @@
       <c r="T516" s="3"/>
       <c r="U516" s="5"/>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="12">
         <v>515</v>
       </c>
@@ -19383,7 +19391,7 @@
       <c r="T517" s="3"/>
       <c r="U517" s="5"/>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="12">
         <v>516</v>
       </c>
@@ -19415,7 +19423,7 @@
       <c r="T518" s="3"/>
       <c r="U518" s="5"/>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="12">
         <v>517</v>
       </c>
@@ -19447,7 +19455,7 @@
       <c r="T519" s="3"/>
       <c r="U519" s="5"/>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="12">
         <v>518</v>
       </c>
@@ -19479,7 +19487,7 @@
       <c r="T520" s="3"/>
       <c r="U520" s="5"/>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="12">
         <v>519</v>
       </c>
@@ -19511,7 +19519,7 @@
       <c r="T521" s="3"/>
       <c r="U521" s="5"/>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="12">
         <v>520</v>
       </c>
@@ -19543,7 +19551,7 @@
       <c r="T522" s="3"/>
       <c r="U522" s="5"/>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="12">
         <v>521</v>
       </c>
@@ -19575,7 +19583,7 @@
       <c r="T523" s="3"/>
       <c r="U523" s="5"/>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="12">
         <v>522</v>
       </c>
@@ -19607,7 +19615,7 @@
       <c r="T524" s="3"/>
       <c r="U524" s="5"/>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="12">
         <v>523</v>
       </c>
@@ -19639,7 +19647,7 @@
       <c r="T525" s="3"/>
       <c r="U525" s="5"/>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="12">
         <v>524</v>
       </c>
@@ -19671,7 +19679,7 @@
       <c r="T526" s="3"/>
       <c r="U526" s="5"/>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" s="12">
         <v>525</v>
       </c>
@@ -19703,7 +19711,7 @@
       <c r="T527" s="3"/>
       <c r="U527" s="5"/>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" s="12">
         <v>526</v>
       </c>
@@ -19735,7 +19743,7 @@
       <c r="T528" s="3"/>
       <c r="U528" s="5"/>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="12">
         <v>527</v>
       </c>
@@ -19767,7 +19775,7 @@
       <c r="T529" s="3"/>
       <c r="U529" s="5"/>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="12">
         <v>528</v>
       </c>
@@ -19799,7 +19807,7 @@
       <c r="T530" s="3"/>
       <c r="U530" s="5"/>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="12">
         <v>529</v>
       </c>
@@ -19831,7 +19839,7 @@
       <c r="T531" s="3"/>
       <c r="U531" s="5"/>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="12">
         <v>530</v>
       </c>
@@ -19863,7 +19871,7 @@
       <c r="T532" s="3"/>
       <c r="U532" s="5"/>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" s="12">
         <v>531</v>
       </c>
@@ -19895,7 +19903,7 @@
       <c r="T533" s="3"/>
       <c r="U533" s="5"/>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" s="12">
         <v>532</v>
       </c>
@@ -19927,7 +19935,7 @@
       <c r="T534" s="3"/>
       <c r="U534" s="5"/>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" s="12">
         <v>533</v>
       </c>
@@ -19959,7 +19967,7 @@
       <c r="T535" s="3"/>
       <c r="U535" s="5"/>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" s="12">
         <v>534</v>
       </c>
@@ -19991,7 +19999,7 @@
       <c r="T536" s="3"/>
       <c r="U536" s="5"/>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" s="12">
         <v>535</v>
       </c>
@@ -20023,7 +20031,7 @@
       <c r="T537" s="3"/>
       <c r="U537" s="5"/>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" s="12">
         <v>536</v>
       </c>
@@ -20055,7 +20063,7 @@
       <c r="T538" s="3"/>
       <c r="U538" s="5"/>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" s="12">
         <v>537</v>
       </c>
@@ -20087,7 +20095,7 @@
       <c r="T539" s="3"/>
       <c r="U539" s="5"/>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="12">
         <v>538</v>
       </c>
@@ -20119,7 +20127,7 @@
       <c r="T540" s="3"/>
       <c r="U540" s="5"/>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541" s="12">
         <v>539</v>
       </c>
@@ -20151,7 +20159,7 @@
       <c r="T541" s="3"/>
       <c r="U541" s="5"/>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542" s="12">
         <v>540</v>
       </c>
@@ -20183,7 +20191,7 @@
       <c r="T542" s="3"/>
       <c r="U542" s="5"/>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543" s="12">
         <v>541</v>
       </c>
@@ -20215,7 +20223,7 @@
       <c r="T543" s="3"/>
       <c r="U543" s="5"/>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544" s="12">
         <v>542</v>
       </c>
@@ -20247,7 +20255,7 @@
       <c r="T544" s="3"/>
       <c r="U544" s="5"/>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="12">
         <v>543</v>
       </c>
@@ -20279,7 +20287,7 @@
       <c r="T545" s="3"/>
       <c r="U545" s="5"/>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546" s="12">
         <v>544</v>
       </c>
@@ -20311,7 +20319,7 @@
       <c r="T546" s="3"/>
       <c r="U546" s="5"/>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="12">
         <v>545</v>
       </c>
@@ -20343,7 +20351,7 @@
       <c r="T547" s="3"/>
       <c r="U547" s="5"/>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A548" s="12">
         <v>546</v>
       </c>
@@ -20375,7 +20383,7 @@
       <c r="T548" s="3"/>
       <c r="U548" s="5"/>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549" s="12">
         <v>547</v>
       </c>
@@ -20407,7 +20415,7 @@
       <c r="T549" s="3"/>
       <c r="U549" s="5"/>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550" s="12">
         <v>548</v>
       </c>
@@ -20439,7 +20447,7 @@
       <c r="T550" s="3"/>
       <c r="U550" s="5"/>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551" s="12">
         <v>549</v>
       </c>
@@ -20471,7 +20479,7 @@
       <c r="T551" s="3"/>
       <c r="U551" s="5"/>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="12">
         <v>550</v>
       </c>
@@ -20503,7 +20511,7 @@
       <c r="T552" s="3"/>
       <c r="U552" s="5"/>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553" s="12">
         <v>551</v>
       </c>
@@ -20535,7 +20543,7 @@
       <c r="T553" s="3"/>
       <c r="U553" s="5"/>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="12">
         <v>552</v>
       </c>
@@ -20567,7 +20575,7 @@
       <c r="T554" s="3"/>
       <c r="U554" s="5"/>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555" s="12">
         <v>553</v>
       </c>
@@ -20599,7 +20607,7 @@
       <c r="T555" s="3"/>
       <c r="U555" s="5"/>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A556" s="12">
         <v>554</v>
       </c>
@@ -20631,7 +20639,7 @@
       <c r="T556" s="3"/>
       <c r="U556" s="5"/>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557" s="12">
         <v>555</v>
       </c>
@@ -20663,7 +20671,7 @@
       <c r="T557" s="3"/>
       <c r="U557" s="5"/>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558" s="12">
         <v>556</v>
       </c>
@@ -20695,7 +20703,7 @@
       <c r="T558" s="3"/>
       <c r="U558" s="5"/>
     </row>
-    <row r="559" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A559" s="12">
         <v>557</v>
       </c>
@@ -20727,7 +20735,7 @@
       <c r="T559" s="3"/>
       <c r="U559" s="5"/>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A560" s="12">
         <v>558</v>
       </c>
@@ -20759,7 +20767,7 @@
       <c r="T560" s="3"/>
       <c r="U560" s="5"/>
     </row>
-    <row r="561" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="13">
         <v>559</v>
       </c>
@@ -20791,7 +20799,7 @@
       <c r="T561" s="7"/>
       <c r="U561" s="8"/>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A562" s="12">
         <v>560</v>
       </c>
@@ -20812,7 +20820,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="563" spans="1:21" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="13">
         <v>561</v>
       </c>
@@ -20837,7 +20845,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="564" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A564" s="12">
         <v>562</v>
       </c>
@@ -20862,7 +20870,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="565" spans="1:21" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="13">
         <v>563</v>
       </c>
@@ -20887,7 +20895,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="566" spans="1:21" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="12">
         <v>564</v>
       </c>
@@ -20915,7 +20923,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="567" spans="1:21" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="13">
         <v>565</v>
       </c>
@@ -20940,7 +20948,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="12">
         <v>566</v>
       </c>
@@ -20964,7 +20972,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="569" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="13">
         <v>567</v>
       </c>
@@ -20994,7 +21002,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A570" s="12">
         <v>568</v>
       </c>
@@ -21018,50 +21026,44 @@
         <v>539</v>
       </c>
     </row>
-    <row r="571" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>569</v>
       </c>
       <c r="C571" s="3"/>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>570</v>
       </c>
       <c r="C572" s="3"/>
     </row>
-    <row r="573" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>571</v>
       </c>
       <c r="C573" s="3"/>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>572</v>
       </c>
       <c r="C574" s="3"/>
     </row>
-    <row r="575" spans="1:21" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>573</v>
       </c>
       <c r="C575" s="3"/>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>574</v>
       </c>
       <c r="C576" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U576" xr:uid="{976D048D-26A2-4D77-A964-2445B5CE5606}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U576" xr:uid="{976D048D-26A2-4D77-A964-2445B5CE5606}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E966C9AB-6EB6-4640-999C-22A2A9A1A50C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EAD8A-771F-4D5B-ADD9-EC79792B108B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="551">
   <si>
     <t>S.No.</t>
   </si>
@@ -1707,6 +1707,12 @@
   </si>
   <si>
     <t>updated Min/Multiple qty for item=5001</t>
+  </si>
+  <si>
+    <t>10-Nov[2]</t>
+  </si>
+  <si>
+    <t>Change in exception table; results are good.</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1955,15 +1961,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1983,6 +1980,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,6 +1993,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2483,10 +2492,10 @@
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C384" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C538" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F391" sqref="F391"/>
+      <selection pane="bottomRight" activeCell="Q570" sqref="Q570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,62 +2507,68 @@
     <col min="5" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28">
         <v>44426</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="28">
         <v>44440</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="28">
         <v>44452</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="28">
         <v>44453</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="28">
         <v>44456</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="28">
         <v>44467</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="28">
         <v>44468</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="28">
         <v>44469</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="28">
         <v>44479</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="28">
         <v>44508</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="28">
         <v>44510</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="15"/>
+      <c r="P1" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q1" s="28">
+        <v>44511</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="29"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -5442,7 +5457,7 @@
         <v>539</v>
       </c>
       <c r="K92" s="3"/>
-      <c r="L92" s="24" t="s">
+      <c r="L92" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M92" s="3"/>
@@ -5476,7 +5491,7 @@
         <v>539</v>
       </c>
       <c r="K93" s="3"/>
-      <c r="L93" s="24" t="s">
+      <c r="L93" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M93" s="3"/>
@@ -5542,7 +5557,7 @@
         <v>539</v>
       </c>
       <c r="K95" s="3"/>
-      <c r="L95" s="24" t="s">
+      <c r="L95" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M95" s="3"/>
@@ -5576,7 +5591,7 @@
         <v>539</v>
       </c>
       <c r="K96" s="3"/>
-      <c r="L96" s="24" t="s">
+      <c r="L96" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M96" s="3"/>
@@ -6474,7 +6489,7 @@
         <v>493</v>
       </c>
       <c r="K124" s="3"/>
-      <c r="L124" s="24" t="s">
+      <c r="L124" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M124" s="3"/>
@@ -14700,7 +14715,7 @@
         <v>539</v>
       </c>
       <c r="K381" s="3"/>
-      <c r="L381" s="24" t="s">
+      <c r="L381" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M381" s="3"/>
@@ -14830,7 +14845,7 @@
         <v>539</v>
       </c>
       <c r="K385" s="3"/>
-      <c r="L385" s="24" t="s">
+      <c r="L385" s="21" t="s">
         <v>544</v>
       </c>
       <c r="M385" s="3"/>
@@ -14928,7 +14943,7 @@
         <v>539</v>
       </c>
       <c r="K388" s="3"/>
-      <c r="L388" s="24" t="s">
+      <c r="L388" s="21" t="s">
         <v>469</v>
       </c>
       <c r="M388" s="3"/>
@@ -15218,7 +15233,7 @@
         <v>539</v>
       </c>
       <c r="K397" s="3"/>
-      <c r="L397" s="24" t="s">
+      <c r="L397" s="21" t="s">
         <v>469</v>
       </c>
       <c r="M397" s="3"/>
@@ -15704,7 +15719,7 @@
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
-      <c r="F412" s="19" t="s">
+      <c r="F412" s="16" t="s">
         <v>497</v>
       </c>
       <c r="G412" s="3"/>
@@ -15897,7 +15912,7 @@
       <c r="A418" s="12">
         <v>416</v>
       </c>
-      <c r="B418" s="21">
+      <c r="B418" s="18">
         <v>50119</v>
       </c>
       <c r="C418" s="3" t="str">
@@ -15906,7 +15921,7 @@
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
-      <c r="F418" s="19" t="s">
+      <c r="F418" s="16" t="s">
         <v>501</v>
       </c>
       <c r="G418" s="3" t="s">
@@ -15951,7 +15966,7 @@
         <v>526</v>
       </c>
       <c r="H419" s="3"/>
-      <c r="I419" s="24" t="s">
+      <c r="I419" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J419" s="3" t="s">
@@ -15989,7 +16004,7 @@
         <v>526</v>
       </c>
       <c r="H420" s="3"/>
-      <c r="I420" s="24" t="s">
+      <c r="I420" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J420" s="3" t="s">
@@ -16027,7 +16042,7 @@
         <v>526</v>
       </c>
       <c r="H421" s="3"/>
-      <c r="I421" s="24" t="s">
+      <c r="I421" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J421" s="3" t="s">
@@ -16065,7 +16080,7 @@
         <v>526</v>
       </c>
       <c r="H422" s="3"/>
-      <c r="I422" s="24" t="s">
+      <c r="I422" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J422" s="3" t="s">
@@ -16096,14 +16111,14 @@
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
-      <c r="F423" s="22" t="s">
+      <c r="F423" s="19" t="s">
         <v>503</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>527</v>
       </c>
       <c r="H423" s="3"/>
-      <c r="I423" s="24" t="s">
+      <c r="I423" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J423" s="3" t="s">
@@ -16141,7 +16156,7 @@
         <v>515</v>
       </c>
       <c r="H424" s="3"/>
-      <c r="I424" s="24" t="s">
+      <c r="I424" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J424" s="3" t="s">
@@ -16174,14 +16189,14 @@
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
-      <c r="F425" s="22" t="s">
+      <c r="F425" s="19" t="s">
         <v>504</v>
       </c>
       <c r="G425" s="3" t="s">
         <v>528</v>
       </c>
       <c r="H425" s="3"/>
-      <c r="I425" s="24" t="s">
+      <c r="I425" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J425" s="3" t="s">
@@ -16212,20 +16227,20 @@
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
-      <c r="F426" s="22" t="s">
+      <c r="F426" s="19" t="s">
         <v>505</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>529</v>
       </c>
       <c r="H426" s="3"/>
-      <c r="I426" s="24" t="s">
+      <c r="I426" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J426" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K426" s="25" t="s">
+      <c r="K426" s="22" t="s">
         <v>541</v>
       </c>
       <c r="L426" s="3"/>
@@ -16259,7 +16274,7 @@
       </c>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="24" t="s">
+      <c r="I427" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J427" s="3" t="s">
@@ -16297,7 +16312,7 @@
         <v>515</v>
       </c>
       <c r="H428" s="3"/>
-      <c r="I428" s="24" t="s">
+      <c r="I428" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J428" s="3" t="s">
@@ -16330,14 +16345,14 @@
         <v>460</v>
       </c>
       <c r="E429" s="3"/>
-      <c r="F429" s="19" t="s">
+      <c r="F429" s="16" t="s">
         <v>508</v>
       </c>
       <c r="G429" s="3" t="s">
         <v>519</v>
       </c>
       <c r="H429" s="3"/>
-      <c r="I429" s="24" t="s">
+      <c r="I429" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J429" s="3" t="s">
@@ -16370,14 +16385,14 @@
         <v>461</v>
       </c>
       <c r="E430" s="3"/>
-      <c r="F430" s="19" t="s">
+      <c r="F430" s="16" t="s">
         <v>509</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>519</v>
       </c>
       <c r="H430" s="3"/>
-      <c r="I430" s="24" t="s">
+      <c r="I430" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J430" s="3" t="s">
@@ -16415,7 +16430,7 @@
         <v>530</v>
       </c>
       <c r="H431" s="3"/>
-      <c r="I431" s="24" t="s">
+      <c r="I431" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J431" s="3" t="s">
@@ -16448,14 +16463,14 @@
         <v>462</v>
       </c>
       <c r="E432" s="3"/>
-      <c r="F432" s="19" t="s">
+      <c r="F432" s="16" t="s">
         <v>511</v>
       </c>
       <c r="G432" s="3" t="s">
         <v>519</v>
       </c>
       <c r="H432" s="3"/>
-      <c r="I432" s="24" t="s">
+      <c r="I432" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J432" s="3" t="s">
@@ -16493,7 +16508,7 @@
         <v>530</v>
       </c>
       <c r="H433" s="3"/>
-      <c r="I433" s="24" t="s">
+      <c r="I433" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J433" s="3" t="s">
@@ -16526,14 +16541,14 @@
         <v>461</v>
       </c>
       <c r="E434" s="3"/>
-      <c r="F434" s="19" t="s">
+      <c r="F434" s="16" t="s">
         <v>512</v>
       </c>
       <c r="G434" s="3" t="s">
         <v>519</v>
       </c>
       <c r="H434" s="3"/>
-      <c r="I434" s="24" t="s">
+      <c r="I434" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J434" s="3" t="s">
@@ -16573,7 +16588,7 @@
         <v>531</v>
       </c>
       <c r="H435" s="3"/>
-      <c r="I435" s="24" t="s">
+      <c r="I435" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J435" s="3" t="s">
@@ -16886,7 +16901,7 @@
         <f>_xlfn.XLOOKUP(B444,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D444" s="20" t="s">
+      <c r="D444" s="17" t="s">
         <v>468</v>
       </c>
       <c r="E444" s="3"/>
@@ -17313,7 +17328,7 @@
         <v>530</v>
       </c>
       <c r="H456" s="3"/>
-      <c r="I456" s="24" t="s">
+      <c r="I456" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J456" s="3" t="s">
@@ -17355,13 +17370,13 @@
         <v>519</v>
       </c>
       <c r="H457" s="3"/>
-      <c r="I457" s="24" t="s">
+      <c r="I457" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J457" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="K457" s="25" t="s">
+      <c r="K457" s="22" t="s">
         <v>542</v>
       </c>
       <c r="L457" s="3"/>
@@ -17390,11 +17405,11 @@
       <c r="F458" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G458" s="19" t="s">
+      <c r="G458" s="16" t="s">
         <v>532</v>
       </c>
       <c r="H458" s="3"/>
-      <c r="I458" s="24" t="s">
+      <c r="I458" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J458" s="3" t="s">
@@ -17429,7 +17444,7 @@
         <v>478</v>
       </c>
       <c r="E459" s="3"/>
-      <c r="F459" s="19" t="s">
+      <c r="F459" s="16" t="s">
         <v>520</v>
       </c>
       <c r="G459" s="3"/>
@@ -17470,7 +17485,7 @@
         <v>530</v>
       </c>
       <c r="H460" s="3"/>
-      <c r="I460" s="24" t="s">
+      <c r="I460" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J460" s="3" t="s">
@@ -17510,7 +17525,7 @@
         <v>530</v>
       </c>
       <c r="H461" s="3"/>
-      <c r="I461" s="24" t="s">
+      <c r="I461" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J461" s="3" t="s">
@@ -18558,7 +18573,7 @@
       <c r="J492" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K492" s="24" t="s">
+      <c r="K492" s="21" t="s">
         <v>543</v>
       </c>
       <c r="L492" s="3"/>
@@ -18593,7 +18608,7 @@
       <c r="J493" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="K493" s="24" t="s">
+      <c r="K493" s="21" t="s">
         <v>543</v>
       </c>
       <c r="L493" s="3"/>
@@ -20831,14 +20846,14 @@
         <f>_xlfn.XLOOKUP(B563,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D563" s="17"/>
+      <c r="D563" s="14"/>
       <c r="E563" t="s">
         <v>488</v>
       </c>
       <c r="F563" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G563" s="23" t="s">
+      <c r="G563" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J563" s="3" t="s">
@@ -20856,14 +20871,14 @@
         <f>_xlfn.XLOOKUP(B564,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D564" s="17"/>
+      <c r="D564" s="14"/>
       <c r="E564" t="s">
         <v>488</v>
       </c>
       <c r="F564" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G564" s="23" t="s">
+      <c r="G564" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J564" s="3" t="s">
@@ -20874,21 +20889,21 @@
       <c r="A565" s="13">
         <v>563</v>
       </c>
-      <c r="B565" s="18" t="s">
+      <c r="B565" s="15" t="s">
         <v>482</v>
       </c>
       <c r="C565" s="3" t="str">
         <f>_xlfn.XLOOKUP(B565,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D565" s="17"/>
+      <c r="D565" s="14"/>
       <c r="E565" t="s">
         <v>489</v>
       </c>
       <c r="F565" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G565" s="23" t="s">
+      <c r="G565" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J565" s="3" t="s">
@@ -20899,24 +20914,24 @@
       <c r="A566" s="12">
         <v>564</v>
       </c>
-      <c r="B566" s="18" t="s">
+      <c r="B566" s="15" t="s">
         <v>483</v>
       </c>
       <c r="C566" s="3" t="str">
         <f>_xlfn.XLOOKUP(B566,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D566" s="17"/>
+      <c r="D566" s="14"/>
       <c r="E566" t="s">
         <v>490</v>
       </c>
       <c r="F566" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="G566" s="23" t="s">
+      <c r="G566" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="I566" s="24" t="s">
+      <c r="I566" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J566" s="3" t="s">
@@ -20927,21 +20942,21 @@
       <c r="A567" s="13">
         <v>565</v>
       </c>
-      <c r="B567" s="18" t="s">
+      <c r="B567" s="15" t="s">
         <v>484</v>
       </c>
       <c r="C567" s="3" t="str">
         <f>_xlfn.XLOOKUP(B567,[1]Sheet2!$A$2:$A$32,[1]Sheet2!$A$2:$A$32, "")</f>
         <v/>
       </c>
-      <c r="D567" s="17"/>
+      <c r="D567" s="14"/>
       <c r="E567" t="s">
         <v>491</v>
       </c>
       <c r="F567" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G567" s="23" t="s">
+      <c r="G567" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J567" s="3" t="s">
@@ -20965,7 +20980,7 @@
       <c r="F568" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G568" s="23" t="s">
+      <c r="G568" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J568" s="3" t="s">
@@ -20976,7 +20991,7 @@
       <c r="A569" s="13">
         <v>567</v>
       </c>
-      <c r="B569" s="18" t="s">
+      <c r="B569" s="15" t="s">
         <v>486</v>
       </c>
       <c r="C569" s="3" t="str">
@@ -20989,10 +21004,10 @@
       <c r="F569" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G569" s="23" t="s">
+      <c r="G569" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="I569" s="24" t="s">
+      <c r="I569" s="21" t="s">
         <v>537</v>
       </c>
       <c r="J569" s="3" t="s">
@@ -21000,6 +21015,9 @@
       </c>
       <c r="L569" t="s">
         <v>546</v>
+      </c>
+      <c r="Q569" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="570" spans="1:21" x14ac:dyDescent="0.25">
@@ -21019,7 +21037,7 @@
       <c r="F570" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="G570" s="23" t="s">
+      <c r="G570" s="20" t="s">
         <v>533</v>
       </c>
       <c r="J570" s="3" t="s">

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252EAD8A-771F-4D5B-ADD9-EC79792B108B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB74BC-CDF6-4E2D-957A-E7533EE3836E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="552">
   <si>
     <t>S.No.</t>
   </si>
@@ -1713,6 +1713,9 @@
   </si>
   <si>
     <t>Change in exception table; results are good.</t>
+  </si>
+  <si>
+    <t>Changes due to shiproundingrules change for single source</t>
   </si>
 </sst>
 </file>
@@ -1983,6 +1986,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,15 +2005,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2492,10 +2495,10 @@
   <dimension ref="A1:U576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C538" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C440" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q570" sqref="Q570"/>
+      <selection pane="bottomRight" activeCell="A459" sqref="A459:XFD459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,66 +2512,69 @@
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24">
         <v>44426</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="24">
         <v>44440</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="24">
         <v>44452</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="24">
         <v>44453</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="24">
         <v>44456</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="24">
         <v>44467</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="28">
+      <c r="K1" s="24">
         <v>44468</v>
       </c>
-      <c r="L1" s="28">
+      <c r="L1" s="24">
         <v>44469</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="24">
         <v>44479</v>
       </c>
-      <c r="N1" s="28">
+      <c r="N1" s="24">
         <v>44508</v>
       </c>
-      <c r="O1" s="28">
+      <c r="O1" s="24">
         <v>44510</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="Q1" s="28">
+      <c r="Q1" s="24">
         <v>44511</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="24">
+        <v>44533</v>
+      </c>
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
-      <c r="U1" s="29"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="2" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -2680,7 +2686,9 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="5"/>
@@ -16365,7 +16373,9 @@
       <c r="O429" s="3"/>
       <c r="P429" s="3"/>
       <c r="Q429" s="3"/>
-      <c r="R429" s="3"/>
+      <c r="R429" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S429" s="3"/>
       <c r="T429" s="3"/>
       <c r="U429" s="5"/>
@@ -16601,7 +16611,9 @@
       <c r="O435" s="3"/>
       <c r="P435" s="3"/>
       <c r="Q435" s="3"/>
-      <c r="R435" s="3"/>
+      <c r="R435" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S435" s="3"/>
       <c r="T435" s="3"/>
       <c r="U435" s="5"/>
@@ -17385,7 +17397,9 @@
       <c r="O457" s="3"/>
       <c r="P457" s="3"/>
       <c r="Q457" s="3"/>
-      <c r="R457" s="3"/>
+      <c r="R457" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S457" s="3"/>
       <c r="T457" s="3"/>
       <c r="U457" s="5"/>
@@ -17424,7 +17438,9 @@
       <c r="O458" s="3"/>
       <c r="P458" s="3"/>
       <c r="Q458" s="3"/>
-      <c r="R458" s="3"/>
+      <c r="R458" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S458" s="3"/>
       <c r="T458" s="3"/>
       <c r="U458" s="5"/>
@@ -17460,7 +17476,9 @@
       <c r="O459" s="3"/>
       <c r="P459" s="3"/>
       <c r="Q459" s="3"/>
-      <c r="R459" s="3"/>
+      <c r="R459" s="3" t="s">
+        <v>551</v>
+      </c>
       <c r="S459" s="3"/>
       <c r="T459" s="3"/>
       <c r="U459" s="5"/>

--- a/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
+++ b/outputbaselines/1.TestCaseUpdate/All_BaselineUpdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stash\baseline\outputbaselines\1.TestCaseUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB74BC-CDF6-4E2D-957A-E7533EE3836E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B22161-A138-4F50-8393-9160977E9DE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{572F3A34-0A95-47C2-BCC7-F20876BFB9A5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="565">
   <si>
     <t>S.No.</t>
   </si>
@@ -1716,6 +1716,45 @@
   </si>
   <si>
     <t>Changes due to shiproundingrules change for single source</t>
+  </si>
+  <si>
+    <t>MLR-50521</t>
+  </si>
+  <si>
+    <t>MLR-50522</t>
+  </si>
+  <si>
+    <t>MLR-50523</t>
+  </si>
+  <si>
+    <t>MLR-50524</t>
+  </si>
+  <si>
+    <t>MLR-50525</t>
+  </si>
+  <si>
+    <t>MLR-50526</t>
+  </si>
+  <si>
+    <t>MLR-50527</t>
+  </si>
+  <si>
+    <t>MLR-50528</t>
+  </si>
+  <si>
+    <t>MLR-50529</t>
+  </si>
+  <si>
+    <t>MLR-50530</t>
+  </si>
+  <si>
+    <t>MLR-50531</t>
+  </si>
+  <si>
+    <t>MLR-50532</t>
+  </si>
+  <si>
+    <t>new case for Multi-layer rounding</t>
   </si>
 </sst>
 </file>
@@ -2492,13 +2531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5B6F5-D95C-4060-89B9-FDDC3DEF8E41}">
-  <dimension ref="A1:U576"/>
+  <dimension ref="A1:U590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C440" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C558" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A459" sqref="A459:XFD459"/>
+      <selection pane="bottomRight" activeCell="G579" sqref="G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,6 +2552,7 @@
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2568,7 +2608,9 @@
       <c r="R1" s="24">
         <v>44533</v>
       </c>
-      <c r="S1" s="23"/>
+      <c r="S1" s="24">
+        <v>44543</v>
+      </c>
       <c r="T1" s="23"/>
       <c r="U1" s="25"/>
     </row>
@@ -21061,42 +21103,187 @@
       <c r="J570" s="3" t="s">
         <v>539</v>
       </c>
+      <c r="S570" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="571" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="13">
         <v>569</v>
       </c>
+      <c r="B571" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="C571" s="3"/>
+      <c r="S571" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="572" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A572" s="12">
         <v>570</v>
       </c>
+      <c r="B572" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C572" s="3"/>
+      <c r="S572" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="573" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="13">
         <v>571</v>
       </c>
+      <c r="B573" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C573" s="3"/>
+      <c r="S573" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="574" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A574" s="12">
         <v>572</v>
       </c>
+      <c r="B574" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="C574" s="3"/>
+      <c r="S574" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="575" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="13">
         <v>573</v>
       </c>
+      <c r="B575" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="C575" s="3"/>
+      <c r="S575" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="576" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A576" s="12">
         <v>574</v>
       </c>
+      <c r="B576" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="C576" s="3"/>
+      <c r="S576" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="577" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="13">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="S577" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="578" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A578" s="12">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="S578" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="579" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="13">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="S579" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="580" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A580" s="12">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="S580" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="581" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="13">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="S581" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="582" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A582" s="12">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="S582" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="583" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="13">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="584" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A584" s="12">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A585" s="13">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="586" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A586" s="12">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="587" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="588" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A588" s="12">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="589" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="13">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="590" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A590" s="12">
+        <v>588</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:U576" xr:uid="{976D048D-26A2-4D77-A964-2445B5CE5606}"/>
